--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61883BA6-5645-494A-AB78-93635DDB6850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DF3F84-F582-4AE4-B46F-3D75A182EF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="1250" windowWidth="16200" windowHeight="9970" tabRatio="650" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
     <sheet name="menu" sheetId="1" r:id="rId2"/>
     <sheet name="role" sheetId="3" r:id="rId3"/>
-    <sheet name="config" sheetId="4" r:id="rId4"/>
-    <sheet name="post" sheetId="5" r:id="rId5"/>
+    <sheet name="role_menu" sheetId="7" r:id="rId4"/>
+    <sheet name="config" sheetId="4" r:id="rId5"/>
     <sheet name="user_role" sheetId="6" r:id="rId6"/>
-    <sheet name="role_menu" sheetId="7" r:id="rId7"/>
-    <sheet name="task" sheetId="8" r:id="rId8"/>
+    <sheet name="task" sheetId="8" r:id="rId7"/>
+    <sheet name="post" sheetId="5" r:id="rId8"/>
     <sheet name="dict_type" sheetId="9" r:id="rId9"/>
     <sheet name="dict_data" sheetId="10" r:id="rId10"/>
     <sheet name="dept" sheetId="11" r:id="rId11"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="561">
   <si>
     <t>系统管理</t>
   </si>
@@ -1825,74 +1825,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1912,7 +1844,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2204,15 +2136,15 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -2253,7 +2185,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2282,7 +2214,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2326,13 +2258,13 @@
       <selection activeCell="G31" sqref="G31:G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>530</v>
       </c>
@@ -2364,7 +2296,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2390,7 +2322,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2416,7 +2348,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2442,7 +2374,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2471,7 +2403,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2500,7 +2432,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2529,7 +2461,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2558,7 +2490,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2587,7 +2519,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2616,7 +2548,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2642,7 +2574,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2668,7 +2600,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2697,7 +2629,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2726,7 +2658,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2755,7 +2687,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2784,7 +2716,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2813,7 +2745,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2842,7 +2774,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2871,7 +2803,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2900,7 +2832,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2929,7 +2861,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2958,7 +2890,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2987,7 +2919,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3016,7 +2948,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3045,7 +2977,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3074,7 +3006,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3103,7 +3035,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3132,7 +3064,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3161,7 +3093,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3190,7 +3122,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3213,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3236,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3259,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3282,7 +3214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3316,12 +3248,12 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>541</v>
       </c>
@@ -3344,9 +3276,9 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3364,12 +3296,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>537</v>
@@ -3384,12 +3316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>102</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>538</v>
@@ -3404,12 +3336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>539</v>
@@ -3424,12 +3356,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>540</v>
@@ -3459,12 +3391,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -3475,7 +3407,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3486,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3497,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3508,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3519,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3530,7 +3462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3541,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3552,7 +3484,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3575,22 +3507,22 @@
   <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="10.58203125" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3637,7 +3569,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3675,7 +3607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3713,7 +3645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3751,7 +3683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3789,7 +3721,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3830,7 +3762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -3874,7 +3806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>101</v>
       </c>
@@ -3918,7 +3850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>102</v>
       </c>
@@ -3962,7 +3894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>103</v>
       </c>
@@ -4006,7 +3938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>104</v>
       </c>
@@ -4050,7 +3982,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>105</v>
       </c>
@@ -4094,7 +4026,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>106</v>
       </c>
@@ -4135,7 +4067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>107</v>
       </c>
@@ -4179,7 +4111,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>108</v>
       </c>
@@ -4217,7 +4149,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>109</v>
       </c>
@@ -4261,7 +4193,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>110</v>
       </c>
@@ -4302,7 +4234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>111</v>
       </c>
@@ -4343,7 +4275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>112</v>
       </c>
@@ -4387,7 +4319,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>113</v>
       </c>
@@ -4431,7 +4363,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>114</v>
       </c>
@@ -4475,7 +4407,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>115</v>
       </c>
@@ -4519,7 +4451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>116</v>
       </c>
@@ -4563,7 +4495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>117</v>
       </c>
@@ -4607,7 +4539,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>118</v>
       </c>
@@ -4645,7 +4577,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>119</v>
       </c>
@@ -4689,7 +4621,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>500</v>
       </c>
@@ -4733,7 +4665,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>501</v>
       </c>
@@ -4777,7 +4709,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1001</v>
       </c>
@@ -4809,7 +4741,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1002</v>
       </c>
@@ -4841,7 +4773,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1003</v>
       </c>
@@ -4873,7 +4805,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1004</v>
       </c>
@@ -4905,7 +4837,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1005</v>
       </c>
@@ -4940,7 +4872,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1006</v>
       </c>
@@ -4975,7 +4907,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1007</v>
       </c>
@@ -5010,7 +4942,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1008</v>
       </c>
@@ -5045,7 +4977,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1009</v>
       </c>
@@ -5080,7 +5012,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1010</v>
       </c>
@@ -5115,7 +5047,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1011</v>
       </c>
@@ -5150,7 +5082,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1012</v>
       </c>
@@ -5185,7 +5117,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1013</v>
       </c>
@@ -5220,7 +5152,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1014</v>
       </c>
@@ -5255,7 +5187,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1015</v>
       </c>
@@ -5290,7 +5222,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1016</v>
       </c>
@@ -5325,7 +5257,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1017</v>
       </c>
@@ -5357,7 +5289,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1018</v>
       </c>
@@ -5389,7 +5321,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1019</v>
       </c>
@@ -5421,7 +5353,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1020</v>
       </c>
@@ -5453,7 +5385,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1021</v>
       </c>
@@ -5485,7 +5417,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1022</v>
       </c>
@@ -5517,7 +5449,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1023</v>
       </c>
@@ -5549,7 +5481,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1024</v>
       </c>
@@ -5581,7 +5513,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1025</v>
       </c>
@@ -5613,7 +5545,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1026</v>
       </c>
@@ -5645,7 +5577,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1027</v>
       </c>
@@ -5677,7 +5609,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1028</v>
       </c>
@@ -5709,7 +5641,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1029</v>
       </c>
@@ -5741,7 +5673,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1030</v>
       </c>
@@ -5773,7 +5705,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1031</v>
       </c>
@@ -5805,7 +5737,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1032</v>
       </c>
@@ -5843,7 +5775,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1033</v>
       </c>
@@ -5878,7 +5810,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1034</v>
       </c>
@@ -5913,7 +5845,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1035</v>
       </c>
@@ -5948,7 +5880,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1036</v>
       </c>
@@ -5983,7 +5915,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1037</v>
       </c>
@@ -6018,7 +5950,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1038</v>
       </c>
@@ -6053,7 +5985,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1039</v>
       </c>
@@ -6094,7 +6026,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1040</v>
       </c>
@@ -6129,7 +6061,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1041</v>
       </c>
@@ -6164,7 +6096,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1042</v>
       </c>
@@ -6199,7 +6131,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1043</v>
       </c>
@@ -6234,7 +6166,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1044</v>
       </c>
@@ -6269,7 +6201,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1045</v>
       </c>
@@ -6304,7 +6236,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1046</v>
       </c>
@@ -6339,7 +6271,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1047</v>
       </c>
@@ -6380,7 +6312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1048</v>
       </c>
@@ -6415,7 +6347,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1049</v>
       </c>
@@ -6450,7 +6382,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1050</v>
       </c>
@@ -6485,7 +6417,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1051</v>
       </c>
@@ -6520,7 +6452,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1052</v>
       </c>
@@ -6555,7 +6487,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1053</v>
       </c>
@@ -6590,7 +6522,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1054</v>
       </c>
@@ -6625,7 +6557,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1055</v>
       </c>
@@ -6660,7 +6592,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1060</v>
       </c>
@@ -6698,7 +6630,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1061</v>
       </c>
@@ -6733,7 +6665,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1062</v>
       </c>
@@ -6768,7 +6700,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1063</v>
       </c>
@@ -6803,7 +6735,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1064</v>
       </c>
@@ -6838,7 +6770,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1065</v>
       </c>
@@ -6873,7 +6805,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1070</v>
       </c>
@@ -6905,7 +6837,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1071</v>
       </c>
@@ -6937,7 +6869,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1072</v>
       </c>
@@ -6981,7 +6913,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1073</v>
       </c>
@@ -7016,7 +6948,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1074</v>
       </c>
@@ -7051,7 +6983,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1075</v>
       </c>
@@ -7086,7 +7018,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1076</v>
       </c>
@@ -7121,7 +7053,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1077</v>
       </c>
@@ -7156,7 +7088,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1078</v>
       </c>
@@ -7200,7 +7132,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1079</v>
       </c>
@@ -7235,7 +7167,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1080</v>
       </c>
@@ -7270,7 +7202,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1081</v>
       </c>
@@ -7305,7 +7237,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1082</v>
       </c>
@@ -7340,7 +7272,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1083</v>
       </c>
@@ -7375,7 +7307,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1084</v>
       </c>
@@ -7416,7 +7348,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1085</v>
       </c>
@@ -7451,7 +7383,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1086</v>
       </c>
@@ -7486,7 +7418,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1087</v>
       </c>
@@ -7521,7 +7453,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1088</v>
       </c>
@@ -7556,7 +7488,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1089</v>
       </c>
@@ -7606,14 +7538,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -7645,7 +7577,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7677,7 +7609,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7717,6 +7649,238 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D2D18-B37B-4DF5-9944-49704E9D0445}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1051</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA152B8-C1FA-4646-A501-2C7774BC6ACC}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -7724,14 +7888,14 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.77734375" customWidth="1"/>
+    <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>369</v>
       </c>
@@ -7751,7 +7915,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7771,7 +7935,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7791,7 +7955,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7811,7 +7975,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7831,7 +7995,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7848,7 +8012,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7865,7 +8029,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7883,263 +8047,6 @@
       </c>
       <c r="F8" t="s">
         <v>368</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C4135-AFDC-4222-9830-710D942A3AED}">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" t="s">
-        <v>403</v>
-      </c>
-      <c r="E1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>374</v>
-      </c>
-      <c r="C2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C3" t="s">
-        <v>377</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6" t="s">
-        <v>383</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>390</v>
-      </c>
-      <c r="C10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>392</v>
-      </c>
-      <c r="C11" t="s">
-        <v>393</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>394</v>
-      </c>
-      <c r="C12" t="s">
-        <v>395</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>396</v>
-      </c>
-      <c r="C13" t="s">
-        <v>397</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C14" t="s">
-        <v>399</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8156,9 +8063,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>404</v>
       </c>
@@ -8166,7 +8073,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8174,7 +8081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8189,229 +8096,116 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D2D18-B37B-4DF5-9944-49704E9D0445}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2040177-E526-42D3-A91B-661E4F43E409}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2</v>
-      </c>
-      <c r="B22">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>1051</v>
+        <v>414</v>
+      </c>
+      <c r="C1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G1" t="s">
+        <v>419</v>
+      </c>
+      <c r="H1" t="s">
+        <v>420</v>
+      </c>
+      <c r="I1" t="s">
+        <v>421</v>
+      </c>
+      <c r="J1" t="s">
+        <v>422</v>
+      </c>
+      <c r="K1" t="s">
+        <v>423</v>
+      </c>
+      <c r="L1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M1" t="s">
+        <v>425</v>
+      </c>
+      <c r="N1" t="s">
+        <v>426</v>
+      </c>
+      <c r="O1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P1" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F2" t="s">
+        <v>411</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44379.762164351851</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2958465</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8421,116 +8215,254 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2040177-E526-42D3-A91B-661E4F43E409}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9C4135-AFDC-4222-9830-710D942A3AED}">
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="C1" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D1" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="E1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I1" t="s">
-        <v>421</v>
-      </c>
-      <c r="J1" t="s">
-        <v>422</v>
-      </c>
-      <c r="K1" t="s">
-        <v>423</v>
-      </c>
-      <c r="L1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M1" t="s">
-        <v>425</v>
-      </c>
-      <c r="N1" t="s">
-        <v>426</v>
-      </c>
-      <c r="O1" t="s">
-        <v>427</v>
-      </c>
-      <c r="P1" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" t="s">
-        <v>411</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44379.762164351851</v>
-      </c>
-      <c r="I2" s="1">
-        <v>2958465</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
+        <v>375</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" t="s">
+        <v>393</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" t="s">
+        <v>397</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14" t="s">
+        <v>399</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8547,15 +8479,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="3"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>524</v>
       </c>
@@ -8578,7 +8510,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8598,7 +8530,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8618,7 +8550,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8638,7 +8570,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8658,7 +8590,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8678,7 +8610,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8698,7 +8630,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8718,7 +8650,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8738,7 +8670,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8758,7 +8690,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8778,7 +8710,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8795,7 +8727,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DF3F84-F582-4AE4-B46F-3D75A182EF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0529BE88-1933-4F9B-8C5C-5387C11D821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7890" yWindow="1250" windowWidth="16200" windowHeight="9970" tabRatio="650" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="571">
   <si>
     <t>系统管理</t>
   </si>
@@ -1769,6 +1769,45 @@
   </si>
   <si>
     <t>公司总部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_job_type</t>
+  </si>
+  <si>
+    <t>sys_job_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1825,6 +1864,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1844,7 +1951,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2139,12 +2246,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="28.08203125" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -2185,7 +2292,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2214,7 +2321,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2252,19 +2359,19 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>530</v>
       </c>
@@ -2296,7 +2403,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2322,7 +2429,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2348,7 +2455,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2374,7 +2481,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2403,7 +2510,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2432,7 +2539,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2461,7 +2568,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2490,7 +2597,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2519,7 +2626,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2548,7 +2655,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2574,7 +2681,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2600,7 +2707,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2629,7 +2736,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2658,7 +2765,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2687,7 +2794,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2716,7 +2823,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2745,7 +2852,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2774,7 +2881,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2803,7 +2910,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2832,7 +2939,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2861,7 +2968,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2890,7 +2997,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2919,7 +3026,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2948,7 +3055,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2977,7 +3084,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3006,7 +3113,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3035,7 +3142,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3064,7 +3171,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3093,7 +3200,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3122,7 +3229,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3145,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3168,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3191,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3214,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3234,6 +3341,84 @@
         <v>548</v>
       </c>
       <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>565</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>562</v>
+      </c>
+      <c r="G36" t="s">
+        <v>568</v>
+      </c>
+      <c r="H36" t="s">
+        <v>548</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>566</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>562</v>
+      </c>
+      <c r="G37" t="s">
+        <v>569</v>
+      </c>
+      <c r="H37" t="s">
+        <v>548</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>567</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>562</v>
+      </c>
+      <c r="G38" t="s">
+        <v>570</v>
+      </c>
+      <c r="H38" t="s">
+        <v>548</v>
+      </c>
+      <c r="I38">
         <v>0</v>
       </c>
     </row>
@@ -3247,13 +3432,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F8E602-C602-4DBE-8251-6DDEB8D8D144}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>541</v>
       </c>
@@ -3276,7 +3461,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3296,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3316,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3336,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3356,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3391,12 +3576,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -3407,7 +3592,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3418,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3429,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3440,7 +3625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3451,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3462,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3473,7 +3658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3484,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3511,18 +3696,18 @@
       <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="10.58203125" customWidth="1"/>
-    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3569,7 +3754,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3607,7 +3792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3645,7 +3830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3683,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3721,7 +3906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3762,7 +3947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -3806,7 +3991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>101</v>
       </c>
@@ -3850,7 +4035,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
@@ -3894,7 +4079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>103</v>
       </c>
@@ -3938,7 +4123,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>104</v>
       </c>
@@ -3982,7 +4167,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>105</v>
       </c>
@@ -4026,7 +4211,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>106</v>
       </c>
@@ -4067,7 +4252,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>107</v>
       </c>
@@ -4111,7 +4296,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>108</v>
       </c>
@@ -4149,7 +4334,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>109</v>
       </c>
@@ -4193,7 +4378,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>110</v>
       </c>
@@ -4234,7 +4419,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
@@ -4275,7 +4460,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>112</v>
       </c>
@@ -4319,7 +4504,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>113</v>
       </c>
@@ -4363,7 +4548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>114</v>
       </c>
@@ -4407,7 +4592,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>115</v>
       </c>
@@ -4451,7 +4636,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>116</v>
       </c>
@@ -4495,7 +4680,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>117</v>
       </c>
@@ -4539,7 +4724,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>118</v>
       </c>
@@ -4577,7 +4762,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>119</v>
       </c>
@@ -4621,7 +4806,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>500</v>
       </c>
@@ -4665,7 +4850,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>501</v>
       </c>
@@ -4709,7 +4894,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1001</v>
       </c>
@@ -4741,7 +4926,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1002</v>
       </c>
@@ -4773,7 +4958,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1003</v>
       </c>
@@ -4805,7 +4990,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1004</v>
       </c>
@@ -4837,7 +5022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1005</v>
       </c>
@@ -4872,7 +5057,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1006</v>
       </c>
@@ -4907,7 +5092,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1007</v>
       </c>
@@ -4942,7 +5127,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1008</v>
       </c>
@@ -4977,7 +5162,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1009</v>
       </c>
@@ -5012,7 +5197,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1010</v>
       </c>
@@ -5047,7 +5232,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1011</v>
       </c>
@@ -5082,7 +5267,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1012</v>
       </c>
@@ -5117,7 +5302,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1013</v>
       </c>
@@ -5152,7 +5337,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1014</v>
       </c>
@@ -5187,7 +5372,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1015</v>
       </c>
@@ -5222,7 +5407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1016</v>
       </c>
@@ -5257,7 +5442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1017</v>
       </c>
@@ -5289,7 +5474,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1018</v>
       </c>
@@ -5321,7 +5506,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1019</v>
       </c>
@@ -5353,7 +5538,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1020</v>
       </c>
@@ -5385,7 +5570,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1021</v>
       </c>
@@ -5417,7 +5602,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1022</v>
       </c>
@@ -5449,7 +5634,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1023</v>
       </c>
@@ -5481,7 +5666,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1024</v>
       </c>
@@ -5513,7 +5698,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1025</v>
       </c>
@@ -5545,7 +5730,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1026</v>
       </c>
@@ -5577,7 +5762,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1027</v>
       </c>
@@ -5609,7 +5794,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1028</v>
       </c>
@@ -5641,7 +5826,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1029</v>
       </c>
@@ -5673,7 +5858,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1030</v>
       </c>
@@ -5705,7 +5890,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1031</v>
       </c>
@@ -5737,7 +5922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1032</v>
       </c>
@@ -5775,7 +5960,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1033</v>
       </c>
@@ -5810,7 +5995,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1034</v>
       </c>
@@ -5845,7 +6030,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1035</v>
       </c>
@@ -5880,7 +6065,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1036</v>
       </c>
@@ -5915,7 +6100,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1037</v>
       </c>
@@ -5950,7 +6135,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1038</v>
       </c>
@@ -5985,7 +6170,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1039</v>
       </c>
@@ -6026,7 +6211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1040</v>
       </c>
@@ -6061,7 +6246,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1041</v>
       </c>
@@ -6096,7 +6281,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1042</v>
       </c>
@@ -6131,7 +6316,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1043</v>
       </c>
@@ -6166,7 +6351,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1044</v>
       </c>
@@ -6201,7 +6386,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1045</v>
       </c>
@@ -6236,7 +6421,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1046</v>
       </c>
@@ -6271,7 +6456,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1047</v>
       </c>
@@ -6312,7 +6497,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1048</v>
       </c>
@@ -6347,7 +6532,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1049</v>
       </c>
@@ -6382,7 +6567,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1050</v>
       </c>
@@ -6417,7 +6602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1051</v>
       </c>
@@ -6452,7 +6637,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1052</v>
       </c>
@@ -6487,7 +6672,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1053</v>
       </c>
@@ -6522,7 +6707,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1054</v>
       </c>
@@ -6557,7 +6742,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1055</v>
       </c>
@@ -6592,7 +6777,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1060</v>
       </c>
@@ -6630,7 +6815,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1061</v>
       </c>
@@ -6665,7 +6850,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1062</v>
       </c>
@@ -6700,7 +6885,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1063</v>
       </c>
@@ -6735,7 +6920,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1064</v>
       </c>
@@ -6770,7 +6955,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1065</v>
       </c>
@@ -6805,7 +6990,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1070</v>
       </c>
@@ -6837,7 +7022,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1071</v>
       </c>
@@ -6869,7 +7054,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1072</v>
       </c>
@@ -6913,7 +7098,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1073</v>
       </c>
@@ -6948,7 +7133,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1074</v>
       </c>
@@ -6983,7 +7168,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1075</v>
       </c>
@@ -7018,7 +7203,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1076</v>
       </c>
@@ -7053,7 +7238,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1077</v>
       </c>
@@ -7088,7 +7273,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1078</v>
       </c>
@@ -7132,7 +7317,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1079</v>
       </c>
@@ -7167,7 +7352,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1080</v>
       </c>
@@ -7202,7 +7387,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1081</v>
       </c>
@@ -7237,7 +7422,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1082</v>
       </c>
@@ -7272,7 +7457,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1083</v>
       </c>
@@ -7307,7 +7492,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1084</v>
       </c>
@@ -7348,7 +7533,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1085</v>
       </c>
@@ -7383,7 +7568,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1086</v>
       </c>
@@ -7418,7 +7603,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1087</v>
       </c>
@@ -7453,7 +7638,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1088</v>
       </c>
@@ -7488,7 +7673,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1089</v>
       </c>
@@ -7538,14 +7723,14 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -7577,7 +7762,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7609,7 +7794,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7656,9 +7841,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -7666,7 +7851,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7674,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7682,7 +7867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7690,7 +7875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7698,7 +7883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7706,7 +7891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7714,7 +7899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7722,7 +7907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7730,7 +7915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7738,7 +7923,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7746,7 +7931,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7754,7 +7939,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7762,7 +7947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -7770,7 +7955,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -7778,7 +7963,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -7786,7 +7971,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -7794,7 +7979,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -7802,7 +7987,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -7810,7 +7995,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -7818,7 +8003,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -7826,7 +8011,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -7834,7 +8019,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -7842,7 +8027,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -7850,7 +8035,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -7858,7 +8043,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -7866,7 +8051,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -7888,14 +8073,14 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.75" customWidth="1"/>
+    <col min="6" max="6" width="83.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>369</v>
       </c>
@@ -7915,7 +8100,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7935,7 +8120,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7955,7 +8140,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7975,7 +8160,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7995,7 +8180,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8012,7 +8197,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8029,7 +8214,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8063,9 +8248,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>404</v>
       </c>
@@ -8073,7 +8258,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8081,7 +8266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8103,18 +8288,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -8167,7 +8352,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>413</v>
       </c>
@@ -8222,12 +8407,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -8244,7 +8429,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8261,7 +8446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8278,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8295,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8312,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8329,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8346,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8363,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8380,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8397,7 +8582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8414,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8431,7 +8616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8448,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8473,21 +8658,21 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA66D3-8315-4018-BF52-5D786631F136}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="5" width="8.9140625" style="3"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>524</v>
       </c>
@@ -8510,7 +8695,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8530,7 +8715,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8550,7 +8735,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8570,7 +8755,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8590,7 +8775,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8610,7 +8795,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8630,7 +8815,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8650,7 +8835,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8670,7 +8855,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8690,7 +8875,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8710,7 +8895,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8727,7 +8912,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8745,6 +8930,26 @@
       </c>
       <c r="F13" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F14" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0529BE88-1933-4F9B-8C5C-5387C11D821B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38186902-118C-4986-949F-E3DCA50B2540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="575">
   <si>
     <t>系统管理</t>
   </si>
@@ -1808,6 +1808,21 @@
   </si>
   <si>
     <t>danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system:lang:import</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2361,7 +2376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -3689,11 +3704,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A110" sqref="A110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7459,10 +7474,10 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>574</v>
       </c>
       <c r="C103">
         <v>1078</v>
@@ -7471,7 +7486,7 @@
         <v>5</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>573</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -7480,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>137</v>
+        <v>572</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -7489,27 +7504,24 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>295</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B104" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="C104">
-        <v>118</v>
+        <v>1078</v>
       </c>
       <c r="D104">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>297</v>
-      </c>
-      <c r="F104" t="s">
-        <v>298</v>
+        <v>147</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -7518,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -7527,27 +7539,27 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>299</v>
-      </c>
-      <c r="M104" t="s">
-        <v>35</v>
+        <v>295</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="C105">
-        <v>1084</v>
+        <v>118</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>297</v>
+      </c>
+      <c r="F105" t="s">
+        <v>298</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -7556,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -7565,21 +7577,24 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>300</v>
+        <v>299</v>
+      </c>
+      <c r="M105" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B106" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C106">
         <v>1084</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>147</v>
@@ -7600,21 +7615,21 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B107" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C107">
         <v>1084</v>
       </c>
       <c r="D107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E107" t="s">
         <v>147</v>
@@ -7635,21 +7650,21 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C108">
         <v>1084</v>
       </c>
       <c r="D108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E108" t="s">
         <v>147</v>
@@ -7670,21 +7685,21 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B109" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C109">
         <v>1084</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E109" t="s">
         <v>147</v>
@@ -7705,6 +7720,41 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1089</v>
+      </c>
+      <c r="B110" t="s">
+        <v>283</v>
+      </c>
+      <c r="C110">
+        <v>1084</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110" t="s">
+        <v>147</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>137</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110" t="s">
         <v>304</v>
       </c>
     </row>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38186902-118C-4986-949F-E3DCA50B2540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAACF07-F945-4F67-9DF6-47CC99A72F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="585">
   <si>
     <t>系统管理</t>
   </si>
@@ -1823,6 +1823,44 @@
   </si>
   <si>
     <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据差异日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlDiffLog</t>
+  </si>
+  <si>
+    <t>monitor/SqlDiffLog</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:export</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1879,74 +1917,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1966,7 +1936,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2258,15 +2228,15 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -2307,7 +2277,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2336,7 +2306,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2380,13 +2350,13 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>530</v>
       </c>
@@ -2418,7 +2388,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2444,7 +2414,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2470,7 +2440,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2496,7 +2466,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2525,7 +2495,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2554,7 +2524,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2583,7 +2553,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2612,7 +2582,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2641,7 +2611,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2670,7 +2640,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2696,7 +2666,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2722,7 +2692,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2751,7 +2721,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2780,7 +2750,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2809,7 +2779,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2838,7 +2808,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2867,7 +2837,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2896,7 +2866,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2925,7 +2895,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2954,7 +2924,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2983,7 +2953,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3012,7 +2982,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3041,7 +3011,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3070,7 +3040,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3099,7 +3069,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3128,7 +3098,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3157,7 +3127,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3186,7 +3156,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3215,7 +3185,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3244,7 +3214,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3267,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3290,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3313,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3336,7 +3306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3359,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3385,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3411,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3451,9 +3421,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>541</v>
       </c>
@@ -3476,7 +3446,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3496,7 +3466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3516,7 +3486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3536,7 +3506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3556,7 +3526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3591,12 +3561,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -3607,7 +3577,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3618,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3629,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3640,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3651,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3662,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3673,7 +3643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3684,7 +3654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3704,25 +3674,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="10.58203125" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3769,7 +3739,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3807,7 +3777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3845,7 +3815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3883,7 +3853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3921,7 +3891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3962,7 +3932,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>100</v>
       </c>
@@ -4006,7 +3976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>101</v>
       </c>
@@ -4050,7 +4020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>102</v>
       </c>
@@ -4094,7 +4064,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>103</v>
       </c>
@@ -4138,7 +4108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>104</v>
       </c>
@@ -4182,7 +4152,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>105</v>
       </c>
@@ -4226,7 +4196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>106</v>
       </c>
@@ -4267,7 +4237,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>107</v>
       </c>
@@ -4311,7 +4281,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>108</v>
       </c>
@@ -4349,7 +4319,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>109</v>
       </c>
@@ -4393,7 +4363,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>110</v>
       </c>
@@ -4434,7 +4404,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>111</v>
       </c>
@@ -4475,7 +4445,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>112</v>
       </c>
@@ -4519,7 +4489,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>113</v>
       </c>
@@ -4563,7 +4533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>114</v>
       </c>
@@ -4607,7 +4577,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>115</v>
       </c>
@@ -4651,7 +4621,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>116</v>
       </c>
@@ -4695,7 +4665,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>117</v>
       </c>
@@ -4739,7 +4709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>118</v>
       </c>
@@ -4777,7 +4747,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>119</v>
       </c>
@@ -4821,7 +4791,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>500</v>
       </c>
@@ -4865,7 +4835,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>501</v>
       </c>
@@ -4909,7 +4879,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1001</v>
       </c>
@@ -4941,7 +4911,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1002</v>
       </c>
@@ -4973,7 +4943,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1003</v>
       </c>
@@ -5005,7 +4975,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1004</v>
       </c>
@@ -5037,7 +5007,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1005</v>
       </c>
@@ -5072,7 +5042,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1006</v>
       </c>
@@ -5107,7 +5077,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1007</v>
       </c>
@@ -5142,7 +5112,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1008</v>
       </c>
@@ -5177,7 +5147,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1009</v>
       </c>
@@ -5212,7 +5182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1010</v>
       </c>
@@ -5247,7 +5217,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1011</v>
       </c>
@@ -5282,7 +5252,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1012</v>
       </c>
@@ -5317,7 +5287,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1013</v>
       </c>
@@ -5352,7 +5322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1014</v>
       </c>
@@ -5387,7 +5357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1015</v>
       </c>
@@ -5422,7 +5392,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1016</v>
       </c>
@@ -5457,7 +5427,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1017</v>
       </c>
@@ -5489,7 +5459,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1018</v>
       </c>
@@ -5521,7 +5491,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1019</v>
       </c>
@@ -5553,7 +5523,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1020</v>
       </c>
@@ -5585,7 +5555,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1021</v>
       </c>
@@ -5617,7 +5587,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1022</v>
       </c>
@@ -5649,7 +5619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1023</v>
       </c>
@@ -5681,7 +5651,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1024</v>
       </c>
@@ -5713,7 +5683,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1025</v>
       </c>
@@ -5745,7 +5715,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1026</v>
       </c>
@@ -5777,7 +5747,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1027</v>
       </c>
@@ -5809,7 +5779,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1028</v>
       </c>
@@ -5841,7 +5811,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1029</v>
       </c>
@@ -5873,7 +5843,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1030</v>
       </c>
@@ -5905,7 +5875,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1031</v>
       </c>
@@ -5937,7 +5907,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1032</v>
       </c>
@@ -5975,7 +5945,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1033</v>
       </c>
@@ -6010,7 +5980,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1034</v>
       </c>
@@ -6045,7 +6015,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1035</v>
       </c>
@@ -6080,7 +6050,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1036</v>
       </c>
@@ -6115,7 +6085,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1037</v>
       </c>
@@ -6150,7 +6120,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1038</v>
       </c>
@@ -6185,7 +6155,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1039</v>
       </c>
@@ -6226,7 +6196,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1040</v>
       </c>
@@ -6261,7 +6231,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1041</v>
       </c>
@@ -6296,7 +6266,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1042</v>
       </c>
@@ -6331,7 +6301,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1043</v>
       </c>
@@ -6366,7 +6336,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1044</v>
       </c>
@@ -6401,7 +6371,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1045</v>
       </c>
@@ -6436,7 +6406,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1046</v>
       </c>
@@ -6471,7 +6441,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1047</v>
       </c>
@@ -6512,7 +6482,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1048</v>
       </c>
@@ -6547,7 +6517,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1049</v>
       </c>
@@ -6582,7 +6552,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1050</v>
       </c>
@@ -6617,7 +6587,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1051</v>
       </c>
@@ -6652,7 +6622,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1052</v>
       </c>
@@ -6687,7 +6657,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1053</v>
       </c>
@@ -6722,7 +6692,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1054</v>
       </c>
@@ -6757,7 +6727,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1055</v>
       </c>
@@ -6792,7 +6762,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1060</v>
       </c>
@@ -6830,7 +6800,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1061</v>
       </c>
@@ -6865,7 +6835,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1062</v>
       </c>
@@ -6900,7 +6870,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1063</v>
       </c>
@@ -6935,7 +6905,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1064</v>
       </c>
@@ -6970,7 +6940,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1065</v>
       </c>
@@ -7005,7 +6975,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1070</v>
       </c>
@@ -7037,7 +7007,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1071</v>
       </c>
@@ -7069,7 +7039,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1072</v>
       </c>
@@ -7113,7 +7083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1073</v>
       </c>
@@ -7148,7 +7118,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1074</v>
       </c>
@@ -7183,7 +7153,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1075</v>
       </c>
@@ -7218,7 +7188,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1076</v>
       </c>
@@ -7253,7 +7223,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1077</v>
       </c>
@@ -7288,7 +7258,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1078</v>
       </c>
@@ -7332,7 +7302,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1079</v>
       </c>
@@ -7367,7 +7337,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1080</v>
       </c>
@@ -7402,7 +7372,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1081</v>
       </c>
@@ -7437,7 +7407,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1082</v>
       </c>
@@ -7472,7 +7442,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1090</v>
       </c>
@@ -7507,7 +7477,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1083</v>
       </c>
@@ -7542,7 +7512,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1084</v>
       </c>
@@ -7583,7 +7553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1085</v>
       </c>
@@ -7618,7 +7588,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1086</v>
       </c>
@@ -7653,7 +7623,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1087</v>
       </c>
@@ -7688,7 +7658,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1088</v>
       </c>
@@ -7723,7 +7693,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1089</v>
       </c>
@@ -7756,6 +7726,111 @@
       </c>
       <c r="L110" t="s">
         <v>304</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>1100</v>
+      </c>
+      <c r="B111" t="s">
+        <v>575</v>
+      </c>
+      <c r="C111">
+        <v>108</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>576</v>
+      </c>
+      <c r="F111" t="s">
+        <v>577</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>578</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>582</v>
+      </c>
+      <c r="M111" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>1102</v>
+      </c>
+      <c r="B112" t="s">
+        <v>580</v>
+      </c>
+      <c r="C112">
+        <v>1100</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>572</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1103</v>
+      </c>
+      <c r="B113" t="s">
+        <v>581</v>
+      </c>
+      <c r="C113">
+        <v>1100</v>
+      </c>
+      <c r="D113">
+        <v>3</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>572</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -7769,18 +7844,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4172CB-C633-40F1-9E06-DA7BE35E7941}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -7812,7 +7887,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7844,7 +7919,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7891,9 +7966,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -7901,7 +7976,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7909,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7917,7 +7992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7925,7 +8000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7933,7 +8008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7941,7 +8016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -7949,7 +8024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -7957,7 +8032,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7965,7 +8040,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7973,7 +8048,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -7981,7 +8056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -7989,7 +8064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -7997,7 +8072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8005,7 +8080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8013,7 +8088,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8021,7 +8096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8029,7 +8104,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8037,7 +8112,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8045,7 +8120,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8053,7 +8128,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8061,7 +8136,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8069,7 +8144,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8077,7 +8152,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8085,7 +8160,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8093,7 +8168,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8101,7 +8176,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8123,14 +8198,14 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.77734375" customWidth="1"/>
+    <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>369</v>
       </c>
@@ -8150,7 +8225,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8170,7 +8245,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8190,7 +8265,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8210,7 +8285,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8230,7 +8305,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8247,7 +8322,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8264,7 +8339,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8298,9 +8373,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>404</v>
       </c>
@@ -8308,7 +8383,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8316,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8338,18 +8413,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -8402,7 +8477,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>413</v>
       </c>
@@ -8457,12 +8532,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -8479,7 +8554,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8496,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8513,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8530,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8547,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8564,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8581,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8598,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8615,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8632,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8649,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8666,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8683,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8714,15 +8789,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="3"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>524</v>
       </c>
@@ -8745,7 +8820,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8765,7 +8840,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8785,7 +8860,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8805,7 +8880,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8825,7 +8900,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8845,7 +8920,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8865,7 +8940,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8885,7 +8960,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8905,7 +8980,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8925,7 +9000,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8945,7 +9020,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8962,7 +9037,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8982,7 +9057,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAACF07-F945-4F67-9DF6-47CC99A72F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00116A0-4FDA-4651-BB24-1CC18A913B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -1917,6 +1917,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1936,7 +2004,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2231,12 +2299,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="28.08203125" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -2277,7 +2345,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2306,7 +2374,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2350,13 +2418,13 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>530</v>
       </c>
@@ -2388,7 +2456,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2414,7 +2482,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2440,7 +2508,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2466,7 +2534,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2495,7 +2563,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2524,7 +2592,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2553,7 +2621,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2582,7 +2650,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2611,7 +2679,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2640,7 +2708,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2666,7 +2734,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2692,7 +2760,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2721,7 +2789,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2750,7 +2818,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2779,7 +2847,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2808,7 +2876,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2837,7 +2905,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2866,7 +2934,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2895,7 +2963,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2924,7 +2992,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2953,7 +3021,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2982,7 +3050,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3011,7 +3079,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3040,7 +3108,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3069,7 +3137,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3098,7 +3166,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3127,7 +3195,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3156,7 +3224,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3185,7 +3253,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3214,7 +3282,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3237,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3260,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3283,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3306,7 +3374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3329,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3355,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3381,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3421,9 +3489,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>541</v>
       </c>
@@ -3446,7 +3514,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3466,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3486,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3506,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3526,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3561,12 +3629,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -3577,7 +3645,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3588,7 +3656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3599,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3610,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3621,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3632,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3643,7 +3711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3654,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3676,23 +3744,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="10.58203125" customWidth="1"/>
-    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3739,7 +3807,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3777,7 +3845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3815,7 +3883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3853,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3891,7 +3959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3932,7 +4000,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -3976,7 +4044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>101</v>
       </c>
@@ -4020,7 +4088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>102</v>
       </c>
@@ -4064,7 +4132,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>103</v>
       </c>
@@ -4108,7 +4176,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>104</v>
       </c>
@@ -4152,7 +4220,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>105</v>
       </c>
@@ -4196,7 +4264,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>106</v>
       </c>
@@ -4237,7 +4305,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>107</v>
       </c>
@@ -4281,7 +4349,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>108</v>
       </c>
@@ -4319,7 +4387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>109</v>
       </c>
@@ -4363,7 +4431,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>110</v>
       </c>
@@ -4404,7 +4472,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>111</v>
       </c>
@@ -4445,7 +4513,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>112</v>
       </c>
@@ -4489,7 +4557,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>113</v>
       </c>
@@ -4533,7 +4601,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>114</v>
       </c>
@@ -4577,7 +4645,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>115</v>
       </c>
@@ -4621,7 +4689,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>116</v>
       </c>
@@ -4665,7 +4733,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>117</v>
       </c>
@@ -4709,7 +4777,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>118</v>
       </c>
@@ -4747,7 +4815,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>119</v>
       </c>
@@ -4791,7 +4859,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>500</v>
       </c>
@@ -4835,7 +4903,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>501</v>
       </c>
@@ -4879,7 +4947,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1001</v>
       </c>
@@ -4911,7 +4979,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1002</v>
       </c>
@@ -4943,7 +5011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1003</v>
       </c>
@@ -4975,7 +5043,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1004</v>
       </c>
@@ -5007,7 +5075,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1005</v>
       </c>
@@ -5042,7 +5110,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1006</v>
       </c>
@@ -5077,7 +5145,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1007</v>
       </c>
@@ -5112,7 +5180,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1008</v>
       </c>
@@ -5147,7 +5215,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1009</v>
       </c>
@@ -5182,7 +5250,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1010</v>
       </c>
@@ -5217,7 +5285,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1011</v>
       </c>
@@ -5252,7 +5320,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1012</v>
       </c>
@@ -5287,7 +5355,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1013</v>
       </c>
@@ -5322,7 +5390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1014</v>
       </c>
@@ -5357,7 +5425,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1015</v>
       </c>
@@ -5392,7 +5460,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1016</v>
       </c>
@@ -5427,7 +5495,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1017</v>
       </c>
@@ -5459,7 +5527,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1018</v>
       </c>
@@ -5491,7 +5559,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1019</v>
       </c>
@@ -5523,7 +5591,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1020</v>
       </c>
@@ -5555,7 +5623,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1021</v>
       </c>
@@ -5587,7 +5655,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1022</v>
       </c>
@@ -5619,7 +5687,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1023</v>
       </c>
@@ -5651,7 +5719,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1024</v>
       </c>
@@ -5683,7 +5751,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1025</v>
       </c>
@@ -5715,7 +5783,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1026</v>
       </c>
@@ -5747,7 +5815,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1027</v>
       </c>
@@ -5779,7 +5847,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1028</v>
       </c>
@@ -5811,7 +5879,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1029</v>
       </c>
@@ -5843,7 +5911,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1030</v>
       </c>
@@ -5875,7 +5943,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1031</v>
       </c>
@@ -5907,7 +5975,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1032</v>
       </c>
@@ -5945,7 +6013,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1033</v>
       </c>
@@ -5980,7 +6048,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1034</v>
       </c>
@@ -6015,7 +6083,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1035</v>
       </c>
@@ -6050,7 +6118,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1036</v>
       </c>
@@ -6085,7 +6153,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1037</v>
       </c>
@@ -6120,7 +6188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1038</v>
       </c>
@@ -6155,7 +6223,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1039</v>
       </c>
@@ -6196,7 +6264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1040</v>
       </c>
@@ -6231,7 +6299,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1041</v>
       </c>
@@ -6266,7 +6334,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1042</v>
       </c>
@@ -6301,7 +6369,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1043</v>
       </c>
@@ -6336,7 +6404,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1044</v>
       </c>
@@ -6371,7 +6439,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1045</v>
       </c>
@@ -6406,7 +6474,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1046</v>
       </c>
@@ -6441,7 +6509,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1047</v>
       </c>
@@ -6482,7 +6550,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1048</v>
       </c>
@@ -6517,7 +6585,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1049</v>
       </c>
@@ -6552,7 +6620,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1050</v>
       </c>
@@ -6587,7 +6655,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1051</v>
       </c>
@@ -6622,7 +6690,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1052</v>
       </c>
@@ -6657,7 +6725,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1053</v>
       </c>
@@ -6692,7 +6760,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1054</v>
       </c>
@@ -6727,7 +6795,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1055</v>
       </c>
@@ -6762,7 +6830,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1060</v>
       </c>
@@ -6800,7 +6868,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1061</v>
       </c>
@@ -6835,7 +6903,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1062</v>
       </c>
@@ -6870,7 +6938,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1063</v>
       </c>
@@ -6905,7 +6973,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1064</v>
       </c>
@@ -6940,7 +7008,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1065</v>
       </c>
@@ -6975,7 +7043,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1070</v>
       </c>
@@ -7007,7 +7075,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1071</v>
       </c>
@@ -7039,7 +7107,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1072</v>
       </c>
@@ -7083,7 +7151,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1073</v>
       </c>
@@ -7118,7 +7186,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1074</v>
       </c>
@@ -7153,7 +7221,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1075</v>
       </c>
@@ -7188,7 +7256,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1076</v>
       </c>
@@ -7223,7 +7291,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1077</v>
       </c>
@@ -7258,7 +7326,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1078</v>
       </c>
@@ -7302,7 +7370,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1079</v>
       </c>
@@ -7337,7 +7405,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1080</v>
       </c>
@@ -7372,7 +7440,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1081</v>
       </c>
@@ -7407,7 +7475,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1082</v>
       </c>
@@ -7442,7 +7510,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1090</v>
       </c>
@@ -7477,7 +7545,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1083</v>
       </c>
@@ -7512,7 +7580,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1084</v>
       </c>
@@ -7553,7 +7621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1085</v>
       </c>
@@ -7588,7 +7656,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1086</v>
       </c>
@@ -7623,7 +7691,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1087</v>
       </c>
@@ -7658,7 +7726,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1088</v>
       </c>
@@ -7693,7 +7761,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1089</v>
       </c>
@@ -7728,7 +7796,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1100</v>
       </c>
@@ -7739,7 +7807,7 @@
         <v>108</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>576</v>
@@ -7769,7 +7837,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1102</v>
       </c>
@@ -7801,7 +7869,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1103</v>
       </c>
@@ -7844,18 +7912,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4172CB-C633-40F1-9E06-DA7BE35E7941}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -7887,7 +7955,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7919,7 +7987,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7966,9 +8034,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -7976,7 +8044,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -7984,7 +8052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7992,7 +8060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8000,7 +8068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8008,7 +8076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8016,7 +8084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8024,7 +8092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8032,7 +8100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8040,7 +8108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8048,7 +8116,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8056,7 +8124,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8064,7 +8132,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8072,7 +8140,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8080,7 +8148,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8088,7 +8156,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8096,7 +8164,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8104,7 +8172,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8112,7 +8180,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8120,7 +8188,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8128,7 +8196,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8136,7 +8204,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8144,7 +8212,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8152,7 +8220,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8160,7 +8228,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8168,7 +8236,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8176,7 +8244,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8198,14 +8266,14 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.75" customWidth="1"/>
+    <col min="6" max="6" width="83.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>369</v>
       </c>
@@ -8225,7 +8293,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8245,7 +8313,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8265,7 +8333,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8285,7 +8353,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8305,7 +8373,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8322,7 +8390,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8339,7 +8407,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8373,9 +8441,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>404</v>
       </c>
@@ -8383,7 +8451,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8391,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8413,18 +8481,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -8477,7 +8545,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>413</v>
       </c>
@@ -8532,12 +8600,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -8554,7 +8622,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8571,7 +8639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8588,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8605,7 +8673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8622,7 +8690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8639,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8656,7 +8724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8673,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8690,7 +8758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8707,7 +8775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8724,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8741,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8758,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8789,15 +8857,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="5" width="8.9140625" style="3"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>524</v>
       </c>
@@ -8820,7 +8888,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8840,7 +8908,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8860,7 +8928,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8880,7 +8948,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8900,7 +8968,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8920,7 +8988,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8940,7 +9008,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8960,7 +9028,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8980,7 +9048,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9000,7 +9068,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9020,7 +9088,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9037,7 +9105,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9057,7 +9125,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00116A0-4FDA-4651-BB24-1CC18A913B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07F661-2D36-4555-BACB-6729264096DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="592">
   <si>
     <t>系统管理</t>
   </si>
@@ -1861,6 +1861,33 @@
   </si>
   <si>
     <t>sqldifflog:export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components/icons/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon1</t>
+  </si>
+  <si>
+    <t>menu.icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3742,11 +3769,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E114" sqref="E114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4002,22 +4029,16 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>590</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4026,42 +4047,33 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>591</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" t="s">
-        <v>21</v>
-      </c>
-      <c r="O7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>585</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>589</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>586</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4070,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>578</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4078,34 +4090,31 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>587</v>
       </c>
       <c r="O8" t="s">
-        <v>30</v>
+        <v>588</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -4123,33 +4132,33 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -4167,33 +4176,33 @@
         <v>0</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4211,33 +4220,33 @@
         <v>0</v>
       </c>
       <c r="L11" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -4255,33 +4264,33 @@
         <v>0</v>
       </c>
       <c r="L12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4293,36 +4302,39 @@
         <v>17</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>57</v>
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4340,30 +4352,33 @@
         <v>0</v>
       </c>
       <c r="L14" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="M14" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>55</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4372,39 +4387,39 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
+      <c r="L15" t="s">
+        <v>56</v>
+      </c>
       <c r="M15" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4422,43 +4437,40 @@
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
         <v>2</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>551</v>
-      </c>
-      <c r="F17" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
-        <v>17</v>
-      </c>
       <c r="J17">
         <v>0</v>
       </c>
@@ -4466,30 +4478,30 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -4506,31 +4518,34 @@
       <c r="K18">
         <v>0</v>
       </c>
+      <c r="L18" t="s">
+        <v>70</v>
+      </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>83</v>
+        <v>551</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4547,34 +4562,31 @@
       <c r="K19">
         <v>0</v>
       </c>
-      <c r="L19" t="s">
-        <v>85</v>
-      </c>
       <c r="M19" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4586,39 +4598,36 @@
         <v>17</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M20" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="O20" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F21" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4636,33 +4645,33 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4674,39 +4683,39 @@
         <v>17</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="M22" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4724,33 +4733,33 @@
         <v>0</v>
       </c>
       <c r="L23" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="M23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="O23" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4768,30 +4777,33 @@
         <v>0</v>
       </c>
       <c r="L24" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="M24" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O24" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+      <c r="F25" t="s">
+        <v>106</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -4800,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -4808,31 +4820,34 @@
       <c r="K25">
         <v>0</v>
       </c>
+      <c r="L25" t="s">
+        <v>107</v>
+      </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="O25" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C26">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -4850,33 +4865,30 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="O26" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>500</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C27">
-        <v>108</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4885,7 +4897,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -4893,34 +4905,31 @@
       <c r="K27">
         <v>0</v>
       </c>
-      <c r="L27" t="s">
-        <v>128</v>
-      </c>
       <c r="M27" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="O27" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>501</v>
+        <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C28">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -4938,28 +4947,34 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M28" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O28" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>1001</v>
+        <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
+      <c r="E29" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" t="s">
+        <v>127</v>
+      </c>
       <c r="G29">
         <v>0</v>
       </c>
@@ -4967,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4976,22 +4991,34 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
-        <v>138</v>
+        <v>128</v>
+      </c>
+      <c r="M29" t="s">
+        <v>129</v>
+      </c>
+      <c r="O29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>1002</v>
+        <v>501</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C30">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
       <c r="G30">
         <v>0</v>
       </c>
@@ -4999,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5008,21 +5035,27 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
-        <v>140</v>
+        <v>134</v>
+      </c>
+      <c r="M30" t="s">
+        <v>132</v>
+      </c>
+      <c r="O30" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C31">
         <v>100</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5040,21 +5073,21 @@
         <v>0</v>
       </c>
       <c r="L31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5072,21 +5105,21 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -5104,24 +5137,21 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>146</v>
-      </c>
-      <c r="M33" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B34" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C34">
         <v>100</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5139,24 +5169,21 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>149</v>
-      </c>
-      <c r="M34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -5174,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M35" t="s">
         <v>147</v>
@@ -5182,16 +5209,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C36">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5209,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M36" t="s">
         <v>147</v>
@@ -5217,16 +5244,16 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C37">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5244,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M37" t="s">
         <v>147</v>
@@ -5252,16 +5279,16 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C38">
         <v>101</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5279,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M38" t="s">
         <v>147</v>
@@ -5287,16 +5314,16 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C39">
         <v>101</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5314,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M39" t="s">
         <v>147</v>
@@ -5322,16 +5349,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C40">
         <v>101</v>
       </c>
       <c r="D40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5349,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M40" t="s">
         <v>147</v>
@@ -5357,16 +5384,16 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C41">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5384,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M41" t="s">
         <v>147</v>
@@ -5392,16 +5419,16 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C42">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5419,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M42" t="s">
         <v>147</v>
@@ -5427,16 +5454,16 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C43">
         <v>102</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5454,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M43" t="s">
         <v>147</v>
@@ -5462,16 +5489,16 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C44">
         <v>102</v>
       </c>
       <c r="D44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5489,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M44" t="s">
         <v>147</v>
@@ -5497,16 +5524,16 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C45">
         <v>102</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5524,21 +5551,24 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>171</v>
+        <v>167</v>
+      </c>
+      <c r="M45" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C46">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5556,21 +5586,24 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>173</v>
+        <v>169</v>
+      </c>
+      <c r="M46" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C47">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5588,21 +5621,21 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C48">
         <v>103</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5620,21 +5653,21 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B49" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C49">
         <v>103</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5652,21 +5685,21 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C50">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5684,21 +5717,21 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>46</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B51" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C51">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5716,21 +5749,21 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C52">
         <v>104</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5748,21 +5781,21 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>184</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B53" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C53">
         <v>104</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5780,21 +5813,21 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C54">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5812,21 +5845,21 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C55">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5844,21 +5877,21 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C56">
         <v>105</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5876,21 +5909,21 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B57" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C57">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5908,21 +5941,21 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C58">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5940,18 +5973,18 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C59">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -5972,24 +6005,21 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B60" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C60">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6007,27 +6037,21 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>200</v>
-      </c>
-      <c r="M60" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C61">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61" t="s">
-        <v>147</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6045,21 +6069,21 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C62">
         <v>110</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
         <v>147</v>
@@ -6080,21 +6104,24 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>204</v>
+        <v>200</v>
+      </c>
+      <c r="M62" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B63" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C63">
         <v>110</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
         <v>147</v>
@@ -6115,21 +6142,21 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C64">
         <v>110</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
         <v>147</v>
@@ -6150,21 +6177,21 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C65">
         <v>110</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
@@ -6185,21 +6212,21 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C66">
         <v>110</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E66" t="s">
         <v>147</v>
@@ -6220,27 +6247,24 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" t="s">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6249,33 +6273,30 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>216</v>
-      </c>
-      <c r="M67" t="s">
-        <v>65</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C68">
         <v>110</v>
       </c>
       <c r="D68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
         <v>147</v>
@@ -6296,24 +6317,27 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C69">
-        <v>500</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>214</v>
+      </c>
+      <c r="F69" t="s">
+        <v>215</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6322,30 +6346,33 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>220</v>
+        <v>216</v>
+      </c>
+      <c r="M69" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B70" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C70">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="D70">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>147</v>
@@ -6366,21 +6393,21 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B71" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C71">
         <v>500</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>147</v>
@@ -6401,21 +6428,21 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C72">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
         <v>147</v>
@@ -6436,21 +6463,21 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B73" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C73">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
         <v>147</v>
@@ -6471,15 +6498,15 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B74" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C74">
         <v>501</v>
@@ -6506,27 +6533,24 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C75">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="D75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>232</v>
-      </c>
-      <c r="F75" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6535,33 +6559,30 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75">
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>234</v>
-      </c>
-      <c r="M75" t="s">
-        <v>65</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B76" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C76">
-        <v>118</v>
+        <v>501</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
         <v>147</v>
@@ -6582,24 +6603,27 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C77">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>232</v>
+      </c>
+      <c r="F77" t="s">
+        <v>233</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -6608,30 +6632,33 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>238</v>
+        <v>234</v>
+      </c>
+      <c r="M77" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B78" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C78">
         <v>118</v>
       </c>
       <c r="D78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
         <v>147</v>
@@ -6652,21 +6679,21 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B79" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C79">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" t="s">
         <v>147</v>
@@ -6687,21 +6714,21 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B80" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C80">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
         <v>147</v>
@@ -6722,21 +6749,21 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C81">
         <v>109</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
         <v>147</v>
@@ -6757,21 +6784,21 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B82" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C82">
         <v>109</v>
       </c>
       <c r="D82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E82" t="s">
         <v>147</v>
@@ -6792,21 +6819,21 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C83">
         <v>109</v>
       </c>
       <c r="D83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" t="s">
         <v>147</v>
@@ -6827,27 +6854,24 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B84" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C84">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>252</v>
-      </c>
-      <c r="F84" t="s">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -6856,30 +6880,30 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="J84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="B85" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C85">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
         <v>147</v>
@@ -6900,24 +6924,27 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B86" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C86">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>252</v>
+      </c>
+      <c r="F86" t="s">
+        <v>253</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -6926,30 +6953,30 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C87">
         <v>115</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87" t="s">
         <v>147</v>
@@ -6970,15 +6997,15 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B88" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C88">
         <v>115</v>
@@ -7005,15 +7032,15 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C89">
         <v>115</v>
@@ -7040,21 +7067,24 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C90">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D90">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -7072,21 +7102,24 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C91">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>147</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7104,27 +7137,21 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C92">
-        <v>3</v>
+        <v>104</v>
       </c>
       <c r="D92">
-        <v>17</v>
-      </c>
-      <c r="E92" t="s">
-        <v>270</v>
-      </c>
-      <c r="F92" t="s">
-        <v>271</v>
+        <v>4</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7133,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -7142,30 +7169,21 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>272</v>
-      </c>
-      <c r="M92" t="s">
-        <v>273</v>
-      </c>
-      <c r="O92" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C93">
-        <v>1072</v>
+        <v>105</v>
       </c>
       <c r="D93">
-        <v>1</v>
-      </c>
-      <c r="E93" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -7183,24 +7201,27 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C94">
-        <v>1072</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>270</v>
+      </c>
+      <c r="F94" t="s">
+        <v>271</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -7209,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -7218,21 +7239,27 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="M94" t="s">
+        <v>273</v>
+      </c>
+      <c r="O94" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C95">
         <v>1072</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>147</v>
@@ -7253,21 +7280,21 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C96">
         <v>1072</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
         <v>147</v>
@@ -7288,21 +7315,21 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C97">
         <v>1072</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
         <v>147</v>
@@ -7323,27 +7350,24 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C98">
-        <v>1</v>
+        <v>1072</v>
       </c>
       <c r="D98">
-        <v>999</v>
+        <v>4</v>
       </c>
       <c r="E98" t="s">
-        <v>286</v>
-      </c>
-      <c r="F98" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -7352,7 +7376,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -7361,27 +7385,21 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>288</v>
-      </c>
-      <c r="M98" t="s">
-        <v>289</v>
-      </c>
-      <c r="O98" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C99">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
         <v>147</v>
@@ -7402,24 +7420,27 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C100">
-        <v>1078</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>286</v>
+      </c>
+      <c r="F100" t="s">
+        <v>287</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -7428,7 +7449,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -7437,21 +7458,27 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>292</v>
+        <v>288</v>
+      </c>
+      <c r="M100" t="s">
+        <v>289</v>
+      </c>
+      <c r="O100" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C101">
         <v>1078</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>147</v>
@@ -7472,21 +7499,21 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B102" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C102">
         <v>1078</v>
       </c>
       <c r="D102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" t="s">
         <v>147</v>
@@ -7507,24 +7534,24 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="B103" t="s">
-        <v>574</v>
+        <v>279</v>
       </c>
       <c r="C103">
         <v>1078</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>573</v>
+        <v>147</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -7533,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>572</v>
+        <v>137</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -7542,21 +7569,21 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>571</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="B104" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C104">
         <v>1078</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E104" t="s">
         <v>147</v>
@@ -7577,27 +7604,24 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>574</v>
       </c>
       <c r="C105">
-        <v>118</v>
+        <v>1078</v>
       </c>
       <c r="D105">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="E105" t="s">
-        <v>297</v>
-      </c>
-      <c r="F105" t="s">
-        <v>298</v>
+        <v>573</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -7606,7 +7630,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>572</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -7615,24 +7639,21 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>299</v>
-      </c>
-      <c r="M105" t="s">
-        <v>35</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="C106">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
         <v>147</v>
@@ -7653,24 +7674,27 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="B107" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="C107">
-        <v>1084</v>
+        <v>118</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>297</v>
+      </c>
+      <c r="F107" t="s">
+        <v>298</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -7679,7 +7703,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -7688,21 +7712,24 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>301</v>
+        <v>299</v>
+      </c>
+      <c r="M107" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B108" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C108">
         <v>1084</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>147</v>
@@ -7723,21 +7750,21 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C109">
         <v>1084</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109" t="s">
         <v>147</v>
@@ -7758,21 +7785,21 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B110" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C110">
         <v>1084</v>
       </c>
       <c r="D110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" t="s">
         <v>147</v>
@@ -7793,27 +7820,24 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="B111" t="s">
-        <v>575</v>
+        <v>281</v>
       </c>
       <c r="C111">
-        <v>108</v>
+        <v>1084</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>576</v>
-      </c>
-      <c r="F111" t="s">
-        <v>577</v>
+        <v>147</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -7822,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>578</v>
+        <v>137</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -7831,57 +7855,63 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>582</v>
-      </c>
-      <c r="M111" t="s">
-        <v>579</v>
+        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1102</v>
+        <v>1089</v>
       </c>
       <c r="B112" t="s">
-        <v>580</v>
+        <v>283</v>
       </c>
       <c r="C112">
+        <v>1084</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>147</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>137</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A113">
         <v>1100</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>572</v>
-      </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1103</v>
-      </c>
       <c r="B113" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C113">
-        <v>1100</v>
+        <v>108</v>
       </c>
       <c r="D113">
         <v>3</v>
       </c>
+      <c r="E113" t="s">
+        <v>576</v>
+      </c>
+      <c r="F113" t="s">
+        <v>577</v>
+      </c>
       <c r="G113">
         <v>0</v>
       </c>
@@ -7889,15 +7919,82 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
+        <v>578</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>582</v>
+      </c>
+      <c r="M113" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>580</v>
+      </c>
+      <c r="C114">
+        <v>1100</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
         <v>572</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113" t="s">
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1103</v>
+      </c>
+      <c r="B115" t="s">
+        <v>581</v>
+      </c>
+      <c r="C115">
+        <v>1100</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>572</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115" t="s">
         <v>584</v>
       </c>
     </row>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A07F661-2D36-4555-BACB-6729264096DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F9428-7B86-4FE9-A0EB-7D2E5C124015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="599">
   <si>
     <t>系统管理</t>
   </si>
@@ -1888,6 +1888,32 @@
   </si>
   <si>
     <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单条强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor:online:forceLogout</t>
+  </si>
+  <si>
+    <t>monitor:online:batchLogout</t>
+  </si>
+  <si>
+    <t>批量强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计日志导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计日志删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线用户强退</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1944,74 +1970,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2031,7 +1989,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2326,12 +2284,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -2372,7 +2330,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2401,7 +2359,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2445,13 +2403,13 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>530</v>
       </c>
@@ -2483,7 +2441,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2509,7 +2467,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2535,7 +2493,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2561,7 +2519,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2590,7 +2548,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2619,7 +2577,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2648,7 +2606,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2677,7 +2635,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2706,7 +2664,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2735,7 +2693,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2761,7 +2719,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2787,7 +2745,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2816,7 +2774,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2845,7 +2803,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2874,7 +2832,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2903,7 +2861,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2932,7 +2890,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2961,7 +2919,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2990,7 +2948,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3019,7 +2977,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3048,7 +3006,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3077,7 +3035,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3106,7 +3064,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3135,7 +3093,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3164,7 +3122,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3193,7 +3151,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3222,7 +3180,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3251,7 +3209,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3280,7 +3238,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3309,7 +3267,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3332,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3355,7 +3313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3378,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3401,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3424,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3450,7 +3408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3476,7 +3434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3516,9 +3474,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>541</v>
       </c>
@@ -3541,7 +3499,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3561,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3581,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3601,7 +3559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3621,7 +3579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3656,12 +3614,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -3672,7 +3630,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3683,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3694,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3705,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3716,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3727,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3738,7 +3696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3749,7 +3707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3769,25 +3727,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="10.58203125" customWidth="1"/>
+    <col min="14" max="14" width="18.4140625" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3834,7 +3793,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3872,7 +3831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3910,7 +3869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3948,7 +3907,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3986,7 +3945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4027,7 +3986,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4056,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4097,7 +4056,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100</v>
       </c>
@@ -4141,7 +4100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>101</v>
       </c>
@@ -4185,7 +4144,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>102</v>
       </c>
@@ -4229,7 +4188,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>103</v>
       </c>
@@ -4273,7 +4232,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>104</v>
       </c>
@@ -4317,7 +4276,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>105</v>
       </c>
@@ -4361,7 +4320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>106</v>
       </c>
@@ -4402,7 +4361,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>107</v>
       </c>
@@ -4446,7 +4405,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>108</v>
       </c>
@@ -4484,7 +4443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>109</v>
       </c>
@@ -4528,7 +4487,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>110</v>
       </c>
@@ -4569,7 +4528,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>111</v>
       </c>
@@ -4610,7 +4569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>112</v>
       </c>
@@ -4654,7 +4613,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>113</v>
       </c>
@@ -4698,7 +4657,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>114</v>
       </c>
@@ -4742,7 +4701,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>115</v>
       </c>
@@ -4786,7 +4745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>116</v>
       </c>
@@ -4830,7 +4789,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>117</v>
       </c>
@@ -4874,7 +4833,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>118</v>
       </c>
@@ -4912,7 +4871,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>119</v>
       </c>
@@ -4956,7 +4915,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>500</v>
       </c>
@@ -5000,7 +4959,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>501</v>
       </c>
@@ -5044,50 +5003,59 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>502</v>
+      </c>
+      <c r="B31" t="s">
+        <v>575</v>
+      </c>
+      <c r="C31">
+        <v>108</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>576</v>
+      </c>
+      <c r="F31" t="s">
+        <v>577</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>578</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>582</v>
+      </c>
+      <c r="M31" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>1001</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>136</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1002</v>
-      </c>
-      <c r="B32" t="s">
-        <v>139</v>
       </c>
       <c r="C32">
         <v>100</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5105,21 +5073,21 @@
         <v>0</v>
       </c>
       <c r="L32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C33">
         <v>100</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -5137,21 +5105,21 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C34">
         <v>100</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5169,21 +5137,21 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -5201,24 +5169,21 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>146</v>
-      </c>
-      <c r="M35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
       <c r="D36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5236,24 +5201,24 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M36" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5271,24 +5236,24 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C38">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5306,24 +5271,24 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M38" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C39">
         <v>101</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5341,24 +5306,24 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M39" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C40">
         <v>101</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5376,24 +5341,24 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M40" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C41">
         <v>101</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5411,24 +5376,24 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C42">
         <v>101</v>
       </c>
       <c r="D42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5446,24 +5411,24 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M42" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5481,24 +5446,24 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M43" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44">
         <v>102</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5516,24 +5481,24 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C45">
         <v>102</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5551,24 +5516,24 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M45" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C46">
         <v>102</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5586,24 +5551,24 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M46" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C47">
         <v>102</v>
       </c>
       <c r="D47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5621,21 +5586,24 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="M47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C48">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5653,21 +5621,21 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C49">
         <v>103</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5685,21 +5653,21 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C50">
         <v>103</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5717,21 +5685,21 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C51">
         <v>103</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5749,21 +5717,21 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C52">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5781,21 +5749,21 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53">
         <v>104</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5813,21 +5781,21 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C54">
         <v>104</v>
       </c>
       <c r="D54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5845,21 +5813,21 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C55">
         <v>104</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5877,21 +5845,21 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C56">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5909,21 +5877,21 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C57">
         <v>105</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5941,21 +5909,21 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C58">
         <v>105</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -5973,21 +5941,21 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C59">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -6005,21 +5973,21 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C60">
         <v>106</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6037,21 +6005,21 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C61">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6069,24 +6037,21 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C62">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D62">
         <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>147</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6104,24 +6069,21 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>200</v>
-      </c>
-      <c r="M62" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C63">
         <v>110</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>147</v>
@@ -6142,21 +6104,24 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="M63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C64">
         <v>110</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
         <v>147</v>
@@ -6177,21 +6142,21 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65">
         <v>110</v>
       </c>
       <c r="D65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" t="s">
         <v>147</v>
@@ -6212,21 +6177,21 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C66">
         <v>110</v>
       </c>
       <c r="D66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
         <v>147</v>
@@ -6247,21 +6212,21 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C67">
         <v>110</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
         <v>147</v>
@@ -6282,21 +6247,21 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C68">
         <v>110</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
         <v>147</v>
@@ -6317,97 +6282,97 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1038</v>
+      </c>
+      <c r="B69" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69">
+        <v>110</v>
+      </c>
+      <c r="D69">
+        <v>8</v>
+      </c>
+      <c r="E69" t="s">
+        <v>147</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>137</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>1039</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>213</v>
       </c>
-      <c r="C69">
+      <c r="C70">
         <v>2</v>
       </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
         <v>214</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F70" t="s">
         <v>215</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
         <v>17</v>
       </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
         <v>216</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>1040</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>217</v>
       </c>
-      <c r="C70">
+      <c r="C71">
         <v>110</v>
       </c>
-      <c r="D70">
+      <c r="D71">
         <v>10</v>
-      </c>
-      <c r="E70" t="s">
-        <v>147</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
-        <v>137</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>1041</v>
-      </c>
-      <c r="B71" t="s">
-        <v>219</v>
-      </c>
-      <c r="C71">
-        <v>500</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
       </c>
       <c r="E71" t="s">
         <v>147</v>
@@ -6428,21 +6393,21 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C72">
         <v>500</v>
       </c>
       <c r="D72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>147</v>
@@ -6463,21 +6428,21 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C73">
         <v>500</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
         <v>147</v>
@@ -6498,21 +6463,21 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C74">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" t="s">
         <v>147</v>
@@ -6533,15 +6498,15 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C75">
         <v>501</v>
@@ -6568,15 +6533,15 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C76">
         <v>501</v>
@@ -6603,65 +6568,62 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>1046</v>
+      </c>
+      <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77">
+        <v>501</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>137</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>1047</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>231</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>3</v>
-      </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77" t="s">
-        <v>232</v>
-      </c>
-      <c r="F77" t="s">
-        <v>233</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
-        <v>234</v>
-      </c>
-      <c r="M77" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>1048</v>
-      </c>
-      <c r="B78" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78">
-        <v>118</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>232</v>
+      </c>
+      <c r="F78" t="s">
+        <v>233</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6670,30 +6632,33 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78">
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+      <c r="M78" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C79">
         <v>118</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E79" t="s">
         <v>147</v>
@@ -6714,21 +6679,21 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C80">
         <v>118</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
         <v>147</v>
@@ -6749,21 +6714,21 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C81">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
         <v>147</v>
@@ -6784,21 +6749,21 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C82">
         <v>109</v>
       </c>
       <c r="D82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>147</v>
@@ -6819,21 +6784,21 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C83">
         <v>109</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E83" t="s">
         <v>147</v>
@@ -6854,21 +6819,21 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C84">
         <v>109</v>
       </c>
       <c r="D84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E84" t="s">
         <v>147</v>
@@ -6889,21 +6854,21 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C85">
         <v>109</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
         <v>147</v>
@@ -6924,94 +6889,94 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>1055</v>
+      </c>
+      <c r="B86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86">
+        <v>109</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>147</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>137</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>1060</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>251</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>3</v>
       </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
         <v>252</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F87" t="s">
         <v>253</v>
       </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
         <v>17</v>
       </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>1061</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>255</v>
-      </c>
-      <c r="C87">
-        <v>115</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s">
-        <v>147</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
-        <v>137</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>1062</v>
-      </c>
-      <c r="B88" t="s">
-        <v>257</v>
       </c>
       <c r="C88">
         <v>115</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
         <v>147</v>
@@ -7032,15 +6997,15 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B89" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C89">
         <v>115</v>
@@ -7067,15 +7032,15 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B90" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C90">
         <v>115</v>
@@ -7102,15 +7067,15 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B91" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C91">
         <v>115</v>
@@ -7137,21 +7102,24 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B92" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C92">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D92">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>147</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7169,18 +7137,18 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C93">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93">
         <v>4</v>
@@ -7201,100 +7169,97 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>1071</v>
+      </c>
+      <c r="B94" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94">
+        <v>105</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>137</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>1072</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>269</v>
       </c>
-      <c r="C94">
+      <c r="C95">
         <v>3</v>
       </c>
-      <c r="D94">
+      <c r="D95">
         <v>17</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E95" t="s">
         <v>270</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F95" t="s">
         <v>271</v>
       </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
         <v>17</v>
       </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95" t="s">
         <v>272</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M95" t="s">
         <v>273</v>
       </c>
-      <c r="O94" t="s">
+      <c r="O95" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>1073</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>275</v>
-      </c>
-      <c r="C95">
-        <v>1072</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95" t="s">
-        <v>147</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
-        <v>137</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>1074</v>
-      </c>
-      <c r="B96" t="s">
-        <v>277</v>
       </c>
       <c r="C96">
         <v>1072</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>147</v>
@@ -7315,21 +7280,21 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C97">
         <v>1072</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97" t="s">
         <v>147</v>
@@ -7350,21 +7315,21 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C98">
         <v>1072</v>
       </c>
       <c r="D98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
         <v>147</v>
@@ -7385,21 +7350,21 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C99">
         <v>1072</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E99" t="s">
         <v>147</v>
@@ -7420,100 +7385,100 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>1077</v>
+      </c>
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100">
+        <v>1072</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>147</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>1078</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>285</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100">
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
         <v>999</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E101" t="s">
         <v>286</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F101" t="s">
         <v>287</v>
       </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
         <v>17</v>
       </c>
-      <c r="J100">
-        <v>0</v>
-      </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101" t="s">
         <v>288</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M101" t="s">
         <v>289</v>
       </c>
-      <c r="O100" t="s">
+      <c r="O101" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A101">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>1079</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>275</v>
-      </c>
-      <c r="C101">
-        <v>1078</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101" t="s">
-        <v>147</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
-        <v>137</v>
-      </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>1080</v>
-      </c>
-      <c r="B102" t="s">
-        <v>277</v>
       </c>
       <c r="C102">
         <v>1078</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>147</v>
@@ -7534,21 +7499,21 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B103" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C103">
         <v>1078</v>
       </c>
       <c r="D103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E103" t="s">
         <v>147</v>
@@ -7569,21 +7534,21 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B104" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C104">
         <v>1078</v>
       </c>
       <c r="D104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E104" t="s">
         <v>147</v>
@@ -7604,24 +7569,24 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="B105" t="s">
-        <v>574</v>
+        <v>281</v>
       </c>
       <c r="C105">
         <v>1078</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>573</v>
+        <v>147</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -7630,7 +7595,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>572</v>
+        <v>137</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -7639,15 +7604,15 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="B106" t="s">
-        <v>283</v>
+        <v>574</v>
       </c>
       <c r="C106">
         <v>1078</v>
@@ -7656,115 +7621,115 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
+        <v>573</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>572</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1083</v>
+      </c>
+      <c r="B107" t="s">
+        <v>283</v>
+      </c>
+      <c r="C107">
+        <v>1078</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" t="s">
         <v>147</v>
       </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
         <v>137</v>
       </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106" t="s">
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A107">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>1084</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>296</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>118</v>
       </c>
-      <c r="D107">
+      <c r="D108">
         <v>999</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E108" t="s">
         <v>297</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F108" t="s">
         <v>298</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
         <v>17</v>
       </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108" t="s">
         <v>299</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M108" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>1085</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>275</v>
-      </c>
-      <c r="C108">
-        <v>1084</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108" t="s">
-        <v>147</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>137</v>
-      </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>1086</v>
-      </c>
-      <c r="B109" t="s">
-        <v>277</v>
       </c>
       <c r="C109">
         <v>1084</v>
       </c>
       <c r="D109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
         <v>147</v>
@@ -7785,21 +7750,21 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C110">
         <v>1084</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
         <v>147</v>
@@ -7820,21 +7785,21 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B111" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C111">
         <v>1084</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>147</v>
@@ -7855,21 +7820,21 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B112" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C112">
         <v>1084</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E112" t="s">
         <v>147</v>
@@ -7890,62 +7855,56 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>1089</v>
+      </c>
+      <c r="B113" t="s">
+        <v>283</v>
+      </c>
+      <c r="C113">
+        <v>1084</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" t="s">
+        <v>147</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>137</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>1100</v>
-      </c>
-      <c r="B113" t="s">
-        <v>575</v>
-      </c>
-      <c r="C113">
-        <v>108</v>
-      </c>
-      <c r="D113">
-        <v>3</v>
-      </c>
-      <c r="E113" t="s">
-        <v>576</v>
-      </c>
-      <c r="F113" t="s">
-        <v>577</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
-        <v>578</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113" t="s">
-        <v>582</v>
-      </c>
-      <c r="M113" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="B114" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="C114">
-        <v>1100</v>
+        <v>111</v>
       </c>
       <c r="D114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -7963,21 +7922,24 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+      <c r="N114" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="B115" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="C115">
-        <v>1100</v>
+        <v>111</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -7995,7 +7957,80 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
+        <v>594</v>
+      </c>
+      <c r="N115" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1102</v>
+      </c>
+      <c r="B116" t="s">
+        <v>580</v>
+      </c>
+      <c r="C116">
+        <v>502</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>572</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>583</v>
+      </c>
+      <c r="N116" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>1103</v>
+      </c>
+      <c r="B117" t="s">
+        <v>581</v>
+      </c>
+      <c r="C117">
+        <v>502</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>572</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117" t="s">
         <v>584</v>
+      </c>
+      <c r="N117" t="s">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -8013,14 +8048,14 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -8052,7 +8087,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8084,7 +8119,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8131,9 +8166,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -8141,7 +8176,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8149,7 +8184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8157,7 +8192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8165,7 +8200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8173,7 +8208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8181,7 +8216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8189,7 +8224,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8197,7 +8232,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8205,7 +8240,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8213,7 +8248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8221,7 +8256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8229,7 +8264,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8237,7 +8272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8245,7 +8280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8253,7 +8288,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8261,7 +8296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8269,7 +8304,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8277,7 +8312,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8285,7 +8320,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8293,7 +8328,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8301,7 +8336,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8309,7 +8344,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8317,7 +8352,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8325,7 +8360,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8333,7 +8368,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8341,7 +8376,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8363,14 +8398,14 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.77734375" customWidth="1"/>
+    <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>369</v>
       </c>
@@ -8390,7 +8425,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8410,7 +8445,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8430,7 +8465,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8450,7 +8485,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8470,7 +8505,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8487,7 +8522,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8504,7 +8539,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8538,9 +8573,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>404</v>
       </c>
@@ -8548,7 +8583,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8556,7 +8591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8578,18 +8613,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -8642,7 +8677,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>413</v>
       </c>
@@ -8697,12 +8732,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -8719,7 +8754,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8736,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8753,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8770,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8787,7 +8822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8804,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8821,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8838,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8855,7 +8890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8872,7 +8907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8889,7 +8924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8906,7 +8941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8923,7 +8958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8954,15 +8989,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="3"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>524</v>
       </c>
@@ -8985,7 +9020,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9005,7 +9040,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9025,7 +9060,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9045,7 +9080,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9065,7 +9100,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9085,7 +9120,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9105,7 +9140,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9125,7 +9160,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9145,7 +9180,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9165,7 +9200,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9185,7 +9220,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9202,7 +9237,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9222,7 +9257,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B1F9428-7B86-4FE9-A0EB-7D2E5C124015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB4710-F769-49DF-AD1B-B8688619661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -26,6 +26,9 @@
     <sheet name="dept" sheetId="11" r:id="rId11"/>
     <sheet name="article_category" sheetId="12" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">menu!$A$1:$A$117</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1968,8 +1971,87 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1989,7 +2071,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2284,12 +2366,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="28.08203125" customWidth="1"/>
+    <col min="10" max="10" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -2330,7 +2412,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2359,7 +2441,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2403,13 +2485,13 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>530</v>
       </c>
@@ -2441,7 +2523,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2467,7 +2549,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2493,7 +2575,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2519,7 +2601,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2548,7 +2630,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2577,7 +2659,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2606,7 +2688,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2635,7 +2717,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2664,7 +2746,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2693,7 +2775,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2719,7 +2801,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2745,7 +2827,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2774,7 +2856,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2803,7 +2885,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2832,7 +2914,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2861,7 +2943,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2890,7 +2972,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2919,7 +3001,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2948,7 +3030,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2977,7 +3059,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3006,7 +3088,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3035,7 +3117,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3064,7 +3146,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3093,7 +3175,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3122,7 +3204,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3151,7 +3233,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3180,7 +3262,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3209,7 +3291,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3238,7 +3320,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3267,7 +3349,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3290,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3313,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3336,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3359,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3382,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3408,7 +3490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3434,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3474,9 +3556,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>541</v>
       </c>
@@ -3499,7 +3581,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3519,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3539,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3559,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3579,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3614,12 +3696,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>559</v>
       </c>
@@ -3630,7 +3712,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3641,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3652,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3663,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3674,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3685,7 +3767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3696,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3707,7 +3789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3729,24 +3811,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N115" sqref="N115"/>
+      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="10.58203125" customWidth="1"/>
-    <col min="14" max="14" width="18.4140625" customWidth="1"/>
-    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" customWidth="1"/>
+    <col min="15" max="15" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3793,7 +3875,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3831,7 +3913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3869,7 +3951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3907,7 +3989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -3945,7 +4027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -3986,7 +4068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4015,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -4056,7 +4138,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>100</v>
       </c>
@@ -4100,7 +4182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>101</v>
       </c>
@@ -4144,7 +4226,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>102</v>
       </c>
@@ -4188,7 +4270,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>103</v>
       </c>
@@ -4232,7 +4314,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>104</v>
       </c>
@@ -4276,7 +4358,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>105</v>
       </c>
@@ -4320,7 +4402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>106</v>
       </c>
@@ -4361,7 +4443,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>107</v>
       </c>
@@ -4405,7 +4487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>108</v>
       </c>
@@ -4443,7 +4525,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>109</v>
       </c>
@@ -4487,7 +4569,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>110</v>
       </c>
@@ -4528,7 +4610,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>111</v>
       </c>
@@ -4569,7 +4651,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>112</v>
       </c>
@@ -4613,7 +4695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>113</v>
       </c>
@@ -4657,7 +4739,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>114</v>
       </c>
@@ -4701,7 +4783,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>115</v>
       </c>
@@ -4745,7 +4827,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>116</v>
       </c>
@@ -4789,7 +4871,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>117</v>
       </c>
@@ -4833,7 +4915,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>118</v>
       </c>
@@ -4871,7 +4953,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>119</v>
       </c>
@@ -4915,7 +4997,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>500</v>
       </c>
@@ -4959,7 +5041,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>501</v>
       </c>
@@ -5003,7 +5085,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>502</v>
       </c>
@@ -5044,7 +5126,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1001</v>
       </c>
@@ -5076,7 +5158,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1002</v>
       </c>
@@ -5108,7 +5190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1003</v>
       </c>
@@ -5140,7 +5222,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1004</v>
       </c>
@@ -5172,7 +5254,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1005</v>
       </c>
@@ -5207,7 +5289,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1006</v>
       </c>
@@ -5242,7 +5324,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1007</v>
       </c>
@@ -5277,7 +5359,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1008</v>
       </c>
@@ -5312,7 +5394,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1009</v>
       </c>
@@ -5347,7 +5429,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1010</v>
       </c>
@@ -5382,7 +5464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1011</v>
       </c>
@@ -5417,7 +5499,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1012</v>
       </c>
@@ -5452,7 +5534,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1013</v>
       </c>
@@ -5487,7 +5569,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1014</v>
       </c>
@@ -5522,7 +5604,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1015</v>
       </c>
@@ -5557,7 +5639,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1016</v>
       </c>
@@ -5592,7 +5674,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1017</v>
       </c>
@@ -5624,7 +5706,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1018</v>
       </c>
@@ -5656,7 +5738,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1019</v>
       </c>
@@ -5688,7 +5770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1020</v>
       </c>
@@ -5720,7 +5802,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1021</v>
       </c>
@@ -5752,7 +5834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1022</v>
       </c>
@@ -5784,7 +5866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1023</v>
       </c>
@@ -5816,7 +5898,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1024</v>
       </c>
@@ -5848,7 +5930,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1025</v>
       </c>
@@ -5880,7 +5962,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1026</v>
       </c>
@@ -5912,7 +5994,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1027</v>
       </c>
@@ -5944,7 +6026,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1028</v>
       </c>
@@ -5976,7 +6058,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1029</v>
       </c>
@@ -6008,7 +6090,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1030</v>
       </c>
@@ -6040,7 +6122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1031</v>
       </c>
@@ -6072,7 +6154,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1032</v>
       </c>
@@ -6110,7 +6192,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1033</v>
       </c>
@@ -6145,7 +6227,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1034</v>
       </c>
@@ -6180,7 +6262,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1035</v>
       </c>
@@ -6215,7 +6297,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1036</v>
       </c>
@@ -6250,7 +6332,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1037</v>
       </c>
@@ -6285,7 +6367,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1038</v>
       </c>
@@ -6320,7 +6402,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1039</v>
       </c>
@@ -6361,7 +6443,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1040</v>
       </c>
@@ -6396,7 +6478,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1041</v>
       </c>
@@ -6431,7 +6513,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1042</v>
       </c>
@@ -6466,7 +6548,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1043</v>
       </c>
@@ -6501,7 +6583,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1044</v>
       </c>
@@ -6536,7 +6618,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1045</v>
       </c>
@@ -6571,7 +6653,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1046</v>
       </c>
@@ -6606,7 +6688,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1047</v>
       </c>
@@ -6647,7 +6729,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1048</v>
       </c>
@@ -6682,7 +6764,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1049</v>
       </c>
@@ -6717,7 +6799,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1050</v>
       </c>
@@ -6752,7 +6834,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1051</v>
       </c>
@@ -6787,7 +6869,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1052</v>
       </c>
@@ -6822,7 +6904,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1053</v>
       </c>
@@ -6857,7 +6939,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1054</v>
       </c>
@@ -6892,7 +6974,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1055</v>
       </c>
@@ -6927,7 +7009,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1060</v>
       </c>
@@ -6965,7 +7047,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1061</v>
       </c>
@@ -7000,7 +7082,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1062</v>
       </c>
@@ -7035,7 +7117,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1063</v>
       </c>
@@ -7070,7 +7152,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1064</v>
       </c>
@@ -7105,7 +7187,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1065</v>
       </c>
@@ -7140,7 +7222,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1070</v>
       </c>
@@ -7172,7 +7254,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1071</v>
       </c>
@@ -7204,7 +7286,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1072</v>
       </c>
@@ -7248,7 +7330,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1073</v>
       </c>
@@ -7283,7 +7365,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1074</v>
       </c>
@@ -7318,7 +7400,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1075</v>
       </c>
@@ -7353,7 +7435,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1076</v>
       </c>
@@ -7388,7 +7470,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1077</v>
       </c>
@@ -7423,7 +7505,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1078</v>
       </c>
@@ -7467,7 +7549,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1079</v>
       </c>
@@ -7502,7 +7584,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1080</v>
       </c>
@@ -7537,7 +7619,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1081</v>
       </c>
@@ -7572,7 +7654,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1082</v>
       </c>
@@ -7607,7 +7689,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1090</v>
       </c>
@@ -7642,7 +7724,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1083</v>
       </c>
@@ -7677,7 +7759,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1084</v>
       </c>
@@ -7718,7 +7800,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1085</v>
       </c>
@@ -7753,7 +7835,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1086</v>
       </c>
@@ -7788,7 +7870,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1087</v>
       </c>
@@ -7823,7 +7905,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1088</v>
       </c>
@@ -7858,7 +7940,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1089</v>
       </c>
@@ -7893,9 +7975,9 @@
         <v>304</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B114" t="s">
         <v>592</v>
@@ -7928,7 +8010,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1091</v>
       </c>
@@ -7963,7 +8045,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1102</v>
       </c>
@@ -7998,7 +8080,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1103</v>
       </c>
@@ -8034,7 +8116,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8048,14 +8134,14 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -8087,7 +8173,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8119,7 +8205,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8166,9 +8252,9 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>405</v>
       </c>
@@ -8176,7 +8262,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8184,7 +8270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8192,7 +8278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8200,7 +8286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8208,7 +8294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8216,7 +8302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8224,7 +8310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8232,7 +8318,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8240,7 +8326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8248,7 +8334,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8256,7 +8342,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8264,7 +8350,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8272,7 +8358,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8280,7 +8366,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8288,7 +8374,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8296,7 +8382,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8304,7 +8390,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8312,7 +8398,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8320,7 +8406,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8328,7 +8414,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8336,7 +8422,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8344,7 +8430,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8352,7 +8438,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8360,7 +8446,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8368,7 +8454,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8376,7 +8462,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8398,14 +8484,14 @@
       <selection activeCell="F6" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.75" customWidth="1"/>
+    <col min="6" max="6" width="83.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>369</v>
       </c>
@@ -8425,7 +8511,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8445,7 +8531,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8465,7 +8551,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8485,7 +8571,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8505,7 +8591,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8522,7 +8608,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8539,7 +8625,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8573,9 +8659,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>404</v>
       </c>
@@ -8583,7 +8669,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8591,7 +8677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8613,18 +8699,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>412</v>
       </c>
@@ -8677,7 +8763,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>413</v>
       </c>
@@ -8732,12 +8818,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -8754,7 +8840,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8771,7 +8857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8788,7 +8874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8805,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8822,7 +8908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8839,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8856,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8873,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8890,7 +8976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8907,7 +8993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8924,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8941,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8958,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8989,15 +9075,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="5" width="8.9140625" style="3"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>524</v>
       </c>
@@ -9020,7 +9106,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9040,7 +9126,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9060,7 +9146,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9080,7 +9166,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9100,7 +9186,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9120,7 +9206,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9140,7 +9226,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9160,7 +9246,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9180,7 +9266,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9200,7 +9286,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9220,7 +9306,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9237,7 +9323,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9257,7 +9343,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DB4710-F769-49DF-AD1B-B8688619661C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D944A-1181-4244-8375-78378AA421E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="612">
   <si>
     <t>系统管理</t>
   </si>
@@ -1917,6 +1917,58 @@
   </si>
   <si>
     <t>在线用户强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LangKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.abnormal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2479,19 +2531,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="20.109375" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>530</v>
       </c>
@@ -2522,8 +2575,11 @@
       <c r="J1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2548,8 +2604,11 @@
       <c r="J2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2574,8 +2633,11 @@
       <c r="J3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2600,8 +2662,11 @@
       <c r="J4" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2629,8 +2694,11 @@
       <c r="J5" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2658,8 +2726,11 @@
       <c r="J6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2687,8 +2758,11 @@
       <c r="J7" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2716,8 +2790,11 @@
       <c r="J8" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2745,8 +2822,11 @@
       <c r="J9" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2774,8 +2854,11 @@
       <c r="J10" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2800,8 +2883,11 @@
       <c r="J11" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2826,8 +2912,11 @@
       <c r="J12" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2855,8 +2944,11 @@
       <c r="J13" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2884,8 +2976,11 @@
       <c r="J14" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2914,7 +3009,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3811,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90D944A-1181-4244-8375-78378AA421E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94218955-C1A1-492B-B927-2D2FC8D43A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="609">
   <si>
     <t>系统管理</t>
   </si>
@@ -1126,15 +1126,6 @@
   </si>
   <si>
     <t>开启验证码功能（off、关闭，1、动态验证码 2、动态gif泡泡 3、泡泡 4、静态验证码）</t>
-  </si>
-  <si>
-    <t>本地文件上传访问域名</t>
-  </si>
-  <si>
-    <t>sys.file.uploadurl</t>
-  </si>
-  <si>
-    <t>http://localhost:8888</t>
   </si>
   <si>
     <t>开启注册功能</t>
@@ -2036,74 +2027,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2123,7 +2046,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2418,12 +2341,12 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="28.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -2452,7 +2375,7 @@
         <v>327</v>
       </c>
       <c r="J1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="K1" t="s">
         <v>330</v>
@@ -2464,7 +2387,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2493,15 +2416,15 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D3" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2533,41 +2456,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D1" t="s">
         <v>530</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" t="s">
         <v>531</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>532</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>533</v>
-      </c>
-      <c r="E1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F1" t="s">
-        <v>534</v>
-      </c>
-      <c r="G1" t="s">
-        <v>535</v>
-      </c>
-      <c r="H1" t="s">
-        <v>536</v>
       </c>
       <c r="I1" t="s">
         <v>315</v>
@@ -2576,10 +2499,10 @@
         <v>334</v>
       </c>
       <c r="K1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2587,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H2" t="s">
         <v>349</v>
@@ -2602,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2616,28 +2539,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2645,28 +2568,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H4" t="s">
+        <v>465</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>468</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>471</v>
-      </c>
       <c r="K4" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2674,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -2692,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K5" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2706,31 +2629,31 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K6" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2738,16 +2661,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H7" t="s">
         <v>349</v>
@@ -2756,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K7" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2770,31 +2693,31 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2802,16 +2725,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G9" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H9" t="s">
         <v>349</v>
@@ -2820,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K9" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2834,31 +2757,31 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G10" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K10" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2866,13 +2789,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H11" t="s">
         <v>349</v>
@@ -2881,13 +2804,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2895,28 +2818,28 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D12" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E12" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K12" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2924,16 +2847,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D13" t="s">
         <v>349</v>
       </c>
       <c r="E13" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H13" t="s">
         <v>349</v>
@@ -2942,13 +2865,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K13" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2956,31 +2879,31 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E14" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G14" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H14" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="K14" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2988,16 +2911,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G15" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H15" t="s">
         <v>349</v>
@@ -3006,10 +2929,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3017,28 +2940,28 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G16" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H16" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3046,16 +2969,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G17" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H17" t="s">
         <v>349</v>
@@ -3064,10 +2987,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3075,28 +2998,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G18" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H18" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3104,28 +3027,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G19" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H19" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3139,22 +3062,22 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G20" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H20" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3168,22 +3091,22 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G21" t="s">
+        <v>496</v>
+      </c>
+      <c r="H21" t="s">
+        <v>465</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>499</v>
       </c>
-      <c r="H21" t="s">
-        <v>468</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3197,22 +3120,22 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3220,28 +3143,28 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3255,22 +3178,22 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G24" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H24" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3278,28 +3201,28 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G25" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3307,28 +3230,28 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G26" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H26" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3342,22 +3265,22 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G27" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="H27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3365,28 +3288,28 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G28" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H28" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3394,28 +3317,28 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G29" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H29" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3423,28 +3346,28 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G30" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H30" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3452,22 +3375,22 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H31" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3475,22 +3398,22 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H32" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3498,22 +3421,22 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D33" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H33" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3521,22 +3444,22 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D34" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E34" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H34" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3544,22 +3467,22 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D35" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E35" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H35" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3567,25 +3490,25 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>562</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>559</v>
+      </c>
+      <c r="G36" t="s">
         <v>565</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>562</v>
-      </c>
-      <c r="G36" t="s">
-        <v>568</v>
-      </c>
       <c r="H36" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3593,25 +3516,25 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G37" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="H37" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3619,19 +3542,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G38" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H38" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3651,23 +3574,23 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" t="s">
         <v>541</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>542</v>
-      </c>
-      <c r="C1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D1" t="s">
-        <v>544</v>
-      </c>
-      <c r="E1" t="s">
-        <v>545</v>
       </c>
       <c r="F1" t="s">
         <v>315</v>
@@ -3676,7 +3599,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3684,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3696,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3704,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3716,7 +3639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3724,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3736,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3744,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3756,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3764,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3791,105 +3714,105 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3911,19 +3834,19 @@
       <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" customWidth="1"/>
-    <col min="15" max="15" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="13" width="10.58203125" customWidth="1"/>
+    <col min="14" max="14" width="18.4140625" customWidth="1"/>
+    <col min="15" max="15" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>305</v>
       </c>
@@ -3970,7 +3893,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4008,7 +3931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4046,7 +3969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4084,7 +4007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4122,7 +4045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4163,12 +4086,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4183,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4192,12 +4115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4206,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F8" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4218,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -4227,13 +4150,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="O8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100</v>
       </c>
@@ -4277,7 +4200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>101</v>
       </c>
@@ -4321,7 +4244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>102</v>
       </c>
@@ -4365,7 +4288,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>103</v>
       </c>
@@ -4409,7 +4332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>104</v>
       </c>
@@ -4453,7 +4376,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>105</v>
       </c>
@@ -4497,7 +4420,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>106</v>
       </c>
@@ -4538,7 +4461,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>107</v>
       </c>
@@ -4582,7 +4505,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>108</v>
       </c>
@@ -4620,7 +4543,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>109</v>
       </c>
@@ -4664,7 +4587,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>110</v>
       </c>
@@ -4678,7 +4601,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -4705,7 +4628,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>111</v>
       </c>
@@ -4746,7 +4669,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>112</v>
       </c>
@@ -4790,7 +4713,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>113</v>
       </c>
@@ -4834,7 +4757,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>114</v>
       </c>
@@ -4878,7 +4801,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>115</v>
       </c>
@@ -4922,7 +4845,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>116</v>
       </c>
@@ -4966,7 +4889,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>117</v>
       </c>
@@ -5010,7 +4933,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>118</v>
       </c>
@@ -5048,7 +4971,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>119</v>
       </c>
@@ -5092,7 +5015,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>500</v>
       </c>
@@ -5136,7 +5059,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>501</v>
       </c>
@@ -5180,12 +5103,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>502</v>
       </c>
       <c r="B31" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C31">
         <v>108</v>
@@ -5194,34 +5117,34 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
+        <v>573</v>
+      </c>
+      <c r="F31" t="s">
+        <v>574</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>575</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>579</v>
+      </c>
+      <c r="M31" t="s">
         <v>576</v>
       </c>
-      <c r="F31" t="s">
-        <v>577</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>578</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>582</v>
-      </c>
-      <c r="M31" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1001</v>
       </c>
@@ -5253,7 +5176,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1002</v>
       </c>
@@ -5285,7 +5208,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1003</v>
       </c>
@@ -5317,7 +5240,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1004</v>
       </c>
@@ -5349,7 +5272,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1005</v>
       </c>
@@ -5384,7 +5307,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1006</v>
       </c>
@@ -5419,7 +5342,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1007</v>
       </c>
@@ -5454,7 +5377,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1008</v>
       </c>
@@ -5489,7 +5412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1009</v>
       </c>
@@ -5524,7 +5447,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1010</v>
       </c>
@@ -5559,7 +5482,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1011</v>
       </c>
@@ -5594,7 +5517,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1012</v>
       </c>
@@ -5629,7 +5552,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1013</v>
       </c>
@@ -5664,7 +5587,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1014</v>
       </c>
@@ -5699,7 +5622,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1015</v>
       </c>
@@ -5734,7 +5657,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1016</v>
       </c>
@@ -5769,7 +5692,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1017</v>
       </c>
@@ -5801,7 +5724,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1018</v>
       </c>
@@ -5833,7 +5756,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1019</v>
       </c>
@@ -5865,7 +5788,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1020</v>
       </c>
@@ -5897,7 +5820,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1021</v>
       </c>
@@ -5929,7 +5852,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1022</v>
       </c>
@@ -5961,7 +5884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1023</v>
       </c>
@@ -5993,7 +5916,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1024</v>
       </c>
@@ -6025,7 +5948,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1025</v>
       </c>
@@ -6057,7 +5980,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1026</v>
       </c>
@@ -6089,7 +6012,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1027</v>
       </c>
@@ -6121,7 +6044,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1028</v>
       </c>
@@ -6153,7 +6076,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1029</v>
       </c>
@@ -6185,7 +6108,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1030</v>
       </c>
@@ -6217,7 +6140,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1031</v>
       </c>
@@ -6249,7 +6172,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1032</v>
       </c>
@@ -6287,7 +6210,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1033</v>
       </c>
@@ -6322,7 +6245,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1034</v>
       </c>
@@ -6357,7 +6280,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1035</v>
       </c>
@@ -6392,7 +6315,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1036</v>
       </c>
@@ -6427,7 +6350,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1037</v>
       </c>
@@ -6462,7 +6385,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1038</v>
       </c>
@@ -6497,7 +6420,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1039</v>
       </c>
@@ -6538,7 +6461,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1040</v>
       </c>
@@ -6573,7 +6496,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1041</v>
       </c>
@@ -6608,7 +6531,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1042</v>
       </c>
@@ -6643,7 +6566,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1043</v>
       </c>
@@ -6678,7 +6601,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1044</v>
       </c>
@@ -6713,7 +6636,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1045</v>
       </c>
@@ -6748,7 +6671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1046</v>
       </c>
@@ -6783,7 +6706,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1047</v>
       </c>
@@ -6824,7 +6747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1048</v>
       </c>
@@ -6859,7 +6782,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1049</v>
       </c>
@@ -6894,7 +6817,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1050</v>
       </c>
@@ -6929,7 +6852,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1051</v>
       </c>
@@ -6964,7 +6887,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1052</v>
       </c>
@@ -6999,7 +6922,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1053</v>
       </c>
@@ -7034,7 +6957,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1054</v>
       </c>
@@ -7069,7 +6992,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1055</v>
       </c>
@@ -7104,7 +7027,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1060</v>
       </c>
@@ -7142,7 +7065,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1061</v>
       </c>
@@ -7177,7 +7100,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1062</v>
       </c>
@@ -7212,7 +7135,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1063</v>
       </c>
@@ -7247,7 +7170,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1064</v>
       </c>
@@ -7282,7 +7205,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1065</v>
       </c>
@@ -7317,7 +7240,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1070</v>
       </c>
@@ -7349,7 +7272,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1071</v>
       </c>
@@ -7381,7 +7304,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1072</v>
       </c>
@@ -7425,7 +7348,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1073</v>
       </c>
@@ -7460,7 +7383,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1074</v>
       </c>
@@ -7495,7 +7418,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1075</v>
       </c>
@@ -7530,7 +7453,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1076</v>
       </c>
@@ -7565,7 +7488,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1077</v>
       </c>
@@ -7600,7 +7523,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1078</v>
       </c>
@@ -7644,7 +7567,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1079</v>
       </c>
@@ -7679,7 +7602,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1080</v>
       </c>
@@ -7714,7 +7637,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1081</v>
       </c>
@@ -7749,7 +7672,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1082</v>
       </c>
@@ -7784,12 +7707,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1090</v>
       </c>
       <c r="B106" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C106">
         <v>1078</v>
@@ -7798,7 +7721,7 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -7807,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -7816,10 +7739,10 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1083</v>
       </c>
@@ -7854,7 +7777,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1084</v>
       </c>
@@ -7895,7 +7818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1085</v>
       </c>
@@ -7930,7 +7853,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1086</v>
       </c>
@@ -7965,7 +7888,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1087</v>
       </c>
@@ -8000,7 +7923,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1088</v>
       </c>
@@ -8035,7 +7958,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1089</v>
       </c>
@@ -8070,12 +7993,12 @@
         <v>304</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1092</v>
       </c>
       <c r="B114" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C114">
         <v>111</v>
@@ -8090,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -8099,18 +8022,18 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="N114" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1091</v>
       </c>
       <c r="B115" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C115">
         <v>111</v>
@@ -8125,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -8134,18 +8057,18 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="N115" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1102</v>
       </c>
       <c r="B116" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C116">
         <v>502</v>
@@ -8160,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -8169,18 +8092,18 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="N116" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1103</v>
       </c>
       <c r="B117" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C117">
         <v>502</v>
@@ -8195,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -8204,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="N117" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -8229,14 +8152,14 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>338</v>
       </c>
@@ -8268,7 +8191,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8300,7 +8223,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8347,17 +8270,17 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8365,7 +8288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8373,7 +8296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8381,7 +8304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8389,7 +8312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8397,7 +8320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8405,7 +8328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8413,7 +8336,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8421,7 +8344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8429,7 +8352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8437,7 +8360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8445,7 +8368,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8453,7 +8376,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8461,7 +8384,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8469,7 +8392,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8477,7 +8400,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8485,7 +8408,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8493,7 +8416,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8501,7 +8424,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8509,7 +8432,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8517,7 +8440,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8525,7 +8448,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8533,7 +8456,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8541,7 +8464,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8549,7 +8472,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8557,7 +8480,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8573,40 +8496,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA152B8-C1FA-4646-A501-2C7774BC6ACC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.77734375" customWidth="1"/>
+    <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D1" t="s">
         <v>369</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>370</v>
-      </c>
-      <c r="C1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" t="s">
-        <v>373</v>
       </c>
       <c r="F1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8626,7 +8549,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8646,7 +8569,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8657,7 +8580,7 @@
         <v>355</v>
       </c>
       <c r="D4" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E4" t="s">
         <v>349</v>
@@ -8666,7 +8589,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8686,9 +8609,9 @@
         <v>359</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>360</v>
@@ -8696,48 +8619,31 @@
       <c r="C6" t="s">
         <v>361</v>
       </c>
-      <c r="D6" t="s">
-        <v>362</v>
+      <c r="D6" t="b">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" t="s">
         <v>363</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>364</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
       </c>
       <c r="E7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="F7" t="s">
         <v>365</v>
-      </c>
-      <c r="C8" t="s">
-        <v>366</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" t="s">
-        <v>349</v>
-      </c>
-      <c r="F8" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -8754,17 +8660,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8772,7 +8678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8794,88 +8700,88 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C1" t="s">
         <v>412</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" t="s">
         <v>414</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>415</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>416</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>417</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>418</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>419</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>420</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>421</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>422</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>423</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>424</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>425</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>426</v>
       </c>
-      <c r="O1" t="s">
-        <v>427</v>
-      </c>
-      <c r="P1" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E2" t="s">
         <v>407</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>408</v>
-      </c>
-      <c r="D2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E2" t="s">
-        <v>410</v>
-      </c>
-      <c r="F2" t="s">
-        <v>411</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -8913,37 +8819,37 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1" t="s">
         <v>400</v>
-      </c>
-      <c r="B1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C1" t="s">
-        <v>402</v>
-      </c>
-      <c r="D1" t="s">
-        <v>403</v>
       </c>
       <c r="E1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8952,15 +8858,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8969,15 +8875,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -8986,15 +8892,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9003,15 +8909,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9020,15 +8926,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9037,15 +8943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9054,15 +8960,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9071,15 +8977,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9088,15 +8994,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9105,15 +9011,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9122,15 +9028,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C13" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9139,15 +9045,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C14" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9170,46 +9076,46 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="3"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>315</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F1" t="s">
         <v>334</v>
       </c>
       <c r="G1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -9218,18 +9124,18 @@
         <v>349</v>
       </c>
       <c r="F2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -9238,18 +9144,18 @@
         <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -9258,18 +9164,18 @@
         <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -9278,18 +9184,18 @@
         <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -9298,18 +9204,18 @@
         <v>349</v>
       </c>
       <c r="F6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -9318,38 +9224,38 @@
         <v>349</v>
       </c>
       <c r="F7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F8" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C9" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -9358,18 +9264,18 @@
         <v>349</v>
       </c>
       <c r="F9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -9378,18 +9284,18 @@
         <v>349</v>
       </c>
       <c r="F10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -9398,18 +9304,18 @@
         <v>349</v>
       </c>
       <c r="F11" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -9418,15 +9324,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -9435,27 +9341,27 @@
         <v>349</v>
       </c>
       <c r="F13" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>558</v>
+      </c>
+      <c r="C14" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="F14" t="s">
         <v>561</v>
-      </c>
-      <c r="C14" t="s">
-        <v>563</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F14" t="s">
-        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94218955-C1A1-492B-B927-2D2FC8D43A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6018CD49-B97C-4756-BCE9-279E05918D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="task" sheetId="8" r:id="rId7"/>
     <sheet name="post" sheetId="5" r:id="rId8"/>
     <sheet name="dict_type" sheetId="9" r:id="rId9"/>
-    <sheet name="dict_data" sheetId="10" r:id="rId10"/>
-    <sheet name="dept" sheetId="11" r:id="rId11"/>
+    <sheet name="dept" sheetId="11" r:id="rId10"/>
+    <sheet name="dict_data" sheetId="10" r:id="rId11"/>
     <sheet name="article_category" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="622">
   <si>
     <t>系统管理</t>
   </si>
@@ -372,1594 +372,1646 @@
     <t>tool/email/sendEmail</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>menu.sendEmail</t>
+  </si>
+  <si>
+    <t>文章管理</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>menu.systemArticle</t>
+  </si>
+  <si>
+    <t>文章列表</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>system/article/manager</t>
+  </si>
+  <si>
+    <t>system:article:list</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>menu.articleList</t>
+  </si>
+  <si>
+    <t>操作日志</t>
+  </si>
+  <si>
+    <t>operlog</t>
+  </si>
+  <si>
+    <t>monitor/operlog/index</t>
+  </si>
+  <si>
+    <t>monitor:operlog:list</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>menu.operLog</t>
+  </si>
+  <si>
+    <t>登录日志</t>
+  </si>
+  <si>
+    <t>logininfor</t>
+  </si>
+  <si>
+    <t>monitor/logininfor/index</t>
+  </si>
+  <si>
+    <t>monitor:logininfor:list</t>
+  </si>
+  <si>
+    <t>menu.loginLog</t>
+  </si>
+  <si>
+    <t>用户查询</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>system:user:query</t>
+  </si>
+  <si>
+    <t>用户添加</t>
+  </si>
+  <si>
+    <t>system:user:add</t>
+  </si>
+  <si>
+    <t>用户修改</t>
+  </si>
+  <si>
+    <t>system:user:edit</t>
+  </si>
+  <si>
+    <t>用户删除</t>
+  </si>
+  <si>
+    <t>system:user:remove</t>
+  </si>
+  <si>
+    <t>用户导出</t>
+  </si>
+  <si>
+    <t>system:user:export</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>用户导入</t>
+  </si>
+  <si>
+    <t>system:user:import</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>system:user:resetPwd</t>
+  </si>
+  <si>
+    <t>角色查询</t>
+  </si>
+  <si>
+    <t>system:role:query</t>
+  </si>
+  <si>
+    <t>角色新增</t>
+  </si>
+  <si>
+    <t>system:role:add</t>
+  </si>
+  <si>
+    <t>角色修改</t>
+  </si>
+  <si>
+    <t>system:role:edit</t>
+  </si>
+  <si>
+    <t>角色删除</t>
+  </si>
+  <si>
+    <t>system:role:remove</t>
+  </si>
+  <si>
+    <t>菜单授权</t>
+  </si>
+  <si>
+    <t>system:role:authorize</t>
+  </si>
+  <si>
+    <t>菜单查询</t>
+  </si>
+  <si>
+    <t>system:menu:query</t>
+  </si>
+  <si>
+    <t>菜单新增</t>
+  </si>
+  <si>
+    <t>system:menu:add</t>
+  </si>
+  <si>
+    <t>菜单修改</t>
+  </si>
+  <si>
+    <t>system:menu:edit</t>
+  </si>
+  <si>
+    <t>菜单删除</t>
+  </si>
+  <si>
+    <t>system:menu:remove</t>
+  </si>
+  <si>
+    <t>修改排序</t>
+  </si>
+  <si>
+    <t>system:menu:changeSort</t>
+  </si>
+  <si>
+    <t>部门查询</t>
+  </si>
+  <si>
+    <t>system:dept:query</t>
+  </si>
+  <si>
+    <t>部门新增</t>
+  </si>
+  <si>
+    <t>system:dept:add</t>
+  </si>
+  <si>
+    <t>部门修改</t>
+  </si>
+  <si>
+    <t>system:dept:update</t>
+  </si>
+  <si>
+    <t>部门删除</t>
+  </si>
+  <si>
+    <t>system:dept:remove</t>
+  </si>
+  <si>
+    <t>岗位查询</t>
+  </si>
+  <si>
+    <t>岗位添加</t>
+  </si>
+  <si>
+    <t>system:post:add</t>
+  </si>
+  <si>
+    <t>岗位删除</t>
+  </si>
+  <si>
+    <t>system:post:remove</t>
+  </si>
+  <si>
+    <t>岗位编辑</t>
+  </si>
+  <si>
+    <t>system:post:edit</t>
+  </si>
+  <si>
+    <t>字典新增</t>
+  </si>
+  <si>
+    <t>system:dict:add</t>
+  </si>
+  <si>
+    <t>字典修改</t>
+  </si>
+  <si>
+    <t>system:dict:edit</t>
+  </si>
+  <si>
+    <t>字典删除</t>
+  </si>
+  <si>
+    <t>system:dict:remove</t>
+  </si>
+  <si>
+    <t>新增用户</t>
+  </si>
+  <si>
+    <t>system:roleusers:add</t>
+  </si>
+  <si>
+    <t>删除用户</t>
+  </si>
+  <si>
+    <t>system:roleusers:del</t>
+  </si>
+  <si>
+    <t>字典查询</t>
+  </si>
+  <si>
+    <t>system:dict:query</t>
+  </si>
+  <si>
+    <t>任务查询</t>
+  </si>
+  <si>
+    <t>monitor:job:list</t>
+  </si>
+  <si>
+    <t>任务新增</t>
+  </si>
+  <si>
+    <t>monitor:job:add</t>
+  </si>
+  <si>
+    <t>任务删除</t>
+  </si>
+  <si>
+    <t>monitor:job:delete</t>
+  </si>
+  <si>
+    <t>任务修改</t>
+  </si>
+  <si>
+    <t>monitor:job:edit</t>
+  </si>
+  <si>
+    <t>任务启动</t>
+  </si>
+  <si>
+    <t>monitor:job:start</t>
+  </si>
+  <si>
+    <t>任务运行</t>
+  </si>
+  <si>
+    <t>monitor:job:run</t>
+  </si>
+  <si>
+    <t>任务停止</t>
+  </si>
+  <si>
+    <t>monitor:job:stop</t>
+  </si>
+  <si>
+    <t>任务日志</t>
+  </si>
+  <si>
+    <t>job/log</t>
+  </si>
+  <si>
+    <t>monitor/job/log</t>
+  </si>
+  <si>
+    <t>monitor:job:query</t>
+  </si>
+  <si>
+    <t>任务导出</t>
+  </si>
+  <si>
+    <t>monitor:job:export</t>
+  </si>
+  <si>
+    <t>操作查询</t>
+  </si>
+  <si>
+    <t>monitor:operlog:query</t>
+  </si>
+  <si>
+    <t>操作删除</t>
+  </si>
+  <si>
+    <t>monitor:operlog:remove</t>
+  </si>
+  <si>
+    <t>操作日志导出</t>
+  </si>
+  <si>
+    <t>monitor:operlog:export</t>
+  </si>
+  <si>
+    <t>登录查询</t>
+  </si>
+  <si>
+    <t>monitor:logininfor:query</t>
+  </si>
+  <si>
+    <t>登录删除</t>
+  </si>
+  <si>
+    <t>monitor:logininfor:remove</t>
+  </si>
+  <si>
+    <t>登录日志导出</t>
+  </si>
+  <si>
+    <t>monitor:logininfor:export</t>
+  </si>
+  <si>
+    <t>发布文章</t>
+  </si>
+  <si>
+    <t>/article/publish</t>
+  </si>
+  <si>
+    <t>system/article/publish</t>
+  </si>
+  <si>
+    <t>system:article:publish</t>
+  </si>
+  <si>
+    <t>文章新增</t>
+  </si>
+  <si>
+    <t>system:article:add</t>
+  </si>
+  <si>
+    <t>文章修改</t>
+  </si>
+  <si>
+    <t>system:article:update</t>
+  </si>
+  <si>
+    <t>文章删除</t>
+  </si>
+  <si>
+    <t>system:article:delete</t>
+  </si>
+  <si>
+    <t>查询公告</t>
+  </si>
+  <si>
+    <t>system:notice:query</t>
+  </si>
+  <si>
+    <t>新增公告</t>
+  </si>
+  <si>
+    <t>system:notice:add</t>
+  </si>
+  <si>
+    <t>删除公告</t>
+  </si>
+  <si>
+    <t>system:notice:delete</t>
+  </si>
+  <si>
+    <t>修改公告</t>
+  </si>
+  <si>
+    <t>system:notice:update</t>
+  </si>
+  <si>
+    <t>导出公告</t>
+  </si>
+  <si>
+    <t>system:notice:export</t>
+  </si>
+  <si>
+    <t>生成修改</t>
+  </si>
+  <si>
+    <t>/gen/editTable</t>
+  </si>
+  <si>
+    <t>tool/gen/editTable</t>
+  </si>
+  <si>
+    <t>tool:gen:edit</t>
+  </si>
+  <si>
+    <t>生成查询</t>
+  </si>
+  <si>
+    <t>tool:gen:query</t>
+  </si>
+  <si>
+    <t>生成删除</t>
+  </si>
+  <si>
+    <t>tool:gen:remove</t>
+  </si>
+  <si>
+    <t>导入代码</t>
+  </si>
+  <si>
+    <t>tool:gen:import</t>
+  </si>
+  <si>
+    <t>生成代码</t>
+  </si>
+  <si>
+    <t>tool:gen:code</t>
+  </si>
+  <si>
+    <t>预览代码</t>
+  </si>
+  <si>
+    <t>tool:gen:preview</t>
+  </si>
+  <si>
+    <t>岗位导出</t>
+  </si>
+  <si>
+    <t>system:post:export</t>
+  </si>
+  <si>
+    <t>字典导出</t>
+  </si>
+  <si>
+    <t>system:dict:export</t>
+  </si>
+  <si>
+    <t>文件存储</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>tool/file/index</t>
+  </si>
+  <si>
+    <t>tool:file:list</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>menu.fileStorage</t>
+  </si>
+  <si>
+    <t>查询</t>
+  </si>
+  <si>
+    <t>tool:file:query</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>tool:file:add</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>tool:file:delete</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>tool:file:update</t>
+  </si>
+  <si>
+    <t>导出</t>
+  </si>
+  <si>
+    <t>tool:file:export</t>
+  </si>
+  <si>
+    <t>多语言配置</t>
+  </si>
+  <si>
+    <t>CommonLang</t>
+  </si>
+  <si>
+    <t>system/commonLang/index</t>
+  </si>
+  <si>
+    <t>system:lang:list</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>menu.systemLang</t>
+  </si>
+  <si>
+    <t>system:lang:query</t>
+  </si>
+  <si>
+    <t>system:lang:add</t>
+  </si>
+  <si>
+    <t>system:lang:delete</t>
+  </si>
+  <si>
+    <t>system:lang:edit</t>
+  </si>
+  <si>
+    <t>system:lang:export</t>
+  </si>
+  <si>
+    <t>文章目录</t>
+  </si>
+  <si>
+    <t>ArticleCategory</t>
+  </si>
+  <si>
+    <t>system/article/articleCategory</t>
+  </si>
+  <si>
+    <t>articlecategory:list</t>
+  </si>
+  <si>
+    <t>articlecategory:query</t>
+  </si>
+  <si>
+    <t>articlecategory:add</t>
+  </si>
+  <si>
+    <t>articlecategory:delete</t>
+  </si>
+  <si>
+    <t>articlecategory:edit</t>
+  </si>
+  <si>
+    <t>articlecategory:export</t>
+  </si>
+  <si>
+    <t>MenuId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentId</t>
+  </si>
+  <si>
+    <t>OrderNum</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>IsCache</t>
+  </si>
+  <si>
+    <t>IsFrame</t>
+  </si>
+  <si>
+    <t>MenuType</t>
+  </si>
+  <si>
+    <t>Visible</t>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perms</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>MenuNameKey</t>
+  </si>
+  <si>
+    <t>Remark</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f883e</t>
+  </si>
+  <si>
+    <t>普通用户</t>
+  </si>
+  <si>
+    <t>UserId</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>NickName</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>Avatar</t>
+  </si>
+  <si>
+    <t>Phonenumber</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>DelFlag</t>
+  </si>
+  <si>
+    <t>DeptId</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员</t>
+  </si>
+  <si>
+    <t>普通角色</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataScope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MenuCheckStrictly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptCheckStrictly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主框架页-默认皮肤样式名称</t>
+  </si>
+  <si>
+    <t>sys.index.skinName</t>
+  </si>
+  <si>
+    <t>skin-blue</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>蓝色 skin-blue、绿色 skin-green、紫色 skin-purple、红色 skin-red、黄色 skin-yellow</t>
+  </si>
+  <si>
+    <t>用户管理-账号初始密码</t>
+  </si>
+  <si>
+    <t>sys.user.initPassword</t>
+  </si>
+  <si>
+    <t>初始化密码 123456</t>
+  </si>
+  <si>
+    <t>主框架页-侧边栏主题</t>
+  </si>
+  <si>
+    <t>sys.index.sideTheme</t>
+  </si>
+  <si>
+    <t>深色主题theme-dark，浅色主题theme-light</t>
+  </si>
+  <si>
+    <t>账号自助-验证码开关</t>
+  </si>
+  <si>
+    <t>sys.account.captchaOnOff</t>
+  </si>
+  <si>
+    <t>开启验证码功能（off、关闭，1、动态验证码 2、动态gif泡泡 3、泡泡 4、静态验证码）</t>
+  </si>
+  <si>
+    <t>开启注册功能</t>
+  </si>
+  <si>
+    <t>sys.account.register</t>
+  </si>
+  <si>
+    <t>文章预览地址</t>
+  </si>
+  <si>
+    <t>sys.article.preview.url</t>
+  </si>
+  <si>
+    <t>http://www.izhaorui.cn/article/details/</t>
+  </si>
+  <si>
+    <t>格式：http://www.izhaorui.cn/article/details/{aid}，其中{aid}为文章的id</t>
+  </si>
+  <si>
+    <t>ConfigId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigValue</t>
+  </si>
+  <si>
+    <t>ConfigType</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>董事长</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>人力资源</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>普通员工</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>人事经理</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>总经理</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>首席运营官</t>
+  </si>
+  <si>
+    <t>CFO</t>
+  </si>
+  <si>
+    <t>首席财务官</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>首席技术官</t>
+  </si>
+  <si>
+    <t>HRD</t>
+  </si>
+  <si>
+    <t>人力资源总监</t>
+  </si>
+  <si>
+    <t>VP</t>
+  </si>
+  <si>
+    <t>副总裁</t>
+  </si>
+  <si>
+    <t>OD</t>
+  </si>
+  <si>
+    <t>运营总监</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>市场总监</t>
+  </si>
+  <si>
+    <t>PostId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PostSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试任务</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 0/10 * * * ? </t>
+  </si>
+  <si>
+    <t>ZR.Tasks</t>
+  </si>
+  <si>
+    <t>TaskScheduler.Job_SyncTest</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>1410905433996130000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>JobGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssemblyName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClassName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeginTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TriggerType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntervalSecond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsStart</t>
+  </si>
+  <si>
+    <t>JobParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaskType</t>
+  </si>
+  <si>
+    <t>ApiUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlText</t>
+  </si>
+  <si>
+    <t>RequestMethod</t>
+  </si>
+  <si>
+    <t>用户性别</t>
+  </si>
+  <si>
+    <t>sys_user_sex</t>
+  </si>
+  <si>
+    <t>用户性别列表</t>
+  </si>
+  <si>
+    <t>菜单状态</t>
+  </si>
+  <si>
+    <t>sys_show_hide</t>
+  </si>
+  <si>
+    <t>菜单状态列表</t>
+  </si>
+  <si>
+    <t>系统开关</t>
+  </si>
+  <si>
+    <t>sys_normal_disable</t>
+  </si>
+  <si>
+    <t>系统开关列表</t>
+  </si>
+  <si>
+    <t>任务状态</t>
+  </si>
+  <si>
+    <t>sys_job_status</t>
+  </si>
+  <si>
+    <t>任务状态列表</t>
+  </si>
+  <si>
+    <t>任务分组</t>
+  </si>
+  <si>
+    <t>sys_job_group</t>
+  </si>
+  <si>
+    <t>任务分组列表</t>
+  </si>
+  <si>
+    <t>系统是否</t>
+  </si>
+  <si>
+    <t>sys_yes_no</t>
+  </si>
+  <si>
+    <t>系统是否列表</t>
+  </si>
+  <si>
+    <t>通知类型</t>
+  </si>
+  <si>
+    <t>sys_notice_type</t>
+  </si>
+  <si>
+    <t>通知类型列表</t>
+  </si>
+  <si>
+    <t>通知状态</t>
+  </si>
+  <si>
+    <t>sys_notice_status</t>
+  </si>
+  <si>
+    <t>通知状态列表</t>
+  </si>
+  <si>
+    <t>操作类型</t>
+  </si>
+  <si>
+    <t>sys_oper_type</t>
+  </si>
+  <si>
+    <t>操作类型列表</t>
+  </si>
+  <si>
+    <t>系统状态</t>
+  </si>
+  <si>
+    <t>sys_common_status</t>
+  </si>
+  <si>
+    <t>登录状态列表</t>
+  </si>
+  <si>
+    <t>文章状态</t>
+  </si>
+  <si>
+    <t>sys_article_status</t>
+  </si>
+  <si>
+    <t>多语言类型</t>
+  </si>
+  <si>
+    <t>sys_lang_type</t>
+  </si>
+  <si>
+    <t>多语言字典类型</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>性别男</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>性别女</t>
+  </si>
+  <si>
+    <t>未知</t>
+  </si>
+  <si>
+    <t>性别未知</t>
+  </si>
+  <si>
+    <t>显示</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>显示菜单</t>
+  </si>
+  <si>
+    <t>隐藏</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>隐藏菜单</t>
+  </si>
+  <si>
+    <t>正常</t>
+  </si>
+  <si>
+    <t>正常状态</t>
+  </si>
+  <si>
+    <t>停用</t>
+  </si>
+  <si>
+    <t>停用状态</t>
+  </si>
+  <si>
+    <t>异常</t>
+  </si>
+  <si>
+    <t>默认</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>默认分组</t>
+  </si>
+  <si>
+    <t>系统</t>
+  </si>
+  <si>
+    <t>系统分组</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>系统默认是</t>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>系统默认否</t>
+  </si>
+  <si>
+    <t>通知</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>关闭状态</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>其他操作</t>
+  </si>
+  <si>
+    <t>新增操作</t>
+  </si>
+  <si>
+    <t>修改操作</t>
+  </si>
+  <si>
+    <t>删除操作</t>
+  </si>
+  <si>
+    <t>授权</t>
+  </si>
+  <si>
+    <t>授权操作</t>
+  </si>
+  <si>
+    <t>导出操作</t>
+  </si>
+  <si>
+    <t>导入</t>
+  </si>
+  <si>
+    <t>导入操作</t>
+  </si>
+  <si>
+    <t>强退</t>
+  </si>
+  <si>
+    <t>强退操作</t>
+  </si>
+  <si>
+    <t>生成操作</t>
+  </si>
+  <si>
+    <t>清空数据</t>
+  </si>
+  <si>
+    <t>清空操作</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>发布</t>
+  </si>
+  <si>
+    <t>草稿</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>zh-cn</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>繁体</t>
+  </si>
+  <si>
+    <t>zh-tw</t>
+  </si>
+  <si>
+    <t>DictId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomSql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DictSort</t>
+  </si>
+  <si>
+    <t>DictLabel</t>
+  </si>
+  <si>
+    <t>DictValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CssClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDefault</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发部门</t>
+  </si>
+  <si>
+    <t>市场部门</t>
+  </si>
+  <si>
+    <t>测试部门</t>
+  </si>
+  <si>
+    <t>财务部门</t>
+  </si>
+  <si>
+    <t>DeptId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ancestors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeptName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theme-dark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>java</t>
+  </si>
+  <si>
+    <t>前端</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>c++</t>
+  </si>
+  <si>
+    <t>vue</t>
+  </si>
+  <si>
+    <t>sqlserver</t>
+  </si>
+  <si>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>公司总部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_job_type</t>
+  </si>
+  <si>
+    <t>sys_job_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system:lang:import</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据差异日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlDiffLog</t>
+  </si>
+  <si>
+    <t>monitor/SqlDiffLog</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components/icons/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon1</t>
+  </si>
+  <si>
+    <t>menu.icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单条强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor:online:forceLogout</t>
+  </si>
+  <si>
+    <t>monitor:online:batchLogout</t>
+  </si>
+  <si>
+    <t>批量强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计日志导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计日志删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线用户强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LangKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.abnormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql_email_tpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT id dictValue, name dictName FROM emailTpl</t>
+  </si>
+  <si>
+    <t>邮件模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool/email/emailTpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>tool:email:send</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>menu.sendEmail</t>
-  </si>
-  <si>
-    <t>文章管理</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>documentation</t>
-  </si>
-  <si>
-    <t>menu.systemArticle</t>
-  </si>
-  <si>
-    <t>文章列表</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>system/article/manager</t>
-  </si>
-  <si>
-    <t>system:article:list</t>
-  </si>
-  <si>
-    <t>list</t>
-  </si>
-  <si>
-    <t>menu.articleList</t>
-  </si>
-  <si>
-    <t>操作日志</t>
-  </si>
-  <si>
-    <t>operlog</t>
-  </si>
-  <si>
-    <t>monitor/operlog/index</t>
-  </si>
-  <si>
-    <t>monitor:operlog:list</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>menu.operLog</t>
-  </si>
-  <si>
-    <t>登录日志</t>
-  </si>
-  <si>
-    <t>logininfor</t>
-  </si>
-  <si>
-    <t>monitor/logininfor/index</t>
-  </si>
-  <si>
-    <t>monitor:logininfor:list</t>
-  </si>
-  <si>
-    <t>menu.loginLog</t>
-  </si>
-  <si>
-    <t>用户查询</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>system:user:query</t>
-  </si>
-  <si>
-    <t>用户添加</t>
-  </si>
-  <si>
-    <t>system:user:add</t>
-  </si>
-  <si>
-    <t>用户修改</t>
-  </si>
-  <si>
-    <t>system:user:edit</t>
-  </si>
-  <si>
-    <t>用户删除</t>
-  </si>
-  <si>
-    <t>system:user:remove</t>
-  </si>
-  <si>
-    <t>用户导出</t>
-  </si>
-  <si>
-    <t>system:user:export</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>用户导入</t>
-  </si>
-  <si>
-    <t>system:user:import</t>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>system:user:resetPwd</t>
-  </si>
-  <si>
-    <t>角色查询</t>
-  </si>
-  <si>
-    <t>system:role:query</t>
-  </si>
-  <si>
-    <t>角色新增</t>
-  </si>
-  <si>
-    <t>system:role:add</t>
-  </si>
-  <si>
-    <t>角色修改</t>
-  </si>
-  <si>
-    <t>system:role:edit</t>
-  </si>
-  <si>
-    <t>角色删除</t>
-  </si>
-  <si>
-    <t>system:role:remove</t>
-  </si>
-  <si>
-    <t>菜单授权</t>
-  </si>
-  <si>
-    <t>system:role:authorize</t>
-  </si>
-  <si>
-    <t>菜单查询</t>
-  </si>
-  <si>
-    <t>system:menu:query</t>
-  </si>
-  <si>
-    <t>菜单新增</t>
-  </si>
-  <si>
-    <t>system:menu:add</t>
-  </si>
-  <si>
-    <t>菜单修改</t>
-  </si>
-  <si>
-    <t>system:menu:edit</t>
-  </si>
-  <si>
-    <t>菜单删除</t>
-  </si>
-  <si>
-    <t>system:menu:remove</t>
-  </si>
-  <si>
-    <t>修改排序</t>
-  </si>
-  <si>
-    <t>system:menu:changeSort</t>
-  </si>
-  <si>
-    <t>部门查询</t>
-  </si>
-  <si>
-    <t>system:dept:query</t>
-  </si>
-  <si>
-    <t>部门新增</t>
-  </si>
-  <si>
-    <t>system:dept:add</t>
-  </si>
-  <si>
-    <t>部门修改</t>
-  </si>
-  <si>
-    <t>system:dept:update</t>
-  </si>
-  <si>
-    <t>部门删除</t>
-  </si>
-  <si>
-    <t>system:dept:remove</t>
-  </si>
-  <si>
-    <t>岗位查询</t>
-  </si>
-  <si>
-    <t>岗位添加</t>
-  </si>
-  <si>
-    <t>system:post:add</t>
-  </si>
-  <si>
-    <t>岗位删除</t>
-  </si>
-  <si>
-    <t>system:post:remove</t>
-  </si>
-  <si>
-    <t>岗位编辑</t>
-  </si>
-  <si>
-    <t>system:post:edit</t>
-  </si>
-  <si>
-    <t>字典新增</t>
-  </si>
-  <si>
-    <t>system:dict:add</t>
-  </si>
-  <si>
-    <t>字典修改</t>
-  </si>
-  <si>
-    <t>system:dict:edit</t>
-  </si>
-  <si>
-    <t>字典删除</t>
-  </si>
-  <si>
-    <t>system:dict:remove</t>
-  </si>
-  <si>
-    <t>新增用户</t>
-  </si>
-  <si>
-    <t>system:roleusers:add</t>
-  </si>
-  <si>
-    <t>删除用户</t>
-  </si>
-  <si>
-    <t>system:roleusers:del</t>
-  </si>
-  <si>
-    <t>字典查询</t>
-  </si>
-  <si>
-    <t>system:dict:query</t>
-  </si>
-  <si>
-    <t>任务查询</t>
-  </si>
-  <si>
-    <t>monitor:job:list</t>
-  </si>
-  <si>
-    <t>任务新增</t>
-  </si>
-  <si>
-    <t>monitor:job:add</t>
-  </si>
-  <si>
-    <t>任务删除</t>
-  </si>
-  <si>
-    <t>monitor:job:delete</t>
-  </si>
-  <si>
-    <t>任务修改</t>
-  </si>
-  <si>
-    <t>monitor:job:edit</t>
-  </si>
-  <si>
-    <t>任务启动</t>
-  </si>
-  <si>
-    <t>monitor:job:start</t>
-  </si>
-  <si>
-    <t>任务运行</t>
-  </si>
-  <si>
-    <t>monitor:job:run</t>
-  </si>
-  <si>
-    <t>任务停止</t>
-  </si>
-  <si>
-    <t>monitor:job:stop</t>
-  </si>
-  <si>
-    <t>任务日志</t>
-  </si>
-  <si>
-    <t>job/log</t>
-  </si>
-  <si>
-    <t>monitor/job/log</t>
-  </si>
-  <si>
-    <t>monitor:job:query</t>
-  </si>
-  <si>
-    <t>任务导出</t>
-  </si>
-  <si>
-    <t>monitor:job:export</t>
-  </si>
-  <si>
-    <t>操作查询</t>
-  </si>
-  <si>
-    <t>monitor:operlog:query</t>
-  </si>
-  <si>
-    <t>操作删除</t>
-  </si>
-  <si>
-    <t>monitor:operlog:remove</t>
-  </si>
-  <si>
-    <t>操作日志导出</t>
-  </si>
-  <si>
-    <t>monitor:operlog:export</t>
-  </si>
-  <si>
-    <t>登录查询</t>
-  </si>
-  <si>
-    <t>monitor:logininfor:query</t>
-  </si>
-  <si>
-    <t>登录删除</t>
-  </si>
-  <si>
-    <t>monitor:logininfor:remove</t>
-  </si>
-  <si>
-    <t>登录日志导出</t>
-  </si>
-  <si>
-    <t>monitor:logininfor:export</t>
-  </si>
-  <si>
-    <t>发布文章</t>
-  </si>
-  <si>
-    <t>/article/publish</t>
-  </si>
-  <si>
-    <t>system/article/publish</t>
-  </si>
-  <si>
-    <t>system:article:publish</t>
-  </si>
-  <si>
-    <t>文章新增</t>
-  </si>
-  <si>
-    <t>system:article:add</t>
-  </si>
-  <si>
-    <t>文章修改</t>
-  </si>
-  <si>
-    <t>system:article:update</t>
-  </si>
-  <si>
-    <t>文章删除</t>
-  </si>
-  <si>
-    <t>system:article:delete</t>
-  </si>
-  <si>
-    <t>查询公告</t>
-  </si>
-  <si>
-    <t>system:notice:query</t>
-  </si>
-  <si>
-    <t>新增公告</t>
-  </si>
-  <si>
-    <t>system:notice:add</t>
-  </si>
-  <si>
-    <t>删除公告</t>
-  </si>
-  <si>
-    <t>system:notice:delete</t>
-  </si>
-  <si>
-    <t>修改公告</t>
-  </si>
-  <si>
-    <t>system:notice:update</t>
-  </si>
-  <si>
-    <t>导出公告</t>
-  </si>
-  <si>
-    <t>system:notice:export</t>
-  </si>
-  <si>
-    <t>生成修改</t>
-  </si>
-  <si>
-    <t>/gen/editTable</t>
-  </si>
-  <si>
-    <t>tool/gen/editTable</t>
-  </si>
-  <si>
-    <t>tool:gen:edit</t>
-  </si>
-  <si>
-    <t>生成查询</t>
-  </si>
-  <si>
-    <t>tool:gen:query</t>
-  </si>
-  <si>
-    <t>生成删除</t>
-  </si>
-  <si>
-    <t>tool:gen:remove</t>
-  </si>
-  <si>
-    <t>导入代码</t>
-  </si>
-  <si>
-    <t>tool:gen:import</t>
-  </si>
-  <si>
-    <t>生成代码</t>
-  </si>
-  <si>
-    <t>tool:gen:code</t>
-  </si>
-  <si>
-    <t>预览代码</t>
-  </si>
-  <si>
-    <t>tool:gen:preview</t>
-  </si>
-  <si>
-    <t>岗位导出</t>
-  </si>
-  <si>
-    <t>system:post:export</t>
-  </si>
-  <si>
-    <t>字典导出</t>
-  </si>
-  <si>
-    <t>system:dict:export</t>
-  </si>
-  <si>
-    <t>文件存储</t>
-  </si>
-  <si>
-    <t>file</t>
-  </si>
-  <si>
-    <t>tool/file/index</t>
-  </si>
-  <si>
-    <t>tool:file:list</t>
-  </si>
-  <si>
-    <t>upload</t>
-  </si>
-  <si>
-    <t>menu.fileStorage</t>
-  </si>
-  <si>
-    <t>查询</t>
-  </si>
-  <si>
-    <t>tool:file:query</t>
-  </si>
-  <si>
-    <t>新增</t>
-  </si>
-  <si>
-    <t>tool:file:add</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>tool:file:delete</t>
-  </si>
-  <si>
-    <t>修改</t>
-  </si>
-  <si>
-    <t>tool:file:update</t>
-  </si>
-  <si>
-    <t>导出</t>
-  </si>
-  <si>
-    <t>tool:file:export</t>
-  </si>
-  <si>
-    <t>多语言配置</t>
-  </si>
-  <si>
-    <t>CommonLang</t>
-  </si>
-  <si>
-    <t>system/commonLang/index</t>
-  </si>
-  <si>
-    <t>system:lang:list</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>menu.systemLang</t>
-  </si>
-  <si>
-    <t>system:lang:query</t>
-  </si>
-  <si>
-    <t>system:lang:add</t>
-  </si>
-  <si>
-    <t>system:lang:delete</t>
-  </si>
-  <si>
-    <t>system:lang:edit</t>
-  </si>
-  <si>
-    <t>system:lang:export</t>
-  </si>
-  <si>
-    <t>文章目录</t>
-  </si>
-  <si>
-    <t>ArticleCategory</t>
-  </si>
-  <si>
-    <t>system/article/articleCategory</t>
-  </si>
-  <si>
-    <t>articlecategory:list</t>
-  </si>
-  <si>
-    <t>articlecategory:query</t>
-  </si>
-  <si>
-    <t>articlecategory:add</t>
-  </si>
-  <si>
-    <t>articlecategory:delete</t>
-  </si>
-  <si>
-    <t>articlecategory:edit</t>
-  </si>
-  <si>
-    <t>articlecategory:export</t>
-  </si>
-  <si>
-    <t>MenuId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentId</t>
-  </si>
-  <si>
-    <t>OrderNum</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Component</t>
-  </si>
-  <si>
-    <t>IsCache</t>
-  </si>
-  <si>
-    <t>IsFrame</t>
-  </si>
-  <si>
-    <t>MenuType</t>
-  </si>
-  <si>
-    <t>Visible</t>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perms</t>
-  </si>
-  <si>
-    <t>Icon</t>
-  </si>
-  <si>
-    <t>MenuNameKey</t>
-  </si>
-  <si>
-    <t>Remark</t>
-  </si>
-  <si>
-    <t>管理员</t>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f883e</t>
-  </si>
-  <si>
-    <t>普通用户</t>
-  </si>
-  <si>
-    <t>UserId</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>NickName</t>
-  </si>
-  <si>
-    <t>UserType</t>
-  </si>
-  <si>
-    <t>Avatar</t>
-  </si>
-  <si>
-    <t>Phonenumber</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>DelFlag</t>
-  </si>
-  <si>
-    <t>DeptId</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级管理员</t>
-  </si>
-  <si>
-    <t>普通角色</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>RoleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RoleSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DelFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DataScope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MenuCheckStrictly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptCheckStrictly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主框架页-默认皮肤样式名称</t>
-  </si>
-  <si>
-    <t>sys.index.skinName</t>
-  </si>
-  <si>
-    <t>skin-blue</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>蓝色 skin-blue、绿色 skin-green、紫色 skin-purple、红色 skin-red、黄色 skin-yellow</t>
-  </si>
-  <si>
-    <t>用户管理-账号初始密码</t>
-  </si>
-  <si>
-    <t>sys.user.initPassword</t>
-  </si>
-  <si>
-    <t>初始化密码 123456</t>
-  </si>
-  <si>
-    <t>主框架页-侧边栏主题</t>
-  </si>
-  <si>
-    <t>sys.index.sideTheme</t>
-  </si>
-  <si>
-    <t>深色主题theme-dark，浅色主题theme-light</t>
-  </si>
-  <si>
-    <t>账号自助-验证码开关</t>
-  </si>
-  <si>
-    <t>sys.account.captchaOnOff</t>
-  </si>
-  <si>
-    <t>开启验证码功能（off、关闭，1、动态验证码 2、动态gif泡泡 3、泡泡 4、静态验证码）</t>
-  </si>
-  <si>
-    <t>开启注册功能</t>
-  </si>
-  <si>
-    <t>sys.account.register</t>
-  </si>
-  <si>
-    <t>文章预览地址</t>
-  </si>
-  <si>
-    <t>sys.article.preview.url</t>
-  </si>
-  <si>
-    <t>http://www.izhaorui.cn/article/details/</t>
-  </si>
-  <si>
-    <t>格式：http://www.izhaorui.cn/article/details/{aid}，其中{aid}为文章的id</t>
-  </si>
-  <si>
-    <t>ConfigId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigValue</t>
-  </si>
-  <si>
-    <t>ConfigType</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
-  <si>
-    <t>董事长</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>项目经理</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>人力资源</t>
-  </si>
-  <si>
-    <t>USER</t>
-  </si>
-  <si>
-    <t>普通员工</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>人事经理</t>
-  </si>
-  <si>
-    <t>GM</t>
-  </si>
-  <si>
-    <t>总经理</t>
-  </si>
-  <si>
-    <t>COO</t>
-  </si>
-  <si>
-    <t>首席运营官</t>
-  </si>
-  <si>
-    <t>CFO</t>
-  </si>
-  <si>
-    <t>首席财务官</t>
-  </si>
-  <si>
-    <t>CTO</t>
-  </si>
-  <si>
-    <t>首席技术官</t>
-  </si>
-  <si>
-    <t>HRD</t>
-  </si>
-  <si>
-    <t>人力资源总监</t>
-  </si>
-  <si>
-    <t>VP</t>
-  </si>
-  <si>
-    <t>副总裁</t>
-  </si>
-  <si>
-    <t>OD</t>
-  </si>
-  <si>
-    <t>运营总监</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>市场总监</t>
-  </si>
-  <si>
-    <t>PostId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PostSort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Role_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Menu_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试任务</t>
-  </si>
-  <si>
-    <t>SYSTEM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 0/10 * * * ? </t>
-  </si>
-  <si>
-    <t>ZR.Tasks</t>
-  </si>
-  <si>
-    <t>TaskScheduler.Job_SyncTest</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>1410905433996130000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>JobGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssemblyName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClassName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RunTimes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeginTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TriggerType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IntervalSecond</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsStart</t>
-  </si>
-  <si>
-    <t>JobParams</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaskType</t>
-  </si>
-  <si>
-    <t>ApiUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SqlText</t>
-  </si>
-  <si>
-    <t>RequestMethod</t>
-  </si>
-  <si>
-    <t>用户性别</t>
-  </si>
-  <si>
-    <t>sys_user_sex</t>
-  </si>
-  <si>
-    <t>用户性别列表</t>
-  </si>
-  <si>
-    <t>菜单状态</t>
-  </si>
-  <si>
-    <t>sys_show_hide</t>
-  </si>
-  <si>
-    <t>菜单状态列表</t>
-  </si>
-  <si>
-    <t>系统开关</t>
-  </si>
-  <si>
-    <t>sys_normal_disable</t>
-  </si>
-  <si>
-    <t>系统开关列表</t>
-  </si>
-  <si>
-    <t>任务状态</t>
-  </si>
-  <si>
-    <t>sys_job_status</t>
-  </si>
-  <si>
-    <t>任务状态列表</t>
-  </si>
-  <si>
-    <t>任务分组</t>
-  </si>
-  <si>
-    <t>sys_job_group</t>
-  </si>
-  <si>
-    <t>任务分组列表</t>
-  </si>
-  <si>
-    <t>系统是否</t>
-  </si>
-  <si>
-    <t>sys_yes_no</t>
-  </si>
-  <si>
-    <t>系统是否列表</t>
-  </si>
-  <si>
-    <t>通知类型</t>
-  </si>
-  <si>
-    <t>sys_notice_type</t>
-  </si>
-  <si>
-    <t>通知类型列表</t>
-  </si>
-  <si>
-    <t>通知状态</t>
-  </si>
-  <si>
-    <t>sys_notice_status</t>
-  </si>
-  <si>
-    <t>通知状态列表</t>
-  </si>
-  <si>
-    <t>操作类型</t>
-  </si>
-  <si>
-    <t>sys_oper_type</t>
-  </si>
-  <si>
-    <t>操作类型列表</t>
-  </si>
-  <si>
-    <t>系统状态</t>
-  </si>
-  <si>
-    <t>sys_common_status</t>
-  </si>
-  <si>
-    <t>登录状态列表</t>
-  </si>
-  <si>
-    <t>文章状态</t>
-  </si>
-  <si>
-    <t>sys_article_status</t>
-  </si>
-  <si>
-    <t>多语言类型</t>
-  </si>
-  <si>
-    <t>sys_lang_type</t>
-  </si>
-  <si>
-    <t>多语言字典类型</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>性别男</t>
-  </si>
-  <si>
-    <t>女</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>性别女</t>
-  </si>
-  <si>
-    <t>未知</t>
-  </si>
-  <si>
-    <t>性别未知</t>
-  </si>
-  <si>
-    <t>显示</t>
-  </si>
-  <si>
-    <t>primary</t>
-  </si>
-  <si>
-    <t>显示菜单</t>
-  </si>
-  <si>
-    <t>隐藏</t>
-  </si>
-  <si>
-    <t>danger</t>
-  </si>
-  <si>
-    <t>隐藏菜单</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>正常状态</t>
-  </si>
-  <si>
-    <t>停用</t>
-  </si>
-  <si>
-    <t>停用状态</t>
-  </si>
-  <si>
-    <t>异常</t>
-  </si>
-  <si>
-    <t>默认</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>默认分组</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>系统分组</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>系统默认是</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>系统默认否</t>
-  </si>
-  <si>
-    <t>通知</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>公告</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>关闭状态</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>其他操作</t>
-  </si>
-  <si>
-    <t>新增操作</t>
-  </si>
-  <si>
-    <t>修改操作</t>
-  </si>
-  <si>
-    <t>删除操作</t>
-  </si>
-  <si>
-    <t>授权</t>
-  </si>
-  <si>
-    <t>授权操作</t>
-  </si>
-  <si>
-    <t>导出操作</t>
-  </si>
-  <si>
-    <t>导入</t>
-  </si>
-  <si>
-    <t>导入操作</t>
-  </si>
-  <si>
-    <t>强退</t>
-  </si>
-  <si>
-    <t>强退操作</t>
-  </si>
-  <si>
-    <t>生成操作</t>
-  </si>
-  <si>
-    <t>清空数据</t>
-  </si>
-  <si>
-    <t>清空操作</t>
-  </si>
-  <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>发布</t>
-  </si>
-  <si>
-    <t>草稿</t>
-  </si>
-  <si>
-    <t>中文</t>
-  </si>
-  <si>
-    <t>zh-cn</t>
-  </si>
-  <si>
-    <t>英文</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>繁体</t>
-  </si>
-  <si>
-    <t>zh-tw</t>
-  </si>
-  <si>
-    <t>DictId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustomSql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DictSort</t>
-  </si>
-  <si>
-    <t>DictLabel</t>
-  </si>
-  <si>
-    <t>DictValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CssClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ListClass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsDefault</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研发部门</t>
-  </si>
-  <si>
-    <t>市场部门</t>
-  </si>
-  <si>
-    <t>测试部门</t>
-  </si>
-  <si>
-    <t>财务部门</t>
-  </si>
-  <si>
-    <t>DeptId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ancestors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeptName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OrderNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theme-dark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>java</t>
-  </si>
-  <si>
-    <t>前端</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>c++</t>
-  </si>
-  <si>
-    <t>vue</t>
-  </si>
-  <si>
-    <t>sqlserver</t>
-  </si>
-  <si>
-    <t>CategoryId</t>
-  </si>
-  <si>
-    <t>公司总部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_job_type</t>
-  </si>
-  <si>
-    <t>sys_job_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>danger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system:lang:import</t>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据差异日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SqlDiffLog</t>
-  </si>
-  <si>
-    <t>monitor/SqlDiffLog</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqldifflog:list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqldifflog:delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqldifflog:export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>components/icons/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>icon1</t>
-  </si>
-  <si>
-    <t>menu.icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单条强退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor:online:forceLogout</t>
-  </si>
-  <si>
-    <t>monitor:online:batchLogout</t>
-  </si>
-  <si>
-    <t>批量强退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审计日志导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审计日志删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线用户强退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LangKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.male</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.female</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.unknow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.hidden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.abnormal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2348,43 +2400,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" t="s">
         <v>323</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F1" t="s">
         <v>332</v>
       </c>
-      <c r="C1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D1" t="s">
-        <v>325</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I1" t="s">
         <v>326</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>542</v>
+      </c>
+      <c r="K1" t="s">
+        <v>329</v>
+      </c>
+      <c r="L1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M1" t="s">
         <v>333</v>
-      </c>
-      <c r="G1" t="s">
-        <v>328</v>
-      </c>
-      <c r="H1" t="s">
-        <v>329</v>
-      </c>
-      <c r="I1" t="s">
-        <v>327</v>
-      </c>
-      <c r="J1" t="s">
-        <v>543</v>
-      </c>
-      <c r="K1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M1" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2395,17 +2447,17 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>320</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>321</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -2413,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2421,11 +2473,11 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>545</v>
+      </c>
+      <c r="D3" t="s">
         <v>546</v>
       </c>
-      <c r="D3" t="s">
-        <v>547</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -2433,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>320</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>321</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2453,11 +2505,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F8E602-C602-4DBE-8251-6DDEB8D8D144}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>536</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2469,37 +2661,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" t="s">
         <v>527</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>528</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>529</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" t="s">
         <v>530</v>
       </c>
-      <c r="E1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>531</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>532</v>
       </c>
-      <c r="H1" t="s">
-        <v>533</v>
-      </c>
       <c r="I1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2510,25 +2702,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>427</v>
+      </c>
+      <c r="H2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>462</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>463</v>
-      </c>
       <c r="K2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2539,25 +2731,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>463</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H3" t="s">
         <v>464</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>465</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>466</v>
-      </c>
       <c r="K3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2568,25 +2760,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2597,28 +2789,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" t="s">
         <v>469</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>470</v>
       </c>
-      <c r="H5" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>471</v>
-      </c>
       <c r="K5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2629,28 +2821,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>430</v>
+      </c>
+      <c r="G6" t="s">
         <v>472</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>431</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>464</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>473</v>
       </c>
-      <c r="H6" t="s">
-        <v>465</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>474</v>
-      </c>
       <c r="K6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2661,28 +2853,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G7" t="s">
+        <v>469</v>
+      </c>
+      <c r="H7" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>475</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G7" t="s">
-        <v>470</v>
-      </c>
-      <c r="H7" t="s">
-        <v>349</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>476</v>
-      </c>
       <c r="K7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2693,28 +2885,28 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G8" t="s">
+        <v>472</v>
+      </c>
+      <c r="H8" t="s">
+        <v>464</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>477</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>434</v>
-      </c>
-      <c r="G8" t="s">
-        <v>473</v>
-      </c>
-      <c r="H8" t="s">
-        <v>465</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>478</v>
-      </c>
       <c r="K8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2725,28 +2917,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G9" t="s">
+        <v>469</v>
+      </c>
+      <c r="H9" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>475</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>437</v>
-      </c>
-      <c r="G9" t="s">
-        <v>470</v>
-      </c>
-      <c r="H9" t="s">
-        <v>349</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>476</v>
-      </c>
       <c r="K9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2757,28 +2949,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2789,25 +2981,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>479</v>
+      </c>
+      <c r="D11" t="s">
         <v>480</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>439</v>
+      </c>
+      <c r="H11" t="s">
+        <v>348</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>481</v>
       </c>
-      <c r="E11" t="s">
-        <v>440</v>
-      </c>
-      <c r="H11" t="s">
-        <v>349</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>482</v>
-      </c>
       <c r="K11" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -2818,25 +3010,25 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" t="s">
+        <v>439</v>
+      </c>
+      <c r="H12" t="s">
+        <v>464</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>483</v>
       </c>
-      <c r="D12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E12" t="s">
-        <v>440</v>
-      </c>
-      <c r="H12" t="s">
-        <v>465</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>484</v>
-      </c>
       <c r="K12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -2847,28 +3039,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E13" t="s">
+        <v>442</v>
+      </c>
+      <c r="G13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H13" t="s">
+        <v>348</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>485</v>
       </c>
-      <c r="D13" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" t="s">
-        <v>470</v>
-      </c>
-      <c r="H13" t="s">
-        <v>349</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>486</v>
-      </c>
       <c r="K13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -2879,28 +3071,28 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>486</v>
+      </c>
+      <c r="D14" t="s">
+        <v>464</v>
+      </c>
+      <c r="E14" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" t="s">
+        <v>472</v>
+      </c>
+      <c r="H14" t="s">
+        <v>464</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>487</v>
       </c>
-      <c r="D14" t="s">
-        <v>465</v>
-      </c>
-      <c r="E14" t="s">
-        <v>443</v>
-      </c>
-      <c r="G14" t="s">
-        <v>473</v>
-      </c>
-      <c r="H14" t="s">
-        <v>465</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>488</v>
-      </c>
       <c r="K14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -2911,25 +3103,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>488</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>445</v>
+      </c>
+      <c r="G15" t="s">
         <v>489</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" t="s">
-        <v>490</v>
-      </c>
       <c r="H15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -2940,25 +3132,25 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -2969,25 +3161,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>474</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>448</v>
+      </c>
+      <c r="G17" t="s">
+        <v>469</v>
+      </c>
+      <c r="H17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>475</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>449</v>
-      </c>
-      <c r="G17" t="s">
-        <v>470</v>
-      </c>
-      <c r="H17" t="s">
-        <v>349</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2998,25 +3190,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>492</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>448</v>
+      </c>
+      <c r="G18" t="s">
+        <v>472</v>
+      </c>
+      <c r="H18" t="s">
+        <v>464</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>493</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>449</v>
-      </c>
-      <c r="G18" t="s">
-        <v>473</v>
-      </c>
-      <c r="H18" t="s">
-        <v>465</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3027,25 +3219,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
+        <v>494</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>451</v>
+      </c>
+      <c r="G19" t="s">
         <v>495</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>452</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>464</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>496</v>
-      </c>
-      <c r="H19" t="s">
-        <v>465</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3056,25 +3248,25 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G20" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H20" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3085,25 +3277,25 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G21" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3114,25 +3306,25 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3143,25 +3335,25 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G23" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H23" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3172,25 +3364,25 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G24" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H24" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3201,25 +3393,25 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G25" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3230,25 +3422,25 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G26" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3259,25 +3451,25 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G27" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3288,25 +3480,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3317,25 +3509,25 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H29" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3346,25 +3538,25 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H30" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -3375,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3398,16 +3590,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H32" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3421,16 +3613,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>514</v>
+      </c>
+      <c r="D33" t="s">
         <v>515</v>
       </c>
-      <c r="D33" t="s">
-        <v>516</v>
-      </c>
       <c r="E33" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H33" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3444,16 +3636,16 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>516</v>
+      </c>
+      <c r="D34" t="s">
         <v>517</v>
       </c>
-      <c r="D34" t="s">
-        <v>518</v>
-      </c>
       <c r="E34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H34" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3467,16 +3659,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>518</v>
+      </c>
+      <c r="D35" t="s">
         <v>519</v>
       </c>
-      <c r="D35" t="s">
-        <v>520</v>
-      </c>
       <c r="E35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H35" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3490,19 +3682,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3516,19 +3708,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G37" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H37" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3542,19 +3734,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3563,146 +3755,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F8E602-C602-4DBE-8251-6DDEB8D8D144}">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>536</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3721,13 +3773,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3735,7 +3787,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3746,7 +3798,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3757,7 +3809,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3768,7 +3820,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3779,7 +3831,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3790,7 +3842,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3801,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3812,7 +3864,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3827,11 +3879,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3848,49 +3900,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B1" t="s">
         <v>305</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>306</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>307</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>308</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>309</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
         <v>310</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>312</v>
       </c>
-      <c r="H1" t="s">
-        <v>311</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>313</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>314</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>315</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>316</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>318</v>
+      </c>
+      <c r="O1" t="s">
         <v>317</v>
-      </c>
-      <c r="N1" t="s">
-        <v>319</v>
-      </c>
-      <c r="O1" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4091,22 +4143,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>587</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>588</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -4120,7 +4172,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4129,31 +4181,31 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F8" t="s">
+        <v>582</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>574</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
         <v>583</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>575</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>584</v>
-      </c>
-      <c r="O8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -4601,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -4924,13 +4976,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="s">
+        <v>620</v>
+      </c>
+      <c r="M26" t="s">
         <v>112</v>
       </c>
-      <c r="M26" t="s">
+      <c r="O26" t="s">
         <v>113</v>
-      </c>
-      <c r="O26" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -4938,7 +4990,7 @@
         <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -4947,7 +4999,7 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -4965,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" t="s">
         <v>117</v>
-      </c>
-      <c r="O27" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -4976,7 +5028,7 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28">
         <v>118</v>
@@ -4985,10 +5037,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" t="s">
         <v>120</v>
-      </c>
-      <c r="F28" t="s">
-        <v>121</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -5006,13 +5058,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" t="s">
         <v>122</v>
       </c>
-      <c r="M28" t="s">
+      <c r="O28" t="s">
         <v>123</v>
-      </c>
-      <c r="O28" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -5020,7 +5072,7 @@
         <v>500</v>
       </c>
       <c r="B29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C29">
         <v>108</v>
@@ -5029,10 +5081,10 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" t="s">
         <v>126</v>
-      </c>
-      <c r="F29" t="s">
-        <v>127</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5050,13 +5102,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
+        <v>127</v>
+      </c>
+      <c r="M29" t="s">
         <v>128</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
         <v>129</v>
-      </c>
-      <c r="O29" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -5064,7 +5116,7 @@
         <v>501</v>
       </c>
       <c r="B30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30">
         <v>108</v>
@@ -5073,10 +5125,10 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
         <v>132</v>
-      </c>
-      <c r="F30" t="s">
-        <v>133</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5094,13 +5146,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M30" t="s">
+        <v>131</v>
+      </c>
+      <c r="O30" t="s">
         <v>134</v>
-      </c>
-      <c r="M30" t="s">
-        <v>132</v>
-      </c>
-      <c r="O30" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -5108,7 +5160,7 @@
         <v>502</v>
       </c>
       <c r="B31" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C31">
         <v>108</v>
@@ -5117,31 +5169,31 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
+        <v>572</v>
+      </c>
+      <c r="F31" t="s">
         <v>573</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
         <v>574</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>578</v>
+      </c>
+      <c r="M31" t="s">
         <v>575</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>579</v>
-      </c>
-      <c r="M31" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -5149,7 +5201,7 @@
         <v>1001</v>
       </c>
       <c r="B32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -5164,16 +5216,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
         <v>137</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
@@ -5181,7 +5233,7 @@
         <v>1002</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C33">
         <v>100</v>
@@ -5196,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -5205,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -5213,7 +5265,7 @@
         <v>1003</v>
       </c>
       <c r="B34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -5228,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5237,7 +5289,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
@@ -5245,7 +5297,7 @@
         <v>1004</v>
       </c>
       <c r="B35" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -5260,7 +5312,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -5269,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
@@ -5277,7 +5329,7 @@
         <v>1005</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36">
         <v>100</v>
@@ -5292,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -5301,10 +5353,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="s">
+        <v>145</v>
+      </c>
+      <c r="M36" t="s">
         <v>146</v>
-      </c>
-      <c r="M36" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
@@ -5312,7 +5364,7 @@
         <v>1006</v>
       </c>
       <c r="B37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -5327,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -5336,10 +5388,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -5347,7 +5399,7 @@
         <v>1007</v>
       </c>
       <c r="B38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -5362,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -5371,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
@@ -5382,7 +5434,7 @@
         <v>1008</v>
       </c>
       <c r="B39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39">
         <v>101</v>
@@ -5397,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -5406,10 +5458,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
@@ -5417,7 +5469,7 @@
         <v>1009</v>
       </c>
       <c r="B40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C40">
         <v>101</v>
@@ -5432,7 +5484,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -5441,10 +5493,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
@@ -5452,7 +5504,7 @@
         <v>1010</v>
       </c>
       <c r="B41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C41">
         <v>101</v>
@@ -5467,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -5476,10 +5528,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
@@ -5487,7 +5539,7 @@
         <v>1011</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C42">
         <v>101</v>
@@ -5502,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -5511,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M42" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
@@ -5522,7 +5574,7 @@
         <v>1012</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43">
         <v>101</v>
@@ -5537,7 +5589,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -5546,10 +5598,10 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
@@ -5557,7 +5609,7 @@
         <v>1013</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44">
         <v>102</v>
@@ -5572,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -5581,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
@@ -5592,7 +5644,7 @@
         <v>1014</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C45">
         <v>102</v>
@@ -5607,7 +5659,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -5616,10 +5668,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
@@ -5627,7 +5679,7 @@
         <v>1015</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46">
         <v>102</v>
@@ -5642,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -5651,10 +5703,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
@@ -5662,7 +5714,7 @@
         <v>1016</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C47">
         <v>102</v>
@@ -5677,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -5686,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
@@ -5697,7 +5749,7 @@
         <v>1017</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C48">
         <v>102</v>
@@ -5712,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -5721,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
@@ -5729,7 +5781,7 @@
         <v>1018</v>
       </c>
       <c r="B49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C49">
         <v>103</v>
@@ -5744,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -5753,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
@@ -5761,7 +5813,7 @@
         <v>1019</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C50">
         <v>103</v>
@@ -5776,7 +5828,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -5785,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
@@ -5793,7 +5845,7 @@
         <v>1020</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C51">
         <v>103</v>
@@ -5808,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -5817,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
@@ -5825,7 +5877,7 @@
         <v>1021</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C52">
         <v>103</v>
@@ -5840,7 +5892,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5849,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
@@ -5857,7 +5909,7 @@
         <v>1022</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53">
         <v>104</v>
@@ -5872,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -5889,7 +5941,7 @@
         <v>1023</v>
       </c>
       <c r="B54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C54">
         <v>104</v>
@@ -5904,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5913,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
@@ -5921,7 +5973,7 @@
         <v>1024</v>
       </c>
       <c r="B55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C55">
         <v>104</v>
@@ -5936,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -5945,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
@@ -5953,7 +6005,7 @@
         <v>1025</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56">
         <v>104</v>
@@ -5968,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -5977,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
@@ -5985,7 +6037,7 @@
         <v>1026</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57">
         <v>105</v>
@@ -6000,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -6009,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
@@ -6017,7 +6069,7 @@
         <v>1027</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C58">
         <v>105</v>
@@ -6032,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -6041,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
@@ -6049,7 +6101,7 @@
         <v>1028</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C59">
         <v>105</v>
@@ -6064,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -6073,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
@@ -6081,7 +6133,7 @@
         <v>1029</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C60">
         <v>106</v>
@@ -6096,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -6105,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
@@ -6113,7 +6165,7 @@
         <v>1030</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C61">
         <v>106</v>
@@ -6128,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -6137,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
@@ -6145,7 +6197,7 @@
         <v>1031</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C62">
         <v>105</v>
@@ -6160,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -6169,7 +6221,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
@@ -6177,7 +6229,7 @@
         <v>1032</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C63">
         <v>110</v>
@@ -6186,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6195,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -6204,10 +6256,10 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M63" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
@@ -6215,7 +6267,7 @@
         <v>1033</v>
       </c>
       <c r="B64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C64">
         <v>110</v>
@@ -6224,7 +6276,7 @@
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6233,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -6242,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
@@ -6250,7 +6302,7 @@
         <v>1034</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C65">
         <v>110</v>
@@ -6259,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="E65" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -6268,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -6277,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
@@ -6285,7 +6337,7 @@
         <v>1035</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66">
         <v>110</v>
@@ -6294,7 +6346,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -6303,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -6312,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
@@ -6320,7 +6372,7 @@
         <v>1036</v>
       </c>
       <c r="B67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C67">
         <v>110</v>
@@ -6329,7 +6381,7 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -6338,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -6347,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
@@ -6355,7 +6407,7 @@
         <v>1037</v>
       </c>
       <c r="B68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C68">
         <v>110</v>
@@ -6364,7 +6416,7 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -6373,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -6382,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
@@ -6390,7 +6442,7 @@
         <v>1038</v>
       </c>
       <c r="B69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69">
         <v>110</v>
@@ -6399,7 +6451,7 @@
         <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G69">
         <v>0</v>
@@ -6408,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -6417,7 +6469,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
@@ -6425,7 +6477,7 @@
         <v>1039</v>
       </c>
       <c r="B70" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -6434,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
+        <v>213</v>
+      </c>
+      <c r="F70" t="s">
         <v>214</v>
-      </c>
-      <c r="F70" t="s">
-        <v>215</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6455,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M70" t="s">
         <v>65</v>
@@ -6466,7 +6518,7 @@
         <v>1040</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71">
         <v>110</v>
@@ -6475,7 +6527,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6484,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -6493,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="L71" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
@@ -6501,7 +6553,7 @@
         <v>1041</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C72">
         <v>500</v>
@@ -6510,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6519,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -6528,7 +6580,7 @@
         <v>0</v>
       </c>
       <c r="L72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
@@ -6536,7 +6588,7 @@
         <v>1042</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C73">
         <v>500</v>
@@ -6545,7 +6597,7 @@
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -6554,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -6563,7 +6615,7 @@
         <v>0</v>
       </c>
       <c r="L73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
@@ -6571,7 +6623,7 @@
         <v>1043</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C74">
         <v>500</v>
@@ -6580,7 +6632,7 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -6589,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -6598,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="L74" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
@@ -6606,7 +6658,7 @@
         <v>1044</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C75">
         <v>501</v>
@@ -6615,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -6624,7 +6676,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -6633,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="L75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
@@ -6641,7 +6693,7 @@
         <v>1045</v>
       </c>
       <c r="B76" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C76">
         <v>501</v>
@@ -6650,7 +6702,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -6659,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -6668,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
@@ -6676,7 +6728,7 @@
         <v>1046</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C77">
         <v>501</v>
@@ -6685,7 +6737,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -6694,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -6703,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="L77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
@@ -6711,7 +6763,7 @@
         <v>1047</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -6720,10 +6772,10 @@
         <v>2</v>
       </c>
       <c r="E78" t="s">
+        <v>231</v>
+      </c>
+      <c r="F78" t="s">
         <v>232</v>
-      </c>
-      <c r="F78" t="s">
-        <v>233</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -6741,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="L78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M78" t="s">
         <v>65</v>
@@ -6752,7 +6804,7 @@
         <v>1048</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79">
         <v>118</v>
@@ -6761,7 +6813,7 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -6770,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -6779,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="L79" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.3">
@@ -6787,7 +6839,7 @@
         <v>1049</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80">
         <v>118</v>
@@ -6796,7 +6848,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -6805,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -6814,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="L80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -6822,7 +6874,7 @@
         <v>1050</v>
       </c>
       <c r="B81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81">
         <v>118</v>
@@ -6831,7 +6883,7 @@
         <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -6840,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -6849,7 +6901,7 @@
         <v>0</v>
       </c>
       <c r="L81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -6857,7 +6909,7 @@
         <v>1051</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C82">
         <v>109</v>
@@ -6866,7 +6918,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -6875,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -6884,7 +6936,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -6892,7 +6944,7 @@
         <v>1052</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C83">
         <v>109</v>
@@ -6901,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -6910,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -6919,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="L83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -6927,7 +6979,7 @@
         <v>1053</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C84">
         <v>109</v>
@@ -6936,7 +6988,7 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -6945,7 +6997,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -6954,7 +7006,7 @@
         <v>0</v>
       </c>
       <c r="L84" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -6962,7 +7014,7 @@
         <v>1054</v>
       </c>
       <c r="B85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C85">
         <v>109</v>
@@ -6971,7 +7023,7 @@
         <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -6980,7 +7032,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -6989,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="L85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -6997,7 +7049,7 @@
         <v>1055</v>
       </c>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C86">
         <v>109</v>
@@ -7006,7 +7058,7 @@
         <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7015,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -7024,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -7032,7 +7084,7 @@
         <v>1060</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C87">
         <v>3</v>
@@ -7041,10 +7093,10 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
+        <v>251</v>
+      </c>
+      <c r="F87" t="s">
         <v>252</v>
-      </c>
-      <c r="F87" t="s">
-        <v>253</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -7062,7 +7114,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -7070,7 +7122,7 @@
         <v>1061</v>
       </c>
       <c r="B88" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C88">
         <v>115</v>
@@ -7079,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -7088,7 +7140,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -7097,7 +7149,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -7105,7 +7157,7 @@
         <v>1062</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C89">
         <v>115</v>
@@ -7114,7 +7166,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -7123,7 +7175,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -7132,7 +7184,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -7140,7 +7192,7 @@
         <v>1063</v>
       </c>
       <c r="B90" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C90">
         <v>115</v>
@@ -7149,7 +7201,7 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -7158,7 +7210,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -7167,7 +7219,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -7175,7 +7227,7 @@
         <v>1064</v>
       </c>
       <c r="B91" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C91">
         <v>115</v>
@@ -7184,7 +7236,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -7193,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -7202,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -7210,7 +7262,7 @@
         <v>1065</v>
       </c>
       <c r="B92" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C92">
         <v>115</v>
@@ -7219,7 +7271,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -7228,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -7237,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -7245,7 +7297,7 @@
         <v>1070</v>
       </c>
       <c r="B93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C93">
         <v>104</v>
@@ -7260,7 +7312,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -7269,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="L93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -7277,7 +7329,7 @@
         <v>1071</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C94">
         <v>105</v>
@@ -7292,7 +7344,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -7301,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -7309,7 +7361,7 @@
         <v>1072</v>
       </c>
       <c r="B95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -7318,10 +7370,10 @@
         <v>17</v>
       </c>
       <c r="E95" t="s">
+        <v>269</v>
+      </c>
+      <c r="F95" t="s">
         <v>270</v>
-      </c>
-      <c r="F95" t="s">
-        <v>271</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -7339,13 +7391,13 @@
         <v>0</v>
       </c>
       <c r="L95" t="s">
+        <v>271</v>
+      </c>
+      <c r="M95" t="s">
         <v>272</v>
       </c>
-      <c r="M95" t="s">
+      <c r="O95" t="s">
         <v>273</v>
-      </c>
-      <c r="O95" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -7353,7 +7405,7 @@
         <v>1073</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C96">
         <v>1072</v>
@@ -7362,7 +7414,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -7371,7 +7423,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -7380,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="L96" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -7388,7 +7440,7 @@
         <v>1074</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C97">
         <v>1072</v>
@@ -7397,7 +7449,7 @@
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -7406,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J97">
         <v>0</v>
@@ -7415,7 +7467,7 @@
         <v>0</v>
       </c>
       <c r="L97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -7423,7 +7475,7 @@
         <v>1075</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C98">
         <v>1072</v>
@@ -7432,7 +7484,7 @@
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -7441,7 +7493,7 @@
         <v>0</v>
       </c>
       <c r="I98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -7450,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -7458,7 +7510,7 @@
         <v>1076</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C99">
         <v>1072</v>
@@ -7467,7 +7519,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -7476,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -7485,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="L99" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -7493,7 +7545,7 @@
         <v>1077</v>
       </c>
       <c r="B100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C100">
         <v>1072</v>
@@ -7502,7 +7554,7 @@
         <v>5</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -7511,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -7520,7 +7572,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -7528,7 +7580,7 @@
         <v>1078</v>
       </c>
       <c r="B101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7537,10 +7589,10 @@
         <v>999</v>
       </c>
       <c r="E101" t="s">
+        <v>285</v>
+      </c>
+      <c r="F101" t="s">
         <v>286</v>
-      </c>
-      <c r="F101" t="s">
-        <v>287</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -7558,13 +7610,13 @@
         <v>0</v>
       </c>
       <c r="L101" t="s">
+        <v>287</v>
+      </c>
+      <c r="M101" t="s">
         <v>288</v>
       </c>
-      <c r="M101" t="s">
+      <c r="O101" t="s">
         <v>289</v>
-      </c>
-      <c r="O101" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -7572,7 +7624,7 @@
         <v>1079</v>
       </c>
       <c r="B102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C102">
         <v>1078</v>
@@ -7581,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -7590,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -7599,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -7607,7 +7659,7 @@
         <v>1080</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C103">
         <v>1078</v>
@@ -7616,7 +7668,7 @@
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -7625,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -7634,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="L103" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -7642,7 +7694,7 @@
         <v>1081</v>
       </c>
       <c r="B104" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C104">
         <v>1078</v>
@@ -7651,7 +7703,7 @@
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -7660,7 +7712,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -7669,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -7677,7 +7729,7 @@
         <v>1082</v>
       </c>
       <c r="B105" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C105">
         <v>1078</v>
@@ -7686,7 +7738,7 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -7695,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -7704,7 +7756,7 @@
         <v>0</v>
       </c>
       <c r="L105" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -7712,7 +7764,7 @@
         <v>1090</v>
       </c>
       <c r="B106" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C106">
         <v>1078</v>
@@ -7721,7 +7773,7 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -7730,7 +7782,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -7739,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -7747,7 +7799,7 @@
         <v>1083</v>
       </c>
       <c r="B107" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C107">
         <v>1078</v>
@@ -7756,7 +7808,7 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -7765,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -7774,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="L107" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -7782,7 +7834,7 @@
         <v>1084</v>
       </c>
       <c r="B108" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C108">
         <v>118</v>
@@ -7791,10 +7843,10 @@
         <v>999</v>
       </c>
       <c r="E108" t="s">
+        <v>296</v>
+      </c>
+      <c r="F108" t="s">
         <v>297</v>
-      </c>
-      <c r="F108" t="s">
-        <v>298</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -7812,7 +7864,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M108" t="s">
         <v>35</v>
@@ -7823,7 +7875,7 @@
         <v>1085</v>
       </c>
       <c r="B109" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C109">
         <v>1084</v>
@@ -7832,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -7841,7 +7893,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -7850,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="L109" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -7858,7 +7910,7 @@
         <v>1086</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C110">
         <v>1084</v>
@@ -7867,7 +7919,7 @@
         <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -7876,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J110">
         <v>0</v>
@@ -7885,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="L110" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -7893,7 +7945,7 @@
         <v>1087</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C111">
         <v>1084</v>
@@ -7902,7 +7954,7 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -7911,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -7920,7 +7972,7 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
@@ -7928,7 +7980,7 @@
         <v>1088</v>
       </c>
       <c r="B112" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C112">
         <v>1084</v>
@@ -7937,7 +7989,7 @@
         <v>4</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -7946,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -7955,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="L112" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
@@ -7963,7 +8015,7 @@
         <v>1089</v>
       </c>
       <c r="B113" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C113">
         <v>1084</v>
@@ -7972,7 +8024,7 @@
         <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -7981,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -7990,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="L113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
@@ -7998,7 +8050,7 @@
         <v>1092</v>
       </c>
       <c r="B114" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C114">
         <v>111</v>
@@ -8013,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -8022,10 +8074,10 @@
         <v>0</v>
       </c>
       <c r="L114" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N114" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
@@ -8033,7 +8085,7 @@
         <v>1091</v>
       </c>
       <c r="B115" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C115">
         <v>111</v>
@@ -8048,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -8057,10 +8109,10 @@
         <v>0</v>
       </c>
       <c r="L115" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N115" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -8068,7 +8120,7 @@
         <v>1102</v>
       </c>
       <c r="B116" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C116">
         <v>502</v>
@@ -8083,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -8092,10 +8144,10 @@
         <v>0</v>
       </c>
       <c r="L116" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="N116" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -8103,7 +8155,7 @@
         <v>1103</v>
       </c>
       <c r="B117" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C117">
         <v>502</v>
@@ -8118,7 +8170,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -8127,10 +8179,147 @@
         <v>0</v>
       </c>
       <c r="L117" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="N117" t="s">
-        <v>593</v>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>608</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>612</v>
+      </c>
+      <c r="F118" t="s">
+        <v>613</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>574</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>619</v>
+      </c>
+      <c r="M118" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>1105</v>
+      </c>
+      <c r="B119" t="s">
+        <v>614</v>
+      </c>
+      <c r="C119">
+        <v>1104</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>568</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>1106</v>
+      </c>
+      <c r="B120" t="s">
+        <v>615</v>
+      </c>
+      <c r="C120">
+        <v>1104</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>568</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>1107</v>
+      </c>
+      <c r="B121" t="s">
+        <v>576</v>
+      </c>
+      <c r="C121">
+        <v>1104</v>
+      </c>
+      <c r="D121">
+        <v>4</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>568</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -8161,34 +8350,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" t="s">
         <v>338</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>339</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>340</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H1" t="s">
+        <v>314</v>
+      </c>
+      <c r="I1" t="s">
         <v>341</v>
       </c>
-      <c r="E1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F1" t="s">
-        <v>344</v>
-      </c>
-      <c r="G1" t="s">
-        <v>345</v>
-      </c>
-      <c r="H1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" t="s">
-        <v>342</v>
-      </c>
       <c r="J1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8196,7 +8385,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -8220,7 +8409,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8228,10 +8417,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" t="s">
         <v>336</v>
-      </c>
-      <c r="C3" t="s">
-        <v>337</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8252,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -8274,10 +8463,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1" t="s">
         <v>402</v>
-      </c>
-      <c r="B1" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8498,7 +8687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA152B8-C1FA-4646-A501-2C7774BC6ACC}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -8511,22 +8700,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
         <v>366</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>367</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>368</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>369</v>
       </c>
-      <c r="E1" t="s">
-        <v>370</v>
-      </c>
       <c r="F1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8534,19 +8723,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" t="s">
         <v>346</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>347</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>348</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>349</v>
-      </c>
-      <c r="F2" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8554,19 +8743,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" t="s">
         <v>351</v>
-      </c>
-      <c r="C3" t="s">
-        <v>352</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8574,19 +8763,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" t="s">
         <v>354</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>543</v>
+      </c>
+      <c r="E4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" t="s">
         <v>355</v>
-      </c>
-      <c r="D4" t="s">
-        <v>544</v>
-      </c>
-      <c r="E4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8594,19 +8783,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
         <v>357</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" t="s">
         <v>358</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8614,16 +8803,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" t="s">
         <v>360</v>
       </c>
-      <c r="C6" t="s">
-        <v>361</v>
-      </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8631,19 +8820,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" t="s">
         <v>362</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>363</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" t="s">
         <v>364</v>
-      </c>
-      <c r="E7" t="s">
-        <v>349</v>
-      </c>
-      <c r="F7" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -8664,10 +8853,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8713,75 +8902,75 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C1" t="s">
         <v>411</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>412</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>413</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>414</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>415</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>416</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>417</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>418</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>419</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>420</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>421</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>422</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>423</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>424</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>425</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
         <v>404</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>405</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>406</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>407</v>
-      </c>
-      <c r="F2" t="s">
-        <v>408</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -8826,19 +9015,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" t="s">
         <v>397</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>398</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>399</v>
       </c>
-      <c r="D1" t="s">
-        <v>400</v>
-      </c>
       <c r="E1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -8846,10 +9035,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
         <v>371</v>
-      </c>
-      <c r="C2" t="s">
-        <v>372</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -8863,10 +9052,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" t="s">
         <v>373</v>
-      </c>
-      <c r="C3" t="s">
-        <v>374</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8880,10 +9069,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
         <v>375</v>
-      </c>
-      <c r="C4" t="s">
-        <v>376</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -8897,10 +9086,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" t="s">
         <v>377</v>
-      </c>
-      <c r="C5" t="s">
-        <v>378</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -8914,10 +9103,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C6" t="s">
         <v>379</v>
-      </c>
-      <c r="C6" t="s">
-        <v>380</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -8931,10 +9120,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
         <v>381</v>
-      </c>
-      <c r="C7" t="s">
-        <v>382</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -8948,10 +9137,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" t="s">
         <v>383</v>
-      </c>
-      <c r="C8" t="s">
-        <v>384</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -8965,10 +9154,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C9" t="s">
         <v>385</v>
-      </c>
-      <c r="C9" t="s">
-        <v>386</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -8982,10 +9171,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>386</v>
+      </c>
+      <c r="C10" t="s">
         <v>387</v>
-      </c>
-      <c r="C10" t="s">
-        <v>388</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -8999,10 +9188,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>388</v>
+      </c>
+      <c r="C11" t="s">
         <v>389</v>
-      </c>
-      <c r="C11" t="s">
-        <v>390</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9016,10 +9205,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C12" t="s">
         <v>391</v>
-      </c>
-      <c r="C12" t="s">
-        <v>392</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9033,10 +9222,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" t="s">
         <v>393</v>
-      </c>
-      <c r="C13" t="s">
-        <v>394</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9050,10 +9239,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>394</v>
+      </c>
+      <c r="C14" t="s">
         <v>395</v>
-      </c>
-      <c r="C14" t="s">
-        <v>396</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9070,10 +9259,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA66D3-8315-4018-BF52-5D786631F136}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9081,30 +9270,30 @@
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="5" width="8.9140625" style="3"/>
     <col min="6" max="6" width="17.58203125" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" t="s">
         <v>521</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>522</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" t="s">
         <v>524</v>
-      </c>
-      <c r="F1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9112,19 +9301,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" t="s">
         <v>427</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F2" t="s">
         <v>428</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F2" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9132,19 +9321,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C3" t="s">
         <v>430</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F3" t="s">
         <v>431</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9152,19 +9341,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
         <v>433</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" t="s">
         <v>434</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F4" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9172,19 +9361,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C5" t="s">
         <v>436</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F5" t="s">
         <v>437</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F5" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9192,19 +9381,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>438</v>
+      </c>
+      <c r="C6" t="s">
         <v>439</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" t="s">
         <v>440</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9212,19 +9401,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
         <v>442</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F7" t="s">
         <v>443</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9232,19 +9421,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" t="s">
         <v>445</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F8" t="s">
         <v>446</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F8" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9252,19 +9441,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C9" t="s">
         <v>448</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" t="s">
         <v>449</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F9" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -9272,19 +9461,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C10" t="s">
         <v>451</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" t="s">
         <v>452</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F10" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9292,19 +9481,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" t="s">
         <v>454</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="s">
         <v>455</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F11" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9312,16 +9501,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>456</v>
+      </c>
+      <c r="C12" t="s">
         <v>457</v>
       </c>
-      <c r="C12" t="s">
-        <v>458</v>
-      </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9329,19 +9518,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C13" t="s">
         <v>459</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" t="s">
         <v>460</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="F13" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9349,19 +9538,42 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C14" t="s">
+        <v>559</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F14" t="s">
         <v>560</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="F14" t="s">
-        <v>561</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C15" t="s">
+        <v>609</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F15" t="s">
+        <v>611</v>
+      </c>
+      <c r="G15" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6018CD49-B97C-4756-BCE9-279E05918D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BD6DCF-5D67-4C53-80EC-1D65A6146EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -27,14 +27,14 @@
     <sheet name="article_category" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">menu!$A$1:$A$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">menu!$A$1:$A$118</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="639">
   <si>
     <t>系统管理</t>
   </si>
@@ -968,9 +968,6 @@
     <t>Component</t>
   </si>
   <si>
-    <t>IsCache</t>
-  </si>
-  <si>
     <t>IsFrame</t>
   </si>
   <si>
@@ -2012,6 +2009,77 @@
   </si>
   <si>
     <t>icon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor/SmsLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smscodelog:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smscodelog:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smscodelog:export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f884e</t>
+  </si>
+  <si>
+    <t>编辑角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system:article:list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2035,12 +2103,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2055,18 +2141,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2387,10 +2516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D00AC0F-0226-4E9A-8157-8C2F558D581D}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2400,43 +2529,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" t="s">
         <v>322</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" t="s">
         <v>331</v>
       </c>
-      <c r="C1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H1" t="s">
+        <v>327</v>
+      </c>
+      <c r="I1" t="s">
         <v>325</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>541</v>
+      </c>
+      <c r="K1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L1" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" t="s">
         <v>332</v>
-      </c>
-      <c r="G1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J1" t="s">
-        <v>542</v>
-      </c>
-      <c r="K1" t="s">
-        <v>329</v>
-      </c>
-      <c r="L1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M1" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2447,17 +2576,17 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>319</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>320</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -2465,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2473,11 +2602,11 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D3" t="s">
         <v>545</v>
       </c>
-      <c r="D3" t="s">
-        <v>546</v>
-      </c>
       <c r="E3">
         <v>0</v>
       </c>
@@ -2485,16 +2614,45 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
         <v>320</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
-        <v>321</v>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>632</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -2516,25 +2674,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" t="s">
         <v>537</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>538</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>539</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>540</v>
       </c>
-      <c r="E1" t="s">
-        <v>541</v>
-      </c>
       <c r="F1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2545,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2565,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2585,7 +2743,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2605,7 +2763,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2625,7 +2783,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2648,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
@@ -2661,37 +2819,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B1" t="s">
         <v>526</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>527</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>528</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F1" t="s">
         <v>529</v>
       </c>
-      <c r="E1" t="s">
-        <v>522</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>530</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>531</v>
       </c>
-      <c r="H1" t="s">
-        <v>532</v>
-      </c>
       <c r="I1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2702,25 +2860,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H2" t="s">
+        <v>347</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
         <v>461</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>427</v>
-      </c>
-      <c r="H2" t="s">
-        <v>348</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>462</v>
-      </c>
       <c r="K2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2731,25 +2889,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>426</v>
+      </c>
+      <c r="H3" t="s">
         <v>463</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>464</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>465</v>
-      </c>
       <c r="K3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2760,25 +2918,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2789,28 +2947,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>429</v>
+      </c>
+      <c r="G5" t="s">
         <v>468</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>430</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>469</v>
       </c>
-      <c r="H5" t="s">
-        <v>348</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>470</v>
-      </c>
       <c r="K5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2821,28 +2979,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" t="s">
         <v>471</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>430</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>463</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>472</v>
       </c>
-      <c r="H6" t="s">
-        <v>464</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>473</v>
-      </c>
       <c r="K6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2853,28 +3011,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G7" t="s">
+        <v>468</v>
+      </c>
+      <c r="H7" t="s">
+        <v>347</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>474</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>433</v>
-      </c>
-      <c r="G7" t="s">
-        <v>469</v>
-      </c>
-      <c r="H7" t="s">
-        <v>348</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>475</v>
-      </c>
       <c r="K7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2885,28 +3043,28 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>432</v>
+      </c>
+      <c r="G8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H8" t="s">
+        <v>463</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
         <v>476</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>433</v>
-      </c>
-      <c r="G8" t="s">
-        <v>472</v>
-      </c>
-      <c r="H8" t="s">
-        <v>464</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>477</v>
-      </c>
       <c r="K8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2917,28 +3075,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
+        <v>473</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G9" t="s">
+        <v>468</v>
+      </c>
+      <c r="H9" t="s">
+        <v>347</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>474</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>436</v>
-      </c>
-      <c r="G9" t="s">
-        <v>469</v>
-      </c>
-      <c r="H9" t="s">
-        <v>348</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>475</v>
-      </c>
       <c r="K9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -2949,28 +3107,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -2981,25 +3139,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D11" t="s">
         <v>479</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>438</v>
+      </c>
+      <c r="H11" t="s">
+        <v>347</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>480</v>
       </c>
-      <c r="E11" t="s">
-        <v>439</v>
-      </c>
-      <c r="H11" t="s">
-        <v>348</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>481</v>
-      </c>
       <c r="K11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3010,25 +3168,25 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" t="s">
+        <v>403</v>
+      </c>
+      <c r="E12" t="s">
+        <v>438</v>
+      </c>
+      <c r="H12" t="s">
+        <v>463</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
         <v>482</v>
       </c>
-      <c r="D12" t="s">
-        <v>404</v>
-      </c>
-      <c r="E12" t="s">
-        <v>439</v>
-      </c>
-      <c r="H12" t="s">
-        <v>464</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>483</v>
-      </c>
       <c r="K12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3039,28 +3197,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" t="s">
+        <v>468</v>
+      </c>
+      <c r="H13" t="s">
+        <v>347</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
         <v>484</v>
       </c>
-      <c r="D13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E13" t="s">
-        <v>442</v>
-      </c>
-      <c r="G13" t="s">
-        <v>469</v>
-      </c>
-      <c r="H13" t="s">
-        <v>348</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>485</v>
-      </c>
       <c r="K13" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3071,28 +3229,28 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>485</v>
+      </c>
+      <c r="D14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" t="s">
+        <v>441</v>
+      </c>
+      <c r="G14" t="s">
+        <v>471</v>
+      </c>
+      <c r="H14" t="s">
+        <v>463</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
         <v>486</v>
       </c>
-      <c r="D14" t="s">
-        <v>464</v>
-      </c>
-      <c r="E14" t="s">
-        <v>442</v>
-      </c>
-      <c r="G14" t="s">
-        <v>472</v>
-      </c>
-      <c r="H14" t="s">
-        <v>464</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>487</v>
-      </c>
       <c r="K14" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3103,25 +3261,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>487</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G15" t="s">
         <v>488</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>445</v>
-      </c>
-      <c r="G15" t="s">
-        <v>489</v>
-      </c>
       <c r="H15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3132,25 +3290,25 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3161,25 +3319,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>447</v>
+      </c>
+      <c r="G17" t="s">
+        <v>468</v>
+      </c>
+      <c r="H17" t="s">
+        <v>347</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>474</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>448</v>
-      </c>
-      <c r="G17" t="s">
-        <v>469</v>
-      </c>
-      <c r="H17" t="s">
-        <v>348</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3190,25 +3348,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>447</v>
+      </c>
+      <c r="G18" t="s">
+        <v>471</v>
+      </c>
+      <c r="H18" t="s">
+        <v>463</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
         <v>492</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>448</v>
-      </c>
-      <c r="G18" t="s">
-        <v>472</v>
-      </c>
-      <c r="H18" t="s">
-        <v>464</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3219,25 +3377,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>450</v>
+      </c>
+      <c r="G19" t="s">
         <v>494</v>
       </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>451</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>463</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>495</v>
-      </c>
-      <c r="H19" t="s">
-        <v>464</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3254,19 +3412,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G20" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H20" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3283,19 +3441,19 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G21" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3312,19 +3470,19 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3335,25 +3493,25 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G23" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H23" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3370,19 +3528,19 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3393,25 +3551,25 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3422,25 +3580,25 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G26" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H26" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3457,19 +3615,19 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G27" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3480,25 +3638,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G28" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3509,25 +3667,25 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H29" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3538,25 +3696,25 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G30" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H30" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -3567,16 +3725,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3590,16 +3748,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H32" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3613,16 +3771,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
+        <v>513</v>
+      </c>
+      <c r="D33" t="s">
         <v>514</v>
       </c>
-      <c r="D33" t="s">
-        <v>515</v>
-      </c>
       <c r="E33" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H33" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3636,16 +3794,16 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>515</v>
+      </c>
+      <c r="D34" t="s">
         <v>516</v>
       </c>
-      <c r="D34" t="s">
-        <v>517</v>
-      </c>
       <c r="E34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H34" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3659,16 +3817,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
+        <v>517</v>
+      </c>
+      <c r="D35" t="s">
         <v>518</v>
       </c>
-      <c r="D35" t="s">
-        <v>519</v>
-      </c>
       <c r="E35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H35" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3682,19 +3840,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3708,19 +3866,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G37" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3734,19 +3892,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G38" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3773,10 +3931,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C1" t="s">
         <v>306</v>
@@ -3787,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3798,7 +3956,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3809,7 +3967,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3820,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3831,7 +3989,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -3842,7 +4000,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -3853,7 +4011,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -3864,7 +4022,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3879,26 +4037,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O121"/>
+  <dimension ref="A1:N125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="22.75" customWidth="1"/>
-    <col min="13" max="13" width="10.58203125" customWidth="1"/>
-    <col min="14" max="14" width="18.4140625" customWidth="1"/>
-    <col min="15" max="15" width="21.75" customWidth="1"/>
+    <col min="5" max="6" width="23.58203125" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="10.58203125" customWidth="1"/>
+    <col min="13" max="13" width="18.4140625" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>304</v>
       </c>
@@ -3918,10 +4075,10 @@
         <v>309</v>
       </c>
       <c r="G1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H1" t="s">
         <v>311</v>
-      </c>
-      <c r="H1" t="s">
-        <v>310</v>
       </c>
       <c r="I1" t="s">
         <v>312</v>
@@ -3936,16 +4093,13 @@
         <v>315</v>
       </c>
       <c r="M1" t="s">
+        <v>317</v>
+      </c>
+      <c r="N1" t="s">
         <v>316</v>
       </c>
-      <c r="N1" t="s">
-        <v>318</v>
-      </c>
-      <c r="O1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3964,26 +4118,23 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
       <c r="J2">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4002,26 +4153,23 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="N3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4040,26 +4188,23 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>2</v>
       </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="O4" t="s">
+      <c r="N4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4078,26 +4223,23 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>2</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" t="s">
+      <c r="N5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4119,60 +4261,54 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" t="s">
         <v>17</v>
       </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
         <v>15</v>
       </c>
-      <c r="O6" t="s">
+      <c r="N6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>585</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>586</v>
       </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>587</v>
+      <c r="I7">
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -4181,34 +4317,31 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F8" t="s">
+        <v>581</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>573</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
         <v>582</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
-        <v>574</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>583</v>
       </c>
-      <c r="O8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>100</v>
       </c>
@@ -4230,29 +4363,26 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>17</v>
       </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
+      <c r="K9" t="s">
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" t="s">
         <v>21</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>101</v>
       </c>
@@ -4274,29 +4404,26 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" t="s">
         <v>17</v>
       </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
       <c r="J10">
         <v>0</v>
       </c>
-      <c r="K10">
-        <v>0</v>
+      <c r="K10" t="s">
+        <v>28</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="O10" t="s">
+      <c r="N10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>102</v>
       </c>
@@ -4318,29 +4445,26 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" t="s">
         <v>17</v>
       </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>0</v>
+      <c r="K11" t="s">
+        <v>34</v>
       </c>
       <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
         <v>35</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>103</v>
       </c>
@@ -4362,29 +4486,26 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="H12" t="s">
         <v>17</v>
       </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
+      <c r="K12" t="s">
+        <v>40</v>
       </c>
       <c r="L12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="N12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>104</v>
       </c>
@@ -4406,29 +4527,26 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" t="s">
         <v>17</v>
       </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>0</v>
+      <c r="K13" t="s">
+        <v>46</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" t="s">
         <v>44</v>
       </c>
-      <c r="O13" t="s">
+      <c r="N13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>105</v>
       </c>
@@ -4450,29 +4568,26 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" t="s">
         <v>17</v>
       </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
+      <c r="K14" t="s">
+        <v>51</v>
       </c>
       <c r="L14" t="s">
-        <v>51</v>
-      </c>
-      <c r="M14" t="s">
         <v>49</v>
       </c>
-      <c r="O14" t="s">
+      <c r="N14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>106</v>
       </c>
@@ -4494,26 +4609,23 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="H15" t="s">
         <v>17</v>
       </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
       <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>107</v>
       </c>
@@ -4535,29 +4647,26 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="H16" t="s">
         <v>17</v>
       </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
+      <c r="K16" t="s">
+        <v>61</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M16" t="s">
         <v>62</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>108</v>
       </c>
@@ -4576,26 +4685,23 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="H17" t="s">
         <v>2</v>
       </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
         <v>65</v>
       </c>
-      <c r="O17" t="s">
+      <c r="N17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>109</v>
       </c>
@@ -4617,29 +4723,26 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="H18" t="s">
         <v>17</v>
       </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
+      <c r="K18" t="s">
+        <v>70</v>
       </c>
       <c r="L18" t="s">
-        <v>70</v>
-      </c>
-      <c r="M18" t="s">
         <v>71</v>
       </c>
-      <c r="O18" t="s">
+      <c r="N18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>110</v>
       </c>
@@ -4653,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F19" t="s">
         <v>75</v>
@@ -4661,26 +4764,23 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>17</v>
       </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="L19" t="s">
         <v>74</v>
       </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>111</v>
       </c>
@@ -4702,26 +4802,23 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="H20" t="s">
         <v>17</v>
       </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="L20" t="s">
         <v>80</v>
       </c>
-      <c r="O20" t="s">
+      <c r="N20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>112</v>
       </c>
@@ -4743,29 +4840,26 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="H21" t="s">
         <v>17</v>
       </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
+      <c r="K21" t="s">
+        <v>85</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" t="s">
         <v>83</v>
       </c>
-      <c r="O21" t="s">
+      <c r="N21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>113</v>
       </c>
@@ -4787,29 +4881,26 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="H22" t="s">
         <v>17</v>
       </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <v>1</v>
+      <c r="K22" t="s">
+        <v>90</v>
       </c>
       <c r="L22" t="s">
-        <v>90</v>
-      </c>
-      <c r="M22" t="s">
         <v>91</v>
       </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>114</v>
       </c>
@@ -4831,29 +4922,26 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" t="s">
         <v>17</v>
       </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
+      <c r="K23" t="s">
+        <v>96</v>
       </c>
       <c r="L23" t="s">
-        <v>96</v>
-      </c>
-      <c r="M23" t="s">
         <v>94</v>
       </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>115</v>
       </c>
@@ -4875,29 +4963,26 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>17</v>
       </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
+      <c r="K24" t="s">
+        <v>101</v>
       </c>
       <c r="L24" t="s">
-        <v>101</v>
-      </c>
-      <c r="M24" t="s">
         <v>102</v>
       </c>
-      <c r="O24" t="s">
+      <c r="N24" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>116</v>
       </c>
@@ -4919,29 +5004,26 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>17</v>
       </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
       <c r="J25">
         <v>0</v>
       </c>
-      <c r="K25">
-        <v>0</v>
+      <c r="K25" t="s">
+        <v>107</v>
       </c>
       <c r="L25" t="s">
-        <v>107</v>
-      </c>
-      <c r="M25" t="s">
         <v>105</v>
       </c>
-      <c r="O25" t="s">
+      <c r="N25" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>117</v>
       </c>
@@ -4963,29 +5045,26 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>17</v>
       </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
       <c r="J26">
         <v>0</v>
       </c>
-      <c r="K26">
-        <v>0</v>
+      <c r="K26" t="s">
+        <v>619</v>
       </c>
       <c r="L26" t="s">
-        <v>620</v>
-      </c>
-      <c r="M26" t="s">
         <v>112</v>
       </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>118</v>
       </c>
@@ -5004,26 +5083,23 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>2</v>
       </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="L27" t="s">
         <v>116</v>
       </c>
-      <c r="O27" t="s">
+      <c r="N27" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>119</v>
       </c>
@@ -5045,29 +5121,26 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="H28" t="s">
         <v>17</v>
       </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
       <c r="J28">
         <v>0</v>
       </c>
-      <c r="K28">
-        <v>0</v>
+      <c r="K28" t="s">
+        <v>121</v>
       </c>
       <c r="L28" t="s">
-        <v>121</v>
-      </c>
-      <c r="M28" t="s">
         <v>122</v>
       </c>
-      <c r="O28" t="s">
+      <c r="N28" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>500</v>
       </c>
@@ -5089,29 +5162,26 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="H29" t="s">
         <v>17</v>
       </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
+      <c r="K29" t="s">
+        <v>127</v>
       </c>
       <c r="L29" t="s">
-        <v>127</v>
-      </c>
-      <c r="M29" t="s">
         <v>128</v>
       </c>
-      <c r="O29" t="s">
+      <c r="N29" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>501</v>
       </c>
@@ -5133,34 +5203,31 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>17</v>
       </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
       <c r="J30">
         <v>0</v>
       </c>
-      <c r="K30">
-        <v>0</v>
+      <c r="K30" t="s">
+        <v>133</v>
       </c>
       <c r="L30" t="s">
-        <v>133</v>
-      </c>
-      <c r="M30" t="s">
         <v>131</v>
       </c>
-      <c r="O30" t="s">
+      <c r="N30" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>502</v>
       </c>
       <c r="B31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C31">
         <v>108</v>
@@ -5169,34 +5236,31 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
+        <v>571</v>
+      </c>
+      <c r="F31" t="s">
         <v>572</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
         <v>573</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>577</v>
+      </c>
+      <c r="L31" t="s">
         <v>574</v>
       </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>578</v>
-      </c>
-      <c r="M31" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1001</v>
       </c>
@@ -5212,23 +5276,20 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="H32" t="s">
         <v>136</v>
       </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" t="s">
+      <c r="K32" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1002</v>
       </c>
@@ -5244,23 +5305,20 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="H33" t="s">
         <v>136</v>
       </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="K33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1003</v>
       </c>
@@ -5276,23 +5334,20 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="H34" t="s">
         <v>136</v>
       </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="K34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1004</v>
       </c>
@@ -5308,23 +5363,20 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="H35" t="s">
         <v>136</v>
       </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35" t="s">
+      <c r="K35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1005</v>
       </c>
@@ -5340,26 +5392,23 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="H36" t="s">
         <v>136</v>
       </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>0</v>
+      <c r="K36" t="s">
+        <v>145</v>
       </c>
       <c r="L36" t="s">
-        <v>145</v>
-      </c>
-      <c r="M36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1006</v>
       </c>
@@ -5375,26 +5424,23 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="H37" t="s">
         <v>136</v>
       </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
       <c r="J37">
         <v>0</v>
       </c>
-      <c r="K37">
-        <v>0</v>
+      <c r="K37" t="s">
+        <v>148</v>
       </c>
       <c r="L37" t="s">
-        <v>148</v>
-      </c>
-      <c r="M37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1007</v>
       </c>
@@ -5410,26 +5456,23 @@
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="H38" t="s">
         <v>136</v>
       </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38">
-        <v>0</v>
+      <c r="K38" t="s">
+        <v>150</v>
       </c>
       <c r="L38" t="s">
-        <v>150</v>
-      </c>
-      <c r="M38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1008</v>
       </c>
@@ -5445,26 +5488,23 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="H39" t="s">
         <v>136</v>
       </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
       <c r="J39">
         <v>0</v>
       </c>
-      <c r="K39">
-        <v>0</v>
+      <c r="K39" t="s">
+        <v>152</v>
       </c>
       <c r="L39" t="s">
-        <v>152</v>
-      </c>
-      <c r="M39" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1009</v>
       </c>
@@ -5480,26 +5520,23 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="H40" t="s">
         <v>136</v>
       </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
       <c r="J40">
         <v>0</v>
       </c>
-      <c r="K40">
-        <v>0</v>
+      <c r="K40" t="s">
+        <v>154</v>
       </c>
       <c r="L40" t="s">
-        <v>154</v>
-      </c>
-      <c r="M40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1010</v>
       </c>
@@ -5515,26 +5552,23 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="H41" t="s">
         <v>136</v>
       </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
       <c r="J41">
         <v>0</v>
       </c>
-      <c r="K41">
-        <v>0</v>
+      <c r="K41" t="s">
+        <v>156</v>
       </c>
       <c r="L41" t="s">
-        <v>156</v>
-      </c>
-      <c r="M41" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1011</v>
       </c>
@@ -5550,26 +5584,23 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="H42" t="s">
         <v>136</v>
       </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
       <c r="J42">
         <v>0</v>
       </c>
-      <c r="K42">
-        <v>0</v>
+      <c r="K42" t="s">
+        <v>158</v>
       </c>
       <c r="L42" t="s">
-        <v>158</v>
-      </c>
-      <c r="M42" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1012</v>
       </c>
@@ -5585,26 +5616,23 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="H43" t="s">
         <v>136</v>
       </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>0</v>
+      <c r="K43" t="s">
+        <v>160</v>
       </c>
       <c r="L43" t="s">
-        <v>160</v>
-      </c>
-      <c r="M43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1013</v>
       </c>
@@ -5620,26 +5648,23 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="H44" t="s">
         <v>136</v>
       </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44">
-        <v>0</v>
+      <c r="K44" t="s">
+        <v>162</v>
       </c>
       <c r="L44" t="s">
-        <v>162</v>
-      </c>
-      <c r="M44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1014</v>
       </c>
@@ -5655,26 +5680,23 @@
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="H45" t="s">
         <v>136</v>
       </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>0</v>
+      <c r="K45" t="s">
+        <v>164</v>
       </c>
       <c r="L45" t="s">
-        <v>164</v>
-      </c>
-      <c r="M45" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1015</v>
       </c>
@@ -5690,26 +5712,23 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="H46" t="s">
         <v>136</v>
       </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46">
-        <v>0</v>
+      <c r="K46" t="s">
+        <v>166</v>
       </c>
       <c r="L46" t="s">
-        <v>166</v>
-      </c>
-      <c r="M46" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1016</v>
       </c>
@@ -5725,26 +5744,23 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="H47" t="s">
         <v>136</v>
       </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
       <c r="J47">
         <v>0</v>
       </c>
-      <c r="K47">
-        <v>0</v>
+      <c r="K47" t="s">
+        <v>168</v>
       </c>
       <c r="L47" t="s">
-        <v>168</v>
-      </c>
-      <c r="M47" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1017</v>
       </c>
@@ -5760,23 +5776,20 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="H48" t="s">
         <v>136</v>
       </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
       <c r="J48">
         <v>0</v>
       </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" t="s">
+      <c r="K48" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1018</v>
       </c>
@@ -5792,23 +5805,20 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="H49" t="s">
         <v>136</v>
       </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
       <c r="J49">
         <v>0</v>
       </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" t="s">
+      <c r="K49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1019</v>
       </c>
@@ -5824,23 +5834,20 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="H50" t="s">
         <v>136</v>
       </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
       <c r="J50">
         <v>0</v>
       </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50" t="s">
+      <c r="K50" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1020</v>
       </c>
@@ -5856,23 +5863,20 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="H51" t="s">
         <v>136</v>
       </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
       <c r="J51">
         <v>0</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51" t="s">
+      <c r="K51" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1021</v>
       </c>
@@ -5888,23 +5892,20 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="H52" t="s">
         <v>136</v>
       </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
       <c r="J52">
         <v>0</v>
       </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="K52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1022</v>
       </c>
@@ -5920,23 +5921,20 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="H53" t="s">
         <v>136</v>
       </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
       <c r="J53">
         <v>0</v>
       </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
+      <c r="K53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1023</v>
       </c>
@@ -5952,23 +5950,20 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="H54" t="s">
         <v>136</v>
       </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
       <c r="J54">
         <v>0</v>
       </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="K54" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1024</v>
       </c>
@@ -5984,23 +5979,20 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H55" t="s">
         <v>136</v>
       </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
       <c r="J55">
         <v>0</v>
       </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="K55" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1025</v>
       </c>
@@ -6016,23 +6008,20 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56" t="s">
+      <c r="H56" t="s">
         <v>136</v>
       </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
       <c r="J56">
         <v>0</v>
       </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="K56" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1026</v>
       </c>
@@ -6048,23 +6037,20 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57" t="s">
+      <c r="H57" t="s">
         <v>136</v>
       </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="K57" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1027</v>
       </c>
@@ -6080,23 +6066,20 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="H58" t="s">
         <v>136</v>
       </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
       <c r="J58">
         <v>0</v>
       </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="K58" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1028</v>
       </c>
@@ -6112,23 +6095,20 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="H59" t="s">
         <v>136</v>
       </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
       <c r="J59">
         <v>0</v>
       </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
+      <c r="K59" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1029</v>
       </c>
@@ -6144,23 +6124,20 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60" t="s">
+      <c r="H60" t="s">
         <v>136</v>
       </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
       <c r="J60">
         <v>0</v>
       </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60" t="s">
+      <c r="K60" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1030</v>
       </c>
@@ -6176,23 +6153,20 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61" t="s">
+      <c r="H61" t="s">
         <v>136</v>
       </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
       <c r="J61">
         <v>0</v>
       </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" t="s">
+      <c r="K61" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1031</v>
       </c>
@@ -6208,23 +6182,20 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="H62" t="s">
         <v>136</v>
       </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
       <c r="J62">
         <v>0</v>
       </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62" t="s">
+      <c r="K62" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1032</v>
       </c>
@@ -6243,26 +6214,23 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="H63" t="s">
         <v>136</v>
       </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
       <c r="J63">
         <v>0</v>
       </c>
-      <c r="K63">
-        <v>0</v>
+      <c r="K63" t="s">
+        <v>199</v>
       </c>
       <c r="L63" t="s">
-        <v>199</v>
-      </c>
-      <c r="M63" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1033</v>
       </c>
@@ -6281,23 +6249,20 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64" t="s">
+      <c r="H64" t="s">
         <v>136</v>
       </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
       <c r="J64">
         <v>0</v>
       </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64" t="s">
+      <c r="K64" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1034</v>
       </c>
@@ -6316,23 +6281,20 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="H65" t="s">
         <v>136</v>
       </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
       <c r="J65">
         <v>0</v>
       </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65" t="s">
+      <c r="K65" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1035</v>
       </c>
@@ -6351,23 +6313,20 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="H66" t="s">
         <v>136</v>
       </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
       <c r="J66">
         <v>0</v>
       </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66" t="s">
+      <c r="K66" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1036</v>
       </c>
@@ -6386,23 +6345,20 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="H67" t="s">
         <v>136</v>
       </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
       <c r="J67">
         <v>0</v>
       </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67" t="s">
+      <c r="K67" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1037</v>
       </c>
@@ -6421,23 +6377,20 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="H68" t="s">
         <v>136</v>
       </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
       <c r="J68">
         <v>0</v>
       </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68" t="s">
+      <c r="K68" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1038</v>
       </c>
@@ -6456,23 +6409,20 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="H69" t="s">
         <v>136</v>
       </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
       <c r="J69">
         <v>0</v>
       </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69" t="s">
+      <c r="K69" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1039</v>
       </c>
@@ -6494,26 +6444,23 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="H70" t="s">
         <v>17</v>
       </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
       <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>215</v>
       </c>
       <c r="L70" t="s">
-        <v>215</v>
-      </c>
-      <c r="M70" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1040</v>
       </c>
@@ -6532,23 +6479,20 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="H71" t="s">
         <v>136</v>
       </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
       <c r="J71">
         <v>0</v>
       </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71" t="s">
+      <c r="K71" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1041</v>
       </c>
@@ -6567,23 +6511,20 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72" t="s">
+      <c r="H72" t="s">
         <v>136</v>
       </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
       <c r="J72">
         <v>0</v>
       </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72" t="s">
+      <c r="K72" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1042</v>
       </c>
@@ -6602,23 +6543,20 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73" t="s">
+      <c r="H73" t="s">
         <v>136</v>
       </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
       <c r="J73">
         <v>0</v>
       </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="K73" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1043</v>
       </c>
@@ -6637,23 +6575,20 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74" t="s">
+      <c r="H74" t="s">
         <v>136</v>
       </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
       <c r="J74">
         <v>0</v>
       </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74" t="s">
+      <c r="K74" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1044</v>
       </c>
@@ -6672,23 +6607,20 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="H75" t="s">
         <v>136</v>
       </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
       <c r="J75">
         <v>0</v>
       </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75" t="s">
+      <c r="K75" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1045</v>
       </c>
@@ -6707,23 +6639,20 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="H76" t="s">
         <v>136</v>
       </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
       <c r="J76">
         <v>0</v>
       </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76" t="s">
+      <c r="K76" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1046</v>
       </c>
@@ -6742,110 +6671,98 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="H77" t="s">
         <v>136</v>
       </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
       <c r="J77">
         <v>0</v>
       </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77" t="s">
+      <c r="K77" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>637</v>
       </c>
       <c r="C78">
         <v>3</v>
       </c>
       <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78" t="s">
-        <v>231</v>
-      </c>
-      <c r="F78" t="s">
-        <v>232</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78" t="s">
-        <v>17</v>
+      <c r="H78" t="s">
+        <v>573</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
       </c>
       <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78" t="s">
-        <v>233</v>
-      </c>
-      <c r="M78" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B79" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C79">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>231</v>
+      </c>
+      <c r="F79" t="s">
+        <v>232</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79" t="s">
-        <v>136</v>
+      <c r="H79" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
-      <c r="K79">
-        <v>0</v>
+      <c r="K79" t="s">
+        <v>233</v>
       </c>
       <c r="L79" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B80" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C80">
         <v>118</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
         <v>146</v>
@@ -6853,34 +6770,31 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
+      <c r="H80" t="s">
         <v>136</v>
       </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
       <c r="J80">
         <v>0</v>
       </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K80" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C81">
         <v>118</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
         <v>146</v>
@@ -6888,34 +6802,31 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81" t="s">
+      <c r="H81" t="s">
         <v>136</v>
       </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
       <c r="J81">
         <v>0</v>
       </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C82">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
         <v>146</v>
@@ -6923,34 +6834,31 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82" t="s">
+      <c r="H82" t="s">
         <v>136</v>
       </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
       <c r="J82">
         <v>0</v>
       </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K82" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C83">
         <v>109</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>146</v>
@@ -6958,34 +6866,31 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83" t="s">
+      <c r="H83" t="s">
         <v>136</v>
       </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
       <c r="J83">
         <v>0</v>
       </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C84">
         <v>109</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
         <v>146</v>
@@ -6993,34 +6898,31 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="H84" t="s">
         <v>136</v>
       </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
       <c r="J84">
         <v>0</v>
       </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K84" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B85" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C85">
         <v>109</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
         <v>146</v>
@@ -7028,34 +6930,31 @@
       <c r="G85">
         <v>0</v>
       </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="I85" t="s">
+      <c r="H85" t="s">
         <v>136</v>
       </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
       <c r="J85">
         <v>0</v>
       </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B86" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C86">
         <v>109</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
         <v>146</v>
@@ -7063,107 +6962,98 @@
       <c r="G86">
         <v>0</v>
       </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="I86" t="s">
+      <c r="H86" t="s">
         <v>136</v>
       </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
       <c r="J86">
         <v>0</v>
       </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86" t="s">
+      <c r="K86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>1055</v>
+      </c>
+      <c r="B87" t="s">
+        <v>248</v>
+      </c>
+      <c r="C87">
+        <v>109</v>
+      </c>
+      <c r="D87">
+        <v>5</v>
+      </c>
+      <c r="E87" t="s">
+        <v>146</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>136</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>1060</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>250</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>3</v>
       </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
         <v>251</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F88" t="s">
         <v>252</v>
       </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="I87" t="s">
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
         <v>17</v>
       </c>
-      <c r="J87">
-        <v>1</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87" t="s">
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>1061</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>254</v>
-      </c>
-      <c r="C88">
-        <v>115</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88" t="s">
-        <v>146</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="I88" t="s">
-        <v>136</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>1062</v>
-      </c>
-      <c r="B89" t="s">
-        <v>256</v>
       </c>
       <c r="C89">
         <v>115</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>146</v>
@@ -7171,28 +7061,25 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="I89" t="s">
+      <c r="H89" t="s">
         <v>136</v>
       </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
       <c r="J89">
         <v>0</v>
       </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C90">
         <v>115</v>
@@ -7206,28 +7093,25 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="H90" t="s">
         <v>136</v>
       </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
       <c r="J90">
         <v>0</v>
       </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B91" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C91">
         <v>115</v>
@@ -7241,28 +7125,25 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="I91" t="s">
+      <c r="H91" t="s">
         <v>136</v>
       </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
       <c r="J91">
         <v>0</v>
       </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K91" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C92">
         <v>115</v>
@@ -7276,63 +7157,60 @@
       <c r="G92">
         <v>0</v>
       </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-      <c r="I92" t="s">
+      <c r="H92" t="s">
         <v>136</v>
       </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
       <c r="J92">
         <v>0</v>
       </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
-      <c r="L92" t="s">
+      <c r="K92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>1065</v>
+      </c>
+      <c r="B93" t="s">
+        <v>262</v>
+      </c>
+      <c r="C93">
+        <v>115</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>146</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>136</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>1070</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>264</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>104</v>
-      </c>
-      <c r="D93">
-        <v>4</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-      <c r="I93" t="s">
-        <v>136</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93">
-        <v>0</v>
-      </c>
-      <c r="L93" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>1071</v>
-      </c>
-      <c r="B94" t="s">
-        <v>266</v>
-      </c>
-      <c r="C94">
-        <v>105</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -7340,113 +7218,101 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94" t="s">
+      <c r="H94" t="s">
         <v>136</v>
       </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
       <c r="J94">
         <v>0</v>
       </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94" t="s">
+      <c r="K94" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>1071</v>
+      </c>
+      <c r="B95" t="s">
+        <v>266</v>
+      </c>
+      <c r="C95">
+        <v>105</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>136</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>1072</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>268</v>
       </c>
-      <c r="C95">
+      <c r="C96">
         <v>3</v>
       </c>
-      <c r="D95">
+      <c r="D96">
         <v>17</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>269</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>270</v>
       </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="I95" t="s">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
         <v>17</v>
       </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95" t="s">
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96" t="s">
         <v>271</v>
       </c>
-      <c r="M95" t="s">
+      <c r="L96" t="s">
         <v>272</v>
       </c>
-      <c r="O95" t="s">
+      <c r="N96" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>1073</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>274</v>
-      </c>
-      <c r="C96">
-        <v>1072</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96" t="s">
-        <v>146</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="I96" t="s">
-        <v>136</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>1074</v>
-      </c>
-      <c r="B97" t="s">
-        <v>276</v>
       </c>
       <c r="C97">
         <v>1072</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>146</v>
@@ -7454,34 +7320,31 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="I97" t="s">
+      <c r="H97" t="s">
         <v>136</v>
       </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
       <c r="J97">
         <v>0</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C98">
         <v>1072</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
         <v>146</v>
@@ -7489,34 +7352,31 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98" t="s">
+      <c r="H98" t="s">
         <v>136</v>
       </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
       <c r="J98">
         <v>0</v>
       </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K98" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C99">
         <v>1072</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
         <v>146</v>
@@ -7524,34 +7384,31 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="I99" t="s">
+      <c r="H99" t="s">
         <v>136</v>
       </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
       <c r="J99">
         <v>0</v>
       </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K99" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C100">
         <v>1072</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
         <v>146</v>
@@ -7559,113 +7416,104 @@
       <c r="G100">
         <v>0</v>
       </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-      <c r="I100" t="s">
+      <c r="H100" t="s">
         <v>136</v>
       </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
       <c r="J100">
         <v>0</v>
       </c>
-      <c r="K100">
-        <v>0</v>
-      </c>
-      <c r="L100" t="s">
+      <c r="K100" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>1077</v>
+      </c>
+      <c r="B101" t="s">
+        <v>282</v>
+      </c>
+      <c r="C101">
+        <v>1072</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>146</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>136</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>1078</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>284</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-      <c r="D101">
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
         <v>999</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E102" t="s">
         <v>285</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F102" t="s">
         <v>286</v>
       </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
         <v>17</v>
       </c>
-      <c r="J101">
-        <v>0</v>
-      </c>
-      <c r="K101">
-        <v>0</v>
-      </c>
-      <c r="L101" t="s">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102" t="s">
         <v>287</v>
       </c>
-      <c r="M101" t="s">
+      <c r="L102" t="s">
         <v>288</v>
       </c>
-      <c r="O101" t="s">
+      <c r="N102" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>1079</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>274</v>
-      </c>
-      <c r="C102">
-        <v>1078</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102" t="s">
-        <v>146</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-      <c r="I102" t="s">
-        <v>136</v>
-      </c>
-      <c r="J102">
-        <v>0</v>
-      </c>
-      <c r="K102">
-        <v>0</v>
-      </c>
-      <c r="L102" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>1080</v>
-      </c>
-      <c r="B103" t="s">
-        <v>276</v>
       </c>
       <c r="C103">
         <v>1078</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>146</v>
@@ -7673,34 +7521,31 @@
       <c r="G103">
         <v>0</v>
       </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="H103" t="s">
         <v>136</v>
       </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
       <c r="J103">
         <v>0</v>
       </c>
-      <c r="K103">
-        <v>0</v>
-      </c>
-      <c r="L103" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K103" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C104">
         <v>1078</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
         <v>146</v>
@@ -7708,34 +7553,31 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-      <c r="I104" t="s">
+      <c r="H104" t="s">
         <v>136</v>
       </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
       <c r="J104">
         <v>0</v>
       </c>
-      <c r="K104">
-        <v>0</v>
-      </c>
-      <c r="L104" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K104" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B105" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C105">
         <v>1078</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
         <v>146</v>
@@ -7743,63 +7585,57 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="H105" t="s">
         <v>136</v>
       </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
       <c r="J105">
         <v>0</v>
       </c>
-      <c r="K105">
-        <v>0</v>
-      </c>
-      <c r="L105" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K105" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="B106" t="s">
-        <v>570</v>
+        <v>280</v>
       </c>
       <c r="C106">
         <v>1078</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
+        <v>146</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>136</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>1090</v>
+      </c>
+      <c r="B107" t="s">
         <v>569</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="I106" t="s">
-        <v>568</v>
-      </c>
-      <c r="J106">
-        <v>0</v>
-      </c>
-      <c r="K106">
-        <v>0</v>
-      </c>
-      <c r="L106" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>1083</v>
-      </c>
-      <c r="B107" t="s">
-        <v>282</v>
       </c>
       <c r="C107">
         <v>1078</v>
@@ -7808,322 +7644,311 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
+        <v>568</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>567</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1083</v>
+      </c>
+      <c r="B108" t="s">
+        <v>282</v>
+      </c>
+      <c r="C108">
+        <v>1078</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
         <v>146</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="I107" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
         <v>136</v>
       </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="L107" t="s">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
         <v>1084</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C108">
+      <c r="C109" s="4">
         <v>118</v>
       </c>
-      <c r="D108">
+      <c r="D109" s="4">
         <v>999</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E109" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J108">
-        <v>0</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-      <c r="L108" t="s">
+      <c r="I109" s="4">
+        <v>0</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="M108" t="s">
+      <c r="L109" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="M109" s="4"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
         <v>1085</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C109">
+      <c r="C110" s="4">
         <v>1084</v>
       </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="D110" s="4">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-      <c r="I109" t="s">
+      <c r="F110" s="4"/>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J109">
-        <v>0</v>
-      </c>
-      <c r="K109">
-        <v>0</v>
-      </c>
-      <c r="L109" t="s">
+      <c r="I110" s="4">
+        <v>0</v>
+      </c>
+      <c r="J110" s="4">
+        <v>0</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
         <v>1086</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C110">
+      <c r="C111" s="4">
         <v>1084</v>
       </c>
-      <c r="D110">
+      <c r="D111" s="4">
         <v>2</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E111" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-      <c r="I110" t="s">
+      <c r="F111" s="4"/>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J110">
-        <v>0</v>
-      </c>
-      <c r="K110">
-        <v>0</v>
-      </c>
-      <c r="L110" t="s">
+      <c r="I111" s="4">
+        <v>0</v>
+      </c>
+      <c r="J111" s="4">
+        <v>0</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
         <v>1087</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C111">
+      <c r="C112" s="4">
         <v>1084</v>
       </c>
-      <c r="D111">
+      <c r="D112" s="4">
         <v>3</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E112" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-      <c r="I111" t="s">
+      <c r="F112" s="4"/>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111" t="s">
+      <c r="I112" s="4">
+        <v>0</v>
+      </c>
+      <c r="J112" s="4">
+        <v>0</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
         <v>1088</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C112">
+      <c r="C113" s="4">
         <v>1084</v>
       </c>
-      <c r="D112">
+      <c r="D113" s="4">
         <v>4</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E113" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
+      <c r="F113" s="4"/>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J112">
-        <v>0</v>
-      </c>
-      <c r="K112">
-        <v>0</v>
-      </c>
-      <c r="L112" t="s">
+      <c r="I113" s="4">
+        <v>0</v>
+      </c>
+      <c r="J113" s="4">
+        <v>0</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
         <v>1089</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C113">
+      <c r="C114" s="4">
         <v>1084</v>
       </c>
-      <c r="D113">
+      <c r="D114" s="4">
         <v>5</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E114" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-      <c r="I113" t="s">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="L113" t="s">
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="4">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>1092</v>
       </c>
-      <c r="B114" t="s">
-        <v>588</v>
-      </c>
-      <c r="C114">
-        <v>111</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-      <c r="I114" t="s">
-        <v>568</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114">
-        <v>0</v>
-      </c>
-      <c r="L114" t="s">
-        <v>589</v>
-      </c>
-      <c r="N114" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>1091</v>
-      </c>
       <c r="B115" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C115">
         <v>111</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115" t="s">
-        <v>568</v>
+      <c r="H115" t="s">
+        <v>567</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115" t="s">
+      <c r="K115" t="s">
+        <v>588</v>
+      </c>
+      <c r="M115" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>1091</v>
+      </c>
+      <c r="B116" t="s">
         <v>590</v>
       </c>
-      <c r="N115" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>1102</v>
-      </c>
-      <c r="B116" t="s">
-        <v>576</v>
-      </c>
       <c r="C116">
-        <v>502</v>
+        <v>111</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -8131,202 +7956,340 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-      <c r="I116" t="s">
-        <v>568</v>
+      <c r="H116" t="s">
+        <v>567</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
-      <c r="K116">
-        <v>0</v>
-      </c>
-      <c r="L116" t="s">
-        <v>579</v>
-      </c>
-      <c r="N116" t="s">
+      <c r="K116" t="s">
+        <v>589</v>
+      </c>
+      <c r="M116" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B117" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C117">
         <v>502</v>
       </c>
       <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>567</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>578</v>
+      </c>
+      <c r="M117" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1103</v>
+      </c>
+      <c r="B118" t="s">
+        <v>576</v>
+      </c>
+      <c r="C118">
+        <v>502</v>
+      </c>
+      <c r="D118">
         <v>3</v>
       </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-      <c r="I117" t="s">
-        <v>568</v>
-      </c>
-      <c r="J117">
-        <v>0</v>
-      </c>
-      <c r="K117">
-        <v>0</v>
-      </c>
-      <c r="L117" t="s">
-        <v>580</v>
-      </c>
-      <c r="N117" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>567</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
+        <v>579</v>
+      </c>
+      <c r="M118" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
         <v>1104</v>
       </c>
-      <c r="B118" t="s">
-        <v>608</v>
-      </c>
-      <c r="C118">
+      <c r="B119" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="C119" s="5">
         <v>3</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="L119" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
+        <v>1105</v>
+      </c>
+      <c r="B120" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-      <c r="I118" t="s">
-        <v>574</v>
-      </c>
-      <c r="J118">
-        <v>0</v>
-      </c>
-      <c r="K118">
-        <v>0</v>
-      </c>
-      <c r="L118" t="s">
-        <v>619</v>
-      </c>
-      <c r="M118" t="s">
+      <c r="C120" s="5">
+        <v>1104</v>
+      </c>
+      <c r="D120" s="5">
+        <v>2</v>
+      </c>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5">
+        <v>0</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="I120" s="5">
+        <v>0</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="L120" s="5"/>
+      <c r="M120" s="5"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
+        <v>1106</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="C121" s="5">
+        <v>1104</v>
+      </c>
+      <c r="D121" s="5">
+        <v>3</v>
+      </c>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5">
+        <v>0</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="I121" s="5">
+        <v>0</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
+        <v>1107</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1104</v>
+      </c>
+      <c r="D122" s="5">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5">
+        <v>0</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A123" s="6">
+        <v>1108</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C123" s="6">
+        <v>108</v>
+      </c>
+      <c r="D123" s="6">
+        <v>1</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0</v>
+      </c>
+      <c r="K123" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="L123" s="6" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119">
-        <v>1105</v>
-      </c>
-      <c r="B119" t="s">
-        <v>614</v>
-      </c>
-      <c r="C119">
-        <v>1104</v>
-      </c>
-      <c r="D119">
+      <c r="M123" s="6"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A124" s="6">
+        <v>1109</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1108</v>
+      </c>
+      <c r="D124" s="6">
         <v>2</v>
       </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-      <c r="I119" t="s">
-        <v>568</v>
-      </c>
-      <c r="J119">
-        <v>0</v>
-      </c>
-      <c r="K119">
-        <v>0</v>
-      </c>
-      <c r="L119" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>1106</v>
-      </c>
-      <c r="B120" t="s">
-        <v>615</v>
-      </c>
-      <c r="C120">
-        <v>1104</v>
-      </c>
-      <c r="D120">
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="6">
+        <v>0</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I124" s="6">
+        <v>0</v>
+      </c>
+      <c r="J124" s="6">
+        <v>0</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="L124" s="6"/>
+      <c r="M124" s="6"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A125" s="6">
+        <v>1110</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1108</v>
+      </c>
+      <c r="D125" s="6">
         <v>3</v>
       </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
-        <v>568</v>
-      </c>
-      <c r="J120">
-        <v>0</v>
-      </c>
-      <c r="K120">
-        <v>0</v>
-      </c>
-      <c r="L120" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>1107</v>
-      </c>
-      <c r="B121" t="s">
-        <v>576</v>
-      </c>
-      <c r="C121">
-        <v>1104</v>
-      </c>
-      <c r="D121">
-        <v>4</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121" t="s">
-        <v>568</v>
-      </c>
-      <c r="J121">
-        <v>0</v>
-      </c>
-      <c r="K121">
-        <v>0</v>
-      </c>
-      <c r="L121" t="s">
-        <v>618</v>
-      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6">
+        <v>0</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125" s="6">
+        <v>0</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8335,10 +8298,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4172CB-C633-40F1-9E06-DA7BE35E7941}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8350,34 +8313,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" t="s">
         <v>337</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>338</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>339</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F1" t="s">
+        <v>342</v>
+      </c>
+      <c r="G1" t="s">
+        <v>343</v>
+      </c>
+      <c r="H1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="E1" t="s">
-        <v>342</v>
-      </c>
-      <c r="F1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G1" t="s">
-        <v>344</v>
-      </c>
-      <c r="H1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I1" t="s">
-        <v>341</v>
-      </c>
       <c r="J1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8385,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -8409,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8417,10 +8380,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" t="s">
         <v>335</v>
-      </c>
-      <c r="C3" t="s">
-        <v>336</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8441,7 +8404,39 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>335</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>633</v>
+      </c>
+      <c r="C4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -8453,23 +8448,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D2D18-B37B-4DF5-9944-49704E9D0445}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B1" t="s">
         <v>401</v>
       </c>
-      <c r="B1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8477,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8485,7 +8483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8493,7 +8491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8501,7 +8499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8509,7 +8507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8517,7 +8515,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8525,7 +8523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8533,7 +8531,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8541,7 +8539,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8549,7 +8547,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8557,7 +8555,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8565,7 +8563,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8573,7 +8571,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8581,7 +8579,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8589,7 +8587,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8597,7 +8595,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8605,7 +8603,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8613,7 +8611,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8621,7 +8619,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8629,7 +8627,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8637,7 +8635,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8645,7 +8643,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8653,7 +8651,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8661,7 +8659,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8669,7 +8667,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8677,8 +8675,135 @@
         <v>1051</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>1084</v>
+      </c>
+      <c r="C28" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>1085</v>
+      </c>
+      <c r="C29" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1086</v>
+      </c>
+      <c r="C30" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>1087</v>
+      </c>
+      <c r="C31" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1088</v>
+      </c>
+      <c r="C32" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>1089</v>
+      </c>
+      <c r="C33" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>1048</v>
+      </c>
+      <c r="C34" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1049</v>
+      </c>
+      <c r="C35" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>1050</v>
+      </c>
+      <c r="C36" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>636</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B28:B33">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:B38">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8700,22 +8825,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" t="s">
         <v>365</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>366</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>367</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>368</v>
       </c>
-      <c r="E1" t="s">
-        <v>369</v>
-      </c>
       <c r="F1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -8723,19 +8848,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" t="s">
         <v>345</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>346</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>347</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>348</v>
-      </c>
-      <c r="F2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8743,19 +8868,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
         <v>350</v>
-      </c>
-      <c r="C3" t="s">
-        <v>351</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -8763,19 +8888,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" t="s">
         <v>353</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" t="s">
         <v>354</v>
-      </c>
-      <c r="D4" t="s">
-        <v>543</v>
-      </c>
-      <c r="E4" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8783,19 +8908,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" t="s">
         <v>356</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" t="s">
         <v>357</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8803,16 +8928,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C6" t="s">
         <v>359</v>
       </c>
-      <c r="C6" t="s">
-        <v>360</v>
-      </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8820,19 +8945,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
         <v>361</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>362</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" t="s">
         <v>363</v>
-      </c>
-      <c r="E7" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -8843,20 +8968,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFFA53F-160B-48BA-80B0-079F0EA2A7A7}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -8873,6 +8998,14 @@
       </c>
       <c r="B3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8902,75 +9035,75 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C1" t="s">
         <v>410</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>412</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>413</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>414</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>415</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>416</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>417</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>418</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>419</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>420</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>421</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>422</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>423</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>424</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C2" t="s">
         <v>403</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>404</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>405</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>406</v>
-      </c>
-      <c r="F2" t="s">
-        <v>407</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -9015,19 +9148,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" t="s">
         <v>396</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>397</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>398</v>
       </c>
-      <c r="D1" t="s">
-        <v>399</v>
-      </c>
       <c r="E1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -9035,10 +9168,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" t="s">
         <v>370</v>
-      </c>
-      <c r="C2" t="s">
-        <v>371</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9052,10 +9185,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" t="s">
         <v>372</v>
-      </c>
-      <c r="C3" t="s">
-        <v>373</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -9069,10 +9202,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C4" t="s">
         <v>374</v>
-      </c>
-      <c r="C4" t="s">
-        <v>375</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9086,10 +9219,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" t="s">
         <v>376</v>
-      </c>
-      <c r="C5" t="s">
-        <v>377</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9103,10 +9236,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" t="s">
         <v>378</v>
-      </c>
-      <c r="C6" t="s">
-        <v>379</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9120,10 +9253,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" t="s">
         <v>380</v>
-      </c>
-      <c r="C7" t="s">
-        <v>381</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9137,10 +9270,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" t="s">
         <v>382</v>
-      </c>
-      <c r="C8" t="s">
-        <v>383</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9154,10 +9287,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C9" t="s">
         <v>384</v>
-      </c>
-      <c r="C9" t="s">
-        <v>385</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9171,10 +9304,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" t="s">
         <v>386</v>
-      </c>
-      <c r="C10" t="s">
-        <v>387</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9188,10 +9321,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" t="s">
         <v>388</v>
-      </c>
-      <c r="C11" t="s">
-        <v>389</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9205,10 +9338,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C12" t="s">
         <v>390</v>
-      </c>
-      <c r="C12" t="s">
-        <v>391</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9222,10 +9355,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" t="s">
         <v>392</v>
-      </c>
-      <c r="C13" t="s">
-        <v>393</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9239,10 +9372,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" t="s">
         <v>394</v>
-      </c>
-      <c r="C14" t="s">
-        <v>395</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9275,25 +9408,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B1" t="s">
         <v>520</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>521</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G1" t="s">
         <v>523</v>
-      </c>
-      <c r="F1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9301,19 +9434,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" t="s">
         <v>426</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" t="s">
         <v>427</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F2" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9321,19 +9454,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" t="s">
         <v>429</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F3" t="s">
         <v>430</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F3" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9341,19 +9474,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C4" t="s">
         <v>432</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" t="s">
         <v>433</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F4" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9361,19 +9494,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C5" t="s">
         <v>435</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" t="s">
         <v>436</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F5" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9381,19 +9514,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>437</v>
+      </c>
+      <c r="C6" t="s">
         <v>438</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" t="s">
         <v>439</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9401,19 +9534,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" t="s">
         <v>441</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" t="s">
         <v>442</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9421,19 +9554,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C8" t="s">
         <v>444</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F8" t="s">
         <v>445</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F8" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9441,19 +9574,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" t="s">
         <v>447</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F9" t="s">
         <v>448</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F9" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -9461,19 +9594,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" t="s">
         <v>450</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F10" t="s">
         <v>451</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F10" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9481,19 +9614,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>452</v>
+      </c>
+      <c r="C11" t="s">
         <v>453</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" t="s">
         <v>454</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F11" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9501,16 +9634,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" t="s">
         <v>456</v>
       </c>
-      <c r="C12" t="s">
-        <v>457</v>
-      </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9518,19 +9651,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" t="s">
         <v>458</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" t="s">
         <v>459</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="F13" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9538,19 +9671,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C14" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F14" t="s">
         <v>559</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F14" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9558,22 +9691,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>607</v>
+      </c>
+      <c r="C15" t="s">
         <v>608</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F15" t="s">
+        <v>610</v>
+      </c>
+      <c r="G15" t="s">
         <v>609</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F15" t="s">
-        <v>611</v>
-      </c>
-      <c r="G15" t="s">
-        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A11C41-0BF3-4A4C-A1C6-845E183395FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C4F7F-171A-40EF-BE74-4F6C91BD4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22296" yWindow="1032" windowWidth="17280" windowHeight="8880" tabRatio="718" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -2547,7 +2547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D00AC0F-0226-4E9A-8157-8C2F558D581D}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -4069,8 +4069,8 @@
   <dimension ref="A1:N127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L79" sqref="B79:L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8558,10 +8558,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D2D18-B37B-4DF5-9944-49704E9D0445}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -8906,12 +8906,20 @@
         <v>629</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39">
+        <v>1047</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B28:B33">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B34:B38">
+  <conditionalFormatting sqref="B34:B39">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0C4F7F-171A-40EF-BE74-4F6C91BD4D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59267DD-7904-4FC0-8FC5-4190D04BDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22296" yWindow="1032" windowWidth="17280" windowHeight="8880" tabRatio="718" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -1944,9 +1944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SELECT id dictValue, name dictName FROM emailTpl</t>
-  </si>
-  <si>
     <t>邮件模板列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2109,6 +2106,10 @@
   </si>
   <si>
     <t>emailSend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT id dictValue, name dictLabel FROM emailTpl</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2551,12 +2552,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>314</v>
       </c>
@@ -2597,7 +2598,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2626,7 +2627,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2655,25 +2656,25 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>622</v>
+      </c>
+      <c r="D4" t="s">
         <v>623</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>624</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>625</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -2699,9 +2700,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>529</v>
       </c>
@@ -2724,7 +2725,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2764,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2835,18 +2836,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>518</v>
       </c>
@@ -2881,7 +2882,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2910,7 +2911,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2968,7 +2969,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3032,7 +3033,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3064,7 +3065,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3128,7 +3129,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3160,7 +3161,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3189,7 +3190,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3218,7 +3219,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3398,7 +3399,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3427,7 +3428,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3485,7 +3486,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3659,7 +3660,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3717,7 +3718,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3769,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3861,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3913,7 +3914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3953,12 +3954,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>547</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3991,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4002,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4046,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4073,18 +4074,18 @@
       <selection pane="bottomLeft" activeCell="L79" sqref="B79:L79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="5" max="6" width="23.58203125" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="10.58203125" customWidth="1"/>
+    <col min="13" max="13" width="18.4140625" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>297</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4163,7 +4164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4198,7 +4199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4233,7 +4234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4332,15 +4333,15 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4349,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4364,10 +4365,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>100</v>
       </c>
@@ -4446,7 +4447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>101</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>102</v>
       </c>
@@ -4528,7 +4529,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>103</v>
       </c>
@@ -4569,7 +4570,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>104</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>105</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>106</v>
       </c>
@@ -4689,7 +4690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>107</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>108</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>109</v>
       </c>
@@ -4806,7 +4807,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>110</v>
       </c>
@@ -4844,7 +4845,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>111</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>112</v>
       </c>
@@ -4923,7 +4924,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>113</v>
       </c>
@@ -4964,7 +4965,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>114</v>
       </c>
@@ -5005,7 +5006,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>115</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>116</v>
       </c>
@@ -5087,7 +5088,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>117</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F27" t="s">
         <v>110</v>
@@ -5119,16 +5120,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L27" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="N27" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>118</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>119</v>
       </c>
@@ -5204,7 +5205,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>500</v>
       </c>
@@ -5245,7 +5246,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>501</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>502</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1001</v>
       </c>
@@ -5353,7 +5354,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1002</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1003</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1004</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1005</v>
       </c>
@@ -5472,7 +5473,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1006</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1007</v>
       </c>
@@ -5536,7 +5537,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1008</v>
       </c>
@@ -5568,7 +5569,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1009</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1010</v>
       </c>
@@ -5632,7 +5633,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1011</v>
       </c>
@@ -5664,7 +5665,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1012</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1013</v>
       </c>
@@ -5728,7 +5729,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1014</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1015</v>
       </c>
@@ -5792,7 +5793,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1016</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1017</v>
       </c>
@@ -5853,7 +5854,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1018</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1019</v>
       </c>
@@ -5911,7 +5912,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1020</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1021</v>
       </c>
@@ -5969,7 +5970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1022</v>
       </c>
@@ -5998,7 +5999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1023</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1024</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1025</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1026</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1027</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1028</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1029</v>
       </c>
@@ -6201,7 +6202,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1030</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1031</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1032</v>
       </c>
@@ -6294,7 +6295,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1033</v>
       </c>
@@ -6326,7 +6327,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1034</v>
       </c>
@@ -6358,7 +6359,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1035</v>
       </c>
@@ -6390,7 +6391,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1036</v>
       </c>
@@ -6422,7 +6423,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1037</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1038</v>
       </c>
@@ -6486,7 +6487,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1039</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1040</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1041</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1042</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1043</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1044</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1045</v>
       </c>
@@ -6716,7 +6717,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1046</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1047</v>
       </c>
@@ -6762,10 +6763,10 @@
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F79" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -6780,13 +6781,13 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="L79" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1049</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1050</v>
       </c>
@@ -6850,7 +6851,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1051</v>
       </c>
@@ -6882,7 +6883,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1052</v>
       </c>
@@ -6914,7 +6915,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1053</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1054</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1055</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1060</v>
       </c>
@@ -7045,7 +7046,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1061</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1062</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1063</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1064</v>
       </c>
@@ -7173,7 +7174,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1065</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1070</v>
       </c>
@@ -7234,7 +7235,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1071</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1072</v>
       </c>
@@ -7304,7 +7305,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1073</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1074</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1075</v>
       </c>
@@ -7400,7 +7401,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1076</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1077</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1078</v>
       </c>
@@ -7505,7 +7506,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1079</v>
       </c>
@@ -7537,7 +7538,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1080</v>
       </c>
@@ -7569,7 +7570,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1081</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1082</v>
       </c>
@@ -7633,7 +7634,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1090</v>
       </c>
@@ -7665,7 +7666,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1083</v>
       </c>
@@ -7697,7 +7698,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>1084</v>
       </c>
@@ -7736,7 +7737,7 @@
       </c>
       <c r="M108" s="4"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>1085</v>
       </c>
@@ -7771,7 +7772,7 @@
       <c r="L109" s="4"/>
       <c r="M109" s="4"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>1086</v>
       </c>
@@ -7806,7 +7807,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>1087</v>
       </c>
@@ -7841,7 +7842,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>1088</v>
       </c>
@@ -7876,7 +7877,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>1089</v>
       </c>
@@ -7911,7 +7912,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1092</v>
       </c>
@@ -7943,7 +7944,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1091</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1102</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1103</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="5">
         <v>1104</v>
       </c>
@@ -8053,10 +8054,10 @@
         <v>1</v>
       </c>
       <c r="E118" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="G118" s="5">
         <v>0</v>
@@ -8071,19 +8072,19 @@
         <v>0</v>
       </c>
       <c r="K118" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M118" s="5"/>
     </row>
-    <row r="119" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>1105</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C119" s="5">
         <v>1104</v>
@@ -8106,17 +8107,17 @@
         <v>0</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>1106</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C120" s="5">
         <v>1104</v>
@@ -8139,12 +8140,12 @@
         <v>0</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>1107</v>
       </c>
@@ -8172,17 +8173,17 @@
         <v>0</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="6">
         <v>1108</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C122" s="6">
         <v>108</v>
@@ -8191,10 +8192,10 @@
         <v>1</v>
       </c>
       <c r="E122" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F122" s="6" t="s">
         <v>617</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>618</v>
       </c>
       <c r="G122" s="6">
         <v>0</v>
@@ -8209,19 +8210,19 @@
         <v>0</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M122" s="6"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>1109</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C123" s="6">
         <v>1108</v>
@@ -8244,17 +8245,17 @@
         <v>0</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>1110</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C124" s="6">
         <v>1108</v>
@@ -8277,17 +8278,17 @@
         <v>0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>1111</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C125" s="4">
         <v>9</v>
@@ -8296,10 +8297,10 @@
         <v>1</v>
       </c>
       <c r="E125" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F125" s="4" t="s">
         <v>632</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>633</v>
       </c>
       <c r="G125" s="4">
         <v>0</v>
@@ -8314,21 +8315,21 @@
         <v>0</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>1112</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C126" s="4">
         <v>1111</v>
@@ -8351,17 +8352,17 @@
         <v>0</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L126" s="4"/>
       <c r="M126" s="4"/>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>1113</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C127" s="4">
         <v>1111</v>
@@ -8384,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -8414,14 +8415,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>329</v>
       </c>
@@ -8453,7 +8454,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8485,7 +8486,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8517,15 +8518,15 @@
         <v>327</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -8546,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -8560,13 +8561,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D2D18-B37B-4DF5-9944-49704E9D0445}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>393</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8585,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8593,7 +8594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8601,7 +8602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8609,7 +8610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8625,7 +8626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8633,7 +8634,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8649,7 +8650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8657,7 +8658,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8665,7 +8666,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8681,7 +8682,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8697,7 +8698,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8705,7 +8706,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8721,7 +8722,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8737,7 +8738,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8745,7 +8746,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8753,7 +8754,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8761,7 +8762,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8769,7 +8770,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8777,7 +8778,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -8785,7 +8786,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -8793,10 +8794,10 @@
         <v>1084</v>
       </c>
       <c r="C28" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -8804,10 +8805,10 @@
         <v>1085</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -8815,10 +8816,10 @@
         <v>1086</v>
       </c>
       <c r="C30" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -8826,10 +8827,10 @@
         <v>1087</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -8837,10 +8838,10 @@
         <v>1088</v>
       </c>
       <c r="C32" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -8848,10 +8849,10 @@
         <v>1089</v>
       </c>
       <c r="C33" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -8859,10 +8860,10 @@
         <v>1048</v>
       </c>
       <c r="C34" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -8870,10 +8871,10 @@
         <v>1049</v>
       </c>
       <c r="C35" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -8881,10 +8882,10 @@
         <v>1050</v>
       </c>
       <c r="C36" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -8892,10 +8893,10 @@
         <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -8903,10 +8904,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -8934,14 +8935,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.77734375" customWidth="1"/>
+    <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>357</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8981,7 +8982,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9001,7 +9002,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9021,7 +9022,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9041,7 +9042,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9092,9 +9093,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>392</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9110,7 +9111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9118,7 +9119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9140,18 +9141,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>400</v>
       </c>
@@ -9204,7 +9205,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>401</v>
       </c>
@@ -9259,12 +9260,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>388</v>
       </c>
@@ -9281,7 +9282,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9298,7 +9299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9315,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9349,7 +9350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9383,7 +9384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9400,7 +9401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9485,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9512,19 +9513,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA66D3-8315-4018-BF52-5D786631F136}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="3"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>512</v>
       </c>
@@ -9547,7 +9548,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9587,7 +9588,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9627,7 +9628,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9667,7 +9668,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9707,7 +9708,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9747,7 +9748,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9764,7 +9765,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9784,7 +9785,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9821,10 +9822,10 @@
         <v>517</v>
       </c>
       <c r="F15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G15" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59267DD-7904-4FC0-8FC5-4190D04BDB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82DF8F2-5BB7-4457-B69C-60833950AD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -27,14 +27,14 @@
     <sheet name="article_category" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">menu!$A$1:$A$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">menu!$A$1:$A$118</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="650">
   <si>
     <t>系统管理</t>
   </si>
@@ -2110,6 +2110,25 @@
   </si>
   <si>
     <t>SELECT id dictValue, name dictLabel FROM emailTpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据大屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/link/dataScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataScreen/index</t>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system:datascreen:list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4067,11 +4086,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N127"/>
+  <dimension ref="A1:N128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L79" sqref="B79:L79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4318,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -4408,28 +4427,28 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>645</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>646</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>647</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>566</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4438,33 +4457,30 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>649</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -4479,33 +4495,33 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -4520,33 +4536,33 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -4561,33 +4577,33 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -4602,33 +4618,33 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -4643,33 +4659,33 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -4678,36 +4694,39 @@
         <v>17</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="N16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -4716,42 +4735,42 @@
         <v>17</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4759,37 +4778,37 @@
       <c r="J18">
         <v>0</v>
       </c>
+      <c r="K18" t="s">
+        <v>61</v>
+      </c>
       <c r="L18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4797,34 +4816,31 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
-        <v>70</v>
-      </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>539</v>
+        <v>68</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -4838,31 +4854,34 @@
       <c r="J20">
         <v>0</v>
       </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>78</v>
+        <v>539</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -4877,30 +4896,30 @@
         <v>0</v>
       </c>
       <c r="L21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N21" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4914,34 +4933,31 @@
       <c r="J22">
         <v>0</v>
       </c>
-      <c r="K22" t="s">
-        <v>85</v>
-      </c>
       <c r="L22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F23" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4950,39 +4966,39 @@
         <v>17</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L23" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="N23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -4991,39 +5007,39 @@
         <v>17</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C25">
         <v>3</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -5038,33 +5054,33 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="L25" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="N25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C26">
         <v>3</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -5079,33 +5095,33 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>642</v>
+        <v>105</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -5120,36 +5136,39 @@
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>611</v>
+        <v>107</v>
       </c>
       <c r="L27" t="s">
-        <v>643</v>
+        <v>105</v>
       </c>
       <c r="N27" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>113</v>
+        <v>642</v>
+      </c>
+      <c r="F28" t="s">
+        <v>110</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5157,37 +5176,37 @@
       <c r="J28">
         <v>0</v>
       </c>
+      <c r="K28" t="s">
+        <v>611</v>
+      </c>
       <c r="L28" t="s">
-        <v>114</v>
+        <v>643</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C29">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -5195,34 +5214,31 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29" t="s">
-        <v>119</v>
-      </c>
       <c r="L29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="N29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>500</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C30">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5237,33 +5253,33 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <v>108</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F31" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5278,39 +5294,39 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N31" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>563</v>
+        <v>128</v>
       </c>
       <c r="C32">
         <v>108</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>564</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>565</v>
+        <v>130</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>566</v>
+        <v>17</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -5319,30 +5335,39 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>570</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s">
-        <v>567</v>
+        <v>129</v>
+      </c>
+      <c r="N32" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>1001</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>563</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>564</v>
+      </c>
+      <c r="F33" t="s">
+        <v>565</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>566</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -5351,21 +5376,24 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>135</v>
+        <v>570</v>
+      </c>
+      <c r="L33" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B34" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C34">
         <v>100</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -5380,21 +5408,21 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C35">
         <v>100</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -5409,21 +5437,21 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C36">
         <v>100</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -5438,21 +5466,21 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C37">
         <v>100</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5467,24 +5495,21 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>143</v>
-      </c>
-      <c r="L37" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38">
         <v>100</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -5499,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L38" t="s">
         <v>144</v>
@@ -5507,16 +5532,16 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B39" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39">
         <v>100</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5531,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s">
         <v>144</v>
@@ -5539,16 +5564,16 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C40">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5563,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s">
         <v>144</v>
@@ -5571,16 +5596,16 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C41">
         <v>101</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -5595,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L41" t="s">
         <v>144</v>
@@ -5603,16 +5628,16 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C42">
         <v>101</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5627,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L42" t="s">
         <v>144</v>
@@ -5635,16 +5660,16 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C43">
         <v>101</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -5659,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L43" t="s">
         <v>144</v>
@@ -5667,16 +5692,16 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B44" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C44">
         <v>101</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -5691,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L44" t="s">
         <v>144</v>
@@ -5699,16 +5724,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C45">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5723,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L45" t="s">
         <v>144</v>
@@ -5731,16 +5756,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C46">
         <v>102</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -5755,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L46" t="s">
         <v>144</v>
@@ -5763,16 +5788,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B47" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C47">
         <v>102</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -5787,7 +5812,7 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L47" t="s">
         <v>144</v>
@@ -5795,16 +5820,16 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48">
         <v>102</v>
       </c>
       <c r="D48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5819,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L48" t="s">
         <v>144</v>
@@ -5827,16 +5852,16 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C49">
         <v>102</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -5851,21 +5876,24 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>168</v>
+        <v>166</v>
+      </c>
+      <c r="L49" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -5880,21 +5908,21 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C51">
         <v>103</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -5909,21 +5937,21 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B52" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52">
         <v>103</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -5938,21 +5966,21 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C53">
         <v>103</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5967,21 +5995,21 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C54">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -5996,21 +6024,21 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C55">
         <v>104</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -6025,21 +6053,21 @@
         <v>0</v>
       </c>
       <c r="K55" t="s">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C56">
         <v>104</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -6054,21 +6082,21 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C57">
         <v>104</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -6083,21 +6111,21 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C58">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -6112,21 +6140,21 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C59">
         <v>105</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -6141,21 +6169,21 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C60">
         <v>105</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -6170,21 +6198,21 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C61">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -6199,21 +6227,21 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C62">
         <v>106</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -6228,21 +6256,21 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C63">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63">
         <v>0</v>
@@ -6257,24 +6285,21 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B64" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C64">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D64">
         <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>144</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -6289,24 +6314,21 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>197</v>
-      </c>
-      <c r="L64" t="s">
-        <v>144</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C65">
         <v>110</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>144</v>
@@ -6324,21 +6346,24 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>199</v>
+        <v>197</v>
+      </c>
+      <c r="L65" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C66">
         <v>110</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>144</v>
@@ -6356,21 +6381,21 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C67">
         <v>110</v>
       </c>
       <c r="D67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E67" t="s">
         <v>144</v>
@@ -6388,21 +6413,21 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C68">
         <v>110</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
         <v>144</v>
@@ -6420,21 +6445,21 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C69">
         <v>110</v>
       </c>
       <c r="D69">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
         <v>144</v>
@@ -6452,21 +6477,21 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C70">
         <v>110</v>
       </c>
       <c r="D70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E70" t="s">
         <v>144</v>
@@ -6484,91 +6509,91 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C71">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
-      </c>
-      <c r="F71" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>213</v>
-      </c>
-      <c r="L71" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C72">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>211</v>
+      </c>
+      <c r="F72" t="s">
+        <v>212</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>215</v>
+        <v>213</v>
+      </c>
+      <c r="L72" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C73">
-        <v>500</v>
+        <v>110</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
         <v>144</v>
@@ -6586,21 +6611,21 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C74">
         <v>500</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
         <v>144</v>
@@ -6618,21 +6643,21 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C75">
         <v>500</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E75" t="s">
         <v>144</v>
@@ -6650,21 +6675,21 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C76">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76" t="s">
         <v>144</v>
@@ -6682,15 +6707,15 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C77">
         <v>501</v>
@@ -6714,15 +6739,15 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C78">
         <v>501</v>
@@ -6746,91 +6771,91 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>501</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>638</v>
-      </c>
-      <c r="F79" t="s">
-        <v>640</v>
+        <v>144</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>566</v>
+        <v>134</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>639</v>
-      </c>
-      <c r="L79" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>144</v>
+        <v>638</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>134</v>
+        <v>566</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>230</v>
+        <v>639</v>
+      </c>
+      <c r="L80" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C81">
         <v>118</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" t="s">
         <v>144</v>
@@ -6848,21 +6873,21 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C82">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
         <v>144</v>
@@ -6880,21 +6905,21 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C83">
         <v>109</v>
       </c>
       <c r="D83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>144</v>
@@ -6912,21 +6937,21 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C84">
         <v>109</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
         <v>144</v>
@@ -6944,21 +6969,21 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C85">
         <v>109</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
         <v>144</v>
@@ -6976,21 +7001,21 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B86" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C86">
         <v>109</v>
       </c>
       <c r="D86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
         <v>144</v>
@@ -7008,88 +7033,88 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="B87" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C87">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>244</v>
-      </c>
-      <c r="F87" t="s">
-        <v>245</v>
+        <v>144</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B88" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C88">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>144</v>
+        <v>244</v>
+      </c>
+      <c r="F88" t="s">
+        <v>245</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C89">
         <v>115</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89" t="s">
         <v>144</v>
@@ -7107,15 +7132,15 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C90">
         <v>115</v>
@@ -7139,15 +7164,15 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C91">
         <v>115</v>
@@ -7171,15 +7196,15 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B92" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C92">
         <v>115</v>
@@ -7203,21 +7228,24 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C93">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>144</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -7232,18 +7260,18 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B94" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C94">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94">
         <v>4</v>
@@ -7261,33 +7289,27 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C95">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D95">
-        <v>17</v>
-      </c>
-      <c r="E95" t="s">
-        <v>262</v>
-      </c>
-      <c r="F95" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -7296,36 +7318,33 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>264</v>
-      </c>
-      <c r="L95" t="s">
-        <v>265</v>
-      </c>
-      <c r="N95" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B96" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C96">
-        <v>1072</v>
+        <v>3</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>144</v>
+        <v>262</v>
+      </c>
+      <c r="F96" t="s">
+        <v>263</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -7334,21 +7353,27 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>268</v>
+        <v>264</v>
+      </c>
+      <c r="L96" t="s">
+        <v>265</v>
+      </c>
+      <c r="N96" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B97" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C97">
         <v>1072</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>144</v>
@@ -7366,21 +7391,21 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B98" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C98">
         <v>1072</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E98" t="s">
         <v>144</v>
@@ -7398,21 +7423,21 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B99" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C99">
         <v>1072</v>
       </c>
       <c r="D99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
         <v>144</v>
@@ -7430,21 +7455,21 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C100">
         <v>1072</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E100" t="s">
         <v>144</v>
@@ -7462,33 +7487,30 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>1072</v>
       </c>
       <c r="D101">
-        <v>999</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
-      </c>
-      <c r="F101" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -7497,36 +7519,33 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>280</v>
-      </c>
-      <c r="L101" t="s">
-        <v>281</v>
-      </c>
-      <c r="N101" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C102">
-        <v>1078</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E102" t="s">
-        <v>144</v>
+        <v>278</v>
+      </c>
+      <c r="F102" t="s">
+        <v>279</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -7535,21 +7554,27 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="L102" t="s">
+        <v>281</v>
+      </c>
+      <c r="N102" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C103">
         <v>1078</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>144</v>
@@ -7567,21 +7592,21 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B104" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C104">
         <v>1078</v>
       </c>
       <c r="D104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
         <v>144</v>
@@ -7599,21 +7624,21 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B105" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C105">
         <v>1078</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E105" t="s">
         <v>144</v>
@@ -7631,30 +7656,30 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="B106" t="s">
-        <v>562</v>
+        <v>273</v>
       </c>
       <c r="C106">
         <v>1078</v>
       </c>
       <c r="D106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>561</v>
+        <v>144</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>560</v>
+        <v>134</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -7663,15 +7688,15 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>559</v>
+        <v>286</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1083</v>
+        <v>1090</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>562</v>
       </c>
       <c r="C107">
         <v>1078</v>
@@ -7680,85 +7705,80 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
+        <v>561</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>560</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>1083</v>
+      </c>
+      <c r="B108" t="s">
+        <v>275</v>
+      </c>
+      <c r="C108">
+        <v>1078</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
         <v>144</v>
       </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107" t="s">
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108" t="s">
         <v>134</v>
       </c>
-      <c r="I107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107" t="s">
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
-        <v>1084</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C108" s="4">
-        <v>118</v>
-      </c>
-      <c r="D108" s="4">
-        <v>999</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="G108" s="4">
-        <v>0</v>
-      </c>
-      <c r="H108" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0</v>
-      </c>
-      <c r="J108" s="4">
-        <v>0</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M108" s="4"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="C109" s="4">
-        <v>1084</v>
+        <v>118</v>
       </c>
       <c r="D109" s="4">
-        <v>1</v>
+        <v>999</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="F109" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>290</v>
+      </c>
       <c r="G109" s="4">
         <v>0</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -7767,23 +7787,25 @@
         <v>0</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="L109" s="4"/>
+        <v>291</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="M109" s="4"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C110" s="4">
         <v>1084</v>
       </c>
       <c r="D110" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>144</v>
@@ -7802,23 +7824,23 @@
         <v>0</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C111" s="4">
         <v>1084</v>
       </c>
       <c r="D111" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>144</v>
@@ -7837,23 +7859,23 @@
         <v>0</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C112" s="4">
         <v>1084</v>
       </c>
       <c r="D112" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>144</v>
@@ -7872,23 +7894,23 @@
         <v>0</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C113" s="4">
         <v>1084</v>
       </c>
       <c r="D113" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>144</v>
@@ -7907,55 +7929,58 @@
         <v>0</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>1092</v>
-      </c>
-      <c r="B114" t="s">
-        <v>580</v>
-      </c>
-      <c r="C114">
-        <v>111</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114" t="s">
-        <v>560</v>
-      </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114">
-        <v>0</v>
-      </c>
-      <c r="K114" t="s">
-        <v>581</v>
-      </c>
-      <c r="M114" t="s">
-        <v>586</v>
-      </c>
+      <c r="A114" s="4">
+        <v>1089</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C114" s="4">
+        <v>1084</v>
+      </c>
+      <c r="D114" s="4">
+        <v>5</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I114" s="4">
+        <v>0</v>
+      </c>
+      <c r="J114" s="4">
+        <v>0</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="B115" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C115">
         <v>111</v>
       </c>
       <c r="D115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -7970,7 +7995,7 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M115" t="s">
         <v>586</v>
@@ -7978,13 +8003,13 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="B116" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="C116">
-        <v>502</v>
+        <v>111</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -8002,24 +8027,24 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M116" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B117" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C117">
         <v>502</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -8034,96 +8059,95 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
+        <v>571</v>
+      </c>
+      <c r="M117" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>1103</v>
+      </c>
+      <c r="B118" t="s">
+        <v>569</v>
+      </c>
+      <c r="C118">
+        <v>502</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>560</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118" t="s">
         <v>572</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M118" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A118" s="5">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
         <v>1104</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B119" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C119" s="5">
         <v>9</v>
       </c>
-      <c r="D118" s="5">
-        <v>1</v>
-      </c>
-      <c r="E118" s="5" t="s">
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="F119" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="G118" s="5">
-        <v>0</v>
-      </c>
-      <c r="H118" s="5" t="s">
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+      <c r="H119" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="I118" s="5">
-        <v>0</v>
-      </c>
-      <c r="J118" s="5">
-        <v>0</v>
-      </c>
-      <c r="K118" s="5" t="s">
+      <c r="I119" s="5">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="L118" s="5" t="s">
+      <c r="L119" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="M118" s="5"/>
-    </row>
-    <row r="119" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="5">
+      <c r="M119" s="5"/>
+    </row>
+    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
         <v>1105</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B120" s="5" t="s">
         <v>605</v>
-      </c>
-      <c r="C119" s="5">
-        <v>1104</v>
-      </c>
-      <c r="D119" s="5">
-        <v>2</v>
-      </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="I119" s="5">
-        <v>0</v>
-      </c>
-      <c r="J119" s="5">
-        <v>0</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="L119" s="5"/>
-      <c r="M119" s="5"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A120" s="5">
-        <v>1106</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="C120" s="5">
         <v>1104</v>
       </c>
       <c r="D120" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -8140,23 +8164,23 @@
         <v>0</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>568</v>
+        <v>606</v>
       </c>
       <c r="C121" s="5">
         <v>1104</v>
       </c>
       <c r="D121" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -8173,70 +8197,68 @@
         <v>0</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A122" s="6">
-        <v>1108</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C122" s="6">
-        <v>108</v>
-      </c>
-      <c r="D122" s="6">
-        <v>1</v>
-      </c>
-      <c r="E122" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="G122" s="6">
-        <v>0</v>
-      </c>
-      <c r="H122" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="I122" s="6">
-        <v>0</v>
-      </c>
-      <c r="J122" s="6">
-        <v>0</v>
-      </c>
-      <c r="K122" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="L122" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="M122" s="6"/>
+      <c r="A122" s="5">
+        <v>1107</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C122" s="5">
+        <v>1104</v>
+      </c>
+      <c r="D122" s="5">
+        <v>4</v>
+      </c>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5">
+        <v>0</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="C123" s="6">
-        <v>1108</v>
+        <v>108</v>
       </c>
       <c r="D123" s="6">
-        <v>2</v>
-      </c>
-      <c r="E123" s="6"/>
-      <c r="F123" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>617</v>
+      </c>
       <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="I123" s="6">
         <v>0</v>
@@ -8245,23 +8267,25 @@
         <v>0</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="L123" s="6"/>
+        <v>618</v>
+      </c>
+      <c r="L123" s="6" t="s">
+        <v>613</v>
+      </c>
       <c r="M123" s="6"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C124" s="6">
         <v>1108</v>
       </c>
       <c r="D124" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -8278,72 +8302,68 @@
         <v>0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
-        <v>1111</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="C125" s="4">
-        <v>9</v>
-      </c>
-      <c r="D125" s="4">
-        <v>1</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="G125" s="4">
-        <v>0</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="I125" s="4">
-        <v>0</v>
-      </c>
-      <c r="J125" s="4">
-        <v>0</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="L125" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>630</v>
-      </c>
+      <c r="A125" s="6">
+        <v>1110</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1108</v>
+      </c>
+      <c r="D125" s="6">
+        <v>3</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="6">
+        <v>0</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="I125" s="6">
+        <v>0</v>
+      </c>
+      <c r="J125" s="6">
+        <v>0</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="L125" s="6"/>
+      <c r="M125" s="6"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C126" s="4">
-        <v>1111</v>
+        <v>9</v>
       </c>
       <c r="D126" s="4">
-        <v>2</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>632</v>
+      </c>
       <c r="G126" s="4">
         <v>0</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="I126" s="4">
         <v>0</v>
@@ -8352,23 +8372,27 @@
         <v>0</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
+        <v>633</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>630</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C127" s="4">
         <v>1111</v>
       </c>
       <c r="D127" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -8385,21 +8409,54 @@
         <v>0</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
+        <v>1113</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="C128" s="4">
+        <v>1111</v>
+      </c>
+      <c r="D128" s="4">
+        <v>3</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="I128" s="4">
+        <v>0</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A117" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:A118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
+  <conditionalFormatting sqref="C124">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
+  <conditionalFormatting sqref="C125">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9513,7 +9570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA66D3-8315-4018-BF52-5D786631F136}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82DF8F2-5BB7-4457-B69C-60833950AD12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2255EF99-F4F7-41B0-91A5-A75DCA0E09FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>index</t>
   </si>
   <si>
-    <t>system/article/manager</t>
-  </si>
-  <si>
     <t>system:article:list</t>
   </si>
   <si>
@@ -906,9 +903,6 @@
     <t>ArticleCategory</t>
   </si>
   <si>
-    <t>system/article/articleCategory</t>
-  </si>
-  <si>
     <t>articlecategory:list</t>
   </si>
   <si>
@@ -2129,6 +2123,14 @@
   </si>
   <si>
     <t>system:datascreen:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article/manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article/articleCategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2578,43 +2580,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" t="s">
         <v>314</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I1" t="s">
+        <v>316</v>
+      </c>
+      <c r="J1" t="s">
+        <v>532</v>
+      </c>
+      <c r="K1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" t="s">
+        <v>320</v>
+      </c>
+      <c r="M1" t="s">
         <v>323</v>
-      </c>
-      <c r="C1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H1" t="s">
-        <v>320</v>
-      </c>
-      <c r="I1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J1" t="s">
-        <v>534</v>
-      </c>
-      <c r="K1" t="s">
-        <v>321</v>
-      </c>
-      <c r="L1" t="s">
-        <v>322</v>
-      </c>
-      <c r="M1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2625,7 +2627,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2643,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2651,10 +2653,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2663,7 +2665,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2672,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2680,20 +2682,20 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>622</v>
       </c>
-      <c r="D4" t="s">
-        <v>623</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>624</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
@@ -2701,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -2723,25 +2725,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" t="s">
         <v>529</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>530</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>531</v>
       </c>
-      <c r="D1" t="s">
-        <v>532</v>
-      </c>
-      <c r="E1" t="s">
-        <v>533</v>
-      </c>
       <c r="F1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -2752,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2772,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2792,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -2812,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -2832,7 +2834,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -2868,37 +2870,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" t="s">
         <v>518</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>519</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" t="s">
         <v>520</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>521</v>
       </c>
-      <c r="E1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>522</v>
       </c>
-      <c r="G1" t="s">
-        <v>523</v>
-      </c>
-      <c r="H1" t="s">
-        <v>524</v>
-      </c>
       <c r="I1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2909,25 +2911,25 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="K2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2938,25 +2940,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>453</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
         <v>455</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>419</v>
-      </c>
-      <c r="H3" t="s">
-        <v>456</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>457</v>
-      </c>
       <c r="K3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2967,25 +2969,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="K4" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2996,28 +2998,28 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H5" t="s">
+        <v>338</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
         <v>460</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G5" t="s">
-        <v>461</v>
-      </c>
-      <c r="H5" t="s">
-        <v>340</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>462</v>
-      </c>
       <c r="K5" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3028,28 +3030,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
         <v>463</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>422</v>
-      </c>
-      <c r="G6" t="s">
-        <v>464</v>
-      </c>
-      <c r="H6" t="s">
-        <v>456</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>465</v>
-      </c>
       <c r="K6" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3060,28 +3062,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3092,28 +3094,28 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3124,28 +3126,28 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G9" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H9" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K9" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3156,28 +3158,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K10" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3188,25 +3190,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" t="s">
+        <v>429</v>
+      </c>
+      <c r="H11" t="s">
+        <v>338</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
         <v>471</v>
       </c>
-      <c r="D11" t="s">
-        <v>472</v>
-      </c>
-      <c r="E11" t="s">
-        <v>431</v>
-      </c>
-      <c r="H11" t="s">
-        <v>340</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>473</v>
-      </c>
       <c r="K11" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3217,25 +3219,25 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3246,28 +3248,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E13" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3278,28 +3280,28 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E14" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G14" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K14" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3310,25 +3312,25 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G15" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H15" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3339,25 +3341,25 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3368,25 +3370,25 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3397,25 +3399,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G18" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3426,25 +3428,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>441</v>
+      </c>
+      <c r="G19" t="s">
+        <v>485</v>
+      </c>
+      <c r="H19" t="s">
+        <v>454</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
         <v>486</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>443</v>
-      </c>
-      <c r="G19" t="s">
-        <v>487</v>
-      </c>
-      <c r="H19" t="s">
-        <v>456</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3455,25 +3457,25 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G20" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" t="s">
+        <v>454</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
         <v>487</v>
-      </c>
-      <c r="H20" t="s">
-        <v>456</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3484,25 +3486,25 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G21" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3513,25 +3515,25 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3542,25 +3544,25 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D23">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3571,25 +3573,25 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D24">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3600,25 +3602,25 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D25">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G25" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3629,25 +3631,25 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D26">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G26" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3658,25 +3660,25 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3687,25 +3689,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G28" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3716,25 +3718,25 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G29" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3745,25 +3747,25 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G30" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -3774,16 +3776,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="H32" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -3820,16 +3822,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D33" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E33" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H33" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -3843,16 +3845,16 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D34" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H34" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3866,16 +3868,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E35" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H35" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3889,19 +3891,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G36" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="H36" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3915,19 +3917,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G37" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H37" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3941,19 +3943,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3980,13 +3982,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3994,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4005,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4016,7 +4018,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4027,7 +4029,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4038,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4049,7 +4051,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -4060,7 +4062,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4071,7 +4073,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -4089,8 +4091,8 @@
   <dimension ref="A1:N128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4106,46 +4108,46 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>300</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>301</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>302</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>303</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>304</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>305</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>306</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" t="s">
         <v>307</v>
-      </c>
-      <c r="L1" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" t="s">
-        <v>310</v>
-      </c>
-      <c r="N1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -4331,7 +4333,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4343,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4352,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4360,7 +4362,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4369,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4384,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4392,7 +4394,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -4401,28 +4403,28 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F9" t="s">
+        <v>572</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>564</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>573</v>
+      </c>
+      <c r="N9" t="s">
         <v>574</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
-        <v>566</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>575</v>
-      </c>
-      <c r="N9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4430,37 +4432,37 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>643</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>644</v>
+      </c>
+      <c r="F10" t="s">
         <v>645</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>564</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>647</v>
+      </c>
+      <c r="L10" t="s">
         <v>646</v>
-      </c>
-      <c r="F10" t="s">
-        <v>647</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>566</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>649</v>
-      </c>
-      <c r="L10" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -4878,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -5159,7 +5161,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
@@ -5177,10 +5179,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="L28" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N28" t="s">
         <v>111</v>
@@ -5238,7 +5240,7 @@
         <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>118</v>
+        <v>648</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5253,13 +5255,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" t="s">
         <v>119</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>120</v>
-      </c>
-      <c r="N30" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -5267,7 +5269,7 @@
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31">
         <v>108</v>
@@ -5276,10 +5278,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" t="s">
         <v>123</v>
-      </c>
-      <c r="F31" t="s">
-        <v>124</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5294,13 +5296,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
+        <v>124</v>
+      </c>
+      <c r="L31" t="s">
         <v>125</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>126</v>
-      </c>
-      <c r="N31" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -5308,7 +5310,7 @@
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32">
         <v>108</v>
@@ -5317,10 +5319,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" t="s">
         <v>129</v>
-      </c>
-      <c r="F32" t="s">
-        <v>130</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5335,13 +5337,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" t="s">
+        <v>128</v>
+      </c>
+      <c r="N32" t="s">
         <v>131</v>
-      </c>
-      <c r="L32" t="s">
-        <v>129</v>
-      </c>
-      <c r="N32" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -5349,7 +5351,7 @@
         <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C33">
         <v>108</v>
@@ -5358,28 +5360,28 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>562</v>
+      </c>
+      <c r="F33" t="s">
+        <v>563</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
         <v>564</v>
       </c>
-      <c r="F33" t="s">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>568</v>
+      </c>
+      <c r="L33" t="s">
         <v>565</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>566</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>570</v>
-      </c>
-      <c r="L33" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -5387,7 +5389,7 @@
         <v>1001</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -5399,16 +5401,16 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
         <v>134</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -5416,7 +5418,7 @@
         <v>1002</v>
       </c>
       <c r="B35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -5428,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5437,7 +5439,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -5445,7 +5447,7 @@
         <v>1003</v>
       </c>
       <c r="B36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C36">
         <v>100</v>
@@ -5457,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5466,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -5474,7 +5476,7 @@
         <v>1004</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -5486,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5495,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -5503,7 +5505,7 @@
         <v>1005</v>
       </c>
       <c r="B38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -5515,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5524,10 +5526,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
+        <v>142</v>
+      </c>
+      <c r="L38" t="s">
         <v>143</v>
-      </c>
-      <c r="L38" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -5535,7 +5537,7 @@
         <v>1006</v>
       </c>
       <c r="B39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -5547,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5556,10 +5558,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -5567,7 +5569,7 @@
         <v>1007</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C40">
         <v>100</v>
@@ -5579,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5588,10 +5590,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -5599,7 +5601,7 @@
         <v>1008</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41">
         <v>101</v>
@@ -5611,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5620,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -5631,7 +5633,7 @@
         <v>1009</v>
       </c>
       <c r="B42" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C42">
         <v>101</v>
@@ -5643,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5652,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -5663,7 +5665,7 @@
         <v>1010</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43">
         <v>101</v>
@@ -5675,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5684,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="L43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -5695,7 +5697,7 @@
         <v>1011</v>
       </c>
       <c r="B44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C44">
         <v>101</v>
@@ -5707,7 +5709,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -5716,10 +5718,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -5727,7 +5729,7 @@
         <v>1012</v>
       </c>
       <c r="B45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C45">
         <v>101</v>
@@ -5739,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -5748,10 +5750,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -5759,7 +5761,7 @@
         <v>1013</v>
       </c>
       <c r="B46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46">
         <v>102</v>
@@ -5771,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5780,10 +5782,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -5791,7 +5793,7 @@
         <v>1014</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C47">
         <v>102</v>
@@ -5803,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -5812,10 +5814,10 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -5823,7 +5825,7 @@
         <v>1015</v>
       </c>
       <c r="B48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C48">
         <v>102</v>
@@ -5835,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5844,10 +5846,10 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -5855,7 +5857,7 @@
         <v>1016</v>
       </c>
       <c r="B49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C49">
         <v>102</v>
@@ -5867,7 +5869,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -5876,10 +5878,10 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -5887,7 +5889,7 @@
         <v>1017</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50">
         <v>102</v>
@@ -5899,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5908,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -5916,7 +5918,7 @@
         <v>1018</v>
       </c>
       <c r="B51" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C51">
         <v>103</v>
@@ -5928,7 +5930,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5937,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -5945,7 +5947,7 @@
         <v>1019</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C52">
         <v>103</v>
@@ -5957,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -5966,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
@@ -5974,7 +5976,7 @@
         <v>1020</v>
       </c>
       <c r="B53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C53">
         <v>103</v>
@@ -5986,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5995,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -6003,7 +6005,7 @@
         <v>1021</v>
       </c>
       <c r="B54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54">
         <v>103</v>
@@ -6015,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6024,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
@@ -6032,7 +6034,7 @@
         <v>1022</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C55">
         <v>104</v>
@@ -6044,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6061,7 +6063,7 @@
         <v>1023</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C56">
         <v>104</v>
@@ -6073,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -6082,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -6090,7 +6092,7 @@
         <v>1024</v>
       </c>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57">
         <v>104</v>
@@ -6102,7 +6104,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6111,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -6119,7 +6121,7 @@
         <v>1025</v>
       </c>
       <c r="B58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C58">
         <v>104</v>
@@ -6131,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6140,7 +6142,7 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -6148,7 +6150,7 @@
         <v>1026</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59">
         <v>105</v>
@@ -6160,7 +6162,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -6169,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
@@ -6177,7 +6179,7 @@
         <v>1027</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60">
         <v>105</v>
@@ -6189,7 +6191,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -6198,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -6206,7 +6208,7 @@
         <v>1028</v>
       </c>
       <c r="B61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C61">
         <v>105</v>
@@ -6218,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -6227,7 +6229,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -6235,7 +6237,7 @@
         <v>1029</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62">
         <v>106</v>
@@ -6247,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -6256,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -6264,7 +6266,7 @@
         <v>1030</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63">
         <v>106</v>
@@ -6276,7 +6278,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6285,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
@@ -6293,7 +6295,7 @@
         <v>1031</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C64">
         <v>105</v>
@@ -6305,7 +6307,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6314,7 +6316,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -6322,7 +6324,7 @@
         <v>1032</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C65">
         <v>110</v>
@@ -6331,13 +6333,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6346,10 +6348,10 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L65" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -6357,7 +6359,7 @@
         <v>1033</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C66">
         <v>110</v>
@@ -6366,13 +6368,13 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6381,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -6389,7 +6391,7 @@
         <v>1034</v>
       </c>
       <c r="B67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67">
         <v>110</v>
@@ -6398,13 +6400,13 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6413,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -6421,7 +6423,7 @@
         <v>1035</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C68">
         <v>110</v>
@@ -6430,13 +6432,13 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6445,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -6453,7 +6455,7 @@
         <v>1036</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69">
         <v>110</v>
@@ -6462,13 +6464,13 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6477,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6485,7 +6487,7 @@
         <v>1037</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70">
         <v>110</v>
@@ -6494,13 +6496,13 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6509,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6517,7 +6519,7 @@
         <v>1038</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71">
         <v>110</v>
@@ -6526,13 +6528,13 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6541,7 +6543,7 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6549,7 +6551,7 @@
         <v>1039</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6558,10 +6560,10 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
+        <v>210</v>
+      </c>
+      <c r="F72" t="s">
         <v>211</v>
-      </c>
-      <c r="F72" t="s">
-        <v>212</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6576,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L72" t="s">
         <v>65</v>
@@ -6587,7 +6589,7 @@
         <v>1040</v>
       </c>
       <c r="B73" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73">
         <v>110</v>
@@ -6596,13 +6598,13 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6611,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6619,7 +6621,7 @@
         <v>1041</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74">
         <v>500</v>
@@ -6628,13 +6630,13 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6643,7 +6645,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6651,7 +6653,7 @@
         <v>1042</v>
       </c>
       <c r="B75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C75">
         <v>500</v>
@@ -6660,13 +6662,13 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6675,7 +6677,7 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6683,7 +6685,7 @@
         <v>1043</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C76">
         <v>500</v>
@@ -6692,13 +6694,13 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -6707,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6715,7 +6717,7 @@
         <v>1044</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C77">
         <v>501</v>
@@ -6724,13 +6726,13 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -6739,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6747,7 +6749,7 @@
         <v>1045</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78">
         <v>501</v>
@@ -6756,13 +6758,13 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -6771,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6779,7 +6781,7 @@
         <v>1046</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C79">
         <v>501</v>
@@ -6788,13 +6790,13 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -6803,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6811,7 +6813,7 @@
         <v>1047</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -6820,16 +6822,16 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
+        <v>636</v>
+      </c>
+      <c r="F80" t="s">
         <v>638</v>
       </c>
-      <c r="F80" t="s">
-        <v>640</v>
-      </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -6838,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="L80" t="s">
         <v>65</v>
@@ -6849,7 +6851,7 @@
         <v>1049</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C81">
         <v>118</v>
@@ -6858,13 +6860,13 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -6873,7 +6875,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
@@ -6881,7 +6883,7 @@
         <v>1050</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82">
         <v>118</v>
@@ -6890,13 +6892,13 @@
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -6905,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
@@ -6913,7 +6915,7 @@
         <v>1051</v>
       </c>
       <c r="B83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C83">
         <v>109</v>
@@ -6922,13 +6924,13 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -6937,7 +6939,7 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
@@ -6945,7 +6947,7 @@
         <v>1052</v>
       </c>
       <c r="B84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C84">
         <v>109</v>
@@ -6954,13 +6956,13 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -6969,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
@@ -6977,7 +6979,7 @@
         <v>1053</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C85">
         <v>109</v>
@@ -6986,13 +6988,13 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -7001,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
@@ -7009,7 +7011,7 @@
         <v>1054</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C86">
         <v>109</v>
@@ -7018,13 +7020,13 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -7033,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
@@ -7041,7 +7043,7 @@
         <v>1055</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C87">
         <v>109</v>
@@ -7050,13 +7052,13 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -7065,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
@@ -7073,7 +7075,7 @@
         <v>1060</v>
       </c>
       <c r="B88" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7082,10 +7084,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
+        <v>243</v>
+      </c>
+      <c r="F88" t="s">
         <v>244</v>
-      </c>
-      <c r="F88" t="s">
-        <v>245</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -7100,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
@@ -7108,7 +7110,7 @@
         <v>1061</v>
       </c>
       <c r="B89" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C89">
         <v>115</v>
@@ -7117,13 +7119,13 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -7132,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
@@ -7140,7 +7142,7 @@
         <v>1062</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C90">
         <v>115</v>
@@ -7149,13 +7151,13 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -7164,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
@@ -7172,7 +7174,7 @@
         <v>1063</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C91">
         <v>115</v>
@@ -7181,13 +7183,13 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7196,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
@@ -7204,7 +7206,7 @@
         <v>1064</v>
       </c>
       <c r="B92" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C92">
         <v>115</v>
@@ -7213,13 +7215,13 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -7228,7 +7230,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
@@ -7236,7 +7238,7 @@
         <v>1065</v>
       </c>
       <c r="B93" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93">
         <v>115</v>
@@ -7245,13 +7247,13 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -7260,7 +7262,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
@@ -7268,7 +7270,7 @@
         <v>1070</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94">
         <v>104</v>
@@ -7280,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -7289,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
@@ -7297,7 +7299,7 @@
         <v>1071</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95">
         <v>105</v>
@@ -7309,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -7318,7 +7320,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
@@ -7326,7 +7328,7 @@
         <v>1072</v>
       </c>
       <c r="B96" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -7335,10 +7337,10 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
+        <v>261</v>
+      </c>
+      <c r="F96" t="s">
         <v>262</v>
-      </c>
-      <c r="F96" t="s">
-        <v>263</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -7353,13 +7355,13 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
+        <v>263</v>
+      </c>
+      <c r="L96" t="s">
         <v>264</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96" t="s">
         <v>265</v>
-      </c>
-      <c r="N96" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -7367,7 +7369,7 @@
         <v>1073</v>
       </c>
       <c r="B97" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C97">
         <v>1072</v>
@@ -7376,13 +7378,13 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7391,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -7399,7 +7401,7 @@
         <v>1074</v>
       </c>
       <c r="B98" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C98">
         <v>1072</v>
@@ -7408,13 +7410,13 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7423,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
@@ -7431,7 +7433,7 @@
         <v>1075</v>
       </c>
       <c r="B99" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C99">
         <v>1072</v>
@@ -7440,13 +7442,13 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -7455,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
@@ -7463,7 +7465,7 @@
         <v>1076</v>
       </c>
       <c r="B100" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C100">
         <v>1072</v>
@@ -7472,13 +7474,13 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -7487,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
@@ -7495,7 +7497,7 @@
         <v>1077</v>
       </c>
       <c r="B101" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C101">
         <v>1072</v>
@@ -7504,13 +7506,13 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -7519,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
@@ -7527,7 +7529,7 @@
         <v>1078</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7536,10 +7538,10 @@
         <v>999</v>
       </c>
       <c r="E102" t="s">
+        <v>277</v>
+      </c>
+      <c r="F102" t="s">
         <v>278</v>
-      </c>
-      <c r="F102" t="s">
-        <v>279</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -7554,13 +7556,13 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
+        <v>279</v>
+      </c>
+      <c r="L102" t="s">
         <v>280</v>
       </c>
-      <c r="L102" t="s">
+      <c r="N102" t="s">
         <v>281</v>
-      </c>
-      <c r="N102" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
@@ -7568,7 +7570,7 @@
         <v>1079</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C103">
         <v>1078</v>
@@ -7577,13 +7579,13 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -7592,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
@@ -7600,7 +7602,7 @@
         <v>1080</v>
       </c>
       <c r="B104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C104">
         <v>1078</v>
@@ -7609,13 +7611,13 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -7624,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
@@ -7632,7 +7634,7 @@
         <v>1081</v>
       </c>
       <c r="B105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C105">
         <v>1078</v>
@@ -7641,13 +7643,13 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -7656,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
@@ -7664,7 +7666,7 @@
         <v>1082</v>
       </c>
       <c r="B106" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C106">
         <v>1078</v>
@@ -7673,13 +7675,13 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -7688,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
@@ -7696,7 +7698,7 @@
         <v>1090</v>
       </c>
       <c r="B107" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C107">
         <v>1078</v>
@@ -7705,13 +7707,13 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -7720,7 +7722,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -7728,7 +7730,7 @@
         <v>1083</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C108">
         <v>1078</v>
@@ -7737,13 +7739,13 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7752,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -7760,7 +7762,7 @@
         <v>1084</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C109" s="4">
         <v>118</v>
@@ -7769,10 +7771,10 @@
         <v>999</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>290</v>
+        <v>649</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -7787,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>35</v>
@@ -7799,7 +7801,7 @@
         <v>1085</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C110" s="4">
         <v>1084</v>
@@ -7808,14 +7810,14 @@
         <v>1</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <v>0</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I110" s="4">
         <v>0</v>
@@ -7824,7 +7826,7 @@
         <v>0</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
@@ -7834,7 +7836,7 @@
         <v>1086</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C111" s="4">
         <v>1084</v>
@@ -7843,14 +7845,14 @@
         <v>2</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <v>0</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -7859,7 +7861,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
@@ -7869,7 +7871,7 @@
         <v>1087</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C112" s="4">
         <v>1084</v>
@@ -7878,14 +7880,14 @@
         <v>3</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <v>0</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I112" s="4">
         <v>0</v>
@@ -7894,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
@@ -7904,7 +7906,7 @@
         <v>1088</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C113" s="4">
         <v>1084</v>
@@ -7913,14 +7915,14 @@
         <v>4</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <v>0</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I113" s="4">
         <v>0</v>
@@ -7929,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
@@ -7939,7 +7941,7 @@
         <v>1089</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C114" s="4">
         <v>1084</v>
@@ -7948,14 +7950,14 @@
         <v>5</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <v>0</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I114" s="4">
         <v>0</v>
@@ -7964,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
@@ -7974,7 +7976,7 @@
         <v>1092</v>
       </c>
       <c r="B115" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C115">
         <v>111</v>
@@ -7986,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -7995,10 +7997,10 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M115" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.3">
@@ -8006,7 +8008,7 @@
         <v>1091</v>
       </c>
       <c r="B116" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C116">
         <v>111</v>
@@ -8018,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -8027,10 +8029,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M116" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.3">
@@ -8038,7 +8040,7 @@
         <v>1102</v>
       </c>
       <c r="B117" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C117">
         <v>502</v>
@@ -8050,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -8059,10 +8061,10 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M117" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.3">
@@ -8070,7 +8072,7 @@
         <v>1103</v>
       </c>
       <c r="B118" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C118">
         <v>502</v>
@@ -8082,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -8091,10 +8093,10 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M118" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.3">
@@ -8102,7 +8104,7 @@
         <v>1104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C119" s="5">
         <v>9</v>
@@ -8111,16 +8113,16 @@
         <v>1</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G119" s="5">
         <v>0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="I119" s="5">
         <v>0</v>
@@ -8129,10 +8131,10 @@
         <v>0</v>
       </c>
       <c r="K119" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="L119" s="5" t="s">
         <v>610</v>
-      </c>
-      <c r="L119" s="5" t="s">
-        <v>612</v>
       </c>
       <c r="M119" s="5"/>
     </row>
@@ -8141,7 +8143,7 @@
         <v>1105</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C120" s="5">
         <v>1104</v>
@@ -8155,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
@@ -8164,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -8174,7 +8176,7 @@
         <v>1106</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C121" s="5">
         <v>1104</v>
@@ -8188,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I121" s="5">
         <v>0</v>
@@ -8197,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -8207,7 +8209,7 @@
         <v>1107</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C122" s="5">
         <v>1104</v>
@@ -8221,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
@@ -8230,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -8240,7 +8242,7 @@
         <v>1108</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C123" s="6">
         <v>108</v>
@@ -8249,28 +8251,28 @@
         <v>1</v>
       </c>
       <c r="E123" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="G123" s="6">
+        <v>0</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="I123" s="6">
+        <v>0</v>
+      </c>
+      <c r="J123" s="6">
+        <v>0</v>
+      </c>
+      <c r="K123" s="6" t="s">
         <v>616</v>
       </c>
-      <c r="F123" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="G123" s="6">
-        <v>0</v>
-      </c>
-      <c r="H123" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="I123" s="6">
-        <v>0</v>
-      </c>
-      <c r="J123" s="6">
-        <v>0</v>
-      </c>
-      <c r="K123" s="6" t="s">
-        <v>618</v>
-      </c>
       <c r="L123" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M123" s="6"/>
     </row>
@@ -8279,7 +8281,7 @@
         <v>1109</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C124" s="6">
         <v>1108</v>
@@ -8293,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I124" s="6">
         <v>0</v>
@@ -8302,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -8312,7 +8314,7 @@
         <v>1110</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C125" s="6">
         <v>1108</v>
@@ -8326,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I125" s="6">
         <v>0</v>
@@ -8335,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -8345,7 +8347,7 @@
         <v>1111</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C126" s="4">
         <v>9</v>
@@ -8354,31 +8356,31 @@
         <v>1</v>
       </c>
       <c r="E126" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="I126" s="4">
+        <v>0</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="F126" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="G126" s="4">
-        <v>0</v>
-      </c>
-      <c r="H126" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="I126" s="4">
-        <v>0</v>
-      </c>
-      <c r="J126" s="4">
-        <v>0</v>
-      </c>
-      <c r="K126" s="4" t="s">
-        <v>633</v>
-      </c>
       <c r="L126" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
@@ -8386,7 +8388,7 @@
         <v>1112</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C127" s="4">
         <v>1111</v>
@@ -8400,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I127" s="4">
         <v>0</v>
@@ -8409,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -8419,7 +8421,7 @@
         <v>1113</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="C128" s="4">
         <v>1111</v>
@@ -8433,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I128" s="4">
         <v>0</v>
@@ -8442,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -8481,34 +8483,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C1" t="s">
         <v>329</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>330</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" t="s">
+        <v>304</v>
+      </c>
+      <c r="I1" t="s">
         <v>331</v>
       </c>
-      <c r="D1" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" t="s">
-        <v>334</v>
-      </c>
-      <c r="F1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" t="s">
-        <v>336</v>
-      </c>
-      <c r="H1" t="s">
-        <v>306</v>
-      </c>
-      <c r="I1" t="s">
-        <v>333</v>
-      </c>
       <c r="J1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -8516,7 +8518,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -8540,7 +8542,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -8548,10 +8550,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -8572,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -8580,10 +8582,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -8604,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -8626,13 +8628,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -8851,7 +8853,7 @@
         <v>1084</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -8862,7 +8864,7 @@
         <v>1085</v>
       </c>
       <c r="C29" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -8873,7 +8875,7 @@
         <v>1086</v>
       </c>
       <c r="C30" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -8884,7 +8886,7 @@
         <v>1087</v>
       </c>
       <c r="C31" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -8895,7 +8897,7 @@
         <v>1088</v>
       </c>
       <c r="C32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -8906,7 +8908,7 @@
         <v>1089</v>
       </c>
       <c r="C33" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -8917,7 +8919,7 @@
         <v>1048</v>
       </c>
       <c r="C34" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -8928,7 +8930,7 @@
         <v>1049</v>
       </c>
       <c r="C35" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -8939,7 +8941,7 @@
         <v>1050</v>
       </c>
       <c r="C36" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -8950,7 +8952,7 @@
         <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -8961,7 +8963,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -9001,22 +9003,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" t="s">
         <v>357</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>358</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>359</v>
       </c>
-      <c r="D1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E1" t="s">
-        <v>361</v>
-      </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -9024,19 +9026,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" t="s">
         <v>337</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>338</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>339</v>
-      </c>
-      <c r="E2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9044,19 +9046,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9064,19 +9066,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4" t="s">
+        <v>533</v>
+      </c>
+      <c r="E4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" t="s">
         <v>345</v>
-      </c>
-      <c r="C4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" t="s">
-        <v>535</v>
-      </c>
-      <c r="E4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -9084,19 +9086,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" t="s">
         <v>348</v>
-      </c>
-      <c r="C5" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -9104,16 +9106,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -9121,19 +9123,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" t="s">
         <v>353</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" t="s">
         <v>354</v>
-      </c>
-      <c r="D7" t="s">
-        <v>355</v>
-      </c>
-      <c r="E7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -9154,10 +9156,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -9211,75 +9213,75 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B1" t="s">
         <v>400</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D1" t="s">
         <v>402</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>403</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>404</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>405</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>406</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>407</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>408</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>409</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>410</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>411</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>412</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>413</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>414</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>415</v>
-      </c>
-      <c r="P1" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" t="s">
         <v>395</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>396</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>397</v>
-      </c>
-      <c r="E2" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" t="s">
-        <v>399</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -9324,19 +9326,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C1" t="s">
         <v>388</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>389</v>
       </c>
-      <c r="C1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1" t="s">
-        <v>391</v>
-      </c>
       <c r="E1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -9344,10 +9346,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9361,10 +9363,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -9378,10 +9380,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9395,10 +9397,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9412,10 +9414,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9429,10 +9431,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9446,10 +9448,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9463,10 +9465,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9480,10 +9482,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9497,10 +9499,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9514,10 +9516,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9531,10 +9533,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9548,10 +9550,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -9584,25 +9586,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" t="s">
         <v>512</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
         <v>514</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -9610,19 +9612,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" t="s">
         <v>418</v>
-      </c>
-      <c r="C2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F2" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -9630,19 +9632,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" t="s">
         <v>421</v>
-      </c>
-      <c r="C3" t="s">
-        <v>422</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -9650,19 +9652,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" t="s">
         <v>424</v>
-      </c>
-      <c r="C4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -9670,19 +9672,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" t="s">
         <v>427</v>
-      </c>
-      <c r="C5" t="s">
-        <v>428</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -9690,19 +9692,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F6" t="s">
         <v>430</v>
-      </c>
-      <c r="C6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F6" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -9710,19 +9712,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>431</v>
+      </c>
+      <c r="C7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" t="s">
         <v>433</v>
-      </c>
-      <c r="C7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -9730,19 +9732,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F8" t="s">
         <v>436</v>
-      </c>
-      <c r="C8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="F8" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -9750,19 +9752,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F9" t="s">
         <v>439</v>
-      </c>
-      <c r="C9" t="s">
-        <v>440</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F9" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -9770,19 +9772,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>440</v>
+      </c>
+      <c r="C10" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F10" t="s">
         <v>442</v>
-      </c>
-      <c r="C10" t="s">
-        <v>443</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F10" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -9790,19 +9792,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C11" t="s">
+        <v>444</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
         <v>445</v>
-      </c>
-      <c r="C11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F11" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -9810,16 +9812,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -9827,19 +9829,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" t="s">
         <v>450</v>
-      </c>
-      <c r="C13" t="s">
-        <v>451</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9847,19 +9849,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" t="s">
         <v>549</v>
       </c>
-      <c r="C14" t="s">
-        <v>551</v>
-      </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F14" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9867,22 +9869,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C15" t="s">
+        <v>599</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F15" t="s">
         <v>600</v>
       </c>
-      <c r="C15" t="s">
-        <v>601</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="F15" t="s">
-        <v>602</v>
-      </c>
       <c r="G15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2255EF99-F4F7-41B0-91A5-A75DCA0E09FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B8BD8-F433-44D2-99BA-032C4E7B5693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="658">
   <si>
     <t>系统管理</t>
   </si>
@@ -2131,6 +2131,33 @@
   </si>
   <si>
     <t>article/articleCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserOnlineLog</t>
+  </si>
+  <si>
+    <t>monitor/UserOnlineLog</t>
+  </si>
+  <si>
+    <t>useronlinelog:list</t>
+  </si>
+  <si>
+    <t>useronlinelog:delete</t>
+  </si>
+  <si>
+    <t>useronlinelog:export</t>
+  </si>
+  <si>
+    <t>用户在线日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在线日志导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在线日志删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2154,7 +2181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2179,6 +2206,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2192,7 +2225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2202,11 +2235,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4088,11 +4142,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N128"/>
+  <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F127" sqref="F127"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8449,17 +8503,119 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
+    <row r="129" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>1114</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C129" s="7">
+        <v>2</v>
+      </c>
+      <c r="D129" s="7">
+        <v>1</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="G129" s="7">
+        <v>0</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="I129" s="7">
+        <v>0</v>
+      </c>
+      <c r="J129" s="7">
+        <v>0</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="L129" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="7">
+        <v>1115</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C130" s="7">
+        <v>1114</v>
+      </c>
+      <c r="D130" s="7">
+        <v>2</v>
+      </c>
+      <c r="G130" s="7">
+        <v>0</v>
+      </c>
+      <c r="H130" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="I130" s="7">
+        <v>0</v>
+      </c>
+      <c r="J130" s="7">
+        <v>0</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>1116</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C131" s="7">
+        <v>1114</v>
+      </c>
+      <c r="D131" s="7">
+        <v>3</v>
+      </c>
+      <c r="G131" s="7">
+        <v>0</v>
+      </c>
+      <c r="H131" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="I131" s="7">
+        <v>0</v>
+      </c>
+      <c r="J131" s="7">
+        <v>0</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8977,10 +9133,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B39">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B8BD8-F433-44D2-99BA-032C4E7B5693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2717D78-9E3C-4594-ADF6-152C6631C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="667">
   <si>
     <t>系统管理</t>
   </si>
@@ -2158,6 +2158,42 @@
   </si>
   <si>
     <t>用户在线日志删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.emailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.dataScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.articleCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.emailTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.userOnlineLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.dataDiffLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.smsLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.zujianDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.emailLog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2208,7 +2244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2627,12 +2663,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="33.4140625" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -2673,7 +2709,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2702,7 +2738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2731,7 +2767,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2775,9 +2811,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>527</v>
       </c>
@@ -2800,7 +2836,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2820,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2840,7 +2876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2860,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2880,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2915,14 +2951,14 @@
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="10" max="10" width="12.9140625" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>516</v>
       </c>
@@ -2957,7 +2993,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2986,7 +3022,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3015,7 +3051,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3044,7 +3080,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3076,7 +3112,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3108,7 +3144,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3140,7 +3176,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3172,7 +3208,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3204,7 +3240,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3236,7 +3272,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3265,7 +3301,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3294,7 +3330,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3326,7 +3362,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3358,7 +3394,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3387,7 +3423,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3416,7 +3452,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3445,7 +3481,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3474,7 +3510,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3503,7 +3539,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3532,7 +3568,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3561,7 +3597,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3590,7 +3626,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3619,7 +3655,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3648,7 +3684,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3677,7 +3713,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3706,7 +3742,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3735,7 +3771,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3764,7 +3800,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3793,7 +3829,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3822,7 +3858,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3845,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3868,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3891,7 +3927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3914,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3937,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3963,7 +3999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3989,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4029,12 +4065,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>545</v>
       </c>
@@ -4045,7 +4081,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4056,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4067,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4078,7 +4114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4089,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4100,7 +4136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4111,7 +4147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4122,7 +4158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4146,21 +4182,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E134" sqref="E134"/>
+      <selection pane="bottomLeft" activeCell="M122" sqref="M122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.58203125" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="10.58203125" customWidth="1"/>
-    <col min="13" max="13" width="18.4140625" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="5" max="6" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>295</v>
       </c>
@@ -4204,7 +4240,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4239,7 +4275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4274,7 +4310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4309,7 +4345,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4344,7 +4380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4382,7 +4418,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4410,8 +4446,11 @@
       <c r="L7" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4442,8 +4481,11 @@
       <c r="L8" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4481,7 +4523,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4518,8 +4560,11 @@
       <c r="L10" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4560,7 +4605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -4601,7 +4646,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4642,7 +4687,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4683,7 +4728,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>104</v>
       </c>
@@ -4724,7 +4769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>105</v>
       </c>
@@ -4765,7 +4810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>106</v>
       </c>
@@ -4803,7 +4848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>107</v>
       </c>
@@ -4844,7 +4889,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>108</v>
       </c>
@@ -4879,7 +4924,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>109</v>
       </c>
@@ -4920,7 +4965,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>110</v>
       </c>
@@ -4958,7 +5003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>111</v>
       </c>
@@ -4996,7 +5041,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>112</v>
       </c>
@@ -5037,7 +5082,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>113</v>
       </c>
@@ -5078,7 +5123,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>114</v>
       </c>
@@ -5119,7 +5164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>115</v>
       </c>
@@ -5160,7 +5205,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>116</v>
       </c>
@@ -5201,7 +5246,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>117</v>
       </c>
@@ -5242,7 +5287,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>118</v>
       </c>
@@ -5277,7 +5322,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>119</v>
       </c>
@@ -5318,7 +5363,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>500</v>
       </c>
@@ -5359,7 +5404,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>501</v>
       </c>
@@ -5400,7 +5445,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>502</v>
       </c>
@@ -5437,8 +5482,11 @@
       <c r="L33" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N33" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -5467,7 +5515,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1002</v>
       </c>
@@ -5496,7 +5544,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1003</v>
       </c>
@@ -5525,7 +5573,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1004</v>
       </c>
@@ -5554,7 +5602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1005</v>
       </c>
@@ -5586,7 +5634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1006</v>
       </c>
@@ -5618,7 +5666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1007</v>
       </c>
@@ -5650,7 +5698,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1008</v>
       </c>
@@ -5682,7 +5730,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1009</v>
       </c>
@@ -5714,7 +5762,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1010</v>
       </c>
@@ -5746,7 +5794,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1011</v>
       </c>
@@ -5778,7 +5826,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1012</v>
       </c>
@@ -5810,7 +5858,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1013</v>
       </c>
@@ -5842,7 +5890,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1014</v>
       </c>
@@ -5874,7 +5922,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1015</v>
       </c>
@@ -5906,7 +5954,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -5938,7 +5986,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1017</v>
       </c>
@@ -5967,7 +6015,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1018</v>
       </c>
@@ -5996,7 +6044,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1019</v>
       </c>
@@ -6025,7 +6073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1020</v>
       </c>
@@ -6054,7 +6102,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1021</v>
       </c>
@@ -6083,7 +6131,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1022</v>
       </c>
@@ -6112,7 +6160,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1023</v>
       </c>
@@ -6141,7 +6189,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1024</v>
       </c>
@@ -6170,7 +6218,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1025</v>
       </c>
@@ -6199,7 +6247,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1026</v>
       </c>
@@ -6228,7 +6276,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1027</v>
       </c>
@@ -6257,7 +6305,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1028</v>
       </c>
@@ -6286,7 +6334,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1029</v>
       </c>
@@ -6315,7 +6363,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1030</v>
       </c>
@@ -6344,7 +6392,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1031</v>
       </c>
@@ -6373,7 +6421,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1032</v>
       </c>
@@ -6408,7 +6456,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1033</v>
       </c>
@@ -6440,7 +6488,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1034</v>
       </c>
@@ -6472,7 +6520,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1035</v>
       </c>
@@ -6504,7 +6552,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1036</v>
       </c>
@@ -6536,7 +6584,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1037</v>
       </c>
@@ -6568,7 +6616,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1038</v>
       </c>
@@ -6600,7 +6648,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1039</v>
       </c>
@@ -6638,7 +6686,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1040</v>
       </c>
@@ -6670,7 +6718,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1041</v>
       </c>
@@ -6702,7 +6750,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1042</v>
       </c>
@@ -6734,7 +6782,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1043</v>
       </c>
@@ -6766,7 +6814,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1044</v>
       </c>
@@ -6798,7 +6846,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1045</v>
       </c>
@@ -6830,7 +6878,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1046</v>
       </c>
@@ -6862,7 +6910,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1047</v>
       </c>
@@ -6900,7 +6948,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1049</v>
       </c>
@@ -6932,7 +6980,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1050</v>
       </c>
@@ -6964,7 +7012,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1051</v>
       </c>
@@ -6996,7 +7044,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1052</v>
       </c>
@@ -7028,7 +7076,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1053</v>
       </c>
@@ -7060,7 +7108,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1054</v>
       </c>
@@ -7092,7 +7140,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1055</v>
       </c>
@@ -7124,7 +7172,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1060</v>
       </c>
@@ -7159,7 +7207,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1061</v>
       </c>
@@ -7191,7 +7239,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1062</v>
       </c>
@@ -7223,7 +7271,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1063</v>
       </c>
@@ -7255,7 +7303,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1064</v>
       </c>
@@ -7287,7 +7335,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1065</v>
       </c>
@@ -7319,7 +7367,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1070</v>
       </c>
@@ -7348,7 +7396,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1071</v>
       </c>
@@ -7377,7 +7425,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1072</v>
       </c>
@@ -7418,7 +7466,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1073</v>
       </c>
@@ -7450,7 +7498,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1074</v>
       </c>
@@ -7482,7 +7530,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1075</v>
       </c>
@@ -7514,7 +7562,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1076</v>
       </c>
@@ -7546,7 +7594,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1077</v>
       </c>
@@ -7578,7 +7626,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1078</v>
       </c>
@@ -7619,7 +7667,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1079</v>
       </c>
@@ -7651,7 +7699,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1080</v>
       </c>
@@ -7683,7 +7731,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1081</v>
       </c>
@@ -7715,7 +7763,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1082</v>
       </c>
@@ -7747,7 +7795,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1090</v>
       </c>
@@ -7779,7 +7827,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1083</v>
       </c>
@@ -7811,7 +7859,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1084</v>
       </c>
@@ -7849,8 +7897,11 @@
         <v>35</v>
       </c>
       <c r="M109" s="4"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N109" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1085</v>
       </c>
@@ -7885,7 +7936,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1086</v>
       </c>
@@ -7920,7 +7971,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1087</v>
       </c>
@@ -7955,7 +8006,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1088</v>
       </c>
@@ -7990,7 +8041,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1089</v>
       </c>
@@ -8025,7 +8076,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1092</v>
       </c>
@@ -8057,7 +8108,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1091</v>
       </c>
@@ -8089,7 +8140,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1102</v>
       </c>
@@ -8121,7 +8172,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1103</v>
       </c>
@@ -8153,7 +8204,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>1104</v>
       </c>
@@ -8191,8 +8242,11 @@
         <v>610</v>
       </c>
       <c r="M119" s="5"/>
-    </row>
-    <row r="120" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N119" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>1105</v>
       </c>
@@ -8225,7 +8279,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>1106</v>
       </c>
@@ -8258,7 +8312,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>1107</v>
       </c>
@@ -8291,7 +8345,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>1108</v>
       </c>
@@ -8329,8 +8383,11 @@
         <v>611</v>
       </c>
       <c r="M123" s="6"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N123" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>1109</v>
       </c>
@@ -8363,7 +8420,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>1110</v>
       </c>
@@ -8396,7 +8453,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1111</v>
       </c>
@@ -8436,8 +8493,11 @@
       <c r="M126" s="4" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N126" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1112</v>
       </c>
@@ -8470,7 +8530,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1113</v>
       </c>
@@ -8503,7 +8563,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>1114</v>
       </c>
@@ -8540,8 +8600,12 @@
       <c r="L129" s="7" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M129" s="7"/>
+      <c r="N129" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>1115</v>
       </c>
@@ -8554,6 +8618,8 @@
       <c r="D130" s="7">
         <v>2</v>
       </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
       <c r="G130" s="7">
         <v>0</v>
       </c>
@@ -8569,8 +8635,10 @@
       <c r="K130" s="7" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L130" s="7"/>
+      <c r="M130" s="7"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>1116</v>
       </c>
@@ -8583,6 +8651,8 @@
       <c r="D131" s="7">
         <v>3</v>
       </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
       <c r="G131" s="7">
         <v>0</v>
       </c>
@@ -8598,6 +8668,8 @@
       <c r="K131" s="7" t="s">
         <v>653</v>
       </c>
+      <c r="L131" s="7"/>
+      <c r="M131" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:A118" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -8612,10 +8684,10 @@
     <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C130">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C131">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8630,14 +8702,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -8669,7 +8741,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8701,7 +8773,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8733,7 +8805,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8780,9 +8852,9 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -8793,7 +8865,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8801,7 +8873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8809,7 +8881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8817,7 +8889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8825,7 +8897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8833,7 +8905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8841,7 +8913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8849,7 +8921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8857,7 +8929,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8865,7 +8937,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8873,7 +8945,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8881,7 +8953,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8889,7 +8961,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8897,7 +8969,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8905,7 +8977,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8913,7 +8985,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8921,7 +8993,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -8929,7 +9001,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -8937,7 +9009,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -8945,7 +9017,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -8953,7 +9025,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -8961,7 +9033,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -8969,7 +9041,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -8977,7 +9049,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -8985,7 +9057,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -8993,7 +9065,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -9001,7 +9073,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -9012,7 +9084,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -9023,7 +9095,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9034,7 +9106,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9045,7 +9117,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9056,7 +9128,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9067,7 +9139,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9078,7 +9150,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9089,7 +9161,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9100,7 +9172,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9111,7 +9183,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9122,7 +9194,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9133,10 +9205,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B28:B33">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:B39">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9150,14 +9222,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.75" customWidth="1"/>
+    <col min="6" max="6" width="83.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>355</v>
       </c>
@@ -9177,7 +9249,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9197,7 +9269,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9217,7 +9289,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9237,7 +9309,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9257,7 +9329,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9274,7 +9346,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9308,9 +9380,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>390</v>
       </c>
@@ -9318,7 +9390,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9326,7 +9398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9334,7 +9406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9356,18 +9428,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>398</v>
       </c>
@@ -9420,7 +9492,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>399</v>
       </c>
@@ -9475,12 +9547,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>386</v>
       </c>
@@ -9497,7 +9569,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9514,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9531,7 +9603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9548,7 +9620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9565,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9582,7 +9654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9599,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9616,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9633,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9650,7 +9722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9667,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9684,7 +9756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9701,7 +9773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9732,15 +9804,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="5" width="8.9140625" style="3"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>510</v>
       </c>
@@ -9763,7 +9835,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9783,7 +9855,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9803,7 +9875,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9823,7 +9895,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9843,7 +9915,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9863,7 +9935,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9883,7 +9955,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9903,7 +9975,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9923,7 +9995,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9943,7 +10015,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9963,7 +10035,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9980,7 +10052,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10000,7 +10072,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10020,7 +10092,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2717D78-9E3C-4594-ADF6-152C6631C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125C0EC-FCFA-4405-8054-E90A38360099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="718" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="dept" sheetId="11" r:id="rId10"/>
     <sheet name="dict_data" sheetId="10" r:id="rId11"/>
     <sheet name="article_category" sheetId="12" r:id="rId12"/>
+    <sheet name="notice" sheetId="13" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">menu!$A$1:$A$118</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="673">
   <si>
     <t>系统管理</t>
   </si>
@@ -2195,13 +2196,94 @@
   <si>
     <t>menu.emailLog</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页公告</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;p style="text-align: left;"&gt;ZRAdmin会员限时特价 &lt;s&gt;原价199&lt;/s&gt;，现在&lt;span style="color: rgb(225, 60, 57);"&gt;&lt;strong&gt;只要99， &lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(248, 172, 89); font-size: 14px;"&gt; &lt;/span&gt;&lt;a href="https://www.aliyun.com/minisite/goods?userCode=uotn5vt1&amp;amp;share_source=copy_link" target="_black" style="text-align: start;"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>☛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/a&gt;&lt;a href="http://www.izhaorui.cn/vip" target="_blank"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt;点击查看详情&lt;/u&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt; &lt;/u&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: left;"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt; &lt;/u&gt;&lt;/span&gt;&lt;a href="https://qm.qq.com/q/55gFo9UFpu" target="_blank"&gt;点击链接加入群聊【&lt;span style="color: rgb(231, 95, 51);"&gt;ZRAdmin交流3群&lt;/span&gt;】&lt;/a&gt; &lt;/p&gt;&lt;p style="text-align: center;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p style="text-align: right;"&gt;&lt;span style="color: rgb(96, 98, 102); background-color: rgb(255, 255, 255);"&gt;&lt;strong&gt;如果觉得不错欢迎点击 &lt;/strong&gt;&lt;/span&gt;&lt;a href="https://gitee.com/izory/ZrAdminNetCore" target="_blank"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt;&lt;strong&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Star</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⭐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;/strong&gt;&lt;/u&gt;&lt;/span&gt;&lt;/a&gt;&lt;strong&gt; &lt;/strong&gt;&lt;span style="color: rgb(96, 98, 102); background-color: rgb(255, 255, 255);"&gt;&lt;strong&gt;收藏一下&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeId</t>
+  </si>
+  <si>
+    <t>NoticeTitle</t>
+  </si>
+  <si>
+    <t>NoticeType</t>
+  </si>
+  <si>
+    <t>NoticeContent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2216,8 +2298,48 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2248,8 +2370,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2257,11 +2384,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2272,6 +2414,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2663,12 +2815,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -2709,7 +2861,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2738,7 +2890,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2767,7 +2919,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2811,9 +2963,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>527</v>
       </c>
@@ -2836,7 +2988,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2856,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2876,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2896,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2916,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2951,14 +3103,14 @@
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>516</v>
       </c>
@@ -2993,7 +3145,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3022,7 +3174,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3051,7 +3203,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3080,7 +3232,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3112,7 +3264,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3144,7 +3296,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3176,7 +3328,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3208,7 +3360,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3240,7 +3392,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3272,7 +3424,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3301,7 +3453,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3330,7 +3482,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3362,7 +3514,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3394,7 +3546,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3423,7 +3575,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3452,7 +3604,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3481,7 +3633,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3510,7 +3662,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3539,7 +3691,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3568,7 +3720,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3597,7 +3749,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3626,7 +3778,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3655,7 +3807,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3684,7 +3836,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3713,7 +3865,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3742,7 +3894,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3771,7 +3923,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3800,7 +3952,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3829,7 +3981,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3858,7 +4010,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3881,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3904,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3927,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3950,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3973,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3999,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4025,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4065,12 +4217,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>545</v>
       </c>
@@ -4081,7 +4233,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4092,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4103,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4114,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4125,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4136,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4147,7 +4299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4158,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4167,6 +4319,61 @@
       </c>
       <c r="C9">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A140A180-7D1B-4334-9A7F-5459F016CE4B}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.9140625" customWidth="1"/>
+    <col min="4" max="4" width="80.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4181,22 +4388,22 @@
   <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M122" sqref="M122"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="5" max="6" width="23.58203125" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="10.58203125" customWidth="1"/>
+    <col min="13" max="13" width="18.4140625" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>295</v>
       </c>
@@ -4240,7 +4447,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4275,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4310,7 +4517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4345,7 +4552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4380,7 +4587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4418,7 +4625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4450,7 +4657,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4485,7 +4692,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4523,7 +4730,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4564,7 +4771,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4605,7 +4812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -4646,7 +4853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4687,7 +4894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4728,7 +4935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>104</v>
       </c>
@@ -4769,7 +4976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>105</v>
       </c>
@@ -4810,7 +5017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>106</v>
       </c>
@@ -4848,7 +5055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>107</v>
       </c>
@@ -4889,7 +5096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>108</v>
       </c>
@@ -4924,7 +5131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>109</v>
       </c>
@@ -4965,7 +5172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>110</v>
       </c>
@@ -5003,7 +5210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>111</v>
       </c>
@@ -5041,7 +5248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>112</v>
       </c>
@@ -5082,7 +5289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>113</v>
       </c>
@@ -5123,7 +5330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>114</v>
       </c>
@@ -5164,7 +5371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>115</v>
       </c>
@@ -5205,7 +5412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>116</v>
       </c>
@@ -5246,7 +5453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>117</v>
       </c>
@@ -5287,7 +5494,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>118</v>
       </c>
@@ -5322,7 +5529,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>119</v>
       </c>
@@ -5363,7 +5570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>500</v>
       </c>
@@ -5404,7 +5611,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>501</v>
       </c>
@@ -5445,7 +5652,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>502</v>
       </c>
@@ -5486,7 +5693,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -5515,7 +5722,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1002</v>
       </c>
@@ -5544,7 +5751,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1003</v>
       </c>
@@ -5573,7 +5780,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1004</v>
       </c>
@@ -5602,7 +5809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1005</v>
       </c>
@@ -5634,7 +5841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1006</v>
       </c>
@@ -5666,7 +5873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1007</v>
       </c>
@@ -5698,7 +5905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1008</v>
       </c>
@@ -5730,7 +5937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1009</v>
       </c>
@@ -5762,7 +5969,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1010</v>
       </c>
@@ -5794,7 +6001,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1011</v>
       </c>
@@ -5826,7 +6033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1012</v>
       </c>
@@ -5858,7 +6065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1013</v>
       </c>
@@ -5890,7 +6097,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1014</v>
       </c>
@@ -5922,7 +6129,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1015</v>
       </c>
@@ -5954,7 +6161,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -5986,7 +6193,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1017</v>
       </c>
@@ -6015,7 +6222,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1018</v>
       </c>
@@ -6044,7 +6251,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1019</v>
       </c>
@@ -6073,7 +6280,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1020</v>
       </c>
@@ -6102,7 +6309,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1021</v>
       </c>
@@ -6131,7 +6338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1022</v>
       </c>
@@ -6160,7 +6367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1023</v>
       </c>
@@ -6189,7 +6396,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1024</v>
       </c>
@@ -6218,7 +6425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1025</v>
       </c>
@@ -6247,7 +6454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1026</v>
       </c>
@@ -6276,7 +6483,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1027</v>
       </c>
@@ -6305,7 +6512,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1028</v>
       </c>
@@ -6334,7 +6541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1029</v>
       </c>
@@ -6363,7 +6570,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1030</v>
       </c>
@@ -6392,7 +6599,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1031</v>
       </c>
@@ -6421,7 +6628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1032</v>
       </c>
@@ -6456,7 +6663,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1033</v>
       </c>
@@ -6488,7 +6695,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1034</v>
       </c>
@@ -6520,7 +6727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1035</v>
       </c>
@@ -6552,7 +6759,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1036</v>
       </c>
@@ -6584,7 +6791,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1037</v>
       </c>
@@ -6616,7 +6823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1038</v>
       </c>
@@ -6648,7 +6855,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1039</v>
       </c>
@@ -6686,7 +6893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1040</v>
       </c>
@@ -6718,7 +6925,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1041</v>
       </c>
@@ -6750,7 +6957,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1042</v>
       </c>
@@ -6782,7 +6989,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1043</v>
       </c>
@@ -6814,7 +7021,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1044</v>
       </c>
@@ -6846,7 +7053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1045</v>
       </c>
@@ -6878,7 +7085,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1046</v>
       </c>
@@ -6910,7 +7117,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1047</v>
       </c>
@@ -6948,7 +7155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1049</v>
       </c>
@@ -6980,7 +7187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1050</v>
       </c>
@@ -7012,7 +7219,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1051</v>
       </c>
@@ -7044,7 +7251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1052</v>
       </c>
@@ -7076,7 +7283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1053</v>
       </c>
@@ -7108,7 +7315,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1054</v>
       </c>
@@ -7140,7 +7347,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1055</v>
       </c>
@@ -7172,7 +7379,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1060</v>
       </c>
@@ -7207,7 +7414,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1061</v>
       </c>
@@ -7239,7 +7446,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1062</v>
       </c>
@@ -7271,7 +7478,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1063</v>
       </c>
@@ -7303,7 +7510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1064</v>
       </c>
@@ -7335,7 +7542,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1065</v>
       </c>
@@ -7367,7 +7574,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1070</v>
       </c>
@@ -7396,7 +7603,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1071</v>
       </c>
@@ -7425,7 +7632,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1072</v>
       </c>
@@ -7466,7 +7673,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1073</v>
       </c>
@@ -7498,7 +7705,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1074</v>
       </c>
@@ -7530,7 +7737,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1075</v>
       </c>
@@ -7562,7 +7769,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1076</v>
       </c>
@@ -7594,7 +7801,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1077</v>
       </c>
@@ -7626,7 +7833,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1078</v>
       </c>
@@ -7667,7 +7874,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1079</v>
       </c>
@@ -7699,7 +7906,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1080</v>
       </c>
@@ -7731,7 +7938,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1081</v>
       </c>
@@ -7763,7 +7970,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1082</v>
       </c>
@@ -7795,7 +8002,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1090</v>
       </c>
@@ -7827,7 +8034,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1083</v>
       </c>
@@ -7859,7 +8066,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>1084</v>
       </c>
@@ -7901,7 +8108,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>1085</v>
       </c>
@@ -7936,7 +8143,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>1086</v>
       </c>
@@ -7971,7 +8178,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>1087</v>
       </c>
@@ -8006,7 +8213,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>1088</v>
       </c>
@@ -8041,7 +8248,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>1089</v>
       </c>
@@ -8076,7 +8283,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1092</v>
       </c>
@@ -8108,7 +8315,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1091</v>
       </c>
@@ -8140,7 +8347,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1102</v>
       </c>
@@ -8172,7 +8379,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1103</v>
       </c>
@@ -8204,7 +8411,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>1104</v>
       </c>
@@ -8246,7 +8453,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>1105</v>
       </c>
@@ -8279,7 +8486,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>1106</v>
       </c>
@@ -8312,7 +8519,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>1107</v>
       </c>
@@ -8345,7 +8552,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>1108</v>
       </c>
@@ -8387,7 +8594,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>1109</v>
       </c>
@@ -8420,7 +8627,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>1110</v>
       </c>
@@ -8453,7 +8660,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>1111</v>
       </c>
@@ -8497,7 +8704,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>1112</v>
       </c>
@@ -8530,7 +8737,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>1113</v>
       </c>
@@ -8563,7 +8770,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1114</v>
       </c>
@@ -8605,7 +8812,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>1115</v>
       </c>
@@ -8638,7 +8845,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1116</v>
       </c>
@@ -8702,14 +8909,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -8741,7 +8948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8773,7 +8980,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8805,7 +9012,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8852,9 +9059,9 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -8865,7 +9072,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -8873,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8881,7 +9088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8889,7 +9096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -8897,7 +9104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -8905,7 +9112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -8913,7 +9120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -8921,7 +9128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -8929,7 +9136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -8937,7 +9144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -8945,7 +9152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -8953,7 +9160,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -8961,7 +9168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -8969,7 +9176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -8977,7 +9184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -8985,7 +9192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -8993,7 +9200,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9001,7 +9208,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9009,7 +9216,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -9017,7 +9224,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9025,7 +9232,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -9033,7 +9240,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9041,7 +9248,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -9049,7 +9256,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9057,7 +9264,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -9065,7 +9272,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -9073,7 +9280,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -9084,7 +9291,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -9095,7 +9302,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9106,7 +9313,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9117,7 +9324,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9128,7 +9335,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9139,7 +9346,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9150,7 +9357,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9161,7 +9368,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9172,7 +9379,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9183,7 +9390,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9194,7 +9401,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9222,14 +9429,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.77734375" customWidth="1"/>
+    <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>355</v>
       </c>
@@ -9249,7 +9456,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9269,7 +9476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9289,7 +9496,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9309,7 +9516,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9329,7 +9536,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9346,7 +9553,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9380,9 +9587,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>390</v>
       </c>
@@ -9390,7 +9597,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9398,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9406,7 +9613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9428,18 +9635,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>398</v>
       </c>
@@ -9492,7 +9699,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>399</v>
       </c>
@@ -9547,12 +9754,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>386</v>
       </c>
@@ -9569,7 +9776,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9586,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9603,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9620,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9637,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9654,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9671,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9688,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9705,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9722,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9739,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9756,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9773,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9804,15 +10011,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="3"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>510</v>
       </c>
@@ -9835,7 +10042,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9855,7 +10062,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9875,7 +10082,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9895,7 +10102,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9915,7 +10122,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9935,7 +10142,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9955,7 +10162,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9975,7 +10182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9995,7 +10202,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10015,7 +10222,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10035,7 +10242,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10052,7 +10259,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10072,7 +10279,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10092,7 +10299,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3125C0EC-FCFA-4405-8054-E90A38360099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB43206-C2CB-4BE9-ADE0-6C927C9CB4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -2085,10 +2085,6 @@
   </si>
   <si>
     <t>system:article:add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system/article/publish</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2277,6 +2273,10 @@
   </si>
   <si>
     <t>NoticeContent</t>
+  </si>
+  <si>
+    <t>article/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2815,12 +2815,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="33.4140625" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>312</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2963,9 +2963,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>527</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3103,14 +3103,14 @@
       <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="10" max="10" width="12.9140625" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>516</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3174,7 +3174,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4217,12 +4217,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>545</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4255,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4336,41 +4336,41 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.9140625" customWidth="1"/>
-    <col min="4" max="4" width="80.4140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="80.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>671</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>672</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -4388,22 +4388,22 @@
   <dimension ref="A1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.58203125" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="10.58203125" customWidth="1"/>
-    <col min="13" max="13" width="18.4140625" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="5" max="6" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>295</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4651,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4689,10 +4689,10 @@
         <v>601</v>
       </c>
       <c r="N8" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4730,24 +4730,24 @@
         <v>574</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>642</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
         <v>643</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>644</v>
-      </c>
-      <c r="F10" t="s">
-        <v>645</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -4762,16 +4762,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="L10" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="N10" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>104</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>105</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>106</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>107</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>108</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>109</v>
       </c>
@@ -5172,7 +5172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>110</v>
       </c>
@@ -5210,7 +5210,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>111</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>112</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>113</v>
       </c>
@@ -5330,7 +5330,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>114</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>115</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>116</v>
       </c>
@@ -5453,7 +5453,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>117</v>
       </c>
@@ -5467,7 +5467,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
@@ -5488,13 +5488,13 @@
         <v>609</v>
       </c>
       <c r="L28" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="N28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>118</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>119</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>117</v>
       </c>
       <c r="F30" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5570,7 +5570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>500</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>501</v>
       </c>
@@ -5652,7 +5652,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>502</v>
       </c>
@@ -5690,10 +5690,10 @@
         <v>565</v>
       </c>
       <c r="N33" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -5722,7 +5722,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1002</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1003</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1004</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1005</v>
       </c>
@@ -5841,7 +5841,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1006</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1007</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1008</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1009</v>
       </c>
@@ -5969,7 +5969,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1010</v>
       </c>
@@ -6001,7 +6001,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1011</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1012</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1013</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1014</v>
       </c>
@@ -6129,7 +6129,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1015</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1017</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1018</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1019</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1020</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1021</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1022</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1023</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1024</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1025</v>
       </c>
@@ -6454,7 +6454,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1026</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1027</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1028</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1029</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1030</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1031</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1032</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1033</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1034</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1035</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1036</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1037</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1038</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1039</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1040</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1041</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1042</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1043</v>
       </c>
@@ -7021,7 +7021,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1044</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1045</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1046</v>
       </c>
@@ -7117,7 +7117,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1047</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>636</v>
       </c>
       <c r="F80" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7155,7 +7155,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1049</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1050</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1051</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1052</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1053</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1054</v>
       </c>
@@ -7347,7 +7347,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1055</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1060</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1061</v>
       </c>
@@ -7446,7 +7446,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1062</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1063</v>
       </c>
@@ -7510,7 +7510,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1064</v>
       </c>
@@ -7542,7 +7542,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1065</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1070</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1071</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1072</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1073</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1074</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1075</v>
       </c>
@@ -7769,7 +7769,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1076</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1077</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1078</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1079</v>
       </c>
@@ -7906,7 +7906,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1080</v>
       </c>
@@ -7938,7 +7938,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1081</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1082</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1090</v>
       </c>
@@ -8034,7 +8034,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1083</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1084</v>
       </c>
@@ -8083,7 +8083,7 @@
         <v>288</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -8105,10 +8105,10 @@
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1085</v>
       </c>
@@ -8143,7 +8143,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1086</v>
       </c>
@@ -8178,7 +8178,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1087</v>
       </c>
@@ -8213,7 +8213,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1088</v>
       </c>
@@ -8248,7 +8248,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1089</v>
       </c>
@@ -8283,7 +8283,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1092</v>
       </c>
@@ -8315,7 +8315,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1091</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1102</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1103</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>1104</v>
       </c>
@@ -8450,10 +8450,10 @@
       </c>
       <c r="M119" s="5"/>
       <c r="N119" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>1105</v>
       </c>
@@ -8486,7 +8486,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>1106</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>1107</v>
       </c>
@@ -8552,7 +8552,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>1108</v>
       </c>
@@ -8591,10 +8591,10 @@
       </c>
       <c r="M123" s="6"/>
       <c r="N123" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>1109</v>
       </c>
@@ -8627,7 +8627,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>1110</v>
       </c>
@@ -8660,7 +8660,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1111</v>
       </c>
@@ -8701,10 +8701,10 @@
         <v>628</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1112</v>
       </c>
@@ -8737,7 +8737,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1113</v>
       </c>
@@ -8770,12 +8770,12 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>1114</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C129" s="7">
         <v>2</v>
@@ -8784,10 +8784,10 @@
         <v>1</v>
       </c>
       <c r="E129" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="F129" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="G129" s="7">
         <v>0</v>
@@ -8802,22 +8802,22 @@
         <v>0</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="L129" s="7" t="s">
         <v>565</v>
       </c>
       <c r="M129" s="7"/>
       <c r="N129" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>1115</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C130" s="7">
         <v>1114</v>
@@ -8840,17 +8840,17 @@
         <v>0</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>1116</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C131" s="7">
         <v>1114</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -8909,14 +8909,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>327</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9012,7 +9012,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9059,9 +9059,9 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>391</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9208,7 +9208,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9335,7 +9335,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9346,7 +9346,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9357,7 +9357,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9429,14 +9429,14 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.75" customWidth="1"/>
+    <col min="6" max="6" width="83.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>355</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9476,7 +9476,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9496,7 +9496,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9516,7 +9516,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9553,7 +9553,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9587,9 +9587,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>390</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9605,7 +9605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9635,18 +9635,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>398</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>399</v>
       </c>
@@ -9754,12 +9754,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>386</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9827,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10011,15 +10011,15 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="5" width="8.9140625" style="3"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>510</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10259,7 +10259,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10299,7 +10299,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10319,7 +10319,7 @@
         <v>600</v>
       </c>
       <c r="G15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB43206-C2CB-4BE9-ADE0-6C927C9CB4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D2326-9E98-47FF-AB6F-F3A3D52B498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="679">
   <si>
     <t>系统管理</t>
   </si>
@@ -373,9 +373,6 @@
     <t>menu.sendEmail</t>
   </si>
   <si>
-    <t>文章管理</t>
-  </si>
-  <si>
     <t>article</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
     <t>menu.systemArticle</t>
   </si>
   <si>
-    <t>文章列表</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
@@ -718,18 +712,9 @@
     <t>monitor:logininfor:export</t>
   </si>
   <si>
-    <t>发布文章</t>
-  </si>
-  <si>
-    <t>文章修改</t>
-  </si>
-  <si>
     <t>system:article:update</t>
   </si>
   <si>
-    <t>文章删除</t>
-  </si>
-  <si>
     <t>system:article:delete</t>
   </si>
   <si>
@@ -896,9 +881,6 @@
   </si>
   <si>
     <t>system:lang:export</t>
-  </si>
-  <si>
-    <t>文章目录</t>
   </si>
   <si>
     <t>ArticleCategory</t>
@@ -2276,6 +2258,49 @@
   </si>
   <si>
     <t>article/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容内容</t>
+  </si>
+  <si>
+    <t>内容修改</t>
+  </si>
+  <si>
+    <t>内容删除</t>
+  </si>
+  <si>
+    <t>内容目录</t>
+  </si>
+  <si>
+    <t>内容类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_article_type</t>
+  </si>
+  <si>
+    <t>sys_article_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2403,7 +2428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2422,6 +2447,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2815,53 +2843,53 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G1" t="s">
+        <v>311</v>
+      </c>
+      <c r="H1" t="s">
         <v>312</v>
       </c>
-      <c r="B1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>310</v>
+      </c>
+      <c r="J1" t="s">
+        <v>526</v>
+      </c>
+      <c r="K1" t="s">
         <v>313</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>314</v>
       </c>
-      <c r="E1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>317</v>
       </c>
-      <c r="H1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I1" t="s">
-        <v>316</v>
-      </c>
-      <c r="J1" t="s">
-        <v>532</v>
-      </c>
-      <c r="K1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2869,7 +2897,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2878,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2887,18 +2915,18 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D3" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2907,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2916,18 +2944,18 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D4" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2936,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2945,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -2963,32 +2991,32 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B1" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C1" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="D1" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="E1" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2996,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3008,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3016,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3028,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3036,7 +3064,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3048,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3056,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3068,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3076,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3097,55 +3125,56 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="12"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F1" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H1" t="s">
         <v>516</v>
       </c>
-      <c r="B1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D1" t="s">
-        <v>519</v>
-      </c>
-      <c r="E1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G1" t="s">
-        <v>521</v>
-      </c>
-      <c r="H1" t="s">
-        <v>522</v>
-      </c>
       <c r="I1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3153,28 +3182,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D2">
+        <v>445</v>
+      </c>
+      <c r="D2" s="12">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="K2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3182,28 +3211,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3">
+        <v>447</v>
+      </c>
+      <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="K3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3211,28 +3240,28 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>456</v>
-      </c>
-      <c r="D4">
+        <v>450</v>
+      </c>
+      <c r="D4" s="12">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="H4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K4" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3240,31 +3269,31 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D5">
+        <v>452</v>
+      </c>
+      <c r="D5" s="12">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G5" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="K5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3272,31 +3301,31 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
-      </c>
-      <c r="D6">
+        <v>455</v>
+      </c>
+      <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3304,31 +3333,31 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
-      </c>
-      <c r="D7">
+        <v>458</v>
+      </c>
+      <c r="D7" s="12">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G7" t="s">
+        <v>453</v>
+      </c>
+      <c r="H7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
         <v>459</v>
       </c>
-      <c r="H7" t="s">
-        <v>338</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>465</v>
-      </c>
       <c r="K7" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3336,31 +3365,31 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>466</v>
-      </c>
-      <c r="D8">
+        <v>460</v>
+      </c>
+      <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="G8" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H8" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K8" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3368,31 +3397,31 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D9">
+        <v>458</v>
+      </c>
+      <c r="D9" s="12">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H9" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
         <v>459</v>
       </c>
-      <c r="H9" t="s">
-        <v>338</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>465</v>
-      </c>
       <c r="K9" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3400,31 +3429,31 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>468</v>
-      </c>
-      <c r="D10">
+        <v>462</v>
+      </c>
+      <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3432,28 +3461,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>469</v>
-      </c>
-      <c r="D11" t="s">
-        <v>470</v>
+        <v>463</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>464</v>
       </c>
       <c r="E11" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H11" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K11" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3461,28 +3490,28 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
-      </c>
-      <c r="D12" t="s">
-        <v>394</v>
+        <v>466</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="E12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="H12" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="K12" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3490,31 +3519,31 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D13" t="s">
-        <v>338</v>
+        <v>468</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="E13" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G13" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K13" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3522,31 +3551,31 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>476</v>
-      </c>
-      <c r="D14" t="s">
-        <v>454</v>
+        <v>470</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>448</v>
       </c>
       <c r="E14" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G14" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H14" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="K14" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3554,28 +3583,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>478</v>
-      </c>
-      <c r="D15">
+        <v>472</v>
+      </c>
+      <c r="D15" s="12">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G15" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H15" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3583,28 +3612,28 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>480</v>
-      </c>
-      <c r="D16">
+        <v>474</v>
+      </c>
+      <c r="D16" s="12">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G16" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="H16" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3612,28 +3641,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>464</v>
-      </c>
-      <c r="D17">
+        <v>458</v>
+      </c>
+      <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G17" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>459</v>
       </c>
-      <c r="H17" t="s">
-        <v>338</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3641,28 +3670,28 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>482</v>
-      </c>
-      <c r="D18">
+        <v>476</v>
+      </c>
+      <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G18" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H18" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3670,28 +3699,28 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
-      </c>
-      <c r="D19">
+        <v>478</v>
+      </c>
+      <c r="D19" s="12">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G19" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H19" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3699,28 +3728,28 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>268</v>
-      </c>
-      <c r="D20">
+        <v>263</v>
+      </c>
+      <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G20" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H20" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3728,28 +3757,28 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21">
+        <v>267</v>
+      </c>
+      <c r="D21" s="12">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G21" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="H21" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3757,28 +3786,28 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>270</v>
-      </c>
-      <c r="D22">
+        <v>265</v>
+      </c>
+      <c r="D22" s="12">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G22" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H22" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3786,28 +3815,28 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>490</v>
-      </c>
-      <c r="D23">
+        <v>484</v>
+      </c>
+      <c r="D23" s="12">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G23" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="H23" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3815,28 +3844,28 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>274</v>
-      </c>
-      <c r="D24">
+        <v>269</v>
+      </c>
+      <c r="D24" s="12">
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G24" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H24" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3844,28 +3873,28 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>493</v>
-      </c>
-      <c r="D25">
+        <v>487</v>
+      </c>
+      <c r="D25" s="12">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H25" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3873,28 +3902,28 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>495</v>
-      </c>
-      <c r="D26">
+        <v>489</v>
+      </c>
+      <c r="D26" s="12">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G26" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H26" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3902,28 +3931,28 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
-      </c>
-      <c r="D27">
+        <v>247</v>
+      </c>
+      <c r="D27" s="12">
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G27" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H27" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3931,28 +3960,28 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>498</v>
-      </c>
-      <c r="D28">
+        <v>492</v>
+      </c>
+      <c r="D28" s="12">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G28" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H28" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3960,28 +3989,28 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>500</v>
-      </c>
-      <c r="D29">
+        <v>494</v>
+      </c>
+      <c r="D29" s="12">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G29" t="s">
+        <v>453</v>
+      </c>
+      <c r="H29" t="s">
+        <v>448</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
         <v>459</v>
       </c>
-      <c r="H29" t="s">
-        <v>454</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3989,28 +4018,28 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>501</v>
-      </c>
-      <c r="D30">
+        <v>495</v>
+      </c>
+      <c r="D30" s="12">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G30" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H30" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4018,22 +4047,22 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>502</v>
-      </c>
-      <c r="D31">
+        <v>496</v>
+      </c>
+      <c r="D31" s="12">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H31" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4041,22 +4070,22 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>503</v>
-      </c>
-      <c r="D32">
+        <v>497</v>
+      </c>
+      <c r="D32" s="12">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H32" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4064,22 +4093,22 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>504</v>
-      </c>
-      <c r="D33" t="s">
-        <v>505</v>
+        <v>498</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="E33" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H33" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4087,22 +4116,22 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>506</v>
-      </c>
-      <c r="D34" t="s">
-        <v>507</v>
+        <v>500</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>501</v>
       </c>
       <c r="E34" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H34" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4110,22 +4139,22 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>508</v>
-      </c>
-      <c r="D35" t="s">
-        <v>509</v>
+        <v>502</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>503</v>
       </c>
       <c r="E35" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="H35" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4133,25 +4162,25 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>551</v>
-      </c>
-      <c r="D36">
+        <v>545</v>
+      </c>
+      <c r="D36" s="12">
         <v>1</v>
       </c>
       <c r="E36" t="s">
+        <v>542</v>
+      </c>
+      <c r="G36" t="s">
         <v>548</v>
       </c>
-      <c r="G36" t="s">
-        <v>554</v>
-      </c>
       <c r="H36" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4159,25 +4188,25 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>552</v>
-      </c>
-      <c r="D37">
+        <v>546</v>
+      </c>
+      <c r="D37" s="12">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G37" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H37" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4185,21 +4214,90 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>553</v>
-      </c>
-      <c r="D38">
+        <v>547</v>
+      </c>
+      <c r="D38" s="12">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G38" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H38" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>676</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>674</v>
+      </c>
+      <c r="H39" t="s">
+        <v>528</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>677</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>674</v>
+      </c>
+      <c r="H40" t="s">
+        <v>528</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>678</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>674</v>
+      </c>
+      <c r="H41" t="s">
+        <v>528</v>
+      </c>
+      <c r="I41">
         <v>0</v>
       </c>
     </row>
@@ -4217,105 +4315,105 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -4336,41 +4434,41 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="80.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.9140625" customWidth="1"/>
+    <col min="4" max="4" width="80.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -4387,67 +4485,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.5546875" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
-    <col min="14" max="14" width="21.77734375" customWidth="1"/>
+    <col min="5" max="6" width="23.58203125" customWidth="1"/>
+    <col min="11" max="11" width="22.75" customWidth="1"/>
+    <col min="12" max="12" width="10.58203125" customWidth="1"/>
+    <col min="13" max="13" width="18.4140625" customWidth="1"/>
+    <col min="14" max="14" width="21.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G1" t="s">
         <v>295</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>298</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>299</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>300</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
+        <v>302</v>
+      </c>
+      <c r="N1" t="s">
         <v>301</v>
       </c>
-      <c r="H1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I1" t="s">
-        <v>303</v>
-      </c>
-      <c r="J1" t="s">
-        <v>304</v>
-      </c>
-      <c r="K1" t="s">
-        <v>305</v>
-      </c>
-      <c r="L1" t="s">
-        <v>306</v>
-      </c>
-      <c r="M1" t="s">
-        <v>308</v>
-      </c>
-      <c r="N1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4482,7 +4580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4517,7 +4615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4552,7 +4650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4587,7 +4685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4625,12 +4723,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4642,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4651,18 +4749,18 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="N7" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4671,7 +4769,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4686,18 +4784,18 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="N8" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -4706,16 +4804,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F9" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4724,18 +4822,18 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="N9" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4744,16 +4842,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="F10" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4762,16 +4860,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="L10" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="N10" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4812,7 +4910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -4853,7 +4951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4894,7 +4992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4935,7 +5033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>104</v>
       </c>
@@ -4976,7 +5074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>105</v>
       </c>
@@ -5017,7 +5115,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>106</v>
       </c>
@@ -5055,7 +5153,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>107</v>
       </c>
@@ -5096,7 +5194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>108</v>
       </c>
@@ -5131,7 +5229,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>109</v>
       </c>
@@ -5172,7 +5270,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>110</v>
       </c>
@@ -5186,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -5210,7 +5308,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>111</v>
       </c>
@@ -5248,7 +5346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>112</v>
       </c>
@@ -5289,7 +5387,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>113</v>
       </c>
@@ -5330,7 +5428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>114</v>
       </c>
@@ -5371,7 +5469,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>115</v>
       </c>
@@ -5412,7 +5510,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>116</v>
       </c>
@@ -5453,7 +5551,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>117</v>
       </c>
@@ -5467,7 +5565,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
@@ -5485,21 +5583,21 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="L28" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="N28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>667</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -5508,7 +5606,7 @@
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -5523,18 +5621,18 @@
         <v>0</v>
       </c>
       <c r="L29" t="s">
+        <v>113</v>
+      </c>
+      <c r="N29" t="s">
         <v>114</v>
       </c>
-      <c r="N29" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>668</v>
       </c>
       <c r="C30">
         <v>118</v>
@@ -5543,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5561,21 +5659,21 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" t="s">
         <v>118</v>
       </c>
-      <c r="L30" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>500</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C31">
         <v>108</v>
@@ -5584,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -5602,21 +5700,21 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
+        <v>122</v>
+      </c>
+      <c r="L31" t="s">
+        <v>123</v>
+      </c>
+      <c r="N31" t="s">
         <v>124</v>
       </c>
-      <c r="L31" t="s">
-        <v>125</v>
-      </c>
-      <c r="N31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C32">
         <v>108</v>
@@ -5625,10 +5723,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -5643,21 +5741,21 @@
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="L32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="C33">
         <v>108</v>
@@ -5666,39 +5764,39 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>556</v>
+      </c>
+      <c r="F33" t="s">
+        <v>557</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>558</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
         <v>562</v>
       </c>
-      <c r="F33" t="s">
-        <v>563</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>564</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>568</v>
-      </c>
       <c r="L33" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="N33" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1001</v>
       </c>
       <c r="B34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -5710,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -5719,15 +5817,15 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1002</v>
       </c>
       <c r="B35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -5739,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -5748,15 +5846,15 @@
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1003</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C36">
         <v>100</v>
@@ -5768,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -5777,15 +5875,15 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1004</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C37">
         <v>100</v>
@@ -5797,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -5806,15 +5904,15 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1005</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C38">
         <v>100</v>
@@ -5826,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -5835,18 +5933,18 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1006</v>
       </c>
       <c r="B39" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C39">
         <v>100</v>
@@ -5858,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5867,18 +5965,18 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1007</v>
       </c>
       <c r="B40" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C40">
         <v>100</v>
@@ -5890,7 +5988,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -5899,18 +5997,18 @@
         <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L40" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1008</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41">
         <v>101</v>
@@ -5922,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5931,18 +6029,18 @@
         <v>0</v>
       </c>
       <c r="K41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1009</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C42">
         <v>101</v>
@@ -5954,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -5963,18 +6061,18 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1010</v>
       </c>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C43">
         <v>101</v>
@@ -5986,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5995,18 +6093,18 @@
         <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1011</v>
       </c>
       <c r="B44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44">
         <v>101</v>
@@ -6018,7 +6116,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -6027,18 +6125,18 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1012</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C45">
         <v>101</v>
@@ -6050,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -6059,18 +6157,18 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1013</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C46">
         <v>102</v>
@@ -6082,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -6091,18 +6189,18 @@
         <v>0</v>
       </c>
       <c r="K46" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L46" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1014</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C47">
         <v>102</v>
@@ -6114,7 +6212,7 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -6123,18 +6221,18 @@
         <v>0</v>
       </c>
       <c r="K47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1015</v>
       </c>
       <c r="B48" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C48">
         <v>102</v>
@@ -6146,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -6155,18 +6253,18 @@
         <v>0</v>
       </c>
       <c r="K48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="L48" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1016</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C49">
         <v>102</v>
@@ -6178,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6187,18 +6285,18 @@
         <v>0</v>
       </c>
       <c r="K49" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1017</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C50">
         <v>102</v>
@@ -6210,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -6219,15 +6317,15 @@
         <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1018</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C51">
         <v>103</v>
@@ -6239,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6248,15 +6346,15 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1019</v>
       </c>
       <c r="B52" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C52">
         <v>103</v>
@@ -6268,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -6277,15 +6375,15 @@
         <v>0</v>
       </c>
       <c r="K52" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1020</v>
       </c>
       <c r="B53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C53">
         <v>103</v>
@@ -6297,7 +6395,7 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -6306,15 +6404,15 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1021</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C54">
         <v>103</v>
@@ -6326,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -6335,15 +6433,15 @@
         <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1022</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55">
         <v>104</v>
@@ -6355,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -6367,12 +6465,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1023</v>
       </c>
       <c r="B56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C56">
         <v>104</v>
@@ -6384,7 +6482,7 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -6393,15 +6491,15 @@
         <v>0</v>
       </c>
       <c r="K56" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1024</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C57">
         <v>104</v>
@@ -6413,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -6422,15 +6520,15 @@
         <v>0</v>
       </c>
       <c r="K57" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1025</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58">
         <v>104</v>
@@ -6442,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -6451,15 +6549,15 @@
         <v>0</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1026</v>
       </c>
       <c r="B59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C59">
         <v>105</v>
@@ -6471,7 +6569,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -6480,15 +6578,15 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1027</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C60">
         <v>105</v>
@@ -6500,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -6509,15 +6607,15 @@
         <v>0</v>
       </c>
       <c r="K60" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1028</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C61">
         <v>105</v>
@@ -6529,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -6538,15 +6636,15 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1029</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C62">
         <v>106</v>
@@ -6558,7 +6656,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -6567,15 +6665,15 @@
         <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1030</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C63">
         <v>106</v>
@@ -6587,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -6596,15 +6694,15 @@
         <v>0</v>
       </c>
       <c r="K63" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1031</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C64">
         <v>105</v>
@@ -6616,7 +6714,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -6625,15 +6723,15 @@
         <v>0</v>
       </c>
       <c r="K64" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1032</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C65">
         <v>110</v>
@@ -6642,13 +6740,13 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6657,18 +6755,18 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="L65" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1033</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C66">
         <v>110</v>
@@ -6677,13 +6775,13 @@
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -6692,15 +6790,15 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1034</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C67">
         <v>110</v>
@@ -6709,13 +6807,13 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -6724,15 +6822,15 @@
         <v>0</v>
       </c>
       <c r="K67" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1035</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C68">
         <v>110</v>
@@ -6741,13 +6839,13 @@
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -6756,15 +6854,15 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1036</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C69">
         <v>110</v>
@@ -6773,13 +6871,13 @@
         <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6788,15 +6886,15 @@
         <v>0</v>
       </c>
       <c r="K69" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1037</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C70">
         <v>110</v>
@@ -6805,13 +6903,13 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6820,15 +6918,15 @@
         <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1038</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C71">
         <v>110</v>
@@ -6837,13 +6935,13 @@
         <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6852,15 +6950,15 @@
         <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1039</v>
       </c>
       <c r="B72" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -6869,10 +6967,10 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -6887,18 +6985,18 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L72" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1040</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C73">
         <v>110</v>
@@ -6907,13 +7005,13 @@
         <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -6922,15 +7020,15 @@
         <v>0</v>
       </c>
       <c r="K73" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1041</v>
       </c>
       <c r="B74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C74">
         <v>500</v>
@@ -6939,13 +7037,13 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -6954,15 +7052,15 @@
         <v>0</v>
       </c>
       <c r="K74" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1042</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C75">
         <v>500</v>
@@ -6971,13 +7069,13 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -6986,15 +7084,15 @@
         <v>0</v>
       </c>
       <c r="K75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1043</v>
       </c>
       <c r="B76" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C76">
         <v>500</v>
@@ -7003,13 +7101,13 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7018,15 +7116,15 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1044</v>
       </c>
       <c r="B77" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C77">
         <v>501</v>
@@ -7035,13 +7133,13 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G77">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -7050,15 +7148,15 @@
         <v>0</v>
       </c>
       <c r="K77" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1045</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C78">
         <v>501</v>
@@ -7067,13 +7165,13 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7082,15 +7180,15 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1046</v>
       </c>
       <c r="B79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C79">
         <v>501</v>
@@ -7099,13 +7197,13 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G79">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7114,15 +7212,15 @@
         <v>0</v>
       </c>
       <c r="K79" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1047</v>
       </c>
       <c r="B80" t="s">
-        <v>227</v>
+        <v>669</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7131,16 +7229,16 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="F80" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7149,18 +7247,18 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="L80" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1049</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>670</v>
       </c>
       <c r="C81">
         <v>118</v>
@@ -7169,13 +7267,13 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G81">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -7184,15 +7282,15 @@
         <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1050</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>671</v>
       </c>
       <c r="C82">
         <v>118</v>
@@ -7201,13 +7299,13 @@
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G82">
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -7216,15 +7314,15 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1051</v>
       </c>
       <c r="B83" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C83">
         <v>109</v>
@@ -7233,13 +7331,13 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7248,15 +7346,15 @@
         <v>0</v>
       </c>
       <c r="K83" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1052</v>
       </c>
       <c r="B84" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C84">
         <v>109</v>
@@ -7265,13 +7363,13 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7280,15 +7378,15 @@
         <v>0</v>
       </c>
       <c r="K84" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1053</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C85">
         <v>109</v>
@@ -7297,13 +7395,13 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -7312,15 +7410,15 @@
         <v>0</v>
       </c>
       <c r="K85" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1054</v>
       </c>
       <c r="B86" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C86">
         <v>109</v>
@@ -7329,13 +7427,13 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -7344,15 +7442,15 @@
         <v>0</v>
       </c>
       <c r="K86" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1055</v>
       </c>
       <c r="B87" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C87">
         <v>109</v>
@@ -7361,13 +7459,13 @@
         <v>5</v>
       </c>
       <c r="E87" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -7376,15 +7474,15 @@
         <v>0</v>
       </c>
       <c r="K87" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1060</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C88">
         <v>3</v>
@@ -7393,10 +7491,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F88" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -7411,15 +7509,15 @@
         <v>0</v>
       </c>
       <c r="K88" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1061</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C89">
         <v>115</v>
@@ -7428,13 +7526,13 @@
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G89">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -7443,15 +7541,15 @@
         <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1062</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C90">
         <v>115</v>
@@ -7460,13 +7558,13 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G90">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -7475,15 +7573,15 @@
         <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1063</v>
       </c>
       <c r="B91" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C91">
         <v>115</v>
@@ -7492,13 +7590,13 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -7507,15 +7605,15 @@
         <v>0</v>
       </c>
       <c r="K91" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1064</v>
       </c>
       <c r="B92" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C92">
         <v>115</v>
@@ -7524,13 +7622,13 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -7539,15 +7637,15 @@
         <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1065</v>
       </c>
       <c r="B93" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C93">
         <v>115</v>
@@ -7556,13 +7654,13 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G93">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -7571,15 +7669,15 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1070</v>
       </c>
       <c r="B94" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C94">
         <v>104</v>
@@ -7591,7 +7689,7 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -7600,15 +7698,15 @@
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1071</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C95">
         <v>105</v>
@@ -7620,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -7629,15 +7727,15 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1072</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C96">
         <v>3</v>
@@ -7646,10 +7744,10 @@
         <v>17</v>
       </c>
       <c r="E96" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F96" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -7664,21 +7762,21 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L96" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N96" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1073</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C97">
         <v>1072</v>
@@ -7687,13 +7785,13 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -7702,15 +7800,15 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1074</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C98">
         <v>1072</v>
@@ -7719,13 +7817,13 @@
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -7734,15 +7832,15 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1075</v>
       </c>
       <c r="B99" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C99">
         <v>1072</v>
@@ -7751,13 +7849,13 @@
         <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -7766,15 +7864,15 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1076</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C100">
         <v>1072</v>
@@ -7783,13 +7881,13 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -7798,15 +7896,15 @@
         <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1077</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C101">
         <v>1072</v>
@@ -7815,13 +7913,13 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -7830,15 +7928,15 @@
         <v>0</v>
       </c>
       <c r="K101" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1078</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -7847,10 +7945,10 @@
         <v>999</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F102" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -7865,21 +7963,21 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="L102" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N102" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1079</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C103">
         <v>1078</v>
@@ -7888,13 +7986,13 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -7903,15 +8001,15 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1080</v>
       </c>
       <c r="B104" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C104">
         <v>1078</v>
@@ -7920,13 +8018,13 @@
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -7935,15 +8033,15 @@
         <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1081</v>
       </c>
       <c r="B105" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C105">
         <v>1078</v>
@@ -7952,13 +8050,13 @@
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -7967,15 +8065,15 @@
         <v>0</v>
       </c>
       <c r="K105" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1082</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C106">
         <v>1078</v>
@@ -7984,13 +8082,13 @@
         <v>4</v>
       </c>
       <c r="E106" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -7999,15 +8097,15 @@
         <v>0</v>
       </c>
       <c r="K106" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1090</v>
       </c>
       <c r="B107" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="C107">
         <v>1078</v>
@@ -8016,13 +8114,13 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -8031,15 +8129,15 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1083</v>
       </c>
       <c r="B108" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C108">
         <v>1078</v>
@@ -8048,13 +8146,13 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -8063,15 +8161,15 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>1084</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>287</v>
+        <v>672</v>
       </c>
       <c r="C109" s="4">
         <v>118</v>
@@ -8080,10 +8178,10 @@
         <v>999</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -8098,22 +8196,22 @@
         <v>0</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>1085</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C110" s="4">
         <v>1084</v>
@@ -8122,14 +8220,14 @@
         <v>1</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F110" s="4"/>
       <c r="G110" s="4">
         <v>0</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I110" s="4">
         <v>0</v>
@@ -8138,17 +8236,17 @@
         <v>0</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>1086</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C111" s="4">
         <v>1084</v>
@@ -8157,14 +8255,14 @@
         <v>2</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4">
         <v>0</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -8173,17 +8271,17 @@
         <v>0</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>1087</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C112" s="4">
         <v>1084</v>
@@ -8192,14 +8290,14 @@
         <v>3</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F112" s="4"/>
       <c r="G112" s="4">
         <v>0</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I112" s="4">
         <v>0</v>
@@ -8208,17 +8306,17 @@
         <v>0</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>1088</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C113" s="4">
         <v>1084</v>
@@ -8227,14 +8325,14 @@
         <v>4</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F113" s="4"/>
       <c r="G113" s="4">
         <v>0</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I113" s="4">
         <v>0</v>
@@ -8243,17 +8341,17 @@
         <v>0</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>1089</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C114" s="4">
         <v>1084</v>
@@ -8262,14 +8360,14 @@
         <v>5</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F114" s="4"/>
       <c r="G114" s="4">
         <v>0</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I114" s="4">
         <v>0</v>
@@ -8278,17 +8376,17 @@
         <v>0</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1092</v>
       </c>
       <c r="B115" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="C115">
         <v>111</v>
@@ -8300,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -8309,18 +8407,18 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M115" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1091</v>
       </c>
       <c r="B116" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="C116">
         <v>111</v>
@@ -8332,7 +8430,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -8341,18 +8439,18 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="M116" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1102</v>
       </c>
       <c r="B117" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C117">
         <v>502</v>
@@ -8364,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -8373,18 +8471,18 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M117" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1103</v>
       </c>
       <c r="B118" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="C118">
         <v>502</v>
@@ -8396,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -8405,18 +8503,18 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="M118" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
         <v>1104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C119" s="5">
         <v>9</v>
@@ -8425,40 +8523,40 @@
         <v>1</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F119" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>564</v>
-      </c>
-      <c r="I119" s="5">
-        <v>0</v>
-      </c>
-      <c r="J119" s="5">
-        <v>0</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>608</v>
-      </c>
       <c r="L119" s="5" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="5">
         <v>1105</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="C120" s="5">
         <v>1104</v>
@@ -8472,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
@@ -8481,17 +8579,17 @@
         <v>0</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
         <v>1106</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="C121" s="5">
         <v>1104</v>
@@ -8505,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I121" s="5">
         <v>0</v>
@@ -8514,17 +8612,17 @@
         <v>0</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="5">
         <v>1107</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="C122" s="5">
         <v>1104</v>
@@ -8538,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
@@ -8547,17 +8645,17 @@
         <v>0</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="6">
         <v>1108</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="C123" s="6">
         <v>108</v>
@@ -8566,16 +8664,16 @@
         <v>1</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I123" s="6">
         <v>0</v>
@@ -8584,22 +8682,22 @@
         <v>0</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M123" s="6"/>
       <c r="N123" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="6">
         <v>1109</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C124" s="6">
         <v>1108</v>
@@ -8613,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I124" s="6">
         <v>0</v>
@@ -8622,17 +8720,17 @@
         <v>0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="6">
         <v>1110</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="C125" s="6">
         <v>1108</v>
@@ -8646,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I125" s="6">
         <v>0</v>
@@ -8655,17 +8753,17 @@
         <v>0</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>1111</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C126" s="4">
         <v>9</v>
@@ -8674,16 +8772,16 @@
         <v>1</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="G126" s="4">
         <v>0</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I126" s="4">
         <v>0</v>
@@ -8692,24 +8790,24 @@
         <v>0</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>1112</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="C127" s="4">
         <v>1111</v>
@@ -8723,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I127" s="4">
         <v>0</v>
@@ -8732,17 +8830,17 @@
         <v>0</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>1113</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C128" s="4">
         <v>1111</v>
@@ -8756,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I128" s="4">
         <v>0</v>
@@ -8765,17 +8863,17 @@
         <v>0</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="7">
         <v>1114</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C129" s="7">
         <v>2</v>
@@ -8784,16 +8882,16 @@
         <v>1</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="G129" s="7">
         <v>0</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I129" s="7">
         <v>0</v>
@@ -8802,22 +8900,22 @@
         <v>0</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="M129" s="7"/>
       <c r="N129" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="7">
         <v>1115</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="C130" s="7">
         <v>1114</v>
@@ -8831,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I130" s="7">
         <v>0</v>
@@ -8840,17 +8938,17 @@
         <v>0</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="7">
         <v>1116</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="C131" s="7">
         <v>1114</v>
@@ -8864,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="I131" s="7">
         <v>0</v>
@@ -8873,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -8909,51 +9007,51 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="13.4140625" customWidth="1"/>
+    <col min="7" max="7" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F1" t="s">
         <v>327</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>328</v>
       </c>
-      <c r="C1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D1" t="s">
-        <v>330</v>
-      </c>
-      <c r="E1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" t="s">
-        <v>334</v>
-      </c>
       <c r="H1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="J1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -8977,18 +9075,18 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -9009,18 +9107,18 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="C4" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9041,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -9059,20 +9157,20 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9080,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9088,7 +9186,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9096,7 +9194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9104,7 +9202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9112,7 +9210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9120,7 +9218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9128,7 +9226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9136,7 +9234,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -9144,7 +9242,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9152,7 +9250,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9160,7 +9258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9168,7 +9266,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2</v>
       </c>
@@ -9176,7 +9274,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2</v>
       </c>
@@ -9184,7 +9282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9192,7 +9290,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -9200,7 +9298,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9208,7 +9306,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9216,7 +9314,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2</v>
       </c>
@@ -9224,7 +9322,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9232,7 +9330,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
@@ -9240,7 +9338,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9248,7 +9346,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2</v>
       </c>
@@ -9256,7 +9354,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9264,7 +9362,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -9272,7 +9370,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -9280,7 +9378,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -9288,10 +9386,10 @@
         <v>1084</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3</v>
       </c>
@@ -9299,10 +9397,10 @@
         <v>1085</v>
       </c>
       <c r="C29" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9310,10 +9408,10 @@
         <v>1086</v>
       </c>
       <c r="C30" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9321,10 +9419,10 @@
         <v>1087</v>
       </c>
       <c r="C31" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9332,10 +9430,10 @@
         <v>1088</v>
       </c>
       <c r="C32" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9343,10 +9441,10 @@
         <v>1089</v>
       </c>
       <c r="C33" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9354,10 +9452,10 @@
         <v>1048</v>
       </c>
       <c r="C34" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9365,10 +9463,10 @@
         <v>1049</v>
       </c>
       <c r="C35" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9376,10 +9474,10 @@
         <v>1050</v>
       </c>
       <c r="C36" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9387,10 +9485,10 @@
         <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9398,10 +9496,10 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9429,148 +9527,148 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="83.77734375" customWidth="1"/>
+    <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D3">
         <v>123456</v>
       </c>
       <c r="E3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C4" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="D7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -9587,17 +9685,17 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9605,7 +9703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9613,7 +9711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9635,88 +9733,88 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F1" t="s">
         <v>398</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H1" t="s">
         <v>400</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>401</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
         <v>402</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>403</v>
       </c>
-      <c r="F1" t="s">
+      <c r="L1" t="s">
         <v>404</v>
       </c>
-      <c r="G1" t="s">
+      <c r="M1" t="s">
         <v>405</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>406</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
         <v>408</v>
       </c>
-      <c r="K1" t="s">
+      <c r="Q1" t="s">
         <v>409</v>
       </c>
-      <c r="L1" t="s">
-        <v>410</v>
-      </c>
-      <c r="M1" t="s">
-        <v>411</v>
-      </c>
-      <c r="N1" t="s">
-        <v>412</v>
-      </c>
-      <c r="O1" t="s">
-        <v>413</v>
-      </c>
-      <c r="P1" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="F2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -9754,37 +9852,37 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9793,15 +9891,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="C3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -9810,15 +9908,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9827,15 +9925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9844,15 +9942,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9861,15 +9959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9878,15 +9976,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C8" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9895,15 +9993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C9" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -9912,15 +10010,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -9929,15 +10027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -9946,15 +10044,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -9963,15 +10061,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C13" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -9980,15 +10078,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C14" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10005,321 +10103,341 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3DA66D3-8315-4018-BF52-5D786631F136}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="5" width="8.9140625" style="3"/>
+    <col min="6" max="6" width="17.58203125" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C1" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C2" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C4" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="C7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F8" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C9" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F10" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C14" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F14" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C15" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F15" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G15" t="s">
-        <v>641</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>673</v>
+      </c>
+      <c r="C16" t="s">
+        <v>675</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F16" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13D2326-9E98-47FF-AB6F-F3A3D52B498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A20B4-5541-49CF-9C0E-EDB349A18655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="676">
   <si>
     <t>系统管理</t>
   </si>
@@ -1085,15 +1085,6 @@
   </si>
   <si>
     <t>文章预览地址</t>
-  </si>
-  <si>
-    <t>sys.article.preview.url</t>
-  </si>
-  <si>
-    <t>http://www.izhaorui.cn/article/details/</t>
-  </si>
-  <si>
-    <t>格式：http://www.izhaorui.cn/article/details/{aid}，其中{aid}为文章的id</t>
   </si>
   <si>
     <t>ConfigId</t>
@@ -2877,7 +2868,7 @@
         <v>310</v>
       </c>
       <c r="J1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K1" t="s">
         <v>313</v>
@@ -2923,10 +2914,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2952,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2964,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2973,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -2995,19 +2986,19 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D1" t="s">
         <v>521</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>522</v>
-      </c>
-      <c r="C1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D1" t="s">
-        <v>524</v>
-      </c>
-      <c r="E1" t="s">
-        <v>525</v>
       </c>
       <c r="F1" t="s">
         <v>298</v>
@@ -3024,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3044,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3064,7 +3055,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3084,7 +3075,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3104,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3127,7 +3118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -3141,28 +3132,28 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F1" t="s">
         <v>511</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>512</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="H1" t="s">
         <v>513</v>
-      </c>
-      <c r="E1" t="s">
-        <v>506</v>
-      </c>
-      <c r="F1" t="s">
-        <v>514</v>
-      </c>
-      <c r="G1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H1" t="s">
-        <v>516</v>
       </c>
       <c r="I1" t="s">
         <v>298</v>
@@ -3171,7 +3162,7 @@
         <v>317</v>
       </c>
       <c r="K1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3182,13 +3173,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D2" s="12">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H2" t="s">
         <v>332</v>
@@ -3197,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="K2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3211,25 +3202,25 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3240,25 +3231,25 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D4" s="12">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H4" t="s">
+        <v>445</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>448</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>451</v>
-      </c>
       <c r="K4" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3269,16 +3260,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D5" s="12">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G5" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H5" t="s">
         <v>332</v>
@@ -3287,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K5" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3301,28 +3292,28 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H6" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3333,16 +3324,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D7" s="12">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H7" t="s">
         <v>332</v>
@@ -3351,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3365,28 +3356,28 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K8" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3397,16 +3388,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D9" s="12">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H9" t="s">
         <v>332</v>
@@ -3415,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="K9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3429,28 +3420,28 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="K10" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3461,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H11" t="s">
         <v>332</v>
@@ -3476,10 +3467,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K11" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3490,25 +3481,25 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="H12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="K12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3519,16 +3510,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>332</v>
       </c>
       <c r="E13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G13" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H13" t="s">
         <v>332</v>
@@ -3537,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K13" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3551,28 +3542,28 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E14" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G14" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H14" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K14" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3583,16 +3574,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G15" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H15" t="s">
         <v>332</v>
@@ -3601,7 +3592,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3612,25 +3603,25 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D16" s="12">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G16" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="H16" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -3641,16 +3632,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D17" s="12">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G17" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H17" t="s">
         <v>332</v>
@@ -3659,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3670,25 +3661,25 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G18" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H18" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -3699,25 +3690,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D19" s="12">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G19" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H19" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -3734,19 +3725,19 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G20" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H20" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -3763,19 +3754,19 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G21" t="s">
+        <v>476</v>
+      </c>
+      <c r="H21" t="s">
+        <v>445</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
         <v>479</v>
-      </c>
-      <c r="H21" t="s">
-        <v>448</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -3792,19 +3783,19 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H22" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3815,25 +3806,25 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D23" s="12">
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G23" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H23" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -3850,19 +3841,19 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G24" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H24" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3873,25 +3864,25 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D25" s="12">
         <v>6</v>
       </c>
       <c r="E25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H25" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3902,25 +3893,25 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D26" s="12">
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G26" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H26" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3937,19 +3928,19 @@
         <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G27" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H27" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3960,25 +3951,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D28" s="12">
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G28" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H28" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -3989,25 +3980,25 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D29" s="12">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G29" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H29" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4018,25 +4009,25 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D30" s="12">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H30" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4047,16 +4038,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D31" s="12">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H31" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -4070,16 +4061,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D32" s="12">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="H32" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4093,16 +4084,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -4116,16 +4107,16 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E34" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H34" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -4139,16 +4130,16 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E35" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H35" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -4162,19 +4153,19 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>542</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>539</v>
+      </c>
+      <c r="G36" t="s">
         <v>545</v>
       </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>542</v>
-      </c>
-      <c r="G36" t="s">
-        <v>548</v>
-      </c>
       <c r="H36" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -4188,19 +4179,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D37" s="12">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G37" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H37" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -4214,19 +4205,19 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D38" s="12">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G38" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H38" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -4240,16 +4231,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H39" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4263,16 +4254,16 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H40" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4286,16 +4277,16 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D41" s="12">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="H41" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -4322,10 +4313,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
         <v>291</v>
@@ -4336,7 +4327,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4347,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4358,7 +4349,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4369,7 +4360,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4380,7 +4371,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4391,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -4402,7 +4393,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4413,7 +4404,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -4442,16 +4433,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>662</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>664</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>665</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>298</v>
@@ -4462,13 +4453,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -4728,7 +4719,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4740,7 +4731,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4749,10 +4740,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4760,7 +4751,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4769,7 +4760,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4784,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N8" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4795,7 +4786,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -4804,16 +4795,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F9" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4822,10 +4813,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="N9" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4833,40 +4824,40 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
+        <v>633</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>634</v>
+      </c>
+      <c r="F10" t="s">
+        <v>635</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>555</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>637</v>
+      </c>
+      <c r="L10" t="s">
         <v>636</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>637</v>
-      </c>
-      <c r="F10" t="s">
-        <v>638</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>558</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10" t="s">
-        <v>640</v>
-      </c>
-      <c r="L10" t="s">
-        <v>639</v>
-      </c>
       <c r="N10" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5284,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F21" t="s">
         <v>75</v>
@@ -5565,7 +5556,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
@@ -5583,10 +5574,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="L28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="N28" t="s">
         <v>111</v>
@@ -5597,7 +5588,7 @@
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -5632,7 +5623,7 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C30">
         <v>118</v>
@@ -5644,7 +5635,7 @@
         <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5755,7 +5746,7 @@
         <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C33">
         <v>108</v>
@@ -5764,31 +5755,31 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
+        <v>553</v>
+      </c>
+      <c r="F33" t="s">
+        <v>554</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>555</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>559</v>
+      </c>
+      <c r="L33" t="s">
         <v>556</v>
       </c>
-      <c r="F33" t="s">
-        <v>557</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>558</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33" t="s">
-        <v>562</v>
-      </c>
-      <c r="L33" t="s">
-        <v>559</v>
-      </c>
       <c r="N33" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -7220,7 +7211,7 @@
         <v>1047</v>
       </c>
       <c r="B80" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7229,16 +7220,16 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F80" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7247,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="L80" t="s">
         <v>65</v>
@@ -7258,7 +7249,7 @@
         <v>1049</v>
       </c>
       <c r="B81" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C81">
         <v>118</v>
@@ -7290,7 +7281,7 @@
         <v>1050</v>
       </c>
       <c r="B82" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C82">
         <v>118</v>
@@ -8105,7 +8096,7 @@
         <v>1090</v>
       </c>
       <c r="B107" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C107">
         <v>1078</v>
@@ -8114,13 +8105,13 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -8129,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -8169,7 +8160,7 @@
         <v>1084</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C109" s="4">
         <v>118</v>
@@ -8181,7 +8172,7 @@
         <v>282</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -8203,7 +8194,7 @@
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -8386,7 +8377,7 @@
         <v>1092</v>
       </c>
       <c r="B115" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C115">
         <v>111</v>
@@ -8398,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -8407,10 +8398,10 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M115" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -8418,7 +8409,7 @@
         <v>1091</v>
       </c>
       <c r="B116" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C116">
         <v>111</v>
@@ -8430,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -8439,10 +8430,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M116" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -8450,7 +8441,7 @@
         <v>1102</v>
       </c>
       <c r="B117" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C117">
         <v>502</v>
@@ -8462,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -8471,10 +8462,10 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="M117" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -8482,7 +8473,7 @@
         <v>1103</v>
       </c>
       <c r="B118" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C118">
         <v>502</v>
@@ -8494,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -8503,10 +8494,10 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M118" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -8514,7 +8505,7 @@
         <v>1104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C119" s="5">
         <v>9</v>
@@ -8523,16 +8514,16 @@
         <v>1</v>
       </c>
       <c r="E119" s="5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="G119" s="5">
         <v>0</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I119" s="5">
         <v>0</v>
@@ -8541,14 +8532,14 @@
         <v>0</v>
       </c>
       <c r="K119" s="5" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8556,7 +8547,7 @@
         <v>1105</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C120" s="5">
         <v>1104</v>
@@ -8570,7 +8561,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
@@ -8579,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -8589,7 +8580,7 @@
         <v>1106</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C121" s="5">
         <v>1104</v>
@@ -8603,7 +8594,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I121" s="5">
         <v>0</v>
@@ -8612,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -8622,7 +8613,7 @@
         <v>1107</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C122" s="5">
         <v>1104</v>
@@ -8636,7 +8627,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
@@ -8645,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -8655,7 +8646,7 @@
         <v>1108</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C123" s="6">
         <v>108</v>
@@ -8664,16 +8655,16 @@
         <v>1</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I123" s="6">
         <v>0</v>
@@ -8682,14 +8673,14 @@
         <v>0</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="M123" s="6"/>
       <c r="N123" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -8697,7 +8688,7 @@
         <v>1109</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C124" s="6">
         <v>1108</v>
@@ -8711,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I124" s="6">
         <v>0</v>
@@ -8720,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -8730,7 +8721,7 @@
         <v>1110</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C125" s="6">
         <v>1108</v>
@@ -8744,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I125" s="6">
         <v>0</v>
@@ -8753,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -8763,7 +8754,7 @@
         <v>1111</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C126" s="4">
         <v>9</v>
@@ -8772,16 +8763,16 @@
         <v>1</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G126" s="4">
         <v>0</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I126" s="4">
         <v>0</v>
@@ -8790,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -8807,7 +8798,7 @@
         <v>1112</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C127" s="4">
         <v>1111</v>
@@ -8821,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I127" s="4">
         <v>0</v>
@@ -8830,7 +8821,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -8840,7 +8831,7 @@
         <v>1113</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C128" s="4">
         <v>1111</v>
@@ -8854,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I128" s="4">
         <v>0</v>
@@ -8863,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -8873,7 +8864,7 @@
         <v>1114</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C129" s="7">
         <v>2</v>
@@ -8882,16 +8873,16 @@
         <v>1</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="G129" s="7">
         <v>0</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="I129" s="7">
         <v>0</v>
@@ -8900,14 +8891,14 @@
         <v>0</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M129" s="7"/>
       <c r="N129" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -8915,7 +8906,7 @@
         <v>1115</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C130" s="7">
         <v>1114</v>
@@ -8929,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I130" s="7">
         <v>0</v>
@@ -8938,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -8948,7 +8939,7 @@
         <v>1116</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C131" s="7">
         <v>1114</v>
@@ -8962,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="I131" s="7">
         <v>0</v>
@@ -8971,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -9115,10 +9106,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C4" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9139,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -9161,10 +9152,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C1" t="s">
         <v>317</v>
@@ -9386,7 +9377,7 @@
         <v>1084</v>
       </c>
       <c r="C28" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9397,7 +9388,7 @@
         <v>1085</v>
       </c>
       <c r="C29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -9408,7 +9399,7 @@
         <v>1086</v>
       </c>
       <c r="C30" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -9419,7 +9410,7 @@
         <v>1087</v>
       </c>
       <c r="C31" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -9430,7 +9421,7 @@
         <v>1088</v>
       </c>
       <c r="C32" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -9441,7 +9432,7 @@
         <v>1089</v>
       </c>
       <c r="C33" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9452,7 +9443,7 @@
         <v>1048</v>
       </c>
       <c r="C34" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -9463,7 +9454,7 @@
         <v>1049</v>
       </c>
       <c r="C35" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -9474,7 +9465,7 @@
         <v>1050</v>
       </c>
       <c r="C36" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -9485,7 +9476,7 @@
         <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -9496,7 +9487,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -9523,32 +9514,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA152B8-C1FA-4646-A501-2C7774BC6ACC}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.58203125" customWidth="1"/>
     <col min="6" max="6" width="83.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D1" t="s">
         <v>349</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>350</v>
-      </c>
-      <c r="C1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E1" t="s">
-        <v>353</v>
       </c>
       <c r="F1" t="s">
         <v>317</v>
@@ -9605,7 +9597,7 @@
         <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E4" t="s">
         <v>332</v>
@@ -9658,17 +9650,8 @@
       <c r="B7" t="s">
         <v>345</v>
       </c>
-      <c r="C7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" t="s">
-        <v>347</v>
-      </c>
       <c r="E7" t="s">
         <v>332</v>
-      </c>
-      <c r="F7" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -9689,7 +9672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s">
         <v>321</v>
@@ -9746,75 +9729,75 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C1" t="s">
         <v>392</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
         <v>394</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>395</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>396</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>397</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>398</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>399</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>400</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>401</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>402</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>403</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>404</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>405</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>406</v>
-      </c>
-      <c r="O1" t="s">
-        <v>407</v>
-      </c>
-      <c r="P1" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2" t="s">
         <v>387</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>388</v>
-      </c>
-      <c r="D2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F2" t="s">
-        <v>391</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -9859,16 +9842,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" t="s">
         <v>380</v>
-      </c>
-      <c r="B1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D1" t="s">
-        <v>383</v>
       </c>
       <c r="E1" t="s">
         <v>298</v>
@@ -9879,10 +9862,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -9896,10 +9879,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -9913,10 +9896,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9930,10 +9913,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -9947,10 +9930,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -9964,10 +9947,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -9981,10 +9964,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -9998,10 +9981,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -10015,10 +9998,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -10032,10 +10015,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -10049,10 +10032,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C12" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -10066,10 +10049,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C13" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -10083,10 +10066,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -10119,25 +10102,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>298</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F1" t="s">
         <v>317</v>
       </c>
       <c r="G1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -10145,10 +10128,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -10157,7 +10140,7 @@
         <v>332</v>
       </c>
       <c r="F2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -10165,10 +10148,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -10177,7 +10160,7 @@
         <v>332</v>
       </c>
       <c r="F3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -10185,10 +10168,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C4" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -10197,7 +10180,7 @@
         <v>332</v>
       </c>
       <c r="F4" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -10205,10 +10188,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -10217,7 +10200,7 @@
         <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -10225,10 +10208,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -10237,7 +10220,7 @@
         <v>332</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -10245,10 +10228,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -10257,7 +10240,7 @@
         <v>332</v>
       </c>
       <c r="F7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -10265,19 +10248,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F8" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -10285,10 +10268,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -10297,7 +10280,7 @@
         <v>332</v>
       </c>
       <c r="F9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -10305,10 +10288,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C10" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -10317,7 +10300,7 @@
         <v>332</v>
       </c>
       <c r="F10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -10325,10 +10308,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -10337,7 +10320,7 @@
         <v>332</v>
       </c>
       <c r="F11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -10345,10 +10328,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -10362,10 +10345,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C13" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -10374,7 +10357,7 @@
         <v>332</v>
       </c>
       <c r="F13" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -10382,19 +10365,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="F14" t="s">
         <v>541</v>
-      </c>
-      <c r="C14" t="s">
-        <v>543</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F14" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -10402,22 +10385,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C15" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F15" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G15" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -10425,19 +10408,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C16" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="F16" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A20B4-5541-49CF-9C0E-EDB349A18655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C3793-D22D-4A09-9FA1-C97322D880A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="678">
   <si>
     <t>系统管理</t>
   </si>
@@ -1679,619 +1679,572 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>java</t>
+    <t>CategoryId</t>
+  </si>
+  <si>
+    <t>公司总部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_job_type</t>
+  </si>
+  <si>
+    <t>sys_job_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务类型列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>danger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system:lang:import</t>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据差异日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SqlDiffLog</t>
+  </si>
+  <si>
+    <t>monitor/SqlDiffLog</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqldifflog:export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>components/icons/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon1</t>
+  </si>
+  <si>
+    <t>menu.icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单条强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor:online:forceLogout</t>
+  </si>
+  <si>
+    <t>monitor:online:batchLogout</t>
+  </si>
+  <si>
+    <t>批量强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计日志导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审计日志删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在线用户强退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LangKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.male</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.female</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.unknow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.show</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.hidden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>common.abnormal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql_email_tpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件模板列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool/email/emailTpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:emailtpl:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool:email:send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>validCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smsLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor/SmsLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smscodelog:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smscodelog:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smscodelog:export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>editor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e10adc3949ba59abbe56e057f20f884e</t>
+  </si>
+  <si>
+    <t>编辑角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool/email/emailLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emaillog:list</t>
+  </si>
+  <si>
+    <t>emaillog:query</t>
+  </si>
+  <si>
+    <t>emaillog:delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/article/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system:article:add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zujian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sendEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emailSend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SELECT id dictValue, name dictLabel FROM emailTpl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据大屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/link/dataScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataScreen/index</t>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system:datascreen:list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article/manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article/articleCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserOnlineLog</t>
+  </si>
+  <si>
+    <t>monitor/UserOnlineLog</t>
+  </si>
+  <si>
+    <t>useronlinelog:list</t>
+  </si>
+  <si>
+    <t>useronlinelog:delete</t>
+  </si>
+  <si>
+    <t>useronlinelog:export</t>
+  </si>
+  <si>
+    <t>用户在线日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在线日志导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户在线日志删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.emailList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.dataScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.articleCategory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.emailTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.userOnlineLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.dataDiffLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.smsLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.zujianDemo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu.emailLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页公告</t>
+  </si>
+  <si>
+    <t>NoticeId</t>
+  </si>
+  <si>
+    <t>NoticeTitle</t>
+  </si>
+  <si>
+    <t>NoticeType</t>
+  </si>
+  <si>
+    <t>NoticeContent</t>
+  </si>
+  <si>
+    <t>article/publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容内容</t>
+  </si>
+  <si>
+    <t>内容修改</t>
+  </si>
+  <si>
+    <t>内容删除</t>
+  </si>
+  <si>
+    <t>内容目录</t>
+  </si>
+  <si>
+    <t>内容类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_article_type</t>
+  </si>
+  <si>
+    <t>sys_article_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随笔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前端</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>c++</t>
-  </si>
-  <si>
-    <t>vue</t>
-  </si>
-  <si>
-    <t>sqlserver</t>
-  </si>
-  <si>
-    <t>CategoryId</t>
-  </si>
-  <si>
-    <t>公司总部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_job_type</t>
-  </si>
-  <si>
-    <t>sys_job_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>任务类型列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>danger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system:lang:import</t>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据差异日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SqlDiffLog</t>
-  </si>
-  <si>
-    <t>monitor/SqlDiffLog</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqldifflog:list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqldifflog:delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sqldifflog:export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>components/icons/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon1</t>
-  </si>
-  <si>
-    <t>menu.icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单条强退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor:online:forceLogout</t>
-  </si>
-  <si>
-    <t>monitor:online:batchLogout</t>
-  </si>
-  <si>
-    <t>批量强退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审计日志导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审计日志删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在线用户强退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LangKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.male</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.female</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.unknow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.show</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.hidden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.disable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.default</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>common.abnormal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql_email_tpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件模板列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool/email/emailTpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool:emailtpl:add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool:emailtpl:edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool:emailtpl:delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool:emailtpl:list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool:email:send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>validCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smsLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitor/SmsLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smscodelog:list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smscodelog:delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smscodelog:export</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>editor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e10adc3949ba59abbe56e057f20f884e</t>
-  </si>
-  <si>
-    <t>编辑角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tool/email/emailLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emaillog:list</t>
-  </si>
-  <si>
-    <t>emaillog:query</t>
-  </si>
-  <si>
-    <t>emaillog:delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/article/publish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system:article:add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zujian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sendEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emailSend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SELECT id dictValue, name dictLabel FROM emailTpl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据大屏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/link/dataScreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataScreen/index</t>
-  </si>
-  <si>
-    <t>server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system:datascreen:list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article/manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>article/articleCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UserOnlineLog</t>
-  </si>
-  <si>
-    <t>monitor/UserOnlineLog</t>
-  </si>
-  <si>
-    <t>useronlinelog:list</t>
-  </si>
-  <si>
-    <t>useronlinelog:delete</t>
-  </si>
-  <si>
-    <t>useronlinelog:export</t>
-  </si>
-  <si>
-    <t>用户在线日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在线日志导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户在线日志删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.emailList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.dataScreen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.articleCategory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.emailTemplate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.userOnlineLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.dataDiffLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.smsLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.zujianDemo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu.emailLog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首页公告</t>
-  </si>
-  <si>
-    <r>
-      <t>&lt;p style="text-align: left;"&gt;ZRAdmin会员限时特价 &lt;s&gt;原价199&lt;/s&gt;，现在&lt;span style="color: rgb(225, 60, 57);"&gt;&lt;strong&gt;只要99， &lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(248, 172, 89); font-size: 14px;"&gt; &lt;/span&gt;&lt;a href="https://www.aliyun.com/minisite/goods?userCode=uotn5vt1&amp;amp;share_source=copy_link" target="_black" style="text-align: start;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="2"/>
-      </rPr>
-      <t>☛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/a&gt;&lt;a href="http://www.izhaorui.cn/vip" target="_blank"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt;点击查看详情&lt;/u&gt;&lt;/span&gt;&lt;/a&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt; &lt;/u&gt;&lt;/span&gt;&lt;/p&gt;&lt;p style="text-align: left;"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt; &lt;/u&gt;&lt;/span&gt;&lt;a href="https://qm.qq.com/q/55gFo9UFpu" target="_blank"&gt;点击链接加入群聊【&lt;span style="color: rgb(231, 95, 51);"&gt;ZRAdmin交流3群&lt;/span&gt;】&lt;/a&gt; &lt;/p&gt;&lt;p style="text-align: center;"&gt;&lt;br&gt;&lt;/p&gt;&lt;p style="text-align: right;"&gt;&lt;span style="color: rgb(96, 98, 102); background-color: rgb(255, 255, 255);"&gt;&lt;strong&gt;如果觉得不错欢迎点击 &lt;/strong&gt;&lt;/span&gt;&lt;a href="https://gitee.com/izory/ZrAdminNetCore" target="_blank"&gt;&lt;span style="color: rgb(9, 109, 217);"&gt;&lt;u&gt;&lt;strong&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>⭐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Star</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>⭐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;/strong&gt;&lt;/u&gt;&lt;/span&gt;&lt;/a&gt;&lt;strong&gt; &lt;/strong&gt;&lt;span style="color: rgb(96, 98, 102); background-color: rgb(255, 255, 255);"&gt;&lt;strong&gt;收藏一下&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoticeId</t>
-  </si>
-  <si>
-    <t>NoticeTitle</t>
-  </si>
-  <si>
-    <t>NoticeType</t>
-  </si>
-  <si>
-    <t>NoticeContent</t>
-  </si>
-  <si>
-    <t>article/publish</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容内容</t>
-  </si>
-  <si>
-    <t>内容修改</t>
-  </si>
-  <si>
-    <t>内容删除</t>
-  </si>
-  <si>
-    <t>内容目录</t>
-  </si>
-  <si>
-    <t>内容类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_article_type</t>
-  </si>
-  <si>
-    <t>sys_article_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CategoryType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通会员详见：http://www.izhaorui.cn/vip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2299,7 +2252,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2333,26 +2286,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Symbol"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Segoe UI Emoji"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2419,7 +2352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -2442,6 +2375,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2943,10 +2879,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D4" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2955,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -2964,7 +2900,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -3015,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3162,7 +3098,7 @@
         <v>317</v>
       </c>
       <c r="K1" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3191,7 +3127,7 @@
         <v>443</v>
       </c>
       <c r="K2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3220,7 +3156,7 @@
         <v>446</v>
       </c>
       <c r="K3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3249,7 +3185,7 @@
         <v>448</v>
       </c>
       <c r="K4" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3281,7 +3217,7 @@
         <v>451</v>
       </c>
       <c r="K5" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3313,7 +3249,7 @@
         <v>454</v>
       </c>
       <c r="K6" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3345,7 +3281,7 @@
         <v>456</v>
       </c>
       <c r="K7" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3377,7 +3313,7 @@
         <v>458</v>
       </c>
       <c r="K8" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3409,7 +3345,7 @@
         <v>456</v>
       </c>
       <c r="K9" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3441,7 +3377,7 @@
         <v>458</v>
       </c>
       <c r="K10" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3470,7 +3406,7 @@
         <v>462</v>
       </c>
       <c r="K11" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3499,7 +3435,7 @@
         <v>464</v>
       </c>
       <c r="K12" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3531,7 +3467,7 @@
         <v>466</v>
       </c>
       <c r="K13" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3563,7 +3499,7 @@
         <v>468</v>
       </c>
       <c r="K14" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4153,16 +4089,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G36" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H36" t="s">
         <v>525</v>
@@ -4179,16 +4115,16 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D37" s="12">
         <v>2</v>
       </c>
       <c r="E37" t="s">
+        <v>532</v>
+      </c>
+      <c r="G37" t="s">
         <v>539</v>
-      </c>
-      <c r="G37" t="s">
-        <v>546</v>
       </c>
       <c r="H37" t="s">
         <v>525</v>
@@ -4205,16 +4141,16 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D38" s="12">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="G38" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="H38" t="s">
         <v>525</v>
@@ -4231,13 +4167,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="D39" s="12">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="H39" t="s">
         <v>525</v>
@@ -4254,13 +4190,13 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="H40" t="s">
         <v>525</v>
@@ -4277,13 +4213,13 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="D41" s="12">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="H41" t="s">
         <v>525</v>
@@ -4300,20 +4236,21 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D59B089-6BFD-4898-97D7-5E5DB5B781E2}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s">
         <v>391</v>
@@ -4321,93 +4258,79 @@
       <c r="C1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>668</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>669</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>531</v>
+        <v>670</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>475</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>533</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>534</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>535</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -4422,7 +4345,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4433,33 +4356,33 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>658</v>
+      <c r="D2" s="13" t="s">
+        <v>672</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
@@ -4719,7 +4642,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -4731,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -4740,10 +4663,10 @@
         <v>0</v>
       </c>
       <c r="L7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="N7" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -4751,7 +4674,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -4760,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4775,10 +4698,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="N8" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -4786,7 +4709,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -4795,16 +4718,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="F9" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -4813,10 +4736,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="N9" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -4824,7 +4747,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -4833,16 +4756,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="F10" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -4851,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="L10" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="N10" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -5556,7 +5479,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
@@ -5574,10 +5497,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="L28" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="N28" t="s">
         <v>111</v>
@@ -5588,7 +5511,7 @@
         <v>118</v>
       </c>
       <c r="B29" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -5623,7 +5546,7 @@
         <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="C30">
         <v>118</v>
@@ -5635,7 +5558,7 @@
         <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5746,7 +5669,7 @@
         <v>502</v>
       </c>
       <c r="B33" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C33">
         <v>108</v>
@@ -5755,16 +5678,16 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F33" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -5773,13 +5696,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="L33" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="N33" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
@@ -7211,7 +7134,7 @@
         <v>1047</v>
       </c>
       <c r="B80" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7220,16 +7143,16 @@
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="F80" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -7238,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="L80" t="s">
         <v>65</v>
@@ -7249,7 +7172,7 @@
         <v>1049</v>
       </c>
       <c r="B81" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="C81">
         <v>118</v>
@@ -7281,7 +7204,7 @@
         <v>1050</v>
       </c>
       <c r="B82" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C82">
         <v>118</v>
@@ -8096,7 +8019,7 @@
         <v>1090</v>
       </c>
       <c r="B107" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C107">
         <v>1078</v>
@@ -8105,13 +8028,13 @@
         <v>5</v>
       </c>
       <c r="E107" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -8120,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="K107" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
@@ -8160,7 +8083,7 @@
         <v>1084</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="C109" s="4">
         <v>118</v>
@@ -8172,7 +8095,7 @@
         <v>282</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="G109" s="4">
         <v>0</v>
@@ -8194,7 +8117,7 @@
       </c>
       <c r="M109" s="4"/>
       <c r="N109" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
@@ -8377,7 +8300,7 @@
         <v>1092</v>
       </c>
       <c r="B115" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="C115">
         <v>111</v>
@@ -8389,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -8398,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="K115" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="M115" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
@@ -8409,7 +8332,7 @@
         <v>1091</v>
       </c>
       <c r="B116" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="C116">
         <v>111</v>
@@ -8421,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -8430,10 +8353,10 @@
         <v>0</v>
       </c>
       <c r="K116" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="M116" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
@@ -8441,7 +8364,7 @@
         <v>1102</v>
       </c>
       <c r="B117" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C117">
         <v>502</v>
@@ -8453,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -8462,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="M117" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
@@ -8473,7 +8396,7 @@
         <v>1103</v>
       </c>
       <c r="B118" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C118">
         <v>502</v>
@@ -8485,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -8494,10 +8417,10 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="M118" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
@@ -8505,7 +8428,7 @@
         <v>1104</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C119" s="5">
         <v>9</v>
@@ -8514,32 +8437,32 @@
         <v>1</v>
       </c>
       <c r="E119" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G119" s="5">
+        <v>0</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="F119" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="G119" s="5">
-        <v>0</v>
-      </c>
-      <c r="H119" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="I119" s="5">
-        <v>0</v>
-      </c>
-      <c r="J119" s="5">
-        <v>0</v>
-      </c>
-      <c r="K119" s="5" t="s">
-        <v>599</v>
-      </c>
       <c r="L119" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="M119" s="5"/>
       <c r="N119" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8547,7 +8470,7 @@
         <v>1105</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="C120" s="5">
         <v>1104</v>
@@ -8561,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I120" s="5">
         <v>0</v>
@@ -8570,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="K120" s="5" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
@@ -8580,7 +8503,7 @@
         <v>1106</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="C121" s="5">
         <v>1104</v>
@@ -8594,7 +8517,7 @@
         <v>0</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I121" s="5">
         <v>0</v>
@@ -8603,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="K121" s="5" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
@@ -8613,7 +8536,7 @@
         <v>1107</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="C122" s="5">
         <v>1104</v>
@@ -8627,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I122" s="5">
         <v>0</v>
@@ -8636,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -8646,7 +8569,7 @@
         <v>1108</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="C123" s="6">
         <v>108</v>
@@ -8655,16 +8578,16 @@
         <v>1</v>
       </c>
       <c r="E123" s="6" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="H123" s="6" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I123" s="6">
         <v>0</v>
@@ -8673,14 +8596,14 @@
         <v>0</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M123" s="6"/>
       <c r="N123" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
@@ -8688,7 +8611,7 @@
         <v>1109</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C124" s="6">
         <v>1108</v>
@@ -8702,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="H124" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I124" s="6">
         <v>0</v>
@@ -8711,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="K124" s="6" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -8721,7 +8644,7 @@
         <v>1110</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C125" s="6">
         <v>1108</v>
@@ -8735,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="H125" s="6" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I125" s="6">
         <v>0</v>
@@ -8744,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -8754,7 +8677,7 @@
         <v>1111</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C126" s="4">
         <v>9</v>
@@ -8763,16 +8686,16 @@
         <v>1</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G126" s="4">
         <v>0</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I126" s="4">
         <v>0</v>
@@ -8781,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
@@ -8798,7 +8721,7 @@
         <v>1112</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C127" s="4">
         <v>1111</v>
@@ -8812,7 +8735,7 @@
         <v>0</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I127" s="4">
         <v>0</v>
@@ -8821,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
@@ -8831,7 +8754,7 @@
         <v>1113</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C128" s="4">
         <v>1111</v>
@@ -8845,7 +8768,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I128" s="4">
         <v>0</v>
@@ -8854,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
@@ -8864,7 +8787,7 @@
         <v>1114</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="C129" s="7">
         <v>2</v>
@@ -8873,16 +8796,16 @@
         <v>1</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="G129" s="7">
         <v>0</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="I129" s="7">
         <v>0</v>
@@ -8891,14 +8814,14 @@
         <v>0</v>
       </c>
       <c r="K129" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="M129" s="7"/>
       <c r="N129" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
@@ -8906,7 +8829,7 @@
         <v>1115</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C130" s="7">
         <v>1114</v>
@@ -8920,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I130" s="7">
         <v>0</v>
@@ -8929,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="K130" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
@@ -8939,7 +8862,7 @@
         <v>1116</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="C131" s="7">
         <v>1114</v>
@@ -8953,7 +8876,7 @@
         <v>0</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="I131" s="7">
         <v>0</v>
@@ -8962,7 +8885,7 @@
         <v>0</v>
       </c>
       <c r="K131" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
@@ -9106,10 +9029,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="C4" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -9130,7 +9053,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
   </sheetData>
@@ -9144,8 +9067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{337D2D18-B37B-4DF5-9944-49704E9D0445}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9377,7 +9300,7 @@
         <v>1084</v>
       </c>
       <c r="C28" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -9388,7 +9311,7 @@
         <v>1085</v>
       </c>
       <c r="C29" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -9399,7 +9322,7 @@
         <v>1086</v>
       </c>
       <c r="C30" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -9410,7 +9333,7 @@
         <v>1087</v>
       </c>
       <c r="C31" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -9421,7 +9344,7 @@
         <v>1088</v>
       </c>
       <c r="C32" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -9432,7 +9355,7 @@
         <v>1089</v>
       </c>
       <c r="C33" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -9443,7 +9366,7 @@
         <v>1048</v>
       </c>
       <c r="C34" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -9454,7 +9377,7 @@
         <v>1049</v>
       </c>
       <c r="C35" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -9465,7 +9388,7 @@
         <v>1050</v>
       </c>
       <c r="C36" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -9476,7 +9399,7 @@
         <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -9487,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -9514,7 +9437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BA152B8-C1FA-4646-A501-2C7774BC6ACC}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -9664,7 +9587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFFA53F-160B-48BA-80B0-079F0EA2A7A7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -10365,10 +10288,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C14" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -10377,7 +10300,7 @@
         <v>506</v>
       </c>
       <c r="F14" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -10385,10 +10308,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C15" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -10397,10 +10320,10 @@
         <v>506</v>
       </c>
       <c r="F15" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G15" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -10408,10 +10331,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="C16" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -10420,7 +10343,7 @@
         <v>506</v>
       </c>
       <c r="F16" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085C3793-D22D-4A09-9FA1-C97322D880A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AEDF85-10A6-47C6-B1EE-E72EF4D1C455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="680">
   <si>
     <t>系统管理</t>
   </si>
@@ -2200,10 +2200,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随笔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>动态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2245,6 +2241,18 @@
   </si>
   <si>
     <t>menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniapp2发布入口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3052,10 +3060,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4012,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4035,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4058,7 +4066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4081,7 +4089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4107,7 +4115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4133,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4159,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4182,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4190,7 +4198,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="D40" s="12">
         <v>1</v>
@@ -4204,8 +4212,11 @@
       <c r="I40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4213,7 +4224,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D41" s="12">
         <v>2</v>
@@ -4225,6 +4236,29 @@
         <v>525</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>677</v>
+      </c>
+      <c r="D42" s="12">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>663</v>
+      </c>
+      <c r="H42" t="s">
+        <v>525</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
     </row>
@@ -4238,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D59B089-6BFD-4898-97D7-5E5DB5B781E2}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -4259,10 +4293,10 @@
         <v>291</v>
       </c>
       <c r="D1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -4270,7 +4304,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4279,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -4287,7 +4321,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -4296,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4304,7 +4338,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -4313,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -4330,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -4382,7 +4416,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AEDF85-10A6-47C6-B1EE-E72EF4D1C455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A9D940-4C0D-433A-BF1D-E38000FC79F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="dept" sheetId="11" r:id="rId10"/>
     <sheet name="dict_data" sheetId="10" r:id="rId11"/>
     <sheet name="article_category" sheetId="12" r:id="rId12"/>
-    <sheet name="notice" sheetId="13" r:id="rId13"/>
+    <sheet name="article_topic" sheetId="14" r:id="rId13"/>
+    <sheet name="notice" sheetId="13" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">menu!$A$1:$A$118</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="687">
   <si>
     <t>系统管理</t>
   </si>
@@ -2253,6 +2254,33 @@
   </si>
   <si>
     <t>uniapp2发布入口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TopicName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinNum</t>
+  </si>
+  <si>
+    <t>美食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃什么</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2778,12 +2806,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="33.4140625" customWidth="1"/>
+    <col min="10" max="10" width="33.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>306</v>
       </c>
@@ -2824,7 +2852,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2853,7 +2881,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2882,7 +2910,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2926,9 +2954,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>518</v>
       </c>
@@ -2951,7 +2979,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2971,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2991,7 +3019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3011,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3031,7 +3059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3062,19 +3090,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="8.6640625" style="12"/>
-    <col min="5" max="5" width="20.08203125" customWidth="1"/>
-    <col min="10" max="10" width="12.9140625" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>507</v>
       </c>
@@ -3109,7 +3137,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3138,7 +3166,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3167,7 +3195,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3196,7 +3224,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3228,7 +3256,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3260,7 +3288,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3292,7 +3320,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3324,7 +3352,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3356,7 +3384,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3388,7 +3416,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3417,7 +3445,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3446,7 +3474,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3478,7 +3506,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3510,7 +3538,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3539,7 +3567,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3568,7 +3596,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3597,7 +3625,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3626,7 +3654,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3655,7 +3683,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3684,7 +3712,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3713,7 +3741,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3742,7 +3770,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3771,7 +3799,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3800,7 +3828,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3829,7 +3857,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3858,7 +3886,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3887,7 +3915,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3916,7 +3944,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3945,7 +3973,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3974,7 +4002,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3997,7 +4025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4020,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4043,7 +4071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4066,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4089,7 +4117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4115,7 +4143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4141,7 +4169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4167,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4190,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4216,7 +4244,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4239,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4276,13 +4304,13 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>529</v>
       </c>
@@ -4299,7 +4327,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4316,7 +4344,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4333,7 +4361,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4350,7 +4378,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4375,6 +4403,73 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499BA89-84F4-45F4-9C1A-AC4400B29F1F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>683</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>684</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>686</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A140A180-7D1B-4334-9A7F-5459F016CE4B}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -4382,13 +4477,13 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.9140625" customWidth="1"/>
-    <col min="4" max="4" width="80.4140625" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="80.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>651</v>
       </c>
@@ -4405,7 +4500,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -4438,18 +4533,18 @@
       <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="6" width="23.58203125" customWidth="1"/>
-    <col min="11" max="11" width="22.75" customWidth="1"/>
-    <col min="12" max="12" width="10.58203125" customWidth="1"/>
-    <col min="13" max="13" width="18.4140625" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
+    <col min="5" max="6" width="23.5546875" customWidth="1"/>
+    <col min="11" max="11" width="22.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>289</v>
       </c>
@@ -4493,7 +4588,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4528,7 +4623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4563,7 +4658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4598,7 +4693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -4633,7 +4728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -4671,7 +4766,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -4703,7 +4798,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9</v>
       </c>
@@ -4738,7 +4833,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4776,7 +4871,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -4817,7 +4912,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>100</v>
       </c>
@@ -4858,7 +4953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>101</v>
       </c>
@@ -4899,7 +4994,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4940,7 +5035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4981,7 +5076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>104</v>
       </c>
@@ -5022,7 +5117,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>105</v>
       </c>
@@ -5063,7 +5158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>106</v>
       </c>
@@ -5101,7 +5196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>107</v>
       </c>
@@ -5142,7 +5237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>108</v>
       </c>
@@ -5177,7 +5272,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>109</v>
       </c>
@@ -5218,7 +5313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>110</v>
       </c>
@@ -5256,7 +5351,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>111</v>
       </c>
@@ -5294,7 +5389,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>112</v>
       </c>
@@ -5335,7 +5430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>113</v>
       </c>
@@ -5376,7 +5471,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>114</v>
       </c>
@@ -5417,7 +5512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>115</v>
       </c>
@@ -5458,7 +5553,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>116</v>
       </c>
@@ -5499,7 +5594,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>117</v>
       </c>
@@ -5540,7 +5635,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>118</v>
       </c>
@@ -5575,7 +5670,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>119</v>
       </c>
@@ -5616,7 +5711,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>500</v>
       </c>
@@ -5657,7 +5752,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>501</v>
       </c>
@@ -5698,7 +5793,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>502</v>
       </c>
@@ -5739,7 +5834,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1001</v>
       </c>
@@ -5768,7 +5863,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1002</v>
       </c>
@@ -5797,7 +5892,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1003</v>
       </c>
@@ -5826,7 +5921,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1004</v>
       </c>
@@ -5855,7 +5950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1005</v>
       </c>
@@ -5887,7 +5982,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1006</v>
       </c>
@@ -5919,7 +6014,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1007</v>
       </c>
@@ -5951,7 +6046,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1008</v>
       </c>
@@ -5983,7 +6078,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1009</v>
       </c>
@@ -6015,7 +6110,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1010</v>
       </c>
@@ -6047,7 +6142,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1011</v>
       </c>
@@ -6079,7 +6174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1012</v>
       </c>
@@ -6111,7 +6206,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1013</v>
       </c>
@@ -6143,7 +6238,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1014</v>
       </c>
@@ -6175,7 +6270,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1015</v>
       </c>
@@ -6207,7 +6302,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1016</v>
       </c>
@@ -6239,7 +6334,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1017</v>
       </c>
@@ -6268,7 +6363,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1018</v>
       </c>
@@ -6297,7 +6392,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1019</v>
       </c>
@@ -6326,7 +6421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1020</v>
       </c>
@@ -6355,7 +6450,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1021</v>
       </c>
@@ -6384,7 +6479,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1022</v>
       </c>
@@ -6413,7 +6508,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1023</v>
       </c>
@@ -6442,7 +6537,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1024</v>
       </c>
@@ -6471,7 +6566,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1025</v>
       </c>
@@ -6500,7 +6595,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1026</v>
       </c>
@@ -6529,7 +6624,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1027</v>
       </c>
@@ -6558,7 +6653,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1028</v>
       </c>
@@ -6587,7 +6682,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1029</v>
       </c>
@@ -6616,7 +6711,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1030</v>
       </c>
@@ -6645,7 +6740,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1031</v>
       </c>
@@ -6674,7 +6769,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1032</v>
       </c>
@@ -6709,7 +6804,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1033</v>
       </c>
@@ -6741,7 +6836,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1034</v>
       </c>
@@ -6773,7 +6868,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1035</v>
       </c>
@@ -6805,7 +6900,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1036</v>
       </c>
@@ -6837,7 +6932,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1037</v>
       </c>
@@ -6869,7 +6964,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1038</v>
       </c>
@@ -6901,7 +6996,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1039</v>
       </c>
@@ -6939,7 +7034,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1040</v>
       </c>
@@ -6971,7 +7066,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1041</v>
       </c>
@@ -7003,7 +7098,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1042</v>
       </c>
@@ -7035,7 +7130,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1043</v>
       </c>
@@ -7067,7 +7162,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1044</v>
       </c>
@@ -7099,7 +7194,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1045</v>
       </c>
@@ -7131,7 +7226,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1046</v>
       </c>
@@ -7163,7 +7258,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1047</v>
       </c>
@@ -7201,7 +7296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1049</v>
       </c>
@@ -7233,7 +7328,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1050</v>
       </c>
@@ -7265,7 +7360,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1051</v>
       </c>
@@ -7297,7 +7392,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1052</v>
       </c>
@@ -7329,7 +7424,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1053</v>
       </c>
@@ -7361,7 +7456,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1054</v>
       </c>
@@ -7393,7 +7488,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1055</v>
       </c>
@@ -7425,7 +7520,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1060</v>
       </c>
@@ -7460,7 +7555,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1061</v>
       </c>
@@ -7492,7 +7587,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1062</v>
       </c>
@@ -7524,7 +7619,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1063</v>
       </c>
@@ -7556,7 +7651,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1064</v>
       </c>
@@ -7588,7 +7683,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1065</v>
       </c>
@@ -7620,7 +7715,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1070</v>
       </c>
@@ -7649,7 +7744,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1071</v>
       </c>
@@ -7678,7 +7773,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1072</v>
       </c>
@@ -7719,7 +7814,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1073</v>
       </c>
@@ -7751,7 +7846,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1074</v>
       </c>
@@ -7783,7 +7878,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1075</v>
       </c>
@@ -7815,7 +7910,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1076</v>
       </c>
@@ -7847,7 +7942,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1077</v>
       </c>
@@ -7879,7 +7974,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1078</v>
       </c>
@@ -7920,7 +8015,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1079</v>
       </c>
@@ -7952,7 +8047,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1080</v>
       </c>
@@ -7984,7 +8079,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1081</v>
       </c>
@@ -8016,7 +8111,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1082</v>
       </c>
@@ -8048,7 +8143,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1090</v>
       </c>
@@ -8080,7 +8175,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1083</v>
       </c>
@@ -8112,7 +8207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>1084</v>
       </c>
@@ -8154,7 +8249,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>1085</v>
       </c>
@@ -8189,7 +8284,7 @@
       <c r="L110" s="4"/>
       <c r="M110" s="4"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>1086</v>
       </c>
@@ -8224,7 +8319,7 @@
       <c r="L111" s="4"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>1087</v>
       </c>
@@ -8259,7 +8354,7 @@
       <c r="L112" s="4"/>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
         <v>1088</v>
       </c>
@@ -8294,7 +8389,7 @@
       <c r="L113" s="4"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>1089</v>
       </c>
@@ -8329,7 +8424,7 @@
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1092</v>
       </c>
@@ -8361,7 +8456,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1091</v>
       </c>
@@ -8393,7 +8488,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1102</v>
       </c>
@@ -8425,7 +8520,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1103</v>
       </c>
@@ -8457,7 +8552,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>1104</v>
       </c>
@@ -8499,7 +8594,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>1105</v>
       </c>
@@ -8532,7 +8627,7 @@
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>1106</v>
       </c>
@@ -8565,7 +8660,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>1107</v>
       </c>
@@ -8598,7 +8693,7 @@
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>1108</v>
       </c>
@@ -8640,7 +8735,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>1109</v>
       </c>
@@ -8673,7 +8768,7 @@
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>1110</v>
       </c>
@@ -8706,7 +8801,7 @@
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>1111</v>
       </c>
@@ -8750,7 +8845,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>1112</v>
       </c>
@@ -8783,7 +8878,7 @@
       <c r="L127" s="4"/>
       <c r="M127" s="4"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
         <v>1113</v>
       </c>
@@ -8816,7 +8911,7 @@
       <c r="L128" s="4"/>
       <c r="M128" s="4"/>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="7">
         <v>1114</v>
       </c>
@@ -8858,7 +8953,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="7">
         <v>1115</v>
       </c>
@@ -8891,7 +8986,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="7">
         <v>1116</v>
       </c>
@@ -8955,14 +9050,14 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" customWidth="1"/>
-    <col min="7" max="7" width="15.4140625" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>321</v>
       </c>
@@ -8994,7 +9089,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9026,7 +9121,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9058,7 +9153,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9105,9 +9200,9 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>382</v>
       </c>
@@ -9118,7 +9213,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9126,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9134,7 +9229,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9142,7 +9237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9150,7 +9245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9158,7 +9253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9166,7 +9261,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9174,7 +9269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9182,7 +9277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -9190,7 +9285,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9198,7 +9293,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9206,7 +9301,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9214,7 +9309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2</v>
       </c>
@@ -9222,7 +9317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -9230,7 +9325,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -9238,7 +9333,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -9246,7 +9341,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9254,7 +9349,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9262,7 +9357,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -9270,7 +9365,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9278,7 +9373,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -9286,7 +9381,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9294,7 +9389,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -9302,7 +9397,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9310,7 +9405,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -9318,7 +9413,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -9326,7 +9421,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -9337,7 +9432,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -9348,7 +9443,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -9359,7 +9454,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -9370,7 +9465,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -9381,7 +9476,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -9392,7 +9487,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -9403,7 +9498,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -9414,7 +9509,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -9425,7 +9520,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -9436,7 +9531,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -9447,7 +9542,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -9475,15 +9570,15 @@
       <selection activeCell="B8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.58203125" customWidth="1"/>
-    <col min="6" max="6" width="83.75" customWidth="1"/>
+    <col min="4" max="4" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="83.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>346</v>
       </c>
@@ -9503,7 +9598,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9523,7 +9618,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9543,7 +9638,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9563,7 +9658,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9583,7 +9678,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -9600,7 +9695,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -9625,9 +9720,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>381</v>
       </c>
@@ -9635,7 +9730,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9643,7 +9738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9651,7 +9746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9673,18 +9768,18 @@
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
     <col min="17" max="17" width="15.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>389</v>
       </c>
@@ -9737,7 +9832,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>390</v>
       </c>
@@ -9792,12 +9887,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>377</v>
       </c>
@@ -9814,7 +9909,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9831,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9848,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9865,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9882,7 +9977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9899,7 +9994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9916,7 +10011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9933,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9950,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9967,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9984,7 +10079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10001,7 +10096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10018,7 +10113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10049,15 +10144,15 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-    <col min="4" max="5" width="8.9140625" style="3"/>
-    <col min="6" max="6" width="17.58203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="17.5546875" customWidth="1"/>
     <col min="7" max="7" width="70.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>501</v>
       </c>
@@ -10080,7 +10175,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10100,7 +10195,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10120,7 +10215,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10140,7 +10235,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10160,7 +10255,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10180,7 +10275,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10200,7 +10295,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10220,7 +10315,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10240,7 +10335,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10260,7 +10355,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10280,7 +10375,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10297,7 +10392,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10317,7 +10412,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10337,7 +10432,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10360,7 +10455,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>

--- a/ZR.Admin.WebApi/wwwroot/data.xlsx
+++ b/ZR.Admin.WebApi/wwwroot/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\ZRAdmin\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Mine\public\ZrAdminNet\ZR.Admin.WebApi\wwwroot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A9D940-4C0D-433A-BF1D-E38000FC79F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD95FC-F6A7-4CC2-9BD6-1E869E04FC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="849" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="849" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="2" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="task" sheetId="8" r:id="rId7"/>
     <sheet name="post" sheetId="5" r:id="rId8"/>
     <sheet name="dict_type" sheetId="9" r:id="rId9"/>
-    <sheet name="dept" sheetId="11" r:id="rId10"/>
-    <sheet name="dict_data" sheetId="10" r:id="rId11"/>
+    <sheet name="dict_data" sheetId="10" r:id="rId10"/>
+    <sheet name="dept" sheetId="11" r:id="rId11"/>
     <sheet name="article_category" sheetId="12" r:id="rId12"/>
     <sheet name="article_topic" sheetId="14" r:id="rId13"/>
     <sheet name="notice" sheetId="13" r:id="rId14"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="695">
   <si>
     <t>系统管理</t>
   </si>
@@ -1085,9 +1085,6 @@
     <t>sys.account.register</t>
   </si>
   <si>
-    <t>文章预览地址</t>
-  </si>
-  <si>
     <t>ConfigId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2281,6 +2278,42 @@
   </si>
   <si>
     <t>宠物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article.comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0、全放开1、绑定手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许发布内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article.publish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>官方圈子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容目录类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>article_category_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圈子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2806,12 +2839,12 @@
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="33.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>306</v>
       </c>
@@ -2840,7 +2873,7 @@
         <v>310</v>
       </c>
       <c r="J1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="K1" t="s">
         <v>313</v>
@@ -2852,7 +2885,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2881,15 +2914,15 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
         <v>526</v>
-      </c>
-      <c r="D3" t="s">
-        <v>527</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2910,25 +2943,25 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" t="s">
         <v>604</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
         <v>605</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>606</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
@@ -2936,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -2947,6 +2980,1262 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
+  <dimension ref="A1:K44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="8.6640625" style="12"/>
+    <col min="5" max="5" width="20.08203125" customWidth="1"/>
+    <col min="10" max="10" width="12.9140625" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1" t="s">
+        <v>511</v>
+      </c>
+      <c r="H1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" t="s">
+        <v>317</v>
+      </c>
+      <c r="K1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H2" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>442</v>
+      </c>
+      <c r="K2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>445</v>
+      </c>
+      <c r="K3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" s="12">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>407</v>
+      </c>
+      <c r="H4" t="s">
+        <v>444</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>447</v>
+      </c>
+      <c r="K4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5" t="s">
+        <v>449</v>
+      </c>
+      <c r="H5" t="s">
+        <v>332</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>450</v>
+      </c>
+      <c r="K5" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" t="s">
+        <v>444</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>453</v>
+      </c>
+      <c r="K6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" t="s">
+        <v>449</v>
+      </c>
+      <c r="H7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" t="s">
+        <v>444</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>457</v>
+      </c>
+      <c r="K8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H9" t="s">
+        <v>332</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>455</v>
+      </c>
+      <c r="K9" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" t="s">
+        <v>452</v>
+      </c>
+      <c r="H10" t="s">
+        <v>444</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>457</v>
+      </c>
+      <c r="K10" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" t="s">
+        <v>419</v>
+      </c>
+      <c r="H11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>461</v>
+      </c>
+      <c r="K11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>462</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" t="s">
+        <v>419</v>
+      </c>
+      <c r="H12" t="s">
+        <v>444</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>463</v>
+      </c>
+      <c r="K12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>422</v>
+      </c>
+      <c r="G13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>465</v>
+      </c>
+      <c r="K13" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>466</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="E14" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" t="s">
+        <v>444</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>467</v>
+      </c>
+      <c r="K14" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>425</v>
+      </c>
+      <c r="G15" t="s">
+        <v>469</v>
+      </c>
+      <c r="H15" t="s">
+        <v>332</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>425</v>
+      </c>
+      <c r="G16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H16" t="s">
+        <v>444</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" t="s">
+        <v>449</v>
+      </c>
+      <c r="H17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>472</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>428</v>
+      </c>
+      <c r="G18" t="s">
+        <v>452</v>
+      </c>
+      <c r="H18" t="s">
+        <v>444</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>474</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>431</v>
+      </c>
+      <c r="G19" t="s">
+        <v>475</v>
+      </c>
+      <c r="H19" t="s">
+        <v>444</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>431</v>
+      </c>
+      <c r="G20" t="s">
+        <v>475</v>
+      </c>
+      <c r="H20" t="s">
+        <v>444</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>431</v>
+      </c>
+      <c r="G21" t="s">
+        <v>475</v>
+      </c>
+      <c r="H21" t="s">
+        <v>444</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="12">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>431</v>
+      </c>
+      <c r="G22" t="s">
+        <v>452</v>
+      </c>
+      <c r="H22" t="s">
+        <v>444</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>480</v>
+      </c>
+      <c r="D23" s="12">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>431</v>
+      </c>
+      <c r="G23" t="s">
+        <v>449</v>
+      </c>
+      <c r="H23" t="s">
+        <v>444</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="12">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>431</v>
+      </c>
+      <c r="G24" t="s">
+        <v>469</v>
+      </c>
+      <c r="H24" t="s">
+        <v>444</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>483</v>
+      </c>
+      <c r="D25" s="12">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" t="s">
+        <v>469</v>
+      </c>
+      <c r="H25" t="s">
+        <v>444</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>485</v>
+      </c>
+      <c r="D26" s="12">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>431</v>
+      </c>
+      <c r="G26" t="s">
+        <v>452</v>
+      </c>
+      <c r="H26" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D27" s="12">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>431</v>
+      </c>
+      <c r="G27" t="s">
+        <v>469</v>
+      </c>
+      <c r="H27" t="s">
+        <v>444</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>488</v>
+      </c>
+      <c r="D28" s="12">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>431</v>
+      </c>
+      <c r="G28" t="s">
+        <v>452</v>
+      </c>
+      <c r="H28" t="s">
+        <v>444</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>490</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>434</v>
+      </c>
+      <c r="G29" t="s">
+        <v>449</v>
+      </c>
+      <c r="H29" t="s">
+        <v>444</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30" s="12">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>434</v>
+      </c>
+      <c r="G30" t="s">
+        <v>452</v>
+      </c>
+      <c r="H30" t="s">
+        <v>524</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>492</v>
+      </c>
+      <c r="D31" s="12">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>437</v>
+      </c>
+      <c r="H31" t="s">
+        <v>524</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D32" s="12">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>437</v>
+      </c>
+      <c r="H32" t="s">
+        <v>524</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>494</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="E33" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" t="s">
+        <v>524</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>496</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="E34" t="s">
+        <v>439</v>
+      </c>
+      <c r="H34" t="s">
+        <v>524</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="E35" t="s">
+        <v>439</v>
+      </c>
+      <c r="H35" t="s">
+        <v>524</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>534</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>531</v>
+      </c>
+      <c r="G36" t="s">
+        <v>537</v>
+      </c>
+      <c r="H36" t="s">
+        <v>524</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>535</v>
+      </c>
+      <c r="D37" s="12">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>531</v>
+      </c>
+      <c r="G37" t="s">
+        <v>538</v>
+      </c>
+      <c r="H37" t="s">
+        <v>524</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D38" s="12">
+        <v>3</v>
+      </c>
+      <c r="E38" t="s">
+        <v>531</v>
+      </c>
+      <c r="G38" t="s">
+        <v>539</v>
+      </c>
+      <c r="H38" t="s">
+        <v>524</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>664</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>662</v>
+      </c>
+      <c r="H39" t="s">
+        <v>524</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>677</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>662</v>
+      </c>
+      <c r="H40" t="s">
+        <v>524</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>665</v>
+      </c>
+      <c r="D41" s="12">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>662</v>
+      </c>
+      <c r="H41" t="s">
+        <v>524</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>676</v>
+      </c>
+      <c r="D42" s="12">
+        <v>3</v>
+      </c>
+      <c r="E42" t="s">
+        <v>662</v>
+      </c>
+      <c r="H42" t="s">
+        <v>524</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>664</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>693</v>
+      </c>
+      <c r="H43" t="s">
+        <v>524</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>694</v>
+      </c>
+      <c r="D44" s="12">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>693</v>
+      </c>
+      <c r="H44" t="s">
+        <v>524</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F8E602-C602-4DBE-8251-6DDEB8D8D144}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -2954,23 +4243,23 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B1" t="s">
         <v>518</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>519</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>520</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>521</v>
-      </c>
-      <c r="E1" t="s">
-        <v>522</v>
       </c>
       <c r="F1" t="s">
         <v>298</v>
@@ -2979,7 +4268,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2987,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2999,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3007,7 +4296,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -3019,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3027,7 +4316,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3039,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3047,7 +4336,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -3059,7 +4348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3067,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -3086,1304 +4375,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66E508F4-5906-4688-BE06-7243F5B00B2A}">
-  <dimension ref="A1:K42"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D59B089-6BFD-4898-97D7-5E5DB5B781E2}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.6640625" style="12"/>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="4" max="4" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
       <c r="B1" t="s">
-        <v>508</v>
+        <v>390</v>
       </c>
       <c r="C1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>510</v>
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>669</v>
       </c>
       <c r="E1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F1" t="s">
-        <v>511</v>
-      </c>
-      <c r="G1" t="s">
-        <v>512</v>
-      </c>
-      <c r="H1" t="s">
-        <v>513</v>
-      </c>
-      <c r="I1" t="s">
-        <v>298</v>
-      </c>
-      <c r="J1" t="s">
-        <v>317</v>
-      </c>
-      <c r="K1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D2" s="12">
+      <c r="B2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>408</v>
-      </c>
-      <c r="H2" t="s">
-        <v>332</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>443</v>
-      </c>
-      <c r="K2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
-      </c>
-      <c r="H3" t="s">
-        <v>445</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>446</v>
-      </c>
-      <c r="K3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="12">
-        <v>2</v>
+      <c r="B4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>408</v>
-      </c>
-      <c r="H4" t="s">
-        <v>445</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>448</v>
-      </c>
-      <c r="K4" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>411</v>
-      </c>
-      <c r="G5" t="s">
-        <v>450</v>
-      </c>
-      <c r="H5" t="s">
-        <v>332</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>451</v>
-      </c>
-      <c r="K5" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="12">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>411</v>
-      </c>
-      <c r="G6" t="s">
-        <v>453</v>
-      </c>
-      <c r="H6" t="s">
-        <v>445</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>454</v>
-      </c>
-      <c r="K6" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" t="s">
-        <v>450</v>
-      </c>
-      <c r="H7" t="s">
-        <v>332</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" t="s">
-        <v>456</v>
-      </c>
-      <c r="K7" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>457</v>
-      </c>
-      <c r="D8" s="12">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>414</v>
-      </c>
-      <c r="G8" t="s">
-        <v>453</v>
-      </c>
-      <c r="H8" t="s">
-        <v>445</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" t="s">
-        <v>458</v>
-      </c>
-      <c r="K8" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>455</v>
-      </c>
-      <c r="D9" s="12">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>417</v>
-      </c>
-      <c r="G9" t="s">
-        <v>450</v>
-      </c>
-      <c r="H9" t="s">
-        <v>332</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>456</v>
-      </c>
-      <c r="K9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>459</v>
-      </c>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>417</v>
-      </c>
-      <c r="G10" t="s">
-        <v>453</v>
-      </c>
-      <c r="H10" t="s">
-        <v>445</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" t="s">
-        <v>458</v>
-      </c>
-      <c r="K10" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="E11" t="s">
-        <v>420</v>
-      </c>
-      <c r="H11" t="s">
-        <v>332</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" t="s">
-        <v>462</v>
-      </c>
-      <c r="K11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>463</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="E12" t="s">
-        <v>420</v>
-      </c>
-      <c r="H12" t="s">
-        <v>445</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>464</v>
-      </c>
-      <c r="K12" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>465</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E13" t="s">
-        <v>423</v>
-      </c>
-      <c r="G13" t="s">
-        <v>450</v>
-      </c>
-      <c r="H13" t="s">
-        <v>332</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" t="s">
-        <v>466</v>
-      </c>
-      <c r="K13" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>467</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="E14" t="s">
-        <v>423</v>
-      </c>
-      <c r="G14" t="s">
-        <v>453</v>
-      </c>
-      <c r="H14" t="s">
-        <v>445</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14" t="s">
-        <v>468</v>
-      </c>
-      <c r="K14" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>469</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>426</v>
-      </c>
-      <c r="G15" t="s">
-        <v>470</v>
-      </c>
-      <c r="H15" t="s">
-        <v>332</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>471</v>
-      </c>
-      <c r="D16" s="12">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>426</v>
-      </c>
-      <c r="G16" t="s">
-        <v>472</v>
-      </c>
-      <c r="H16" t="s">
-        <v>445</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>455</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>429</v>
-      </c>
-      <c r="G17" t="s">
-        <v>450</v>
-      </c>
-      <c r="H17" t="s">
-        <v>332</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>473</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>429</v>
-      </c>
-      <c r="G18" t="s">
-        <v>453</v>
-      </c>
-      <c r="H18" t="s">
-        <v>445</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>475</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>432</v>
-      </c>
-      <c r="G19" t="s">
-        <v>476</v>
-      </c>
-      <c r="H19" t="s">
-        <v>445</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="12">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>432</v>
-      </c>
-      <c r="G20" t="s">
-        <v>476</v>
-      </c>
-      <c r="H20" t="s">
-        <v>445</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>267</v>
-      </c>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>432</v>
-      </c>
-      <c r="G21" t="s">
-        <v>476</v>
-      </c>
-      <c r="H21" t="s">
-        <v>445</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="12">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>432</v>
-      </c>
-      <c r="G22" t="s">
-        <v>453</v>
-      </c>
-      <c r="H22" t="s">
-        <v>445</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>481</v>
-      </c>
-      <c r="D23" s="12">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>432</v>
-      </c>
-      <c r="G23" t="s">
-        <v>450</v>
-      </c>
-      <c r="H23" t="s">
-        <v>445</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>269</v>
-      </c>
-      <c r="D24" s="12">
-        <v>5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>432</v>
-      </c>
-      <c r="G24" t="s">
-        <v>470</v>
-      </c>
-      <c r="H24" t="s">
-        <v>445</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>484</v>
-      </c>
-      <c r="D25" s="12">
-        <v>6</v>
-      </c>
-      <c r="E25" t="s">
-        <v>432</v>
-      </c>
-      <c r="G25" t="s">
-        <v>470</v>
-      </c>
-      <c r="H25" t="s">
-        <v>445</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>486</v>
-      </c>
-      <c r="D26" s="12">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>432</v>
-      </c>
-      <c r="G26" t="s">
-        <v>453</v>
-      </c>
-      <c r="H26" t="s">
-        <v>445</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>247</v>
-      </c>
-      <c r="D27" s="12">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>432</v>
-      </c>
-      <c r="G27" t="s">
-        <v>470</v>
-      </c>
-      <c r="H27" t="s">
-        <v>445</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>9</v>
-      </c>
-      <c r="C28" t="s">
-        <v>489</v>
-      </c>
-      <c r="D28" s="12">
-        <v>9</v>
-      </c>
-      <c r="E28" t="s">
-        <v>432</v>
-      </c>
-      <c r="G28" t="s">
-        <v>453</v>
-      </c>
-      <c r="H28" t="s">
-        <v>445</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>491</v>
-      </c>
-      <c r="D29" s="12">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>435</v>
-      </c>
-      <c r="G29" t="s">
-        <v>450</v>
-      </c>
-      <c r="H29" t="s">
-        <v>445</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>492</v>
-      </c>
-      <c r="D30" s="12">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>435</v>
-      </c>
-      <c r="G30" t="s">
-        <v>453</v>
-      </c>
-      <c r="H30" t="s">
-        <v>525</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>493</v>
-      </c>
-      <c r="D31" s="12">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>438</v>
-      </c>
-      <c r="H31" t="s">
-        <v>525</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>494</v>
-      </c>
-      <c r="D32" s="12">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>438</v>
-      </c>
-      <c r="H32" t="s">
-        <v>525</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>495</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="E33" t="s">
-        <v>440</v>
-      </c>
-      <c r="H33" t="s">
-        <v>525</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>497</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="E34" t="s">
-        <v>440</v>
-      </c>
-      <c r="H34" t="s">
-        <v>525</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="E35" t="s">
-        <v>440</v>
-      </c>
-      <c r="H35" t="s">
-        <v>525</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>535</v>
-      </c>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>532</v>
-      </c>
-      <c r="G36" t="s">
-        <v>538</v>
-      </c>
-      <c r="H36" t="s">
-        <v>525</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>536</v>
-      </c>
-      <c r="D37" s="12">
-        <v>2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>532</v>
-      </c>
-      <c r="G37" t="s">
-        <v>539</v>
-      </c>
-      <c r="H37" t="s">
-        <v>525</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>537</v>
-      </c>
-      <c r="D38" s="12">
-        <v>3</v>
-      </c>
-      <c r="E38" t="s">
-        <v>532</v>
-      </c>
-      <c r="G38" t="s">
-        <v>540</v>
-      </c>
-      <c r="H38" t="s">
-        <v>525</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39" t="s">
-        <v>665</v>
-      </c>
-      <c r="D39" s="12">
-        <v>0<